--- a/backend/emporium/data/StageData.xlsx
+++ b/backend/emporium/data/StageData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="828" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="828" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="income" sheetId="8" r:id="rId1"/>
@@ -60,9 +60,6 @@
     <t>World</t>
   </si>
   <si>
-    <t>Barrel</t>
-  </si>
-  <si>
     <t>Mig</t>
   </si>
   <si>
@@ -73,9 +70,6 @@
   </si>
   <si>
     <t>Gargoyle</t>
-  </si>
-  <si>
-    <t>Window</t>
   </si>
   <si>
     <t>Idol</t>
@@ -97,9 +91,6 @@
   </si>
   <si>
     <t>Spike Trap</t>
-  </si>
-  <si>
-    <t>Chandelier</t>
   </si>
   <si>
     <t>Chest</t>
@@ -268,6 +259,15 @@
   </si>
   <si>
     <t>world</t>
+  </si>
+  <si>
+    <t>Balcony</t>
+  </si>
+  <si>
+    <t>Rat Swarm</t>
+  </si>
+  <si>
+    <t>Sewer Grate</t>
   </si>
 </sst>
 </file>
@@ -642,7 +642,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -653,22 +653,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -869,7 +869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
     </sheetView>
@@ -886,7 +886,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G3" s="1">
         <v>8</v>
@@ -947,19 +947,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="F4" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G4" s="1">
         <v>8</v>
@@ -976,19 +976,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="F5" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G5" s="1">
         <v>8</v>
@@ -1005,19 +1005,19 @@
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G6" s="1">
         <v>8</v>
@@ -1034,19 +1034,19 @@
         <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G7" s="1">
         <v>8</v>
@@ -1063,19 +1063,19 @@
         <v>1</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G8" s="1">
         <v>8</v>
@@ -1092,19 +1092,19 @@
         <v>1</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="F9" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G9" s="1">
         <v>8</v>
@@ -1121,19 +1121,19 @@
         <v>1</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G10" s="1">
         <v>8</v>
@@ -1150,19 +1150,19 @@
         <v>1</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="F11" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G11" s="1">
         <v>8</v>
@@ -1179,19 +1179,19 @@
         <v>1</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G12" s="1">
         <v>8</v>
@@ -1208,19 +1208,19 @@
         <v>1</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="E13" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G13" s="1">
         <v>8</v>
@@ -1237,19 +1237,19 @@
         <v>1</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="E14" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G14" s="1">
         <v>8</v>
@@ -1266,19 +1266,19 @@
         <v>2</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G16" s="1">
         <v>8</v>
@@ -1295,19 +1295,19 @@
         <v>2</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="D17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="F17" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G17" s="1">
         <v>8</v>
@@ -1324,19 +1324,19 @@
         <v>2</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="F18" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G18" s="1">
         <v>8</v>
@@ -1353,19 +1353,19 @@
         <v>2</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G19" s="1">
         <v>8</v>
@@ -1382,19 +1382,19 @@
         <v>2</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G20" s="1">
         <v>8</v>
@@ -1411,19 +1411,19 @@
         <v>2</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="D21" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G21" s="1">
         <v>8</v>
@@ -1440,19 +1440,19 @@
         <v>2</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="F22" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G22" s="1">
         <v>8</v>
@@ -1469,19 +1469,19 @@
         <v>2</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G23" s="1">
         <v>8</v>
@@ -1498,19 +1498,19 @@
         <v>2</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="F24" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G24" s="1">
         <v>8</v>
@@ -1527,19 +1527,19 @@
         <v>2</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G25" s="1">
         <v>8</v>
@@ -1556,19 +1556,19 @@
         <v>2</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="E26" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G26" s="1">
         <v>8</v>
@@ -1585,19 +1585,19 @@
         <v>2</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="E27" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G27" s="1">
         <v>8</v>
@@ -1614,19 +1614,19 @@
         <v>4</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G29" s="1">
         <v>9</v>
@@ -1643,19 +1643,19 @@
         <v>4</v>
       </c>
       <c r="B30" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="D30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="F30" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G30" s="1">
         <v>9</v>
@@ -1672,19 +1672,19 @@
         <v>4</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="F31" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G31" s="1">
         <v>9</v>
@@ -1701,19 +1701,19 @@
         <v>4</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G32" s="1">
         <v>9</v>
@@ -1730,19 +1730,19 @@
         <v>4</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G33" s="1">
         <v>9</v>
@@ -1759,19 +1759,19 @@
         <v>4</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="D34" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G34" s="1">
         <v>9</v>
@@ -1788,19 +1788,19 @@
         <v>4</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="F35" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G35" s="1">
         <v>9</v>
@@ -1817,19 +1817,19 @@
         <v>4</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G36" s="1">
         <v>9</v>
@@ -1846,19 +1846,19 @@
         <v>4</v>
       </c>
       <c r="B37" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="F37" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G37" s="1">
         <v>9</v>
@@ -1875,19 +1875,19 @@
         <v>4</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G38" s="1">
         <v>9</v>
@@ -1904,19 +1904,19 @@
         <v>4</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="E39" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G39" s="1">
         <v>9</v>
@@ -1933,19 +1933,19 @@
         <v>4</v>
       </c>
       <c r="B40" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="E40" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G40" s="1">
         <v>9</v>
@@ -1962,19 +1962,19 @@
         <v>5</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G42" s="1">
         <v>9</v>
@@ -1991,19 +1991,19 @@
         <v>5</v>
       </c>
       <c r="B43" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="D43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E43" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="F43" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G43" s="1">
         <v>9</v>
@@ -2020,19 +2020,19 @@
         <v>5</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="F44" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G44" s="1">
         <v>9</v>
@@ -2049,19 +2049,19 @@
         <v>5</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G45" s="1">
         <v>9</v>
@@ -2078,19 +2078,19 @@
         <v>5</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G46" s="1">
         <v>9</v>
@@ -2107,19 +2107,19 @@
         <v>5</v>
       </c>
       <c r="B47" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="D47" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G47" s="1">
         <v>9</v>
@@ -2136,19 +2136,19 @@
         <v>5</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D48" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E48" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="F48" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G48" s="1">
         <v>9</v>
@@ -2165,19 +2165,19 @@
         <v>5</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G49" s="1">
         <v>9</v>
@@ -2194,19 +2194,19 @@
         <v>5</v>
       </c>
       <c r="B50" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="E50" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="F50" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G50" s="1">
         <v>9</v>
@@ -2223,19 +2223,19 @@
         <v>5</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G51" s="1">
         <v>9</v>
@@ -2252,19 +2252,19 @@
         <v>5</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="E52" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G52" s="1">
         <v>9</v>
@@ -2281,19 +2281,19 @@
         <v>5</v>
       </c>
       <c r="B53" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="E53" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G53" s="1">
         <v>9</v>
@@ -2310,19 +2310,19 @@
         <v>7</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G55" s="1">
         <v>10</v>
@@ -2339,19 +2339,19 @@
         <v>7</v>
       </c>
       <c r="B56" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="D56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E56" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="F56" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G56" s="1">
         <v>10</v>
@@ -2368,19 +2368,19 @@
         <v>7</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D57" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E57" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="F57" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G57" s="1">
         <v>10</v>
@@ -2397,19 +2397,19 @@
         <v>7</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G58" s="1">
         <v>10</v>
@@ -2426,19 +2426,19 @@
         <v>7</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G59" s="1">
         <v>10</v>
@@ -2455,19 +2455,19 @@
         <v>7</v>
       </c>
       <c r="B60" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="D60" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G60" s="1">
         <v>10</v>
@@ -2484,19 +2484,19 @@
         <v>7</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D61" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E61" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="F61" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G61" s="1">
         <v>10</v>
@@ -2513,19 +2513,19 @@
         <v>7</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G62" s="1">
         <v>10</v>
@@ -2542,19 +2542,19 @@
         <v>7</v>
       </c>
       <c r="B63" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="E63" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E63" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="F63" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G63" s="1">
         <v>10</v>
@@ -2571,19 +2571,19 @@
         <v>7</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G64" s="1">
         <v>10</v>
@@ -2600,19 +2600,19 @@
         <v>7</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="C65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="E65" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G65" s="1">
         <v>10</v>
@@ -2629,19 +2629,19 @@
         <v>7</v>
       </c>
       <c r="B66" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="E66" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G66" s="1">
         <v>10</v>
@@ -2658,19 +2658,19 @@
         <v>8</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G68" s="1">
         <v>10</v>
@@ -2687,19 +2687,19 @@
         <v>8</v>
       </c>
       <c r="B69" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="D69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E69" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="F69" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G69" s="1">
         <v>10</v>
@@ -2716,19 +2716,19 @@
         <v>8</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D70" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E70" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E70" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="F70" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G70" s="1">
         <v>10</v>
@@ -2745,19 +2745,19 @@
         <v>8</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G71" s="1">
         <v>10</v>
@@ -2774,19 +2774,19 @@
         <v>8</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G72" s="1">
         <v>10</v>
@@ -2803,19 +2803,19 @@
         <v>8</v>
       </c>
       <c r="B73" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="D73" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G73" s="1">
         <v>10</v>
@@ -2832,19 +2832,19 @@
         <v>8</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D74" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E74" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E74" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="F74" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G74" s="1">
         <v>10</v>
@@ -2861,19 +2861,19 @@
         <v>8</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G75" s="1">
         <v>10</v>
@@ -2890,19 +2890,19 @@
         <v>8</v>
       </c>
       <c r="B76" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="E76" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E76" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="F76" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G76" s="1">
         <v>10</v>
@@ -2919,19 +2919,19 @@
         <v>8</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G77" s="1">
         <v>10</v>
@@ -2948,19 +2948,19 @@
         <v>8</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="C78" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="E78" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G78" s="1">
         <v>10</v>
@@ -2977,19 +2977,19 @@
         <v>8</v>
       </c>
       <c r="B79" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="E79" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G79" s="1">
         <v>10</v>
@@ -3029,7 +3029,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -3059,10 +3059,10 @@
         <v>3</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -3070,19 +3070,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G3" s="1">
         <f>ROUND(8* 1.6,0)</f>
@@ -3110,19 +3110,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" ref="G4:G5" si="0">ROUND(8* 1.6,0)</f>
@@ -3150,19 +3150,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="0"/>
@@ -3193,19 +3193,19 @@
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G7" s="1">
         <f>ROUND(8* 1.6,0)</f>
@@ -3233,19 +3233,19 @@
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" ref="G8:G9" si="2">ROUND(8* 1.6,0)</f>
@@ -3273,19 +3273,19 @@
         <v>2</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="2"/>
@@ -3313,19 +3313,19 @@
         <v>4</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G11" s="1">
         <f>ROUND(9* 1.6,0)</f>
@@ -3353,19 +3353,19 @@
         <v>4</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" ref="G12:G13" si="3">ROUND(9* 1.6,0)</f>
@@ -3393,19 +3393,19 @@
         <v>4</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" si="3"/>
@@ -3433,19 +3433,19 @@
         <v>5</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G15" s="1">
         <f>ROUND(9* 1.6,0)</f>
@@ -3473,19 +3473,19 @@
         <v>5</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" ref="G16:G17" si="4">ROUND(9* 1.6,0)</f>
@@ -3513,19 +3513,19 @@
         <v>5</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" si="4"/>
@@ -3553,19 +3553,19 @@
         <v>7</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G19" s="1">
         <f>ROUND(10* 1.6,0)</f>
@@ -3593,19 +3593,19 @@
         <v>7</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G20" s="1">
         <f>ROUND(10* 1.6,0)</f>
@@ -3633,19 +3633,19 @@
         <v>7</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G21" s="1">
         <f>ROUND(10* 1.6,0)</f>
@@ -3673,19 +3673,19 @@
         <v>8</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G23" s="1">
         <f>ROUND(10* 1.6,0)</f>
@@ -3713,19 +3713,19 @@
         <v>8</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G24" s="1">
         <f>ROUND(10* 1.6,0)</f>
@@ -3753,19 +3753,19 @@
         <v>8</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G25" s="1">
         <f>ROUND(10* 1.6,0)</f>
@@ -3813,58 +3813,58 @@
   <sheetData>
     <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="N1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
@@ -5661,58 +5661,58 @@
   <sheetData>
     <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="N1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
@@ -6778,55 +6778,55 @@
         <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="N1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
@@ -8627,7 +8627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -8639,66 +8639,66 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/backend/emporium/data/StageData.xlsx
+++ b/backend/emporium/data/StageData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="828" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="828" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="income" sheetId="8" r:id="rId1"/>
@@ -869,7 +869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
     </sheetView>
@@ -5646,7 +5646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="S1" sqref="S1"/>
     </sheetView>
@@ -5965,19 +5965,19 @@
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
       <c r="M10" s="15">
-        <v>2.2000000000000002</v>
+        <v>3.8</v>
       </c>
       <c r="N10" s="7">
         <f>ROUND(income!$B$5 * $M10, 0)</f>
-        <v>304</v>
+        <v>524</v>
       </c>
       <c r="O10" s="7">
         <f>ROUND(income!$C$5 * $M10, 0)</f>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="P10" s="7">
         <f>ROUND(income!$D$5 * $M10, 0)</f>
-        <v>86</v>
+        <v>148</v>
       </c>
       <c r="Q10" s="7">
         <v>0</v>
@@ -6032,23 +6032,23 @@
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
       <c r="M12" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N12" s="7">
         <f>ROUND(income!$B$6 * $M12, 0)</f>
-        <v>304</v>
+        <v>608</v>
       </c>
       <c r="O12" s="7">
         <f>ROUND(income!$C$6 * $M12, 0)</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="P12" s="7">
         <f>ROUND(income!$D$6 * $M12, 0)</f>
-        <v>82</v>
+        <v>164</v>
       </c>
       <c r="Q12" s="7">
         <f>ROUND(income!$E$6 * $M12, 0)</f>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="R12" s="7">
         <v>0</v>
@@ -6081,23 +6081,23 @@
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
       <c r="M13" s="15">
-        <v>2.2000000000000002</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="N13" s="7">
         <f>ROUND(income!$B$6 * $M13, 0)</f>
-        <v>334</v>
+        <v>669</v>
       </c>
       <c r="O13" s="7">
         <f>ROUND(income!$C$6 * $M13, 0)</f>
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="P13" s="7">
         <f>ROUND(income!$D$6 * $M13, 0)</f>
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="Q13" s="7">
         <f>ROUND(income!$E$6 * $M13, 0)</f>
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="R13" s="7">
         <v>0</v>
@@ -6149,23 +6149,23 @@
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
       <c r="M15" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N15" s="7">
         <f>ROUND(income!$B$7 * $M15, 0)</f>
-        <v>332</v>
+        <v>664</v>
       </c>
       <c r="O15" s="7">
         <f>ROUND(income!$C$7 * $M15, 0)</f>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="P15" s="7">
         <f>ROUND(income!$D$7 * $M15, 0)</f>
-        <v>86</v>
+        <v>172</v>
       </c>
       <c r="Q15" s="7">
         <f>ROUND(income!$E$7 * $M15, 0)</f>
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="R15" s="7">
         <v>0</v>
@@ -6198,23 +6198,23 @@
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
       <c r="M16" s="15">
-        <v>2.2000000000000002</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="N16" s="7">
         <f>ROUND(income!$B$7 * $M16, 0)</f>
-        <v>365</v>
+        <v>730</v>
       </c>
       <c r="O16" s="7">
         <f>ROUND(income!$C$7 * $M16, 0)</f>
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="P16" s="7">
         <f>ROUND(income!$D$7 * $M16, 0)</f>
-        <v>95</v>
+        <v>189</v>
       </c>
       <c r="Q16" s="7">
         <f>ROUND(income!$E$7 * $M16, 0)</f>
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="R16" s="7">
         <v>0</v>
@@ -6250,23 +6250,23 @@
         <v>18</v>
       </c>
       <c r="M18" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N18" s="7">
         <f>ROUND(income!$B$8 * $M18, 0)</f>
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="O18" s="7">
         <f>ROUND(income!$C$8 * $M18, 0)</f>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="P18" s="7">
         <f>ROUND(income!$D$8 * $M18, 0)</f>
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="Q18" s="7">
         <f>ROUND(income!$E$8 * $M18, 0)</f>
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="R18" s="7">
         <v>0</v>
@@ -6301,23 +6301,23 @@
       <c r="K19" s="14"/>
       <c r="L19" s="14"/>
       <c r="M19" s="15">
-        <v>2.2000000000000002</v>
+        <v>5.6</v>
       </c>
       <c r="N19" s="7">
         <f>ROUND(income!$B$8 * $M19, 0)</f>
-        <v>396</v>
+        <v>1008</v>
       </c>
       <c r="O19" s="7">
         <f>ROUND(income!$C$8 * $M19, 0)</f>
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="P19" s="7">
         <f>ROUND(income!$D$8 * $M19, 0)</f>
-        <v>99</v>
+        <v>252</v>
       </c>
       <c r="Q19" s="7">
         <f>ROUND(income!$E$8 * $M19, 0)</f>
-        <v>53</v>
+        <v>134</v>
       </c>
       <c r="R19" s="7">
         <v>0</v>
@@ -6361,27 +6361,27 @@
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
       <c r="M21" s="15">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N21" s="7">
         <f>ROUND(income!$B$9 * $M21, 0)</f>
-        <v>388</v>
+        <v>1164</v>
       </c>
       <c r="O21" s="7">
         <f>ROUND(income!$C$9 * $M21, 0)</f>
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="P21" s="7">
         <f>ROUND(income!$D$9 * $M21, 0)</f>
-        <v>94</v>
+        <v>282</v>
       </c>
       <c r="Q21" s="7">
         <f>ROUND(income!$E$9 * $M21, 0)</f>
-        <v>52</v>
+        <v>156</v>
       </c>
       <c r="R21" s="7">
         <f>ROUND(income!$F$9 * $M21, 0)</f>
-        <v>26</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -6413,27 +6413,27 @@
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
       <c r="M22" s="15">
-        <v>2.2000000000000002</v>
+        <v>6.6</v>
       </c>
       <c r="N22" s="7">
         <f>ROUND(income!$B$9 * $M22, 0)</f>
-        <v>427</v>
+        <v>1280</v>
       </c>
       <c r="O22" s="7">
         <f>ROUND(income!$C$9 * $M22, 0)</f>
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="P22" s="7">
         <f>ROUND(income!$D$9 * $M22, 0)</f>
-        <v>103</v>
+        <v>310</v>
       </c>
       <c r="Q22" s="7">
         <f>ROUND(income!$E$9 * $M22, 0)</f>
-        <v>57</v>
+        <v>172</v>
       </c>
       <c r="R22" s="7">
         <f>ROUND(income!$F$9 * $M22, 0)</f>
-        <v>29</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -6476,27 +6476,27 @@
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
       <c r="M24" s="15">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N24" s="7">
         <f>ROUND(income!$B$9 * $M24, 0)</f>
-        <v>388</v>
+        <v>1164</v>
       </c>
       <c r="O24" s="7">
         <f>ROUND(income!$C$9 * $M24, 0)</f>
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="P24" s="7">
         <f>ROUND(income!$D$9 * $M24, 0)</f>
-        <v>94</v>
+        <v>282</v>
       </c>
       <c r="Q24" s="7">
         <f>ROUND(income!$E$9 * $M24, 0)</f>
-        <v>52</v>
+        <v>156</v>
       </c>
       <c r="R24" s="7">
         <f>ROUND(income!$F$9 * $M24, 0)</f>
-        <v>26</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -6526,27 +6526,27 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="M25" s="15">
-        <v>2.2000000000000002</v>
+        <v>6.6</v>
       </c>
       <c r="N25" s="7">
         <f>ROUND(income!$B$9 * $M25, 0)</f>
-        <v>427</v>
+        <v>1280</v>
       </c>
       <c r="O25" s="7">
         <f>ROUND(income!$C$9 * $M25, 0)</f>
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="P25" s="7">
         <f>ROUND(income!$D$9 * $M25, 0)</f>
-        <v>103</v>
+        <v>310</v>
       </c>
       <c r="Q25" s="7">
         <f>ROUND(income!$E$9 * $M25, 0)</f>
-        <v>57</v>
+        <v>172</v>
       </c>
       <c r="R25" s="7">
         <f>ROUND(income!$F$9 * $M25, 0)</f>
-        <v>29</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -6589,27 +6589,27 @@
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
       <c r="M27" s="15">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N27" s="7">
         <f>ROUND(income!$B$9 * $M27, 0)</f>
-        <v>388</v>
+        <v>1164</v>
       </c>
       <c r="O27" s="7">
         <f>ROUND(income!$C$9 * $M27, 0)</f>
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="P27" s="7">
         <f>ROUND(income!$D$9 * $M27, 0)</f>
-        <v>94</v>
+        <v>282</v>
       </c>
       <c r="Q27" s="7">
         <f>ROUND(income!$E$9 * $M27, 0)</f>
-        <v>52</v>
+        <v>156</v>
       </c>
       <c r="R27" s="7">
         <f>ROUND(income!$F$9 * $M27, 0)</f>
-        <v>26</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -6647,27 +6647,27 @@
       <c r="K28" s="14"/>
       <c r="L28" s="14"/>
       <c r="M28" s="15">
-        <v>2.2000000000000002</v>
+        <v>7.2</v>
       </c>
       <c r="N28" s="7">
         <f>ROUND(income!$B$9 * $M28, 0)</f>
-        <v>427</v>
+        <v>1397</v>
       </c>
       <c r="O28" s="7">
         <f>ROUND(income!$C$9 * $M28, 0)</f>
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="P28" s="7">
         <f>ROUND(income!$D$9 * $M28, 0)</f>
-        <v>103</v>
+        <v>338</v>
       </c>
       <c r="Q28" s="7">
         <f>ROUND(income!$E$9 * $M28, 0)</f>
-        <v>57</v>
+        <v>187</v>
       </c>
       <c r="R28" s="7">
         <f>ROUND(income!$F$9 * $M28, 0)</f>
-        <v>29</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.3">

--- a/backend/emporium/data/StageData.xlsx
+++ b/backend/emporium/data/StageData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="828" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="828" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="income" sheetId="8" r:id="rId1"/>
@@ -14,6 +14,8 @@
     <sheet name="LeagueTrial" sheetId="9" r:id="rId5"/>
     <sheet name="Campaign" sheetId="10" r:id="rId6"/>
     <sheet name="TrialDay" sheetId="11" r:id="rId7"/>
+    <sheet name="ExpeditionLevel" sheetId="13" r:id="rId8"/>
+    <sheet name="ExpeditionType" sheetId="12" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="113">
   <si>
     <t>Name</t>
   </si>
@@ -186,9 +188,6 @@
     <t>check</t>
   </si>
   <si>
-    <t>Keep</t>
-  </si>
-  <si>
     <t>gold</t>
   </si>
   <si>
@@ -268,6 +267,105 @@
   </si>
   <si>
     <t>Sewer Grate</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>MainTrait</t>
+  </si>
+  <si>
+    <t>SecondaryOne</t>
+  </si>
+  <si>
+    <t>SecondaryTwo</t>
+  </si>
+  <si>
+    <t>SkillOne</t>
+  </si>
+  <si>
+    <t>SkillTwo</t>
+  </si>
+  <si>
+    <t>SkillThree</t>
+  </si>
+  <si>
+    <t>SecondaryThree</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>agi ski</t>
+  </si>
+  <si>
+    <t>agi cmb</t>
+  </si>
+  <si>
+    <t>cun ski</t>
+  </si>
+  <si>
+    <t>cun cmb</t>
+  </si>
+  <si>
+    <t>mig ski</t>
+  </si>
+  <si>
+    <t>mig cmb</t>
+  </si>
+  <si>
+    <t>end ski</t>
+  </si>
+  <si>
+    <t>end cmb</t>
+  </si>
+  <si>
+    <t>att + dmg + def</t>
+  </si>
+  <si>
+    <t>6x</t>
+  </si>
+  <si>
+    <t>2x</t>
+  </si>
+  <si>
+    <t>same DC</t>
+  </si>
+  <si>
+    <t>DC based on lowest trap of world</t>
+  </si>
+  <si>
+    <t>sab + per</t>
+  </si>
+  <si>
+    <t>per + tra</t>
+  </si>
+  <si>
+    <t>tra + sab</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>1 hr</t>
+  </si>
+  <si>
+    <t>2 hr</t>
+  </si>
+  <si>
+    <t>3 hr</t>
+  </si>
+  <si>
+    <t>4 hr</t>
+  </si>
+  <si>
+    <t>5 hr</t>
+  </si>
+  <si>
+    <t>6 hr</t>
+  </si>
+  <si>
+    <t>Throne</t>
   </si>
 </sst>
 </file>
@@ -653,22 +751,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -867,2137 +965,2356 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:J79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" style="5" customWidth="1"/>
-    <col min="3" max="4" width="10.77734375" style="1" customWidth="1"/>
-    <col min="5" max="6" width="24.77734375" style="5" customWidth="1"/>
-    <col min="7" max="9" width="10.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="1.77734375" customWidth="1"/>
+    <col min="1" max="2" width="10.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" style="5" customWidth="1"/>
+    <col min="4" max="5" width="10.77734375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="24.77734375" style="5" customWidth="1"/>
+    <col min="8" max="10" width="10.77734375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="1.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="F1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="1">
-        <v>8</v>
-      </c>
       <c r="H3" s="1">
+        <v>8</v>
+      </c>
+      <c r="I3" s="1">
         <v>12</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="1">
-        <v>8</v>
-      </c>
       <c r="H4" s="1">
+        <v>8</v>
+      </c>
+      <c r="I4" s="1">
         <v>12</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="1">
+        <v>8</v>
+      </c>
+      <c r="I5" s="1">
+        <v>14</v>
+      </c>
+      <c r="J5" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="1">
+        <v>8</v>
+      </c>
+      <c r="I6" s="1">
+        <v>16</v>
+      </c>
+      <c r="J6" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="1">
+        <v>8</v>
+      </c>
+      <c r="I7" s="1">
+        <v>12</v>
+      </c>
+      <c r="J7" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="1">
+        <v>8</v>
+      </c>
+      <c r="I8" s="1">
+        <v>12</v>
+      </c>
+      <c r="J8" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="1">
+        <v>8</v>
+      </c>
+      <c r="I9" s="1">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="1">
+        <v>8</v>
+      </c>
+      <c r="I10" s="1">
+        <v>16</v>
+      </c>
+      <c r="J10" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="1">
+        <v>8</v>
+      </c>
+      <c r="I11" s="1">
+        <v>12</v>
+      </c>
+      <c r="J11" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="1">
+        <v>8</v>
+      </c>
+      <c r="I12" s="1">
+        <v>12</v>
+      </c>
+      <c r="J12" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="1">
+        <v>8</v>
+      </c>
+      <c r="I13" s="1">
+        <v>14</v>
+      </c>
+      <c r="J13" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="1">
+        <v>8</v>
+      </c>
+      <c r="I14" s="1">
+        <v>16</v>
+      </c>
+      <c r="J14" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="1">
+        <v>8</v>
+      </c>
+      <c r="I16" s="1">
+        <v>13</v>
+      </c>
+      <c r="J16" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="1">
+        <v>8</v>
+      </c>
+      <c r="I17" s="1">
+        <v>13</v>
+      </c>
+      <c r="J17" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G18" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="1">
-        <v>8</v>
-      </c>
-      <c r="H5" s="1">
+      <c r="H18" s="1">
+        <v>8</v>
+      </c>
+      <c r="I18" s="1">
+        <v>15</v>
+      </c>
+      <c r="J18" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="1">
+        <v>8</v>
+      </c>
+      <c r="I19" s="1">
+        <v>17</v>
+      </c>
+      <c r="J19" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" s="1">
+        <v>8</v>
+      </c>
+      <c r="I20" s="1">
+        <v>13</v>
+      </c>
+      <c r="J20" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="1">
+        <v>8</v>
+      </c>
+      <c r="I21" s="1">
+        <v>13</v>
+      </c>
+      <c r="J21" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" s="1">
+        <v>8</v>
+      </c>
+      <c r="I22" s="1">
+        <v>15</v>
+      </c>
+      <c r="J22" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23" s="1">
+        <v>8</v>
+      </c>
+      <c r="I23" s="1">
+        <v>17</v>
+      </c>
+      <c r="J23" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>1</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="1">
+        <v>8</v>
+      </c>
+      <c r="I24" s="1">
+        <v>13</v>
+      </c>
+      <c r="J24" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="D25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="1">
+        <v>8</v>
+      </c>
+      <c r="I25" s="1">
+        <v>13</v>
+      </c>
+      <c r="J25" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26" s="1">
+        <v>8</v>
+      </c>
+      <c r="I26" s="1">
+        <v>15</v>
+      </c>
+      <c r="J26" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H27" s="1">
+        <v>8</v>
+      </c>
+      <c r="I27" s="1">
+        <v>17</v>
+      </c>
+      <c r="J27" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>2</v>
+      </c>
+      <c r="B29" s="1">
+        <v>4</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="1">
-        <v>8</v>
-      </c>
-      <c r="H6" s="1">
-        <v>16</v>
-      </c>
-      <c r="I6" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>1</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="F29" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G29" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="1">
-        <v>8</v>
-      </c>
-      <c r="H7" s="1">
-        <v>12</v>
-      </c>
-      <c r="I7" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>1</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="1">
-        <v>8</v>
-      </c>
-      <c r="H8" s="1">
-        <v>12</v>
-      </c>
-      <c r="I8" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>1</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="1">
-        <v>8</v>
-      </c>
-      <c r="H9" s="1">
-        <v>14</v>
-      </c>
-      <c r="I9" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>1</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="1">
-        <v>8</v>
-      </c>
-      <c r="H10" s="1">
-        <v>16</v>
-      </c>
-      <c r="I10" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>1</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="1">
-        <v>8</v>
-      </c>
-      <c r="H11" s="1">
-        <v>12</v>
-      </c>
-      <c r="I11" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>1</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="1">
-        <v>8</v>
-      </c>
-      <c r="H12" s="1">
-        <v>12</v>
-      </c>
-      <c r="I12" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>1</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="1">
-        <v>8</v>
-      </c>
-      <c r="H13" s="1">
-        <v>14</v>
-      </c>
-      <c r="I13" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>1</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="1">
-        <v>8</v>
-      </c>
-      <c r="H14" s="1">
-        <v>16</v>
-      </c>
-      <c r="I14" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>2</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="1">
-        <v>8</v>
-      </c>
-      <c r="H16" s="1">
-        <v>13</v>
-      </c>
-      <c r="I16" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>2</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="1">
-        <v>8</v>
-      </c>
-      <c r="H17" s="1">
-        <v>13</v>
-      </c>
-      <c r="I17" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>2</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="1">
-        <v>8</v>
-      </c>
-      <c r="H18" s="1">
-        <v>15</v>
-      </c>
-      <c r="I18" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>2</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" s="1">
-        <v>8</v>
-      </c>
-      <c r="H19" s="1">
-        <v>17</v>
-      </c>
-      <c r="I19" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>2</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="1">
-        <v>8</v>
-      </c>
-      <c r="H20" s="1">
-        <v>13</v>
-      </c>
-      <c r="I20" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>2</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="1">
-        <v>8</v>
-      </c>
-      <c r="H21" s="1">
-        <v>13</v>
-      </c>
-      <c r="I21" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>2</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" s="1">
-        <v>8</v>
-      </c>
-      <c r="H22" s="1">
-        <v>15</v>
-      </c>
-      <c r="I22" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>2</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" s="1">
-        <v>8</v>
-      </c>
-      <c r="H23" s="1">
-        <v>17</v>
-      </c>
-      <c r="I23" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>2</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" s="1">
-        <v>8</v>
-      </c>
-      <c r="H24" s="1">
-        <v>13</v>
-      </c>
-      <c r="I24" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>2</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" s="1">
-        <v>8</v>
-      </c>
-      <c r="H25" s="1">
-        <v>13</v>
-      </c>
-      <c r="I25" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>2</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" s="1">
-        <v>8</v>
-      </c>
-      <c r="H26" s="1">
-        <v>15</v>
-      </c>
-      <c r="I26" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>2</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G27" s="1">
-        <v>8</v>
-      </c>
-      <c r="H27" s="1">
-        <v>17</v>
-      </c>
-      <c r="I27" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>4</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G29" s="1">
+      <c r="H29" s="1">
         <v>9</v>
-      </c>
-      <c r="H29" s="1">
-        <v>14</v>
       </c>
       <c r="I29" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J29" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
+        <v>2</v>
+      </c>
+      <c r="B30" s="1">
         <v>4</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="C30" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="F30" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="G30" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G30" s="1">
+      <c r="H30" s="1">
         <v>9</v>
-      </c>
-      <c r="H30" s="1">
-        <v>14</v>
       </c>
       <c r="I30" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J30" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
+        <v>2</v>
+      </c>
+      <c r="B31" s="1">
         <v>4</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="F31" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="G31" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G31" s="1">
+      <c r="H31" s="1">
         <v>9</v>
       </c>
-      <c r="H31" s="1">
+      <c r="I31" s="1">
         <v>16</v>
       </c>
-      <c r="I31" s="1">
+      <c r="J31" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
+        <v>2</v>
+      </c>
+      <c r="B32" s="1">
         <v>4</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="C32" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="F32" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="G32" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G32" s="1">
+      <c r="H32" s="1">
         <v>9</v>
       </c>
-      <c r="H32" s="1">
+      <c r="I32" s="1">
         <v>18</v>
       </c>
-      <c r="I32" s="1">
+      <c r="J32" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
+        <v>2</v>
+      </c>
+      <c r="B33" s="1">
         <v>4</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="C33" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="F33" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="G33" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G33" s="1">
+      <c r="H33" s="1">
         <v>9</v>
-      </c>
-      <c r="H33" s="1">
-        <v>14</v>
       </c>
       <c r="I33" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J33" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
+        <v>2</v>
+      </c>
+      <c r="B34" s="1">
         <v>4</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="C34" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="F34" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="G34" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G34" s="1">
+      <c r="H34" s="1">
         <v>9</v>
-      </c>
-      <c r="H34" s="1">
-        <v>14</v>
       </c>
       <c r="I34" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J34" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
+        <v>2</v>
+      </c>
+      <c r="B35" s="1">
         <v>4</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="C35" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="F35" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="G35" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G35" s="1">
+      <c r="H35" s="1">
         <v>9</v>
       </c>
-      <c r="H35" s="1">
+      <c r="I35" s="1">
         <v>16</v>
       </c>
-      <c r="I35" s="1">
+      <c r="J35" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
+        <v>2</v>
+      </c>
+      <c r="B36" s="1">
         <v>4</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="C36" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="F36" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="G36" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G36" s="1">
+      <c r="H36" s="1">
         <v>9</v>
       </c>
-      <c r="H36" s="1">
+      <c r="I36" s="1">
         <v>18</v>
       </c>
-      <c r="I36" s="1">
+      <c r="J36" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
+        <v>2</v>
+      </c>
+      <c r="B37" s="1">
         <v>4</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="F37" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="G37" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G37" s="1">
+      <c r="H37" s="1">
         <v>9</v>
-      </c>
-      <c r="H37" s="1">
-        <v>14</v>
       </c>
       <c r="I37" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J37" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
+        <v>2</v>
+      </c>
+      <c r="B38" s="1">
         <v>4</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="C38" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="F38" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="G38" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G38" s="1">
+      <c r="H38" s="1">
         <v>9</v>
-      </c>
-      <c r="H38" s="1">
-        <v>14</v>
       </c>
       <c r="I38" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J38" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
+        <v>2</v>
+      </c>
+      <c r="B39" s="1">
         <v>4</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="F39" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="G39" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G39" s="1">
+      <c r="H39" s="1">
         <v>9</v>
       </c>
-      <c r="H39" s="1">
+      <c r="I39" s="1">
         <v>16</v>
       </c>
-      <c r="I39" s="1">
+      <c r="J39" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
+        <v>2</v>
+      </c>
+      <c r="B40" s="1">
         <v>4</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="C40" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="F40" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="G40" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G40" s="1">
+      <c r="H40" s="1">
         <v>9</v>
       </c>
-      <c r="H40" s="1">
+      <c r="I40" s="1">
         <v>18</v>
       </c>
-      <c r="I40" s="1">
+      <c r="J40" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
+        <v>2</v>
+      </c>
+      <c r="B42" s="1">
         <v>5</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="C42" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="F42" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="G42" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G42" s="1">
+      <c r="H42" s="1">
         <v>9</v>
-      </c>
-      <c r="H42" s="1">
-        <v>15</v>
       </c>
       <c r="I42" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J42" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
+        <v>2</v>
+      </c>
+      <c r="B43" s="1">
         <v>5</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="C43" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="F43" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="G43" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G43" s="1">
+      <c r="H43" s="1">
         <v>9</v>
-      </c>
-      <c r="H43" s="1">
-        <v>15</v>
       </c>
       <c r="I43" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J43" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
+        <v>2</v>
+      </c>
+      <c r="B44" s="1">
         <v>5</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="F44" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="G44" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G44" s="1">
+      <c r="H44" s="1">
         <v>9</v>
       </c>
-      <c r="H44" s="1">
+      <c r="I44" s="1">
         <v>17</v>
       </c>
-      <c r="I44" s="1">
+      <c r="J44" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
+        <v>2</v>
+      </c>
+      <c r="B45" s="1">
         <v>5</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="C45" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="F45" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="G45" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G45" s="1">
+      <c r="H45" s="1">
         <v>9</v>
       </c>
-      <c r="H45" s="1">
+      <c r="I45" s="1">
         <v>19</v>
       </c>
-      <c r="I45" s="1">
+      <c r="J45" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
+        <v>2</v>
+      </c>
+      <c r="B46" s="1">
         <v>5</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="C46" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="F46" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="G46" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G46" s="1">
+      <c r="H46" s="1">
         <v>9</v>
-      </c>
-      <c r="H46" s="1">
-        <v>15</v>
       </c>
       <c r="I46" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J46" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
+        <v>2</v>
+      </c>
+      <c r="B47" s="1">
         <v>5</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="C47" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="F47" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="G47" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G47" s="1">
+      <c r="H47" s="1">
         <v>9</v>
-      </c>
-      <c r="H47" s="1">
-        <v>15</v>
       </c>
       <c r="I47" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J47" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
+        <v>2</v>
+      </c>
+      <c r="B48" s="1">
         <v>5</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="C48" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="F48" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="G48" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G48" s="1">
+      <c r="H48" s="1">
         <v>9</v>
       </c>
-      <c r="H48" s="1">
+      <c r="I48" s="1">
         <v>17</v>
       </c>
-      <c r="I48" s="1">
+      <c r="J48" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
+        <v>2</v>
+      </c>
+      <c r="B49" s="1">
         <v>5</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="C49" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="F49" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="G49" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G49" s="1">
+      <c r="H49" s="1">
         <v>9</v>
       </c>
-      <c r="H49" s="1">
+      <c r="I49" s="1">
         <v>19</v>
       </c>
-      <c r="I49" s="1">
+      <c r="J49" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
+        <v>2</v>
+      </c>
+      <c r="B50" s="1">
         <v>5</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="F50" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="G50" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G50" s="1">
+      <c r="H50" s="1">
         <v>9</v>
-      </c>
-      <c r="H50" s="1">
-        <v>15</v>
       </c>
       <c r="I50" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J50" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
+        <v>2</v>
+      </c>
+      <c r="B51" s="1">
         <v>5</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="C51" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="F51" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F51" s="5" t="s">
+      <c r="G51" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G51" s="1">
+      <c r="H51" s="1">
         <v>9</v>
-      </c>
-      <c r="H51" s="1">
-        <v>15</v>
       </c>
       <c r="I51" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J51" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
+        <v>2</v>
+      </c>
+      <c r="B52" s="1">
         <v>5</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="F52" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F52" s="5" t="s">
+      <c r="G52" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G52" s="1">
+      <c r="H52" s="1">
         <v>9</v>
       </c>
-      <c r="H52" s="1">
+      <c r="I52" s="1">
         <v>17</v>
       </c>
-      <c r="I52" s="1">
+      <c r="J52" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
+        <v>2</v>
+      </c>
+      <c r="B53" s="1">
         <v>5</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="C53" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="F53" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F53" s="5" t="s">
+      <c r="G53" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G53" s="1">
+      <c r="H53" s="1">
         <v>9</v>
       </c>
-      <c r="H53" s="1">
+      <c r="I53" s="1">
         <v>19</v>
       </c>
-      <c r="I53" s="1">
+      <c r="J53" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>7</v>
-      </c>
-      <c r="B55" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" s="1">
+        <v>7</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="F55" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="G55" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G55" s="1">
+      <c r="H55" s="1">
         <v>10</v>
       </c>
-      <c r="H55" s="1">
+      <c r="I55" s="1">
         <v>16</v>
       </c>
-      <c r="I55" s="1">
+      <c r="J55" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>7</v>
-      </c>
-      <c r="B56" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" s="1">
+        <v>7</v>
+      </c>
+      <c r="C56" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="F56" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="G56" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G56" s="1">
+      <c r="H56" s="1">
         <v>10</v>
       </c>
-      <c r="H56" s="1">
+      <c r="I56" s="1">
         <v>16</v>
       </c>
-      <c r="I56" s="1">
+      <c r="J56" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>7</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" s="1">
+        <v>7</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E57" s="5" t="s">
+      <c r="F57" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="G57" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G57" s="1">
+      <c r="H57" s="1">
         <v>10</v>
-      </c>
-      <c r="H57" s="1">
-        <v>18</v>
       </c>
       <c r="I57" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J57" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>7</v>
-      </c>
-      <c r="B58" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" s="1">
+        <v>7</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="F58" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="G58" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G58" s="1">
+      <c r="H58" s="1">
         <v>10</v>
       </c>
-      <c r="H58" s="1">
+      <c r="I58" s="1">
         <v>20</v>
       </c>
-      <c r="I58" s="1">
+      <c r="J58" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>7</v>
-      </c>
-      <c r="B59" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" s="1">
+        <v>7</v>
+      </c>
+      <c r="C59" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="F59" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F59" s="5" t="s">
+      <c r="G59" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G59" s="1">
+      <c r="H59" s="1">
         <v>10</v>
       </c>
-      <c r="H59" s="1">
+      <c r="I59" s="1">
         <v>16</v>
       </c>
-      <c r="I59" s="1">
+      <c r="J59" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>7</v>
-      </c>
-      <c r="B60" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" s="1">
+        <v>7</v>
+      </c>
+      <c r="C60" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E60" s="5" t="s">
+      <c r="F60" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F60" s="5" t="s">
+      <c r="G60" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G60" s="1">
+      <c r="H60" s="1">
         <v>10</v>
       </c>
-      <c r="H60" s="1">
+      <c r="I60" s="1">
         <v>16</v>
       </c>
-      <c r="I60" s="1">
+      <c r="J60" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>7</v>
-      </c>
-      <c r="B61" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61" s="1">
+        <v>7</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E61" s="5" t="s">
+      <c r="F61" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F61" s="5" t="s">
+      <c r="G61" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G61" s="1">
+      <c r="H61" s="1">
         <v>10</v>
-      </c>
-      <c r="H61" s="1">
-        <v>18</v>
       </c>
       <c r="I61" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J61" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>7</v>
-      </c>
-      <c r="B62" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" s="1">
+        <v>7</v>
+      </c>
+      <c r="C62" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="E62" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E62" s="5" t="s">
+      <c r="F62" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F62" s="5" t="s">
+      <c r="G62" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G62" s="1">
+      <c r="H62" s="1">
         <v>10</v>
       </c>
-      <c r="H62" s="1">
+      <c r="I62" s="1">
         <v>20</v>
       </c>
-      <c r="I62" s="1">
+      <c r="J62" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>7</v>
-      </c>
-      <c r="B63" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" s="1">
+        <v>7</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H63" s="1">
+        <v>10</v>
+      </c>
+      <c r="I63" s="1">
+        <v>16</v>
+      </c>
+      <c r="J63" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>3</v>
+      </c>
+      <c r="B64" s="1">
+        <v>7</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H64" s="1">
+        <v>10</v>
+      </c>
+      <c r="I64" s="1">
+        <v>16</v>
+      </c>
+      <c r="J64" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>3</v>
+      </c>
+      <c r="B65" s="1">
+        <v>7</v>
+      </c>
+      <c r="C65" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="D65" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="E65" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E63" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F63" s="5" t="s">
+      <c r="F65" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G65" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G63" s="1">
+      <c r="H65" s="1">
         <v>10</v>
-      </c>
-      <c r="H63" s="1">
-        <v>16</v>
-      </c>
-      <c r="I63" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="1">
-        <v>7</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G64" s="1">
-        <v>10</v>
-      </c>
-      <c r="H64" s="1">
-        <v>16</v>
-      </c>
-      <c r="I64" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="1">
-        <v>7</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G65" s="1">
-        <v>10</v>
-      </c>
-      <c r="H65" s="1">
-        <v>18</v>
       </c>
       <c r="I65" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J65" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>7</v>
-      </c>
-      <c r="B66" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66" s="1">
+        <v>7</v>
+      </c>
+      <c r="C66" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E66" s="5" t="s">
+      <c r="F66" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F66" s="5" t="s">
+      <c r="G66" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G66" s="1">
+      <c r="H66" s="1">
         <v>10</v>
       </c>
-      <c r="H66" s="1">
+      <c r="I66" s="1">
         <v>20</v>
       </c>
-      <c r="I66" s="1">
+      <c r="J66" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>8</v>
-      </c>
-      <c r="B68" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" s="1">
+        <v>8</v>
+      </c>
+      <c r="C68" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="E68" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E68" s="5" t="s">
+      <c r="F68" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F68" s="5" t="s">
+      <c r="G68" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G68" s="1">
+      <c r="H68" s="1">
         <v>10</v>
       </c>
-      <c r="H68" s="1">
+      <c r="I68" s="1">
         <v>17</v>
       </c>
-      <c r="I68" s="1">
+      <c r="J68" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>8</v>
-      </c>
-      <c r="B69" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" s="1">
+        <v>8</v>
+      </c>
+      <c r="C69" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="D69" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="E69" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E69" s="5" t="s">
+      <c r="F69" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F69" s="5" t="s">
+      <c r="G69" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G69" s="1">
+      <c r="H69" s="1">
         <v>10</v>
       </c>
-      <c r="H69" s="1">
+      <c r="I69" s="1">
         <v>17</v>
       </c>
-      <c r="I69" s="1">
+      <c r="J69" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>8</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C70" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70" s="1">
+        <v>8</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="E70" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E70" s="5" t="s">
+      <c r="F70" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F70" s="5" t="s">
+      <c r="G70" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G70" s="1">
+      <c r="H70" s="1">
         <v>10</v>
-      </c>
-      <c r="H70" s="1">
-        <v>19</v>
       </c>
       <c r="I70" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J70" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>8</v>
-      </c>
-      <c r="B71" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" s="1">
+        <v>8</v>
+      </c>
+      <c r="C71" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="E71" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E71" s="5" t="s">
+      <c r="F71" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F71" s="5" t="s">
+      <c r="G71" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G71" s="1">
+      <c r="H71" s="1">
         <v>10</v>
       </c>
-      <c r="H71" s="1">
+      <c r="I71" s="1">
         <v>21</v>
       </c>
-      <c r="I71" s="1">
+      <c r="J71" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>8</v>
-      </c>
-      <c r="B72" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B72" s="1">
+        <v>8</v>
+      </c>
+      <c r="C72" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="E72" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E72" s="5" t="s">
+      <c r="F72" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F72" s="5" t="s">
+      <c r="G72" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G72" s="1">
+      <c r="H72" s="1">
         <v>10</v>
       </c>
-      <c r="H72" s="1">
+      <c r="I72" s="1">
         <v>17</v>
       </c>
-      <c r="I72" s="1">
+      <c r="J72" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>8</v>
-      </c>
-      <c r="B73" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" s="1">
+        <v>8</v>
+      </c>
+      <c r="C73" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="E73" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E73" s="5" t="s">
+      <c r="F73" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F73" s="5" t="s">
+      <c r="G73" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G73" s="1">
+      <c r="H73" s="1">
         <v>10</v>
       </c>
-      <c r="H73" s="1">
+      <c r="I73" s="1">
         <v>17</v>
       </c>
-      <c r="I73" s="1">
+      <c r="J73" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>8</v>
-      </c>
-      <c r="B74" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" s="1">
+        <v>8</v>
+      </c>
+      <c r="C74" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="E74" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E74" s="5" t="s">
+      <c r="F74" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F74" s="5" t="s">
+      <c r="G74" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G74" s="1">
+      <c r="H74" s="1">
         <v>10</v>
-      </c>
-      <c r="H74" s="1">
-        <v>19</v>
       </c>
       <c r="I74" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J74" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>8</v>
-      </c>
-      <c r="B75" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" s="1">
+        <v>8</v>
+      </c>
+      <c r="C75" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="E75" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E75" s="5" t="s">
+      <c r="F75" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F75" s="5" t="s">
+      <c r="G75" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G75" s="1">
+      <c r="H75" s="1">
         <v>10</v>
       </c>
-      <c r="H75" s="1">
+      <c r="I75" s="1">
         <v>21</v>
       </c>
-      <c r="I75" s="1">
+      <c r="J75" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>8</v>
-      </c>
-      <c r="B76" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76" s="1">
+        <v>8</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H76" s="1">
+        <v>10</v>
+      </c>
+      <c r="I76" s="1">
+        <v>17</v>
+      </c>
+      <c r="J76" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>3</v>
+      </c>
+      <c r="B77" s="1">
+        <v>8</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H77" s="1">
+        <v>10</v>
+      </c>
+      <c r="I77" s="1">
+        <v>17</v>
+      </c>
+      <c r="J77" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>3</v>
+      </c>
+      <c r="B78" s="1">
+        <v>8</v>
+      </c>
+      <c r="C78" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="D78" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="E78" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E76" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F76" s="5" t="s">
+      <c r="F78" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G78" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G76" s="1">
+      <c r="H78" s="1">
         <v>10</v>
-      </c>
-      <c r="H76" s="1">
-        <v>17</v>
-      </c>
-      <c r="I76" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A77" s="1">
-        <v>8</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G77" s="1">
-        <v>10</v>
-      </c>
-      <c r="H77" s="1">
-        <v>17</v>
-      </c>
-      <c r="I77" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78" s="1">
-        <v>8</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G78" s="1">
-        <v>10</v>
-      </c>
-      <c r="H78" s="1">
-        <v>19</v>
       </c>
       <c r="I78" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J78" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>8</v>
-      </c>
-      <c r="B79" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79" s="1">
+        <v>8</v>
+      </c>
+      <c r="C79" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="D79" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="E79" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="5" t="s">
+      <c r="F79" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F79" s="5" t="s">
+      <c r="G79" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G79" s="1">
+      <c r="H79" s="1">
         <v>10</v>
       </c>
-      <c r="H79" s="1">
+      <c r="I79" s="1">
         <v>21</v>
       </c>
-      <c r="I79" s="1">
+      <c r="J79" s="1">
         <v>19</v>
       </c>
     </row>
@@ -3009,781 +3326,838 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" style="5" customWidth="1"/>
-    <col min="3" max="4" width="10.77734375" style="1" customWidth="1"/>
-    <col min="5" max="6" width="20.77734375" style="5" customWidth="1"/>
-    <col min="7" max="11" width="10.77734375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="1.77734375" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" style="1"/>
+    <col min="1" max="2" width="10.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" style="5" customWidth="1"/>
+    <col min="4" max="5" width="10.77734375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="20.77734375" style="5" customWidth="1"/>
+    <col min="8" max="12" width="10.77734375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="1.77734375" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="F1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>1</v>
-      </c>
       <c r="I1" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <f>ROUND(8* 1.6,0)</f>
         <v>13</v>
       </c>
-      <c r="H3" s="1">
-        <v>2</v>
-      </c>
       <c r="I3" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1">
+        <v>8</v>
+      </c>
+      <c r="K3" s="1">
         <v>13</v>
       </c>
-      <c r="K3" s="1">
+      <c r="L3" s="1">
         <v>11</v>
       </c>
-      <c r="M3" s="1">
-        <f>SUM(H3:K3)</f>
+      <c r="N3" s="1">
+        <f>SUM(I3:L3)</f>
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="1">
-        <f t="shared" ref="G4:G5" si="0">ROUND(8* 1.6,0)</f>
+      <c r="H4" s="1">
+        <f t="shared" ref="H4:H5" si="0">ROUND(8* 1.6,0)</f>
         <v>13</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>3</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>10</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>12</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>9</v>
       </c>
-      <c r="M4" s="1">
-        <f t="shared" ref="M4:M17" si="1">SUM(H4:K4)</f>
+      <c r="N4" s="1">
+        <f t="shared" ref="N4:N17" si="1">SUM(I4:L4)</f>
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="H5" s="1">
-        <v>2</v>
-      </c>
       <c r="I5" s="1">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1">
         <v>6</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>15</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <v>12</v>
       </c>
-      <c r="M5" s="1">
+      <c r="N5" s="1">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>2</v>
-      </c>
-      <c r="B7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <f>ROUND(8* 1.6,0)</f>
         <v>13</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>3</v>
       </c>
-      <c r="I7" s="1">
-        <v>8</v>
-      </c>
       <c r="J7" s="1">
+        <v>8</v>
+      </c>
+      <c r="K7" s="1">
         <v>13</v>
       </c>
-      <c r="K7" s="1">
+      <c r="L7" s="1">
         <v>11</v>
       </c>
-      <c r="M7" s="1">
+      <c r="N7" s="1">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>2</v>
-      </c>
-      <c r="B8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="1">
-        <f t="shared" ref="G8:G9" si="2">ROUND(8* 1.6,0)</f>
+      <c r="H8" s="1">
+        <f t="shared" ref="H8:H9" si="2">ROUND(8* 1.6,0)</f>
         <v>13</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>3</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>11</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <v>12</v>
       </c>
-      <c r="K8" s="1">
+      <c r="L8" s="1">
         <v>9</v>
       </c>
-      <c r="M8" s="1">
+      <c r="N8" s="1">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>2</v>
-      </c>
-      <c r="B9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="H9" s="1">
-        <v>2</v>
-      </c>
       <c r="I9" s="1">
+        <v>2</v>
+      </c>
+      <c r="J9" s="1">
         <v>6</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1">
         <v>16</v>
       </c>
-      <c r="K9" s="1">
+      <c r="L9" s="1">
         <v>12</v>
       </c>
-      <c r="M9" s="1">
+      <c r="N9" s="1">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1">
         <v>4</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="G11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <f>ROUND(9* 1.6,0)</f>
         <v>14</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>3</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="1">
         <v>9</v>
       </c>
-      <c r="J11" s="1">
+      <c r="K11" s="1">
         <v>13</v>
       </c>
-      <c r="K11" s="1">
+      <c r="L11" s="1">
         <v>12</v>
       </c>
-      <c r="M11" s="1">
+      <c r="N11" s="1">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1">
         <v>4</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="1">
-        <f t="shared" ref="G12:G13" si="3">ROUND(9* 1.6,0)</f>
+      <c r="H12" s="1">
+        <f t="shared" ref="H12:H13" si="3">ROUND(9* 1.6,0)</f>
         <v>14</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="1">
         <v>4</v>
       </c>
-      <c r="I12" s="1">
+      <c r="J12" s="1">
         <v>11</v>
       </c>
-      <c r="J12" s="1">
+      <c r="K12" s="1">
         <v>12</v>
       </c>
-      <c r="K12" s="1">
+      <c r="L12" s="1">
         <v>10</v>
       </c>
-      <c r="M12" s="1">
+      <c r="N12" s="1">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1">
         <v>4</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="F13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="G13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="H13" s="1">
+      <c r="I13" s="1">
         <v>3</v>
       </c>
-      <c r="I13" s="1">
+      <c r="J13" s="1">
         <v>6</v>
       </c>
-      <c r="J13" s="1">
+      <c r="K13" s="1">
         <v>16</v>
       </c>
-      <c r="K13" s="1">
+      <c r="L13" s="1">
         <v>13</v>
       </c>
-      <c r="M13" s="1">
+      <c r="N13" s="1">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1">
         <v>5</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="F15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="G15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15" s="1">
         <f>ROUND(9* 1.6,0)</f>
         <v>14</v>
       </c>
-      <c r="H15" s="1">
+      <c r="I15" s="1">
         <v>4</v>
       </c>
-      <c r="I15" s="1">
+      <c r="J15" s="1">
         <v>9</v>
       </c>
-      <c r="J15" s="1">
+      <c r="K15" s="1">
         <v>13</v>
       </c>
-      <c r="K15" s="1">
+      <c r="L15" s="1">
         <v>12</v>
       </c>
-      <c r="M15" s="1">
+      <c r="N15" s="1">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
+        <v>2</v>
+      </c>
+      <c r="B16" s="1">
         <v>5</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="G16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="1">
-        <f t="shared" ref="G16:G17" si="4">ROUND(9* 1.6,0)</f>
+      <c r="H16" s="1">
+        <f t="shared" ref="H16:H17" si="4">ROUND(9* 1.6,0)</f>
         <v>14</v>
       </c>
-      <c r="H16" s="1">
+      <c r="I16" s="1">
         <v>4</v>
-      </c>
-      <c r="I16" s="1">
-        <v>12</v>
       </c>
       <c r="J16" s="1">
         <v>12</v>
       </c>
       <c r="K16" s="1">
+        <v>12</v>
+      </c>
+      <c r="L16" s="1">
         <v>10</v>
       </c>
-      <c r="M16" s="1">
+      <c r="N16" s="1">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
+        <v>2</v>
+      </c>
+      <c r="B17" s="1">
         <v>5</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="F17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="G17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H17" s="1">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="H17" s="1">
+      <c r="I17" s="1">
         <v>3</v>
       </c>
-      <c r="I17" s="1">
+      <c r="J17" s="1">
         <v>6</v>
       </c>
-      <c r="J17" s="1">
+      <c r="K17" s="1">
         <v>17</v>
       </c>
-      <c r="K17" s="1">
+      <c r="L17" s="1">
         <v>13</v>
       </c>
-      <c r="M17" s="1">
+      <c r="N17" s="1">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>7</v>
-      </c>
-      <c r="B19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1">
+        <v>7</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="F19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="G19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="1">
+      <c r="H19" s="1">
         <f>ROUND(10* 1.6,0)</f>
         <v>16</v>
       </c>
-      <c r="H19" s="1">
+      <c r="I19" s="1">
         <v>4</v>
       </c>
-      <c r="I19" s="1">
+      <c r="J19" s="1">
         <v>9</v>
       </c>
-      <c r="J19" s="1">
+      <c r="K19" s="1">
         <v>14</v>
       </c>
-      <c r="K19" s="1">
+      <c r="L19" s="1">
         <v>13</v>
       </c>
-      <c r="M19" s="1">
-        <f t="shared" ref="M19:M21" si="5">SUM(H19:K19)</f>
+      <c r="N19" s="1">
+        <f t="shared" ref="N19:N21" si="5">SUM(I19:L19)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>7</v>
-      </c>
-      <c r="B20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1">
+        <v>7</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="F20" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="G20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G20" s="1">
+      <c r="H20" s="1">
         <f>ROUND(10* 1.6,0)</f>
         <v>16</v>
       </c>
-      <c r="H20" s="1">
+      <c r="I20" s="1">
         <v>5</v>
       </c>
-      <c r="I20" s="1">
+      <c r="J20" s="1">
         <v>11</v>
       </c>
-      <c r="J20" s="1">
+      <c r="K20" s="1">
         <v>13</v>
       </c>
-      <c r="K20" s="1">
+      <c r="L20" s="1">
         <v>11</v>
       </c>
-      <c r="M20" s="1">
+      <c r="N20" s="1">
         <f t="shared" si="5"/>
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>7</v>
-      </c>
-      <c r="B21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1">
+        <v>7</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="F21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="G21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="1">
+      <c r="H21" s="1">
         <f>ROUND(10* 1.6,0)</f>
         <v>16</v>
       </c>
-      <c r="H21" s="1">
+      <c r="I21" s="1">
         <v>3</v>
       </c>
-      <c r="I21" s="1">
-        <v>7</v>
-      </c>
       <c r="J21" s="1">
+        <v>7</v>
+      </c>
+      <c r="K21" s="1">
         <v>17</v>
       </c>
-      <c r="K21" s="1">
+      <c r="L21" s="1">
         <v>14</v>
       </c>
-      <c r="M21" s="1">
+      <c r="N21" s="1">
         <f t="shared" si="5"/>
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>8</v>
-      </c>
-      <c r="B23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1">
+        <v>8</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="F23" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="G23" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="1">
+      <c r="H23" s="1">
         <f>ROUND(10* 1.6,0)</f>
         <v>16</v>
       </c>
-      <c r="H23" s="1">
+      <c r="I23" s="1">
         <v>5</v>
       </c>
-      <c r="I23" s="1">
+      <c r="J23" s="1">
         <v>9</v>
       </c>
-      <c r="J23" s="1">
+      <c r="K23" s="1">
         <v>14</v>
       </c>
-      <c r="K23" s="1">
+      <c r="L23" s="1">
         <v>13</v>
       </c>
-      <c r="M23" s="1">
-        <f t="shared" ref="M23:M25" si="6">SUM(H23:K23)</f>
+      <c r="N23" s="1">
+        <f t="shared" ref="N23:N25" si="6">SUM(I23:L23)</f>
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>8</v>
-      </c>
-      <c r="B24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1">
+        <v>8</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="F24" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="G24" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="1">
+      <c r="H24" s="1">
         <f>ROUND(10* 1.6,0)</f>
         <v>16</v>
       </c>
-      <c r="H24" s="1">
+      <c r="I24" s="1">
         <v>5</v>
       </c>
-      <c r="I24" s="1">
+      <c r="J24" s="1">
         <v>12</v>
       </c>
-      <c r="J24" s="1">
+      <c r="K24" s="1">
         <v>13</v>
       </c>
-      <c r="K24" s="1">
+      <c r="L24" s="1">
         <v>11</v>
       </c>
-      <c r="M24" s="1">
+      <c r="N24" s="1">
         <f t="shared" si="6"/>
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>8</v>
-      </c>
-      <c r="B25" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="1">
+        <v>8</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="F25" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="G25" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G25" s="1">
+      <c r="H25" s="1">
         <f>ROUND(10* 1.6,0)</f>
         <v>16</v>
       </c>
-      <c r="H25" s="1">
+      <c r="I25" s="1">
         <v>3</v>
       </c>
-      <c r="I25" s="1">
-        <v>7</v>
-      </c>
       <c r="J25" s="1">
+        <v>7</v>
+      </c>
+      <c r="K25" s="1">
         <v>18</v>
       </c>
-      <c r="K25" s="1">
+      <c r="L25" s="1">
         <v>14</v>
       </c>
-      <c r="M25" s="1">
+      <c r="N25" s="1">
         <f t="shared" si="6"/>
         <v>42</v>
       </c>
@@ -3800,7 +4174,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S1" sqref="S1"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3813,7 +4187,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>45</v>
@@ -3837,19 +4211,19 @@
         <v>44</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="M1" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>46</v>
@@ -5646,9 +6020,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S1" sqref="S1"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5661,7 +6035,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>45</v>
@@ -5685,19 +6059,19 @@
         <v>44</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="M1" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>46</v>
@@ -6799,19 +7173,19 @@
         <v>44</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="M1" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>46</v>
@@ -8639,66 +9013,451 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="15.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="1.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="8" width="15.77734375" customWidth="1"/>
+    <col min="9" max="9" width="1.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" t="s">
         <v>67</v>
+      </c>
+      <c r="D3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" t="s">
+        <v>103</v>
+      </c>
+      <c r="H10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G12" t="s">
+        <v>97</v>
+      </c>
+      <c r="H12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" t="s">
+        <v>99</v>
+      </c>
+      <c r="H15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/backend/emporium/data/StageData.xlsx
+++ b/backend/emporium/data/StageData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="828" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="828" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="income" sheetId="8" r:id="rId1"/>
@@ -12,10 +12,11 @@
     <sheet name="Enemy" sheetId="5" r:id="rId3"/>
     <sheet name="GothicTower" sheetId="6" r:id="rId4"/>
     <sheet name="LeagueTrial" sheetId="9" r:id="rId5"/>
-    <sheet name="Campaign" sheetId="10" r:id="rId6"/>
-    <sheet name="TrialDay" sheetId="11" r:id="rId7"/>
-    <sheet name="ExpeditionLevel" sheetId="13" r:id="rId8"/>
-    <sheet name="ExpeditionType" sheetId="12" r:id="rId9"/>
+    <sheet name="Dungeon" sheetId="14" r:id="rId6"/>
+    <sheet name="Campaign" sheetId="10" r:id="rId7"/>
+    <sheet name="TrialDay" sheetId="11" r:id="rId8"/>
+    <sheet name="ExpeditionLevel" sheetId="13" r:id="rId9"/>
+    <sheet name="ExpeditionType" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="113">
   <si>
     <t>Name</t>
   </si>
@@ -239,9 +240,6 @@
     <t>wednesday</t>
   </si>
   <si>
-    <t>combat</t>
-  </si>
-  <si>
     <t>thursday</t>
   </si>
   <si>
@@ -366,6 +364,9 @@
   </si>
   <si>
     <t>Throne</t>
+  </si>
+  <si>
+    <t>cmb</t>
   </si>
 </sst>
 </file>
@@ -412,7 +413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -455,6 +456,9 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -751,7 +755,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>53</v>
@@ -955,6 +959,292 @@
       </c>
       <c r="F11" s="1">
         <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="8" width="15.77734375" customWidth="1"/>
+    <col min="9" max="9" width="1.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" t="s">
+        <v>102</v>
+      </c>
+      <c r="H10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" t="s">
+        <v>96</v>
+      </c>
+      <c r="H12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" t="s">
+        <v>102</v>
+      </c>
+      <c r="H13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" t="s">
+        <v>98</v>
+      </c>
+      <c r="G15" t="s">
+        <v>98</v>
+      </c>
+      <c r="H15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1086,7 +1376,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>23</v>
@@ -1278,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>11</v>
@@ -1342,7 +1632,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>11</v>
@@ -1470,7 +1760,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>23</v>
@@ -1662,7 +1952,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>11</v>
@@ -1726,7 +2016,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>11</v>
@@ -1854,7 +2144,7 @@
         <v>4</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>23</v>
@@ -2046,7 +2336,7 @@
         <v>4</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>11</v>
@@ -2110,7 +2400,7 @@
         <v>4</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>11</v>
@@ -2238,7 +2528,7 @@
         <v>5</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>23</v>
@@ -2430,7 +2720,7 @@
         <v>5</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>11</v>
@@ -2494,7 +2784,7 @@
         <v>5</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>11</v>
@@ -2622,7 +2912,7 @@
         <v>7</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>23</v>
@@ -2814,7 +3104,7 @@
         <v>7</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>11</v>
@@ -2878,7 +3168,7 @@
         <v>7</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>11</v>
@@ -3006,7 +3296,7 @@
         <v>8</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>23</v>
@@ -3198,7 +3488,7 @@
         <v>8</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>11</v>
@@ -3262,7 +3552,7 @@
         <v>8</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>11</v>
@@ -3330,7 +3620,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O1" sqref="O1"/>
+      <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4174,7 +4464,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4187,7 +4477,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>45</v>
@@ -6022,7 +6312,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6035,7 +6325,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>45</v>
@@ -6737,26 +7027,11 @@
       <c r="M21" s="15">
         <v>6</v>
       </c>
-      <c r="N21" s="7">
-        <f>ROUND(income!$B$9 * $M21, 0)</f>
-        <v>1164</v>
-      </c>
-      <c r="O21" s="7">
-        <f>ROUND(income!$C$9 * $M21, 0)</f>
-        <v>42</v>
-      </c>
-      <c r="P21" s="7">
-        <f>ROUND(income!$D$9 * $M21, 0)</f>
-        <v>282</v>
-      </c>
-      <c r="Q21" s="7">
-        <f>ROUND(income!$E$9 * $M21, 0)</f>
-        <v>156</v>
-      </c>
-      <c r="R21" s="7">
-        <f>ROUND(income!$F$9 * $M21, 0)</f>
-        <v>78</v>
-      </c>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
     </row>
     <row r="22" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
@@ -6789,26 +7064,11 @@
       <c r="M22" s="15">
         <v>6.6</v>
       </c>
-      <c r="N22" s="7">
-        <f>ROUND(income!$B$9 * $M22, 0)</f>
-        <v>1280</v>
-      </c>
-      <c r="O22" s="7">
-        <f>ROUND(income!$C$9 * $M22, 0)</f>
-        <v>46</v>
-      </c>
-      <c r="P22" s="7">
-        <f>ROUND(income!$D$9 * $M22, 0)</f>
-        <v>310</v>
-      </c>
-      <c r="Q22" s="7">
-        <f>ROUND(income!$E$9 * $M22, 0)</f>
-        <v>172</v>
-      </c>
-      <c r="R22" s="7">
-        <f>ROUND(income!$F$9 * $M22, 0)</f>
-        <v>86</v>
-      </c>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
     </row>
     <row r="23" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
@@ -6852,26 +7112,11 @@
       <c r="M24" s="15">
         <v>6</v>
       </c>
-      <c r="N24" s="7">
-        <f>ROUND(income!$B$9 * $M24, 0)</f>
-        <v>1164</v>
-      </c>
-      <c r="O24" s="7">
-        <f>ROUND(income!$C$9 * $M24, 0)</f>
-        <v>42</v>
-      </c>
-      <c r="P24" s="7">
-        <f>ROUND(income!$D$9 * $M24, 0)</f>
-        <v>282</v>
-      </c>
-      <c r="Q24" s="7">
-        <f>ROUND(income!$E$9 * $M24, 0)</f>
-        <v>156</v>
-      </c>
-      <c r="R24" s="7">
-        <f>ROUND(income!$F$9 * $M24, 0)</f>
-        <v>78</v>
-      </c>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
     </row>
     <row r="25" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
@@ -6902,26 +7147,11 @@
       <c r="M25" s="15">
         <v>6.6</v>
       </c>
-      <c r="N25" s="7">
-        <f>ROUND(income!$B$9 * $M25, 0)</f>
-        <v>1280</v>
-      </c>
-      <c r="O25" s="7">
-        <f>ROUND(income!$C$9 * $M25, 0)</f>
-        <v>46</v>
-      </c>
-      <c r="P25" s="7">
-        <f>ROUND(income!$D$9 * $M25, 0)</f>
-        <v>310</v>
-      </c>
-      <c r="Q25" s="7">
-        <f>ROUND(income!$E$9 * $M25, 0)</f>
-        <v>172</v>
-      </c>
-      <c r="R25" s="7">
-        <f>ROUND(income!$F$9 * $M25, 0)</f>
-        <v>86</v>
-      </c>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
     </row>
     <row r="26" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
@@ -6965,26 +7195,11 @@
       <c r="M27" s="15">
         <v>6</v>
       </c>
-      <c r="N27" s="7">
-        <f>ROUND(income!$B$9 * $M27, 0)</f>
-        <v>1164</v>
-      </c>
-      <c r="O27" s="7">
-        <f>ROUND(income!$C$9 * $M27, 0)</f>
-        <v>42</v>
-      </c>
-      <c r="P27" s="7">
-        <f>ROUND(income!$D$9 * $M27, 0)</f>
-        <v>282</v>
-      </c>
-      <c r="Q27" s="7">
-        <f>ROUND(income!$E$9 * $M27, 0)</f>
-        <v>156</v>
-      </c>
-      <c r="R27" s="7">
-        <f>ROUND(income!$F$9 * $M27, 0)</f>
-        <v>78</v>
-      </c>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
     </row>
     <row r="28" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
@@ -7023,26 +7238,11 @@
       <c r="M28" s="15">
         <v>7.2</v>
       </c>
-      <c r="N28" s="7">
-        <f>ROUND(income!$B$9 * $M28, 0)</f>
-        <v>1397</v>
-      </c>
-      <c r="O28" s="7">
-        <f>ROUND(income!$C$9 * $M28, 0)</f>
-        <v>50</v>
-      </c>
-      <c r="P28" s="7">
-        <f>ROUND(income!$D$9 * $M28, 0)</f>
-        <v>338</v>
-      </c>
-      <c r="Q28" s="7">
-        <f>ROUND(income!$E$9 * $M28, 0)</f>
-        <v>187</v>
-      </c>
-      <c r="R28" s="7">
-        <f>ROUND(income!$F$9 * $M28, 0)</f>
-        <v>94</v>
-      </c>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
     </row>
     <row r="29" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
@@ -7132,6 +7332,727 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S1" sqref="S1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="8.77734375" style="1" customWidth="1"/>
+    <col min="3" max="12" width="10.77734375" style="1" customWidth="1"/>
+    <col min="13" max="18" width="8.77734375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="1.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>8</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2</v>
+      </c>
+      <c r="M3" s="15">
+        <v>3</v>
+      </c>
+      <c r="N3" s="7">
+        <f>ROUND(income!B$3 * $M3, 0)</f>
+        <v>330</v>
+      </c>
+      <c r="O3" s="7">
+        <f>ROUND(income!C$3 * $M3, 0)</f>
+        <v>12</v>
+      </c>
+      <c r="P3" s="7">
+        <f>ROUND(income!D$3 * $M3, 0)</f>
+        <v>105</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>0</v>
+      </c>
+      <c r="R3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>6</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1">
+        <v>7</v>
+      </c>
+      <c r="H5" s="1">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1">
+        <v>8</v>
+      </c>
+      <c r="J5" s="1">
+        <v>4</v>
+      </c>
+      <c r="M5" s="15">
+        <v>3.1</v>
+      </c>
+      <c r="N5" s="7">
+        <f>ROUND(income!$B$4 * $M5, 0)</f>
+        <v>384</v>
+      </c>
+      <c r="O5" s="7">
+        <f>ROUND(income!$C$4 * $M5, 0)</f>
+        <v>12</v>
+      </c>
+      <c r="P5" s="7">
+        <f>ROUND(income!$D$4 * $M5, 0)</f>
+        <v>115</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>0</v>
+      </c>
+      <c r="R5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+    </row>
+    <row r="7" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
+        <v>3</v>
+      </c>
+      <c r="B7" s="10">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1">
+        <v>7</v>
+      </c>
+      <c r="G7" s="1">
+        <v>9</v>
+      </c>
+      <c r="H7" s="1">
+        <v>7</v>
+      </c>
+      <c r="I7" s="1">
+        <v>9</v>
+      </c>
+      <c r="J7" s="1">
+        <v>8</v>
+      </c>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="15">
+        <v>3.2</v>
+      </c>
+      <c r="N7" s="7">
+        <f>ROUND(income!$B$5 * $M7, 0)</f>
+        <v>442</v>
+      </c>
+      <c r="O7" s="7">
+        <f>ROUND(income!$C$5 * $M7, 0)</f>
+        <v>16</v>
+      </c>
+      <c r="P7" s="7">
+        <f>ROUND(income!$D$5 * $M7, 0)</f>
+        <v>125</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>0</v>
+      </c>
+      <c r="R7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+    </row>
+    <row r="9" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
+        <v>4</v>
+      </c>
+      <c r="B9" s="10">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1">
+        <v>9</v>
+      </c>
+      <c r="F9" s="1">
+        <v>10</v>
+      </c>
+      <c r="G9" s="1">
+        <v>9</v>
+      </c>
+      <c r="H9" s="1">
+        <v>12</v>
+      </c>
+      <c r="I9" s="1">
+        <v>10</v>
+      </c>
+      <c r="J9" s="1">
+        <v>10</v>
+      </c>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="15">
+        <v>3.3</v>
+      </c>
+      <c r="N9" s="7">
+        <f>ROUND(income!$B$6 * $M9, 0)</f>
+        <v>502</v>
+      </c>
+      <c r="O9" s="7">
+        <f>ROUND(income!$C$6 * $M9, 0)</f>
+        <v>17</v>
+      </c>
+      <c r="P9" s="7">
+        <f>ROUND(income!$D$6 * $M9, 0)</f>
+        <v>135</v>
+      </c>
+      <c r="Q9" s="7">
+        <f>ROUND(income!$E$6 * $M9, 0)</f>
+        <v>66</v>
+      </c>
+      <c r="R9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+    </row>
+    <row r="11" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
+        <v>5</v>
+      </c>
+      <c r="B11" s="10">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1">
+        <v>16</v>
+      </c>
+      <c r="E11" s="1">
+        <v>9</v>
+      </c>
+      <c r="F11" s="1">
+        <v>16</v>
+      </c>
+      <c r="G11" s="1">
+        <v>10</v>
+      </c>
+      <c r="H11" s="1">
+        <v>14</v>
+      </c>
+      <c r="I11" s="1">
+        <v>10</v>
+      </c>
+      <c r="J11" s="1">
+        <v>16</v>
+      </c>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="15">
+        <v>3.4</v>
+      </c>
+      <c r="N11" s="7">
+        <f>ROUND(income!$B$7 * $M11, 0)</f>
+        <v>564</v>
+      </c>
+      <c r="O11" s="7">
+        <f>ROUND(income!$C$7 * $M11, 0)</f>
+        <v>20</v>
+      </c>
+      <c r="P11" s="7">
+        <f>ROUND(income!$D$7 * $M11, 0)</f>
+        <v>146</v>
+      </c>
+      <c r="Q11" s="7">
+        <f>ROUND(income!$E$7 * $M11, 0)</f>
+        <v>75</v>
+      </c>
+      <c r="R11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+    </row>
+    <row r="13" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
+        <v>6</v>
+      </c>
+      <c r="B13" s="10">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1">
+        <v>20</v>
+      </c>
+      <c r="E13" s="1">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1">
+        <v>18</v>
+      </c>
+      <c r="G13" s="1">
+        <v>9</v>
+      </c>
+      <c r="H13" s="1">
+        <v>20</v>
+      </c>
+      <c r="I13" s="1">
+        <v>10</v>
+      </c>
+      <c r="J13" s="1">
+        <v>20</v>
+      </c>
+      <c r="M13" s="15">
+        <v>3.5</v>
+      </c>
+      <c r="N13" s="7">
+        <f>ROUND(income!$B$8 * $M13, 0)</f>
+        <v>630</v>
+      </c>
+      <c r="O13" s="7">
+        <f>ROUND(income!$C$8 * $M13, 0)</f>
+        <v>21</v>
+      </c>
+      <c r="P13" s="7">
+        <f>ROUND(income!$D$8 * $M13, 0)</f>
+        <v>158</v>
+      </c>
+      <c r="Q13" s="7">
+        <f>ROUND(income!$E$8 * $M13, 0)</f>
+        <v>84</v>
+      </c>
+      <c r="R13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+    </row>
+    <row r="15" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
+        <v>7</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="15">
+        <v>3.6</v>
+      </c>
+      <c r="N15" s="7">
+        <f>ROUND(income!B$9 * $M15, 0)</f>
+        <v>698</v>
+      </c>
+      <c r="O15" s="7">
+        <f>ROUND(income!C$9 * $M15, 0)</f>
+        <v>25</v>
+      </c>
+      <c r="P15" s="7">
+        <f>ROUND(income!D$9 * $M15, 0)</f>
+        <v>169</v>
+      </c>
+      <c r="Q15" s="7">
+        <f>ROUND(income!E$9 * $M15, 0)</f>
+        <v>94</v>
+      </c>
+      <c r="R15" s="7">
+        <f>ROUND(income!F$9 * $M15, 0)</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+    </row>
+    <row r="17" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10">
+        <v>8</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="15">
+        <v>3.7</v>
+      </c>
+      <c r="N17" s="7">
+        <f>ROUND(income!B$10 * $M17, 0)</f>
+        <v>770</v>
+      </c>
+      <c r="O17" s="7">
+        <f>ROUND(income!C$10 * $M17, 0)</f>
+        <v>26</v>
+      </c>
+      <c r="P17" s="7">
+        <f>ROUND(income!D$10 * $M17, 0)</f>
+        <v>181</v>
+      </c>
+      <c r="Q17" s="7">
+        <f>ROUND(income!E$10 * $M17, 0)</f>
+        <v>104</v>
+      </c>
+      <c r="R17" s="7">
+        <f>ROUND(income!F$10 * $M17, 0)</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+    </row>
+    <row r="19" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10">
+        <v>9</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="15">
+        <v>3.8</v>
+      </c>
+      <c r="N19" s="7">
+        <f>ROUND(income!B$11 * $M19, 0)</f>
+        <v>844</v>
+      </c>
+      <c r="O19" s="7">
+        <f>ROUND(income!C$11 * $M19, 0)</f>
+        <v>30</v>
+      </c>
+      <c r="P19" s="7">
+        <f>ROUND(income!D$11 * $M19, 0)</f>
+        <v>194</v>
+      </c>
+      <c r="Q19" s="7">
+        <f>ROUND(income!E$11 * $M19, 0)</f>
+        <v>114</v>
+      </c>
+      <c r="R19" s="7">
+        <f>ROUND(income!F$11 * $M19, 0)</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+    </row>
+    <row r="21" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+    </row>
+    <row r="22" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+    </row>
+    <row r="23" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8997,7 +9918,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -9013,10 +9934,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -9048,12 +9969,12 @@
         <v>69</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>64</v>
@@ -9061,7 +9982,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>67</v>
@@ -9069,7 +9990,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>66</v>
@@ -9081,11 +10002,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
@@ -9099,13 +10020,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -9116,7 +10037,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -9127,7 +10048,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -9138,7 +10059,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -9149,7 +10070,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -9160,7 +10081,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -9171,293 +10092,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="8" width="15.77734375" customWidth="1"/>
-    <col min="9" max="9" width="1.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F6" t="s">
-        <v>97</v>
-      </c>
-      <c r="G6" t="s">
-        <v>97</v>
-      </c>
-      <c r="H6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F9" t="s">
-        <v>97</v>
-      </c>
-      <c r="G9" t="s">
-        <v>97</v>
-      </c>
-      <c r="H9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" t="s">
-        <v>88</v>
-      </c>
-      <c r="F10" t="s">
-        <v>102</v>
-      </c>
-      <c r="G10" t="s">
-        <v>103</v>
-      </c>
-      <c r="H10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" t="s">
-        <v>97</v>
-      </c>
-      <c r="G12" t="s">
-        <v>97</v>
-      </c>
-      <c r="H12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>95</v>
-      </c>
-      <c r="B13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G13" t="s">
-        <v>103</v>
-      </c>
-      <c r="H13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>98</v>
-      </c>
-      <c r="C15" t="s">
-        <v>99</v>
-      </c>
-      <c r="D15" t="s">
-        <v>99</v>
-      </c>
-      <c r="E15" t="s">
-        <v>99</v>
-      </c>
-      <c r="F15" t="s">
-        <v>99</v>
-      </c>
-      <c r="G15" t="s">
-        <v>99</v>
-      </c>
-      <c r="H15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>101</v>
-      </c>
-      <c r="F16" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/backend/emporium/data/StageData.xlsx
+++ b/backend/emporium/data/StageData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="828" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="828" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="income" sheetId="8" r:id="rId1"/>
@@ -4462,7 +4462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="S1" sqref="S1"/>
     </sheetView>
@@ -7334,9 +7334,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S1" sqref="S1"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/backend/emporium/data/StageData.xlsx
+++ b/backend/emporium/data/StageData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="828" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="828"/>
   </bookViews>
   <sheets>
     <sheet name="income" sheetId="8" r:id="rId1"/>
@@ -742,9 +742,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4462,7 +4462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="S1" sqref="S1"/>
     </sheetView>

--- a/backend/emporium/data/StageData.xlsx
+++ b/backend/emporium/data/StageData.xlsx
@@ -744,7 +744,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -761,16 +761,16 @@
         <v>53</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -785,180 +785,45 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>110</v>
-      </c>
-      <c r="C3" s="1">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1">
-        <v>35</v>
-      </c>
-      <c r="E3" s="1">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1">
-        <v>7</v>
-      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>124</v>
-      </c>
-      <c r="C4" s="1">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1">
-        <v>37</v>
-      </c>
-      <c r="E4" s="1">
-        <v>16</v>
-      </c>
-      <c r="F4" s="1">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
-        <v>138</v>
-      </c>
-      <c r="C5" s="1">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1">
-        <v>39</v>
-      </c>
-      <c r="E5" s="1">
-        <v>18</v>
-      </c>
-      <c r="F5" s="1">
-        <v>9</v>
-      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
-        <v>152</v>
-      </c>
-      <c r="C6" s="1">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1">
-        <v>41</v>
-      </c>
-      <c r="E6" s="1">
-        <v>20</v>
-      </c>
-      <c r="F6" s="1">
-        <v>10</v>
-      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
-        <v>166</v>
-      </c>
-      <c r="C7" s="1">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1">
-        <v>43</v>
-      </c>
-      <c r="E7" s="1">
-        <v>22</v>
-      </c>
-      <c r="F7" s="1">
-        <v>11</v>
-      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
-        <v>180</v>
-      </c>
-      <c r="C8" s="1">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1">
-        <v>45</v>
-      </c>
-      <c r="E8" s="1">
-        <v>24</v>
-      </c>
-      <c r="F8" s="1">
-        <v>12</v>
-      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
-        <v>194</v>
-      </c>
-      <c r="C9" s="1">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1">
-        <v>47</v>
-      </c>
-      <c r="E9" s="1">
-        <v>26</v>
-      </c>
-      <c r="F9" s="1">
-        <v>13</v>
-      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
-      </c>
-      <c r="B10" s="1">
-        <v>208</v>
-      </c>
-      <c r="C10" s="1">
-        <v>7</v>
-      </c>
-      <c r="D10" s="1">
-        <v>49</v>
-      </c>
-      <c r="E10" s="1">
-        <v>28</v>
-      </c>
-      <c r="F10" s="1">
-        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
-      </c>
-      <c r="B11" s="1">
-        <v>222</v>
-      </c>
-      <c r="C11" s="1">
-        <v>8</v>
-      </c>
-      <c r="D11" s="1">
-        <v>51</v>
-      </c>
-      <c r="E11" s="1">
-        <v>30</v>
-      </c>
-      <c r="F11" s="1">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -4557,15 +4422,15 @@
       </c>
       <c r="N3" s="7">
         <f>ROUND(income!$B$3 * $M3, 0)</f>
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="O3" s="7">
+        <f>ROUND(income!$F$3 * $M3, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="7">
         <f>ROUND(income!$C$3 * $M3, 0)</f>
-        <v>4</v>
-      </c>
-      <c r="P3" s="7">
-        <f>ROUND(income!$D$3 * $M3, 0)</f>
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="7">
         <v>0</v>
@@ -4603,15 +4468,15 @@
       </c>
       <c r="N4" s="7">
         <f>ROUND(income!$B$3 * M4, 0)</f>
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7">
+        <f>ROUND(income!$F$3 * $M4, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="7">
         <f>ROUND(income!$C$3 * $M4, 0)</f>
-        <v>4</v>
-      </c>
-      <c r="P4" s="7">
-        <f>ROUND(income!$D$3 * $M4, 0)</f>
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="7">
         <v>0</v>
@@ -4649,15 +4514,15 @@
       </c>
       <c r="N5" s="7">
         <f>ROUND(income!$B$3 * M5, 0)</f>
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7">
+        <f>ROUND(income!$F$3 * $M5, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="7">
         <f>ROUND(income!$C$3 * $M5, 0)</f>
-        <v>4</v>
-      </c>
-      <c r="P5" s="7">
-        <f>ROUND(income!$D$3 * $M5, 0)</f>
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="7">
         <v>0</v>
@@ -4695,15 +4560,15 @@
       </c>
       <c r="N6" s="7">
         <f>ROUND(income!$B$3 * M6, 0)</f>
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7">
+        <f>ROUND(income!$F$3 * $M6, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="7">
         <f>ROUND(income!$C$3 * $M6, 0)</f>
-        <v>5</v>
-      </c>
-      <c r="P6" s="7">
-        <f>ROUND(income!$D$3 * $M6, 0)</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="7">
         <v>0</v>
@@ -4741,15 +4606,15 @@
       </c>
       <c r="N7" s="7">
         <f>ROUND(income!$B$3 * M7, 0)</f>
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7">
+        <f>ROUND(income!$F$3 * $M7, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="7">
         <f>ROUND(income!$C$3 * $M7, 0)</f>
-        <v>5</v>
-      </c>
-      <c r="P7" s="7">
-        <f>ROUND(income!$D$3 * $M7, 0)</f>
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="7">
         <v>0</v>
@@ -4790,15 +4655,15 @@
       </c>
       <c r="N8" s="7">
         <f>ROUND(income!$B$3 * M8, 0)</f>
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7">
+        <f>ROUND(income!$F$3 * $M8, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="7">
         <f>ROUND(income!$C$3 * $M8, 0)</f>
-        <v>7</v>
-      </c>
-      <c r="P8" s="7">
-        <f>ROUND(income!$D$3 * $M8, 0)</f>
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="7">
         <v>0</v>
@@ -4840,15 +4705,15 @@
       </c>
       <c r="N9" s="7">
         <f>ROUND(income!$B$3 * M9, 0)</f>
-        <v>209</v>
+        <v>0</v>
       </c>
       <c r="O9" s="7">
+        <f>ROUND(income!$F$3 * $M9, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="7">
         <f>ROUND(income!$C$3 * $M9, 0)</f>
-        <v>8</v>
-      </c>
-      <c r="P9" s="7">
-        <f>ROUND(income!$D$3 * $M9, 0)</f>
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="7">
         <v>0</v>
@@ -4890,15 +4755,15 @@
       </c>
       <c r="N10" s="7">
         <f>ROUND(income!$B$3 * M10, 0)</f>
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7">
+        <f>ROUND(income!$F$3 * $M10, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="7">
         <f>ROUND(income!$C$3 * $M10, 0)</f>
-        <v>8</v>
-      </c>
-      <c r="P10" s="7">
-        <f>ROUND(income!$D$3 * $M10, 0)</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="7">
         <v>0</v>
@@ -4940,15 +4805,15 @@
       </c>
       <c r="N11" s="7">
         <f>ROUND(income!$B$3 * M11, 0)</f>
-        <v>231</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7">
+        <f>ROUND(income!$F$3 * $M11, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="7">
         <f>ROUND(income!$C$3 * $M11, 0)</f>
-        <v>8</v>
-      </c>
-      <c r="P11" s="7">
-        <f>ROUND(income!$D$3 * $M11, 0)</f>
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="7">
         <v>0</v>
@@ -4989,19 +4854,19 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="8">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="N12" s="7">
         <f>ROUND(income!$B$3 * M12, 0)</f>
-        <v>286</v>
+        <v>0</v>
       </c>
       <c r="O12" s="7">
+        <f>ROUND(income!$F$3 * $M12, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="7">
         <f>ROUND(income!$C$3 * $M12, 0)</f>
-        <v>10</v>
-      </c>
-      <c r="P12" s="7">
-        <f>ROUND(income!$D$3 * $M12, 0)</f>
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="7">
         <v>0</v>
@@ -5042,20 +4907,19 @@
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="8">
-        <f>M12+0.2</f>
-        <v>2.8000000000000003</v>
+        <v>3</v>
       </c>
       <c r="N13" s="7">
         <f>ROUND(income!$B$3 * M13, 0)</f>
-        <v>308</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7">
+        <f>ROUND(income!$F$3 * $M13, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P13" s="7">
         <f>ROUND(income!$C$3 * $M13, 0)</f>
-        <v>11</v>
-      </c>
-      <c r="P13" s="7">
-        <f>ROUND(income!$D$3 * $M13, 0)</f>
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="7">
         <v>0</v>
@@ -5097,19 +4961,19 @@
       <c r="L14" s="7"/>
       <c r="M14" s="8">
         <f>M13+0.2</f>
-        <v>3.0000000000000004</v>
+        <v>3.2</v>
       </c>
       <c r="N14" s="7">
         <f>ROUND(income!$B$3 * M14, 0)</f>
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7">
+        <f>ROUND(income!$F$3 * $M14, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="7">
         <f>ROUND(income!$C$3 * $M14, 0)</f>
-        <v>12</v>
-      </c>
-      <c r="P14" s="7">
-        <f>ROUND(income!$D$3 * $M14, 0)</f>
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="7">
         <v>0</v>
@@ -5148,15 +5012,15 @@
       </c>
       <c r="N16" s="7">
         <f>ROUND(income!$B$4 * $M16, 0)</f>
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7">
+        <f>ROUND(income!$F$4 * $M16, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="7">
         <f>ROUND(income!$C$4 * $M16, 0)</f>
-        <v>4</v>
-      </c>
-      <c r="P16" s="7">
-        <f>ROUND(income!$D$4 * $M16, 0)</f>
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="7">
         <v>0</v>
@@ -5194,15 +5058,15 @@
       </c>
       <c r="N17" s="7">
         <f>ROUND(income!$B$4 * $M17, 0)</f>
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7">
+        <f>ROUND(income!$F$4 * $M17, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="7">
         <f>ROUND(income!$C$4 * $M17, 0)</f>
-        <v>4</v>
-      </c>
-      <c r="P17" s="7">
-        <f>ROUND(income!$D$4 * $M17, 0)</f>
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="7">
         <v>0</v>
@@ -5240,15 +5104,15 @@
       </c>
       <c r="N18" s="7">
         <f>ROUND(income!$B$4 * $M18, 0)</f>
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="O18" s="7">
+        <f>ROUND(income!$F$4 * $M18, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P18" s="7">
         <f>ROUND(income!$C$4 * $M18, 0)</f>
-        <v>4</v>
-      </c>
-      <c r="P18" s="7">
-        <f>ROUND(income!$D$4 * $M18, 0)</f>
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="7">
         <v>0</v>
@@ -5286,15 +5150,15 @@
       </c>
       <c r="N19" s="7">
         <f>ROUND(income!$B$4 * $M19, 0)</f>
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="O19" s="7">
+        <f>ROUND(income!$F$4 * $M19, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P19" s="7">
         <f>ROUND(income!$C$4 * $M19, 0)</f>
-        <v>5</v>
-      </c>
-      <c r="P19" s="7">
-        <f>ROUND(income!$D$4 * $M19, 0)</f>
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="7">
         <v>0</v>
@@ -5332,15 +5196,15 @@
       </c>
       <c r="N20" s="7">
         <f>ROUND(income!$B$4 * $M20, 0)</f>
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7">
+        <f>ROUND(income!$F$4 * $M20, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P20" s="7">
         <f>ROUND(income!$C$4 * $M20, 0)</f>
-        <v>5</v>
-      </c>
-      <c r="P20" s="7">
-        <f>ROUND(income!$D$4 * $M20, 0)</f>
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="7">
         <v>0</v>
@@ -5381,15 +5245,15 @@
       </c>
       <c r="N21" s="7">
         <f>ROUND(income!$B$4 * $M21, 0)</f>
-        <v>223</v>
+        <v>0</v>
       </c>
       <c r="O21" s="7">
+        <f>ROUND(income!$F$4 * $M21, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="7">
         <f>ROUND(income!$C$4 * $M21, 0)</f>
-        <v>7</v>
-      </c>
-      <c r="P21" s="7">
-        <f>ROUND(income!$D$4 * $M21, 0)</f>
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="7">
         <v>0</v>
@@ -5431,15 +5295,15 @@
       </c>
       <c r="N22" s="7">
         <f>ROUND(income!$B$4 * $M22, 0)</f>
-        <v>236</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7">
+        <f>ROUND(income!$F$4 * $M22, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P22" s="7">
         <f>ROUND(income!$C$4 * $M22, 0)</f>
-        <v>8</v>
-      </c>
-      <c r="P22" s="7">
-        <f>ROUND(income!$D$4 * $M22, 0)</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="7">
         <v>0</v>
@@ -5481,15 +5345,15 @@
       </c>
       <c r="N23" s="7">
         <f>ROUND(income!$B$4 * $M23, 0)</f>
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="O23" s="7">
+        <f>ROUND(income!$F$4 * $M23, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P23" s="7">
         <f>ROUND(income!$C$4 * $M23, 0)</f>
-        <v>8</v>
-      </c>
-      <c r="P23" s="7">
-        <f>ROUND(income!$D$4 * $M23, 0)</f>
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="7">
         <v>0</v>
@@ -5531,15 +5395,15 @@
       </c>
       <c r="N24" s="7">
         <f>ROUND(income!$B$4 * $M24, 0)</f>
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="O24" s="7">
+        <f>ROUND(income!$F$4 * $M24, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P24" s="7">
         <f>ROUND(income!$C$4 * $M24, 0)</f>
-        <v>8</v>
-      </c>
-      <c r="P24" s="7">
-        <f>ROUND(income!$D$4 * $M24, 0)</f>
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="7">
         <v>0</v>
@@ -5580,19 +5444,19 @@
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="8">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="N25" s="7">
         <f>ROUND(income!$B$4 * $M25, 0)</f>
-        <v>322</v>
+        <v>0</v>
       </c>
       <c r="O25" s="7">
+        <f>ROUND(income!$F$4 * $M25, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P25" s="7">
         <f>ROUND(income!$C$4 * $M25, 0)</f>
-        <v>10</v>
-      </c>
-      <c r="P25" s="7">
-        <f>ROUND(income!$D$4 * $M25, 0)</f>
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="7">
         <v>0</v>
@@ -5633,20 +5497,19 @@
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
       <c r="M26" s="8">
-        <f>M25+0.2</f>
-        <v>2.8000000000000003</v>
+        <v>3</v>
       </c>
       <c r="N26" s="7">
         <f>ROUND(income!$B$4 * $M26, 0)</f>
-        <v>347</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7">
+        <f>ROUND(income!$F$4 * $M26, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P26" s="7">
         <f>ROUND(income!$C$4 * $M26, 0)</f>
-        <v>11</v>
-      </c>
-      <c r="P26" s="7">
-        <f>ROUND(income!$D$4 * $M26, 0)</f>
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="7">
         <v>0</v>
@@ -5688,19 +5551,19 @@
       <c r="L27" s="7"/>
       <c r="M27" s="8">
         <f>M26+0.2</f>
-        <v>3.0000000000000004</v>
+        <v>3.2</v>
       </c>
       <c r="N27" s="7">
         <f>ROUND(income!$B$4 * $M27, 0)</f>
-        <v>372</v>
+        <v>0</v>
       </c>
       <c r="O27" s="7">
+        <f>ROUND(income!$F$4 * $M27, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P27" s="7">
         <f>ROUND(income!$C$4 * $M27, 0)</f>
-        <v>12</v>
-      </c>
-      <c r="P27" s="7">
-        <f>ROUND(income!$D$4 * $M27, 0)</f>
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="7">
         <v>0</v>
@@ -5739,15 +5602,15 @@
       </c>
       <c r="N29" s="7">
         <f>ROUND(income!$B$5 * $M29, 0)</f>
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="O29" s="7">
+        <f>ROUND(income!$F$5 * $M29, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P29" s="7">
         <f>ROUND(income!$C$5 * $M29, 0)</f>
-        <v>5</v>
-      </c>
-      <c r="P29" s="7">
-        <f>ROUND(income!$D$5 * $M29, 0)</f>
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="7">
         <v>0</v>
@@ -5785,15 +5648,15 @@
       </c>
       <c r="N30" s="7">
         <f>ROUND(income!$B$5 * $M30, 0)</f>
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="O30" s="7">
+        <f>ROUND(income!$F$5 * $M30, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P30" s="7">
         <f>ROUND(income!$C$5 * $M30, 0)</f>
-        <v>5</v>
-      </c>
-      <c r="P30" s="7">
-        <f>ROUND(income!$D$5 * $M30, 0)</f>
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="7">
         <v>0</v>
@@ -5831,15 +5694,15 @@
       </c>
       <c r="N31" s="7">
         <f>ROUND(income!$B$5 * $M31, 0)</f>
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="O31" s="7">
+        <f>ROUND(income!$F$5 * $M31, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P31" s="7">
         <f>ROUND(income!$C$5 * $M31, 0)</f>
-        <v>6</v>
-      </c>
-      <c r="P31" s="7">
-        <f>ROUND(income!$D$5 * $M31, 0)</f>
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="7">
         <v>0</v>
@@ -5877,15 +5740,15 @@
       </c>
       <c r="N32" s="7">
         <f>ROUND(income!$B$5 * $M32, 0)</f>
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="O32" s="7">
+        <f>ROUND(income!$F$5 * $M32, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P32" s="7">
         <f>ROUND(income!$C$5 * $M32, 0)</f>
-        <v>6</v>
-      </c>
-      <c r="P32" s="7">
-        <f>ROUND(income!$D$5 * $M32, 0)</f>
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="7">
         <v>0</v>
@@ -5923,15 +5786,15 @@
       </c>
       <c r="N33" s="7">
         <f>ROUND(income!$B$5 * $M33, 0)</f>
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="O33" s="7">
+        <f>ROUND(income!$F$5 * $M33, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P33" s="7">
         <f>ROUND(income!$C$5 * $M33, 0)</f>
-        <v>6</v>
-      </c>
-      <c r="P33" s="7">
-        <f>ROUND(income!$D$5 * $M33, 0)</f>
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="7">
         <v>0</v>
@@ -5972,15 +5835,15 @@
       </c>
       <c r="N34" s="7">
         <f>ROUND(income!$B$5 * $M34, 0)</f>
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="O34" s="7">
+        <f>ROUND(income!$F$5 * $M34, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P34" s="7">
         <f>ROUND(income!$C$5 * $M34, 0)</f>
-        <v>9</v>
-      </c>
-      <c r="P34" s="7">
-        <f>ROUND(income!$D$5 * $M34, 0)</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="7">
         <v>0</v>
@@ -6022,15 +5885,15 @@
       </c>
       <c r="N35" s="7">
         <f>ROUND(income!$B$5 * $M35, 0)</f>
-        <v>262</v>
+        <v>0</v>
       </c>
       <c r="O35" s="7">
+        <f>ROUND(income!$F$5 * $M35, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P35" s="7">
         <f>ROUND(income!$C$5 * $M35, 0)</f>
-        <v>10</v>
-      </c>
-      <c r="P35" s="7">
-        <f>ROUND(income!$D$5 * $M35, 0)</f>
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="7">
         <v>0</v>
@@ -6072,15 +5935,15 @@
       </c>
       <c r="N36" s="7">
         <f>ROUND(income!$B$5 * $M36, 0)</f>
-        <v>276</v>
+        <v>0</v>
       </c>
       <c r="O36" s="7">
+        <f>ROUND(income!$F$5 * $M36, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P36" s="7">
         <f>ROUND(income!$C$5 * $M36, 0)</f>
-        <v>10</v>
-      </c>
-      <c r="P36" s="7">
-        <f>ROUND(income!$D$5 * $M36, 0)</f>
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="7">
         <v>0</v>
@@ -6122,15 +5985,15 @@
       </c>
       <c r="N37" s="7">
         <f>ROUND(income!$B$5 * $M37, 0)</f>
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="O37" s="7">
+        <f>ROUND(income!$F$5 * $M37, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P37" s="7">
         <f>ROUND(income!$C$5 * $M37, 0)</f>
-        <v>11</v>
-      </c>
-      <c r="P37" s="7">
-        <f>ROUND(income!$D$5 * $M37, 0)</f>
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="Q37" s="7">
         <v>0</v>
@@ -6171,19 +6034,19 @@
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
       <c r="M38" s="8">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="N38" s="7">
         <f>ROUND(income!$B$5 * $M38, 0)</f>
-        <v>359</v>
+        <v>0</v>
       </c>
       <c r="O38" s="7">
+        <f>ROUND(income!$F$5 * $M38, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P38" s="7">
         <f>ROUND(income!$C$5 * $M38, 0)</f>
-        <v>13</v>
-      </c>
-      <c r="P38" s="7">
-        <f>ROUND(income!$D$5 * $M38, 0)</f>
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="Q38" s="7">
         <v>0</v>
@@ -6224,20 +6087,19 @@
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
       <c r="M39" s="8">
-        <f>M38+0.2</f>
-        <v>2.8000000000000003</v>
+        <v>3</v>
       </c>
       <c r="N39" s="7">
         <f>ROUND(income!$B$5 * $M39, 0)</f>
-        <v>386</v>
+        <v>0</v>
       </c>
       <c r="O39" s="7">
+        <f>ROUND(income!$F$5 * $M39, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P39" s="7">
         <f>ROUND(income!$C$5 * $M39, 0)</f>
-        <v>14</v>
-      </c>
-      <c r="P39" s="7">
-        <f>ROUND(income!$D$5 * $M39, 0)</f>
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="Q39" s="7">
         <v>0</v>
@@ -6279,19 +6141,19 @@
       <c r="L40" s="7"/>
       <c r="M40" s="8">
         <f>M39+0.2</f>
-        <v>3.0000000000000004</v>
+        <v>3.2</v>
       </c>
       <c r="N40" s="7">
         <f>ROUND(income!$B$5 * $M40, 0)</f>
-        <v>414</v>
+        <v>0</v>
       </c>
       <c r="O40" s="7">
+        <f>ROUND(income!$F$5 * $M40, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P40" s="7">
         <f>ROUND(income!$C$5 * $M40, 0)</f>
-        <v>15</v>
-      </c>
-      <c r="P40" s="7">
-        <f>ROUND(income!$D$5 * $M40, 0)</f>
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="Q40" s="7">
         <v>0</v>
@@ -6397,15 +6259,15 @@
       </c>
       <c r="N3" s="7">
         <f>ROUND(income!$B$3 * $M3, 0)</f>
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="O3" s="7">
+        <f>ROUND(income!$F$3 * $M3, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="7">
         <f>ROUND(income!$C$3 * $M3, 0)</f>
-        <v>8</v>
-      </c>
-      <c r="P3" s="7">
-        <f>ROUND(income!$D$3 * $M3, 0)</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="7">
         <v>0</v>
@@ -6433,15 +6295,15 @@
       </c>
       <c r="N4" s="7">
         <f>ROUND(income!$B$3 * $M4, 0)</f>
-        <v>242</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7">
+        <f>ROUND(income!$F$3 * $M4, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="7">
         <f>ROUND(income!$C$3 * $M4, 0)</f>
-        <v>9</v>
-      </c>
-      <c r="P4" s="7">
-        <f>ROUND(income!$D$3 * $M4, 0)</f>
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="7">
         <v>0</v>
@@ -6478,15 +6340,15 @@
       </c>
       <c r="N6" s="7">
         <f>ROUND(income!$B$4 * $M6, 0)</f>
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7">
+        <f>ROUND(income!$F$4 * $M6, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="7">
         <f>ROUND(income!$C$4 * $M6, 0)</f>
-        <v>8</v>
-      </c>
-      <c r="P6" s="7">
-        <f>ROUND(income!$D$4 * $M6, 0)</f>
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="7">
         <v>0</v>
@@ -6522,15 +6384,15 @@
       </c>
       <c r="N7" s="7">
         <f>ROUND(income!$B$4 * $M7, 0)</f>
-        <v>273</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7">
+        <f>ROUND(income!$F$4 * $M7, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="7">
         <f>ROUND(income!$C$4 * $M7, 0)</f>
-        <v>9</v>
-      </c>
-      <c r="P7" s="7">
-        <f>ROUND(income!$D$4 * $M7, 0)</f>
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="7">
         <v>0</v>
@@ -6585,15 +6447,15 @@
       </c>
       <c r="N9" s="7">
         <f>ROUND(income!$B$5 * $M9, 0)</f>
-        <v>276</v>
+        <v>0</v>
       </c>
       <c r="O9" s="7">
+        <f>ROUND(income!$F$5 * $M9, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="7">
         <f>ROUND(income!$C$5 * $M9, 0)</f>
-        <v>10</v>
-      </c>
-      <c r="P9" s="7">
-        <f>ROUND(income!$D$5 * $M9, 0)</f>
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="7">
         <v>0</v>
@@ -6633,15 +6495,15 @@
       </c>
       <c r="N10" s="7">
         <f>ROUND(income!$B$5 * $M10, 0)</f>
-        <v>524</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7">
+        <f>ROUND(income!$F$5 * $M10, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="7">
         <f>ROUND(income!$C$5 * $M10, 0)</f>
-        <v>19</v>
-      </c>
-      <c r="P10" s="7">
-        <f>ROUND(income!$D$5 * $M10, 0)</f>
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="7">
         <v>0</v>
@@ -6700,19 +6562,19 @@
       </c>
       <c r="N12" s="7">
         <f>ROUND(income!$B$6 * $M12, 0)</f>
-        <v>608</v>
+        <v>0</v>
       </c>
       <c r="O12" s="7">
+        <f>ROUND(income!$F$6 * $M12, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="7">
         <f>ROUND(income!$C$6 * $M12, 0)</f>
-        <v>20</v>
-      </c>
-      <c r="P12" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="7">
         <f>ROUND(income!$D$6 * $M12, 0)</f>
-        <v>164</v>
-      </c>
-      <c r="Q12" s="7">
-        <f>ROUND(income!$E$6 * $M12, 0)</f>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="R12" s="7">
         <v>0</v>
@@ -6749,19 +6611,19 @@
       </c>
       <c r="N13" s="7">
         <f>ROUND(income!$B$6 * $M13, 0)</f>
-        <v>669</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7">
+        <f>ROUND(income!$F$6 * $M13, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P13" s="7">
         <f>ROUND(income!$C$6 * $M13, 0)</f>
-        <v>22</v>
-      </c>
-      <c r="P13" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="7">
         <f>ROUND(income!$D$6 * $M13, 0)</f>
-        <v>180</v>
-      </c>
-      <c r="Q13" s="7">
-        <f>ROUND(income!$E$6 * $M13, 0)</f>
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="R13" s="7">
         <v>0</v>
@@ -6817,19 +6679,19 @@
       </c>
       <c r="N15" s="7">
         <f>ROUND(income!$B$7 * $M15, 0)</f>
-        <v>664</v>
+        <v>0</v>
       </c>
       <c r="O15" s="7">
+        <f>ROUND(income!$F$7 * $M15, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="7">
         <f>ROUND(income!$C$7 * $M15, 0)</f>
-        <v>24</v>
-      </c>
-      <c r="P15" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="7">
         <f>ROUND(income!$D$7 * $M15, 0)</f>
-        <v>172</v>
-      </c>
-      <c r="Q15" s="7">
-        <f>ROUND(income!$E$7 * $M15, 0)</f>
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="R15" s="7">
         <v>0</v>
@@ -6866,19 +6728,19 @@
       </c>
       <c r="N16" s="7">
         <f>ROUND(income!$B$7 * $M16, 0)</f>
-        <v>730</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7">
+        <f>ROUND(income!$F$7 * $M16, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="7">
         <f>ROUND(income!$C$7 * $M16, 0)</f>
-        <v>26</v>
-      </c>
-      <c r="P16" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="7">
         <f>ROUND(income!$D$7 * $M16, 0)</f>
-        <v>189</v>
-      </c>
-      <c r="Q16" s="7">
-        <f>ROUND(income!$E$7 * $M16, 0)</f>
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="R16" s="7">
         <v>0</v>
@@ -6918,19 +6780,19 @@
       </c>
       <c r="N18" s="7">
         <f>ROUND(income!$B$8 * $M18, 0)</f>
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="O18" s="7">
+        <f>ROUND(income!$F$8 * $M18, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P18" s="7">
         <f>ROUND(income!$C$8 * $M18, 0)</f>
-        <v>24</v>
-      </c>
-      <c r="P18" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="7">
         <f>ROUND(income!$D$8 * $M18, 0)</f>
-        <v>180</v>
-      </c>
-      <c r="Q18" s="7">
-        <f>ROUND(income!$E$8 * $M18, 0)</f>
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="R18" s="7">
         <v>0</v>
@@ -6969,19 +6831,19 @@
       </c>
       <c r="N19" s="7">
         <f>ROUND(income!$B$8 * $M19, 0)</f>
-        <v>1008</v>
+        <v>0</v>
       </c>
       <c r="O19" s="7">
+        <f>ROUND(income!$F$8 * $M19, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P19" s="7">
         <f>ROUND(income!$C$8 * $M19, 0)</f>
-        <v>34</v>
-      </c>
-      <c r="P19" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="7">
         <f>ROUND(income!$D$8 * $M19, 0)</f>
-        <v>252</v>
-      </c>
-      <c r="Q19" s="7">
-        <f>ROUND(income!$E$8 * $M19, 0)</f>
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="R19" s="7">
         <v>0</v>
@@ -7433,15 +7295,15 @@
       </c>
       <c r="N3" s="7">
         <f>ROUND(income!B$3 * $M3, 0)</f>
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="O3" s="7">
+        <f>ROUND(income!F$3 * $M3, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="7">
         <f>ROUND(income!C$3 * $M3, 0)</f>
-        <v>12</v>
-      </c>
-      <c r="P3" s="7">
-        <f>ROUND(income!D$3 * $M3, 0)</f>
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="7">
         <v>0</v>
@@ -7504,15 +7366,15 @@
       </c>
       <c r="N5" s="7">
         <f>ROUND(income!$B$4 * $M5, 0)</f>
-        <v>384</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7">
+        <f>ROUND(income!$F$4 * $M5, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="7">
         <f>ROUND(income!$C$4 * $M5, 0)</f>
-        <v>12</v>
-      </c>
-      <c r="P5" s="7">
-        <f>ROUND(income!$D$4 * $M5, 0)</f>
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="7">
         <v>0</v>
@@ -7579,15 +7441,15 @@
       </c>
       <c r="N7" s="7">
         <f>ROUND(income!$B$5 * $M7, 0)</f>
-        <v>442</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7">
+        <f>ROUND(income!$F$5 * $M7, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="7">
         <f>ROUND(income!$C$5 * $M7, 0)</f>
-        <v>16</v>
-      </c>
-      <c r="P7" s="7">
-        <f>ROUND(income!$D$5 * $M7, 0)</f>
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="7">
         <v>0</v>
@@ -7654,19 +7516,19 @@
       </c>
       <c r="N9" s="7">
         <f>ROUND(income!$B$6 * $M9, 0)</f>
-        <v>502</v>
+        <v>0</v>
       </c>
       <c r="O9" s="7">
+        <f>ROUND(income!$F$6 * $M9, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="7">
         <f>ROUND(income!$C$6 * $M9, 0)</f>
-        <v>17</v>
-      </c>
-      <c r="P9" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="7">
         <f>ROUND(income!$D$6 * $M9, 0)</f>
-        <v>135</v>
-      </c>
-      <c r="Q9" s="7">
-        <f>ROUND(income!$E$6 * $M9, 0)</f>
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="R9" s="7">
         <v>0</v>
@@ -7730,19 +7592,19 @@
       </c>
       <c r="N11" s="7">
         <f>ROUND(income!$B$7 * $M11, 0)</f>
-        <v>564</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7">
+        <f>ROUND(income!$F$7 * $M11, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="7">
         <f>ROUND(income!$C$7 * $M11, 0)</f>
-        <v>20</v>
-      </c>
-      <c r="P11" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="7">
         <f>ROUND(income!$D$7 * $M11, 0)</f>
-        <v>146</v>
-      </c>
-      <c r="Q11" s="7">
-        <f>ROUND(income!$E$7 * $M11, 0)</f>
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="R11" s="7">
         <v>0</v>
@@ -7802,19 +7664,19 @@
       </c>
       <c r="N13" s="7">
         <f>ROUND(income!$B$8 * $M13, 0)</f>
-        <v>630</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7">
+        <f>ROUND(income!$F$8 * $M13, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P13" s="7">
         <f>ROUND(income!$C$8 * $M13, 0)</f>
-        <v>21</v>
-      </c>
-      <c r="P13" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="7">
         <f>ROUND(income!$D$8 * $M13, 0)</f>
-        <v>158</v>
-      </c>
-      <c r="Q13" s="7">
-        <f>ROUND(income!$E$8 * $M13, 0)</f>
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="R13" s="7">
         <v>0</v>
@@ -7848,23 +7710,23 @@
       </c>
       <c r="N15" s="7">
         <f>ROUND(income!B$9 * $M15, 0)</f>
-        <v>698</v>
+        <v>0</v>
       </c>
       <c r="O15" s="7">
+        <f>ROUND(income!F$9 * $M15, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="7">
         <f>ROUND(income!C$9 * $M15, 0)</f>
-        <v>25</v>
-      </c>
-      <c r="P15" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="7">
         <f>ROUND(income!D$9 * $M15, 0)</f>
-        <v>169</v>
-      </c>
-      <c r="Q15" s="7">
+        <v>0</v>
+      </c>
+      <c r="R15" s="7">
         <f>ROUND(income!E$9 * $M15, 0)</f>
-        <v>94</v>
-      </c>
-      <c r="R15" s="7">
-        <f>ROUND(income!F$9 * $M15, 0)</f>
-        <v>47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -7897,23 +7759,23 @@
       </c>
       <c r="N17" s="7">
         <f>ROUND(income!B$10 * $M17, 0)</f>
-        <v>770</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7">
+        <f>ROUND(income!F$10 * $M17, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="7">
         <f>ROUND(income!C$10 * $M17, 0)</f>
-        <v>26</v>
-      </c>
-      <c r="P17" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="7">
         <f>ROUND(income!D$10 * $M17, 0)</f>
-        <v>181</v>
-      </c>
-      <c r="Q17" s="7">
+        <v>0</v>
+      </c>
+      <c r="R17" s="7">
         <f>ROUND(income!E$10 * $M17, 0)</f>
-        <v>104</v>
-      </c>
-      <c r="R17" s="7">
-        <f>ROUND(income!F$10 * $M17, 0)</f>
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -7946,23 +7808,23 @@
       </c>
       <c r="N19" s="7">
         <f>ROUND(income!B$11 * $M19, 0)</f>
-        <v>844</v>
+        <v>0</v>
       </c>
       <c r="O19" s="7">
+        <f>ROUND(income!F$11 * $M19, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P19" s="7">
         <f>ROUND(income!C$11 * $M19, 0)</f>
-        <v>30</v>
-      </c>
-      <c r="P19" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="7">
         <f>ROUND(income!D$11 * $M19, 0)</f>
-        <v>194</v>
-      </c>
-      <c r="Q19" s="7">
+        <v>0</v>
+      </c>
+      <c r="R19" s="7">
         <f>ROUND(income!E$11 * $M19, 0)</f>
-        <v>114</v>
-      </c>
-      <c r="R19" s="7">
-        <f>ROUND(income!F$11 * $M19, 0)</f>
-        <v>57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -8142,15 +8004,15 @@
       </c>
       <c r="N3" s="7">
         <f>ROUND(income!$B$3 * $M3, 0)</f>
-        <v>440</v>
+        <v>0</v>
       </c>
       <c r="O3" s="7">
+        <f>ROUND(income!$F$3 * $M3, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="7">
         <f>ROUND(income!$C$3 * $M3, 0)</f>
-        <v>16</v>
-      </c>
-      <c r="P3" s="7">
-        <f>ROUND(income!$D$3 * $M3, 0)</f>
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="7">
         <v>0</v>
@@ -8180,15 +8042,15 @@
       </c>
       <c r="N4" s="7">
         <f>ROUND(income!$B$3 * M4, 0)</f>
-        <v>446</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7">
+        <f>ROUND(income!$F$3 * $M4, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="7">
         <f>ROUND(income!$C$3 * $M4, 0)</f>
-        <v>16</v>
-      </c>
-      <c r="P4" s="7">
-        <f>ROUND(income!$D$3 * $M4, 0)</f>
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="7">
         <v>0</v>
@@ -8218,15 +8080,15 @@
       </c>
       <c r="N5" s="7">
         <f>ROUND(income!$B$3 * M5, 0)</f>
-        <v>451</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7">
+        <f>ROUND(income!$F$3 * $M5, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="7">
         <f>ROUND(income!$C$3 * $M5, 0)</f>
-        <v>16</v>
-      </c>
-      <c r="P5" s="7">
-        <f>ROUND(income!$D$3 * $M5, 0)</f>
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="7">
         <v>0</v>
@@ -8256,15 +8118,15 @@
       </c>
       <c r="N6" s="7">
         <f>ROUND(income!$B$3 * M6, 0)</f>
-        <v>457</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7">
+        <f>ROUND(income!$F$3 * $M6, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="7">
         <f>ROUND(income!$C$3 * $M6, 0)</f>
-        <v>17</v>
-      </c>
-      <c r="P6" s="7">
-        <f>ROUND(income!$D$3 * $M6, 0)</f>
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="7">
         <v>0</v>
@@ -8300,15 +8162,15 @@
       </c>
       <c r="N7" s="7">
         <f>ROUND(income!$B$3 * M7, 0)</f>
-        <v>462</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7">
+        <f>ROUND(income!$F$3 * $M7, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="7">
         <f>ROUND(income!$C$3 * $M7, 0)</f>
-        <v>17</v>
-      </c>
-      <c r="P7" s="7">
-        <f>ROUND(income!$D$3 * $M7, 0)</f>
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="7">
         <v>0</v>
@@ -8344,15 +8206,15 @@
       </c>
       <c r="N8" s="7">
         <f>ROUND(income!$B$3 * M8, 0)</f>
-        <v>468</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7">
+        <f>ROUND(income!$F$3 * $M8, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="7">
         <f>ROUND(income!$C$3 * $M8, 0)</f>
-        <v>17</v>
-      </c>
-      <c r="P8" s="7">
-        <f>ROUND(income!$D$3 * $M8, 0)</f>
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="7">
         <v>0</v>
@@ -8388,15 +8250,15 @@
       </c>
       <c r="N9" s="7">
         <f>ROUND(income!$B$3 * M9, 0)</f>
-        <v>473</v>
+        <v>0</v>
       </c>
       <c r="O9" s="7">
+        <f>ROUND(income!$F$3 * $M9, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="7">
         <f>ROUND(income!$C$3 * $M9, 0)</f>
-        <v>17</v>
-      </c>
-      <c r="P9" s="7">
-        <f>ROUND(income!$D$3 * $M9, 0)</f>
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="7">
         <v>0</v>
@@ -8432,15 +8294,15 @@
       </c>
       <c r="N10" s="7">
         <f>ROUND(income!$B$3 * M10, 0)</f>
-        <v>479</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7">
+        <f>ROUND(income!$F$3 * $M10, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="7">
         <f>ROUND(income!$C$3 * $M10, 0)</f>
-        <v>17</v>
-      </c>
-      <c r="P10" s="7">
-        <f>ROUND(income!$D$3 * $M10, 0)</f>
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="7">
         <v>0</v>
@@ -8482,15 +8344,15 @@
       </c>
       <c r="N11" s="7">
         <f>ROUND(income!$B$3 * M11, 0)</f>
-        <v>484</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7">
+        <f>ROUND(income!$F$3 * $M11, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="7">
         <f>ROUND(income!$C$3 * $M11, 0)</f>
-        <v>18</v>
-      </c>
-      <c r="P11" s="7">
-        <f>ROUND(income!$D$3 * $M11, 0)</f>
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="7">
         <v>0</v>
@@ -8532,15 +8394,15 @@
       </c>
       <c r="N12" s="7">
         <f>ROUND(income!$B$3 * M12, 0)</f>
-        <v>490</v>
+        <v>0</v>
       </c>
       <c r="O12" s="7">
+        <f>ROUND(income!$F$3 * $M12, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="7">
         <f>ROUND(income!$C$3 * $M12, 0)</f>
-        <v>18</v>
-      </c>
-      <c r="P12" s="7">
-        <f>ROUND(income!$D$3 * $M12, 0)</f>
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="7">
         <v>0</v>
@@ -8585,15 +8447,15 @@
       </c>
       <c r="N14" s="7">
         <f>ROUND(income!$B$4 * $M14, 0)</f>
-        <v>496</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7">
+        <f>ROUND(income!$F$4 * $M14, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="7">
         <f>ROUND(income!$C$4 * $M14, 0)</f>
-        <v>16</v>
-      </c>
-      <c r="P14" s="7">
-        <f>ROUND(income!$D$4 * $M14, 0)</f>
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="7">
         <v>0</v>
@@ -8623,15 +8485,15 @@
       </c>
       <c r="N15" s="7">
         <f>ROUND(income!$B$4 * $M15, 0)</f>
-        <v>502</v>
+        <v>0</v>
       </c>
       <c r="O15" s="7">
+        <f>ROUND(income!$F$4 * $M15, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="7">
         <f>ROUND(income!$C$4 * $M15, 0)</f>
-        <v>16</v>
-      </c>
-      <c r="P15" s="7">
-        <f>ROUND(income!$D$4 * $M15, 0)</f>
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="7">
         <v>0</v>
@@ -8661,15 +8523,15 @@
       </c>
       <c r="N16" s="7">
         <f>ROUND(income!$B$4 * $M16, 0)</f>
-        <v>508</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7">
+        <f>ROUND(income!$F$4 * $M16, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="7">
         <f>ROUND(income!$C$4 * $M16, 0)</f>
-        <v>16</v>
-      </c>
-      <c r="P16" s="7">
-        <f>ROUND(income!$D$4 * $M16, 0)</f>
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="7">
         <v>0</v>
@@ -8705,15 +8567,15 @@
       </c>
       <c r="N17" s="7">
         <f>ROUND(income!$B$4 * $M17, 0)</f>
-        <v>515</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7">
+        <f>ROUND(income!$F$4 * $M17, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="7">
         <f>ROUND(income!$C$4 * $M17, 0)</f>
-        <v>17</v>
-      </c>
-      <c r="P17" s="7">
-        <f>ROUND(income!$D$4 * $M17, 0)</f>
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="7">
         <v>0</v>
@@ -8749,15 +8611,15 @@
       </c>
       <c r="N18" s="7">
         <f>ROUND(income!$B$4 * $M18, 0)</f>
-        <v>521</v>
+        <v>0</v>
       </c>
       <c r="O18" s="7">
+        <f>ROUND(income!$F$4 * $M18, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P18" s="7">
         <f>ROUND(income!$C$4 * $M18, 0)</f>
-        <v>17</v>
-      </c>
-      <c r="P18" s="7">
-        <f>ROUND(income!$D$4 * $M18, 0)</f>
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="7">
         <v>0</v>
@@ -8787,15 +8649,15 @@
       </c>
       <c r="N19" s="7">
         <f>ROUND(income!$B$4 * $M19, 0)</f>
-        <v>527</v>
+        <v>0</v>
       </c>
       <c r="O19" s="7">
+        <f>ROUND(income!$F$4 * $M19, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P19" s="7">
         <f>ROUND(income!$C$4 * $M19, 0)</f>
-        <v>17</v>
-      </c>
-      <c r="P19" s="7">
-        <f>ROUND(income!$D$4 * $M19, 0)</f>
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="7">
         <v>0</v>
@@ -8831,15 +8693,15 @@
       </c>
       <c r="N20" s="7">
         <f>ROUND(income!$B$4 * $M20, 0)</f>
-        <v>533</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7">
+        <f>ROUND(income!$F$4 * $M20, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P20" s="7">
         <f>ROUND(income!$C$4 * $M20, 0)</f>
-        <v>17</v>
-      </c>
-      <c r="P20" s="7">
-        <f>ROUND(income!$D$4 * $M20, 0)</f>
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="7">
         <v>0</v>
@@ -8875,15 +8737,15 @@
       </c>
       <c r="N21" s="7">
         <f>ROUND(income!$B$4 * $M21, 0)</f>
-        <v>539</v>
+        <v>0</v>
       </c>
       <c r="O21" s="7">
+        <f>ROUND(income!$F$4 * $M21, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="7">
         <f>ROUND(income!$C$4 * $M21, 0)</f>
-        <v>17</v>
-      </c>
-      <c r="P21" s="7">
-        <f>ROUND(income!$D$4 * $M21, 0)</f>
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="7">
         <v>0</v>
@@ -8913,15 +8775,15 @@
       </c>
       <c r="N22" s="7">
         <f>ROUND(income!$B$4 * $M22, 0)</f>
-        <v>546</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7">
+        <f>ROUND(income!$F$4 * $M22, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P22" s="7">
         <f>ROUND(income!$C$4 * $M22, 0)</f>
-        <v>18</v>
-      </c>
-      <c r="P22" s="7">
-        <f>ROUND(income!$D$4 * $M22, 0)</f>
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="7">
         <v>0</v>
@@ -8957,15 +8819,15 @@
       </c>
       <c r="N23" s="7">
         <f>ROUND(income!$B$4 * $M23, 0)</f>
-        <v>552</v>
+        <v>0</v>
       </c>
       <c r="O23" s="7">
+        <f>ROUND(income!$F$4 * $M23, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P23" s="7">
         <f>ROUND(income!$C$4 * $M23, 0)</f>
-        <v>18</v>
-      </c>
-      <c r="P23" s="7">
-        <f>ROUND(income!$D$4 * $M23, 0)</f>
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="7">
         <v>0</v>
@@ -9001,15 +8863,15 @@
       </c>
       <c r="N24" s="7">
         <f>ROUND(income!$B$4 * $M24, 0)</f>
-        <v>558</v>
+        <v>0</v>
       </c>
       <c r="O24" s="7">
+        <f>ROUND(income!$F$4 * $M24, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P24" s="7">
         <f>ROUND(income!$C$4 * $M24, 0)</f>
-        <v>18</v>
-      </c>
-      <c r="P24" s="7">
-        <f>ROUND(income!$D$4 * $M24, 0)</f>
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="7">
         <v>0</v>
@@ -9039,15 +8901,15 @@
       </c>
       <c r="N25" s="7">
         <f>ROUND(income!$B$4 * $M25, 0)</f>
-        <v>564</v>
+        <v>0</v>
       </c>
       <c r="O25" s="7">
+        <f>ROUND(income!$F$4 * $M25, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P25" s="7">
         <f>ROUND(income!$C$4 * $M25, 0)</f>
-        <v>18</v>
-      </c>
-      <c r="P25" s="7">
-        <f>ROUND(income!$D$4 * $M25, 0)</f>
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="7">
         <v>0</v>
@@ -9089,15 +8951,15 @@
       </c>
       <c r="N26" s="7">
         <f>ROUND(income!$B$4 * $M26, 0)</f>
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7">
+        <f>ROUND(income!$F$4 * $M26, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P26" s="7">
         <f>ROUND(income!$C$4 * $M26, 0)</f>
-        <v>18</v>
-      </c>
-      <c r="P26" s="7">
-        <f>ROUND(income!$D$4 * $M26, 0)</f>
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="7">
         <v>0</v>
@@ -9139,15 +9001,15 @@
       </c>
       <c r="N27" s="7">
         <f>ROUND(income!$B$4 * $M27, 0)</f>
-        <v>577</v>
+        <v>0</v>
       </c>
       <c r="O27" s="7">
+        <f>ROUND(income!$F$4 * $M27, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P27" s="7">
         <f>ROUND(income!$C$4 * $M27, 0)</f>
-        <v>19</v>
-      </c>
-      <c r="P27" s="7">
-        <f>ROUND(income!$D$4 * $M27, 0)</f>
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="7">
         <v>0</v>
@@ -9179,15 +9041,15 @@
       </c>
       <c r="N29" s="7">
         <f>ROUND(income!$B$5 * $M29, 0)</f>
-        <v>552</v>
+        <v>0</v>
       </c>
       <c r="O29" s="7">
+        <f>ROUND(income!$F$5 * $M29, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P29" s="7">
         <f>ROUND(income!$C$5 * $M29, 0)</f>
-        <v>20</v>
-      </c>
-      <c r="P29" s="7">
-        <f>ROUND(income!$D$5 * $M29, 0)</f>
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="7">
         <v>0</v>
@@ -9217,15 +9079,15 @@
       </c>
       <c r="N30" s="7">
         <f>ROUND(income!$B$5 * $M30, 0)</f>
-        <v>559</v>
+        <v>0</v>
       </c>
       <c r="O30" s="7">
+        <f>ROUND(income!$F$5 * $M30, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P30" s="7">
         <f>ROUND(income!$C$5 * $M30, 0)</f>
-        <v>20</v>
-      </c>
-      <c r="P30" s="7">
-        <f>ROUND(income!$D$5 * $M30, 0)</f>
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="7">
         <v>0</v>
@@ -9255,15 +9117,15 @@
       </c>
       <c r="N31" s="7">
         <f>ROUND(income!$B$5 * $M31, 0)</f>
-        <v>566</v>
+        <v>0</v>
       </c>
       <c r="O31" s="7">
+        <f>ROUND(income!$F$5 * $M31, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P31" s="7">
         <f>ROUND(income!$C$5 * $M31, 0)</f>
-        <v>21</v>
-      </c>
-      <c r="P31" s="7">
-        <f>ROUND(income!$D$5 * $M31, 0)</f>
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="7">
         <v>0</v>
@@ -9299,15 +9161,15 @@
       </c>
       <c r="N32" s="7">
         <f>ROUND(income!$B$5 * $M32, 0)</f>
-        <v>573</v>
+        <v>0</v>
       </c>
       <c r="O32" s="7">
+        <f>ROUND(income!$F$5 * $M32, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P32" s="7">
         <f>ROUND(income!$C$5 * $M32, 0)</f>
-        <v>21</v>
-      </c>
-      <c r="P32" s="7">
-        <f>ROUND(income!$D$5 * $M32, 0)</f>
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="7">
         <v>0</v>
@@ -9337,15 +9199,15 @@
       </c>
       <c r="N33" s="7">
         <f>ROUND(income!$B$5 * $M33, 0)</f>
-        <v>580</v>
+        <v>0</v>
       </c>
       <c r="O33" s="7">
+        <f>ROUND(income!$F$5 * $M33, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P33" s="7">
         <f>ROUND(income!$C$5 * $M33, 0)</f>
-        <v>21</v>
-      </c>
-      <c r="P33" s="7">
-        <f>ROUND(income!$D$5 * $M33, 0)</f>
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="7">
         <v>0</v>
@@ -9381,15 +9243,15 @@
       </c>
       <c r="N34" s="7">
         <f>ROUND(income!$B$5 * $M34, 0)</f>
-        <v>587</v>
+        <v>0</v>
       </c>
       <c r="O34" s="7">
+        <f>ROUND(income!$F$5 * $M34, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P34" s="7">
         <f>ROUND(income!$C$5 * $M34, 0)</f>
-        <v>21</v>
-      </c>
-      <c r="P34" s="7">
-        <f>ROUND(income!$D$5 * $M34, 0)</f>
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="7">
         <v>0</v>
@@ -9425,15 +9287,15 @@
       </c>
       <c r="N35" s="7">
         <f>ROUND(income!$B$5 * $M35, 0)</f>
-        <v>593</v>
+        <v>0</v>
       </c>
       <c r="O35" s="7">
+        <f>ROUND(income!$F$5 * $M35, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P35" s="7">
         <f>ROUND(income!$C$5 * $M35, 0)</f>
-        <v>22</v>
-      </c>
-      <c r="P35" s="7">
-        <f>ROUND(income!$D$5 * $M35, 0)</f>
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="7">
         <v>0</v>
@@ -9469,15 +9331,15 @@
       </c>
       <c r="N36" s="7">
         <f>ROUND(income!$B$5 * $M36, 0)</f>
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="O36" s="7">
+        <f>ROUND(income!$F$5 * $M36, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P36" s="7">
         <f>ROUND(income!$C$5 * $M36, 0)</f>
-        <v>22</v>
-      </c>
-      <c r="P36" s="7">
-        <f>ROUND(income!$D$5 * $M36, 0)</f>
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="7">
         <v>0</v>
@@ -9513,15 +9375,15 @@
       </c>
       <c r="N37" s="7">
         <f>ROUND(income!$B$5 * $M37, 0)</f>
-        <v>607</v>
+        <v>0</v>
       </c>
       <c r="O37" s="7">
+        <f>ROUND(income!$F$5 * $M37, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P37" s="7">
         <f>ROUND(income!$C$5 * $M37, 0)</f>
-        <v>22</v>
-      </c>
-      <c r="P37" s="7">
-        <f>ROUND(income!$D$5 * $M37, 0)</f>
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="Q37" s="7">
         <v>0</v>
@@ -9563,15 +9425,15 @@
       </c>
       <c r="N38" s="7">
         <f>ROUND(income!$B$5 * $M38, 0)</f>
-        <v>614</v>
+        <v>0</v>
       </c>
       <c r="O38" s="7">
+        <f>ROUND(income!$F$5 * $M38, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P38" s="7">
         <f>ROUND(income!$C$5 * $M38, 0)</f>
-        <v>22</v>
-      </c>
-      <c r="P38" s="7">
-        <f>ROUND(income!$D$5 * $M38, 0)</f>
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="Q38" s="7">
         <v>0</v>
@@ -9607,15 +9469,15 @@
       </c>
       <c r="N39" s="7">
         <f>ROUND(income!$B$5 * $M39, 0)</f>
-        <v>621</v>
+        <v>0</v>
       </c>
       <c r="O39" s="7">
+        <f>ROUND(income!$F$5 * $M39, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P39" s="7">
         <f>ROUND(income!$C$5 * $M39, 0)</f>
-        <v>23</v>
-      </c>
-      <c r="P39" s="7">
-        <f>ROUND(income!$D$5 * $M39, 0)</f>
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="Q39" s="7">
         <v>0</v>
@@ -9651,15 +9513,15 @@
       </c>
       <c r="N40" s="7">
         <f>ROUND(income!$B$5 * $M40, 0)</f>
-        <v>628</v>
+        <v>0</v>
       </c>
       <c r="O40" s="7">
+        <f>ROUND(income!$F$5 * $M40, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P40" s="7">
         <f>ROUND(income!$C$5 * $M40, 0)</f>
-        <v>23</v>
-      </c>
-      <c r="P40" s="7">
-        <f>ROUND(income!$D$5 * $M40, 0)</f>
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="Q40" s="7">
         <v>0</v>
@@ -9695,15 +9557,15 @@
       </c>
       <c r="N41" s="7">
         <f>ROUND(income!$B$5 * $M41, 0)</f>
-        <v>635</v>
+        <v>0</v>
       </c>
       <c r="O41" s="7">
+        <f>ROUND(income!$F$5 * $M41, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P41" s="7">
         <f>ROUND(income!$C$5 * $M41, 0)</f>
-        <v>23</v>
-      </c>
-      <c r="P41" s="7">
-        <f>ROUND(income!$D$5 * $M41, 0)</f>
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="7">
         <v>0</v>
@@ -9745,15 +9607,15 @@
       </c>
       <c r="N42" s="7">
         <f>ROUND(income!$B$5 * $M42, 0)</f>
-        <v>642</v>
+        <v>0</v>
       </c>
       <c r="O42" s="7">
+        <f>ROUND(income!$F$5 * $M42, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P42" s="7">
         <f>ROUND(income!$C$5 * $M42, 0)</f>
-        <v>23</v>
-      </c>
-      <c r="P42" s="7">
-        <f>ROUND(income!$D$5 * $M42, 0)</f>
-        <v>181</v>
+        <v>0</v>
       </c>
       <c r="Q42" s="7">
         <v>0</v>
@@ -9789,15 +9651,15 @@
       </c>
       <c r="N43" s="7">
         <f>ROUND(income!$B$5 * $M43, 0)</f>
-        <v>649</v>
+        <v>0</v>
       </c>
       <c r="O43" s="7">
+        <f>ROUND(income!$F$5 * $M43, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P43" s="7">
         <f>ROUND(income!$C$5 * $M43, 0)</f>
-        <v>24</v>
-      </c>
-      <c r="P43" s="7">
-        <f>ROUND(income!$D$5 * $M43, 0)</f>
-        <v>183</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="7">
         <v>0</v>
@@ -9839,15 +9701,15 @@
       </c>
       <c r="N44" s="7">
         <f>ROUND(income!$B$5 * $M44, 0)</f>
-        <v>656</v>
+        <v>0</v>
       </c>
       <c r="O44" s="7">
+        <f>ROUND(income!$F$5 * $M44, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P44" s="7">
         <f>ROUND(income!$C$5 * $M44, 0)</f>
-        <v>24</v>
-      </c>
-      <c r="P44" s="7">
-        <f>ROUND(income!$D$5 * $M44, 0)</f>
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="7">
         <v>0</v>
@@ -9895,15 +9757,15 @@
       </c>
       <c r="N45" s="7">
         <f>ROUND(income!$B$5 * $M45, 0)</f>
-        <v>662</v>
+        <v>0</v>
       </c>
       <c r="O45" s="7">
+        <f>ROUND(income!$F$5 * $M45, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P45" s="7">
         <f>ROUND(income!$C$5 * $M45, 0)</f>
-        <v>24</v>
-      </c>
-      <c r="P45" s="7">
-        <f>ROUND(income!$D$5 * $M45, 0)</f>
-        <v>187</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="7">
         <v>0</v>

--- a/backend/emporium/data/StageData.xlsx
+++ b/backend/emporium/data/StageData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="828"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="828" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="income" sheetId="8" r:id="rId1"/>
@@ -345,28 +345,28 @@
     <t>Duration</t>
   </si>
   <si>
-    <t>1 hr</t>
-  </si>
-  <si>
-    <t>2 hr</t>
-  </si>
-  <si>
-    <t>3 hr</t>
-  </si>
-  <si>
     <t>4 hr</t>
   </si>
   <si>
     <t>5 hr</t>
   </si>
   <si>
-    <t>6 hr</t>
-  </si>
-  <si>
     <t>Throne</t>
   </si>
   <si>
     <t>cmb</t>
+  </si>
+  <si>
+    <t>8 hr</t>
+  </si>
+  <si>
+    <t>12 hr</t>
+  </si>
+  <si>
+    <t>9 hr</t>
+  </si>
+  <si>
+    <t>13 hr</t>
   </si>
 </sst>
 </file>
@@ -742,7 +742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
@@ -4342,7 +4342,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>45</v>
@@ -6187,7 +6187,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>45</v>
@@ -7211,7 +7211,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>45</v>
@@ -9831,7 +9831,7 @@
         <v>69</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -9868,21 +9868,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="15.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.77734375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.77734375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="14.77734375" style="1" customWidth="1"/>
     <col min="4" max="4" width="1.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>38</v>
@@ -9921,7 +9921,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -9932,7 +9932,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -9943,7 +9943,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -9954,7 +9954,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/backend/emporium/data/StageData.xlsx
+++ b/backend/emporium/data/StageData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="828" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="828" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="income" sheetId="8" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="109">
   <si>
     <t>Name</t>
   </si>
@@ -174,15 +174,9 @@
     <t>Gems</t>
   </si>
   <si>
-    <t>Wood</t>
-  </si>
-  <si>
     <t>Stone</t>
   </si>
   <si>
-    <t>Iron</t>
-  </si>
-  <si>
     <t>All</t>
   </si>
   <si>
@@ -195,13 +189,7 @@
     <t>gems</t>
   </si>
   <si>
-    <t>wood</t>
-  </si>
-  <si>
     <t>stone</t>
-  </si>
-  <si>
-    <t>iron</t>
   </si>
   <si>
     <t>factor</t>
@@ -740,90 +728,163 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="10.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="1.77734375" customWidth="1"/>
+    <col min="1" max="4" width="10.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="1.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="1">
+        <v>50</v>
+      </c>
+      <c r="C3" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
+        <v>53</v>
+      </c>
+      <c r="C4" s="1">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <v>56</v>
+      </c>
+      <c r="C5" s="1">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>59</v>
+      </c>
+      <c r="C6" s="1">
+        <v>26</v>
+      </c>
+      <c r="D6" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <v>62</v>
+      </c>
+      <c r="C7" s="1">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
+        <v>65</v>
+      </c>
+      <c r="C8" s="1">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
+        <v>68</v>
+      </c>
+      <c r="C9" s="1">
+        <v>32</v>
+      </c>
+      <c r="D9" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
+        <v>71</v>
+      </c>
+      <c r="C10" s="1">
+        <v>34</v>
+      </c>
+      <c r="D10" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>74</v>
+      </c>
+      <c r="C11" s="1">
+        <v>36</v>
+      </c>
+      <c r="D11" s="1">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -849,267 +910,267 @@
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F10" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H10" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F12" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G12" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H12" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F13" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G13" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H13" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C15" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D15" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E15" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F15" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G15" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H15" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F16" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1241,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>23</v>
@@ -1433,7 +1494,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>11</v>
@@ -1497,7 +1558,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>11</v>
@@ -1625,7 +1686,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>23</v>
@@ -1817,7 +1878,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>11</v>
@@ -1881,7 +1942,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>11</v>
@@ -2009,7 +2070,7 @@
         <v>4</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>23</v>
@@ -2201,7 +2262,7 @@
         <v>4</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>11</v>
@@ -2265,7 +2326,7 @@
         <v>4</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>11</v>
@@ -2393,7 +2454,7 @@
         <v>5</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>23</v>
@@ -2585,7 +2646,7 @@
         <v>5</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>11</v>
@@ -2649,7 +2710,7 @@
         <v>5</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>11</v>
@@ -2777,7 +2838,7 @@
         <v>7</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>23</v>
@@ -2969,7 +3030,7 @@
         <v>7</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>11</v>
@@ -3033,7 +3094,7 @@
         <v>7</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>11</v>
@@ -3161,7 +3222,7 @@
         <v>8</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>23</v>
@@ -3353,7 +3414,7 @@
         <v>8</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>11</v>
@@ -3417,7 +3478,7 @@
         <v>8</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>11</v>
@@ -3537,7 +3598,7 @@
         <v>33</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -3551,7 +3612,7 @@
         <v>30</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>29</v>
@@ -3594,7 +3655,7 @@
         <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>29</v>
@@ -3637,7 +3698,7 @@
         <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>29</v>
@@ -3683,7 +3744,7 @@
         <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>29</v>
@@ -3726,7 +3787,7 @@
         <v>32</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>29</v>
@@ -3769,7 +3830,7 @@
         <v>31</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>29</v>
@@ -3812,7 +3873,7 @@
         <v>30</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>29</v>
@@ -3855,7 +3916,7 @@
         <v>32</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>29</v>
@@ -3898,7 +3959,7 @@
         <v>31</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>29</v>
@@ -3941,7 +4002,7 @@
         <v>30</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>29</v>
@@ -3984,7 +4045,7 @@
         <v>32</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>29</v>
@@ -4027,7 +4088,7 @@
         <v>31</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>29</v>
@@ -4070,7 +4131,7 @@
         <v>30</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>29</v>
@@ -4113,7 +4174,7 @@
         <v>32</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>29</v>
@@ -4156,7 +4217,7 @@
         <v>31</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>29</v>
@@ -4199,7 +4260,7 @@
         <v>30</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>29</v>
@@ -4242,7 +4303,7 @@
         <v>32</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>29</v>
@@ -4285,7 +4346,7 @@
         <v>31</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>29</v>
@@ -4325,24 +4386,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R40"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S1" sqref="S1"/>
+      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="8.77734375" style="1" customWidth="1"/>
     <col min="3" max="12" width="10.77734375" style="1" customWidth="1"/>
-    <col min="13" max="18" width="8.77734375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="1.77734375" customWidth="1"/>
+    <col min="13" max="16" width="8.77734375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="1.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>45</v>
@@ -4366,37 +4427,31 @@
         <v>44</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>46</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4422,24 +4477,18 @@
       </c>
       <c r="N3" s="7">
         <f>ROUND(income!$B$3 * $M3, 0)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="O3" s="7">
-        <f>ROUND(income!$F$3 * $M3, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$3 * $M3, 0)</f>
+        <v>20</v>
       </c>
       <c r="P3" s="7">
-        <f>ROUND(income!$C$3 * $M3, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="7">
-        <v>0</v>
-      </c>
-      <c r="R3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$3 * $M3, 0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <f>A3</f>
         <v>1</v>
@@ -4468,24 +4517,18 @@
       </c>
       <c r="N4" s="7">
         <f>ROUND(income!$B$3 * M4, 0)</f>
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="O4" s="7">
-        <f>ROUND(income!$F$3 * $M4, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$3 * $M4, 0)</f>
+        <v>21</v>
       </c>
       <c r="P4" s="7">
-        <f>ROUND(income!$C$3 * $M4, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q4" s="7">
-        <v>0</v>
-      </c>
-      <c r="R4" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$3 * $M4, 0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <f t="shared" ref="A5:A14" si="0">A4</f>
         <v>1</v>
@@ -4514,24 +4557,18 @@
       </c>
       <c r="N5" s="7">
         <f>ROUND(income!$B$3 * M5, 0)</f>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="O5" s="7">
-        <f>ROUND(income!$F$3 * $M5, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$3 * $M5, 0)</f>
+        <v>22</v>
       </c>
       <c r="P5" s="7">
-        <f>ROUND(income!$C$3 * $M5, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="7">
-        <v>0</v>
-      </c>
-      <c r="R5" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$3 * $M5, 0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4560,24 +4597,18 @@
       </c>
       <c r="N6" s="7">
         <f>ROUND(income!$B$3 * M6, 0)</f>
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="O6" s="7">
-        <f>ROUND(income!$F$3 * $M6, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$3 * $M6, 0)</f>
+        <v>23</v>
       </c>
       <c r="P6" s="7">
-        <f>ROUND(income!$C$3 * $M6, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="7">
-        <v>0</v>
-      </c>
-      <c r="R6" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$3 * $M6, 0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4606,24 +4637,18 @@
       </c>
       <c r="N7" s="7">
         <f>ROUND(income!$B$3 * M7, 0)</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="O7" s="7">
-        <f>ROUND(income!$F$3 * $M7, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$3 * $M7, 0)</f>
+        <v>24</v>
       </c>
       <c r="P7" s="7">
-        <f>ROUND(income!$C$3 * $M7, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="7">
-        <v>0</v>
-      </c>
-      <c r="R7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$3 * $M7, 0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4655,24 +4680,18 @@
       </c>
       <c r="N8" s="7">
         <f>ROUND(income!$B$3 * M8, 0)</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O8" s="7">
-        <f>ROUND(income!$F$3 * $M8, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$3 * $M8, 0)</f>
+        <v>36</v>
       </c>
       <c r="P8" s="7">
-        <f>ROUND(income!$C$3 * $M8, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="7">
-        <v>0</v>
-      </c>
-      <c r="R8" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$3 * $M8, 0)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4705,24 +4724,18 @@
       </c>
       <c r="N9" s="7">
         <f>ROUND(income!$B$3 * M9, 0)</f>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="O9" s="7">
-        <f>ROUND(income!$F$3 * $M9, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$3 * $M9, 0)</f>
+        <v>38</v>
       </c>
       <c r="P9" s="7">
-        <f>ROUND(income!$C$3 * $M9, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="7">
-        <v>0</v>
-      </c>
-      <c r="R9" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$3 * $M9, 0)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4755,24 +4768,18 @@
       </c>
       <c r="N10" s="7">
         <f>ROUND(income!$B$3 * M10, 0)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O10" s="7">
-        <f>ROUND(income!$F$3 * $M10, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$3 * $M10, 0)</f>
+        <v>40</v>
       </c>
       <c r="P10" s="7">
-        <f>ROUND(income!$C$3 * $M10, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="7">
-        <v>0</v>
-      </c>
-      <c r="R10" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$3 * $M10, 0)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4805,24 +4812,18 @@
       </c>
       <c r="N11" s="7">
         <f>ROUND(income!$B$3 * M11, 0)</f>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="O11" s="7">
-        <f>ROUND(income!$F$3 * $M11, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$3 * $M11, 0)</f>
+        <v>42</v>
       </c>
       <c r="P11" s="7">
-        <f>ROUND(income!$C$3 * $M11, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="7">
-        <v>0</v>
-      </c>
-      <c r="R11" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$3 * $M11, 0)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4858,24 +4859,18 @@
       </c>
       <c r="N12" s="7">
         <f>ROUND(income!$B$3 * M12, 0)</f>
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="O12" s="7">
-        <f>ROUND(income!$F$3 * $M12, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$3 * $M12, 0)</f>
+        <v>56</v>
       </c>
       <c r="P12" s="7">
-        <f>ROUND(income!$C$3 * $M12, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="7">
-        <v>0</v>
-      </c>
-      <c r="R12" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$3 * $M12, 0)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4911,24 +4906,18 @@
       </c>
       <c r="N13" s="7">
         <f>ROUND(income!$B$3 * M13, 0)</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="O13" s="7">
-        <f>ROUND(income!$F$3 * $M13, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$3 * $M13, 0)</f>
+        <v>60</v>
       </c>
       <c r="P13" s="7">
-        <f>ROUND(income!$C$3 * $M13, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="7">
-        <v>0</v>
-      </c>
-      <c r="R13" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$3 * $M13, 0)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4965,28 +4954,21 @@
       </c>
       <c r="N14" s="7">
         <f>ROUND(income!$B$3 * M14, 0)</f>
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="O14" s="7">
-        <f>ROUND(income!$F$3 * $M14, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$3 * $M14, 0)</f>
+        <v>64</v>
       </c>
       <c r="P14" s="7">
-        <f>ROUND(income!$C$3 * $M14, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="7">
-        <v>0</v>
-      </c>
-      <c r="R14" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$3 * $M14, 0)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O15" s="7"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -5012,24 +4994,18 @@
       </c>
       <c r="N16" s="7">
         <f>ROUND(income!$B$4 * $M16, 0)</f>
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="O16" s="7">
-        <f>ROUND(income!$F$4 * $M16, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$4 * $M16, 0)</f>
+        <v>22</v>
       </c>
       <c r="P16" s="7">
-        <f>ROUND(income!$C$4 * $M16, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="7">
-        <v>0</v>
-      </c>
-      <c r="R16" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$4 * $M16, 0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <f>A16</f>
         <v>2</v>
@@ -5058,24 +5034,18 @@
       </c>
       <c r="N17" s="7">
         <f>ROUND(income!$B$4 * $M17, 0)</f>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="O17" s="7">
-        <f>ROUND(income!$F$4 * $M17, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$4 * $M17, 0)</f>
+        <v>23</v>
       </c>
       <c r="P17" s="7">
-        <f>ROUND(income!$C$4 * $M17, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="7">
-        <v>0</v>
-      </c>
-      <c r="R17" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$4 * $M17, 0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <f t="shared" ref="A18:A27" si="4">A17</f>
         <v>2</v>
@@ -5104,24 +5074,18 @@
       </c>
       <c r="N18" s="7">
         <f>ROUND(income!$B$4 * $M18, 0)</f>
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="O18" s="7">
-        <f>ROUND(income!$F$4 * $M18, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$4 * $M18, 0)</f>
+        <v>24</v>
       </c>
       <c r="P18" s="7">
-        <f>ROUND(income!$C$4 * $M18, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="7">
-        <v>0</v>
-      </c>
-      <c r="R18" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$4 * $M18, 0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -5150,24 +5114,18 @@
       </c>
       <c r="N19" s="7">
         <f>ROUND(income!$B$4 * $M19, 0)</f>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="O19" s="7">
-        <f>ROUND(income!$F$4 * $M19, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$4 * $M19, 0)</f>
+        <v>25</v>
       </c>
       <c r="P19" s="7">
-        <f>ROUND(income!$C$4 * $M19, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="7">
-        <v>0</v>
-      </c>
-      <c r="R19" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$4 * $M19, 0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -5196,24 +5154,18 @@
       </c>
       <c r="N20" s="7">
         <f>ROUND(income!$B$4 * $M20, 0)</f>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="O20" s="7">
-        <f>ROUND(income!$F$4 * $M20, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$4 * $M20, 0)</f>
+        <v>26</v>
       </c>
       <c r="P20" s="7">
-        <f>ROUND(income!$C$4 * $M20, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="7">
-        <v>0</v>
-      </c>
-      <c r="R20" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$4 * $M20, 0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -5245,24 +5197,18 @@
       </c>
       <c r="N21" s="7">
         <f>ROUND(income!$B$4 * $M21, 0)</f>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="O21" s="7">
-        <f>ROUND(income!$F$4 * $M21, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$4 * $M21, 0)</f>
+        <v>40</v>
       </c>
       <c r="P21" s="7">
-        <f>ROUND(income!$C$4 * $M21, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="7">
-        <v>0</v>
-      </c>
-      <c r="R21" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$4 * $M21, 0)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -5295,24 +5241,18 @@
       </c>
       <c r="N22" s="7">
         <f>ROUND(income!$B$4 * $M22, 0)</f>
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="O22" s="7">
-        <f>ROUND(income!$F$4 * $M22, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$4 * $M22, 0)</f>
+        <v>42</v>
       </c>
       <c r="P22" s="7">
-        <f>ROUND(income!$C$4 * $M22, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="7">
-        <v>0</v>
-      </c>
-      <c r="R22" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$4 * $M22, 0)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -5345,24 +5285,18 @@
       </c>
       <c r="N23" s="7">
         <f>ROUND(income!$B$4 * $M23, 0)</f>
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="O23" s="7">
-        <f>ROUND(income!$F$4 * $M23, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$4 * $M23, 0)</f>
+        <v>44</v>
       </c>
       <c r="P23" s="7">
-        <f>ROUND(income!$C$4 * $M23, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="7">
-        <v>0</v>
-      </c>
-      <c r="R23" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$4 * $M23, 0)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -5395,24 +5329,18 @@
       </c>
       <c r="N24" s="7">
         <f>ROUND(income!$B$4 * $M24, 0)</f>
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="O24" s="7">
-        <f>ROUND(income!$F$4 * $M24, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$4 * $M24, 0)</f>
+        <v>46</v>
       </c>
       <c r="P24" s="7">
-        <f>ROUND(income!$C$4 * $M24, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="7">
-        <v>0</v>
-      </c>
-      <c r="R24" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$4 * $M24, 0)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -5448,24 +5376,18 @@
       </c>
       <c r="N25" s="7">
         <f>ROUND(income!$B$4 * $M25, 0)</f>
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="O25" s="7">
-        <f>ROUND(income!$F$4 * $M25, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$4 * $M25, 0)</f>
+        <v>62</v>
       </c>
       <c r="P25" s="7">
-        <f>ROUND(income!$C$4 * $M25, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="7">
-        <v>0</v>
-      </c>
-      <c r="R25" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$4 * $M25, 0)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -5501,24 +5423,18 @@
       </c>
       <c r="N26" s="7">
         <f>ROUND(income!$B$4 * $M26, 0)</f>
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="O26" s="7">
-        <f>ROUND(income!$F$4 * $M26, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$4 * $M26, 0)</f>
+        <v>66</v>
       </c>
       <c r="P26" s="7">
-        <f>ROUND(income!$C$4 * $M26, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="7">
-        <v>0</v>
-      </c>
-      <c r="R26" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$4 * $M26, 0)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -5555,28 +5471,21 @@
       </c>
       <c r="N27" s="7">
         <f>ROUND(income!$B$4 * $M27, 0)</f>
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="O27" s="7">
-        <f>ROUND(income!$F$4 * $M27, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$4 * $M27, 0)</f>
+        <v>70</v>
       </c>
       <c r="P27" s="7">
-        <f>ROUND(income!$C$4 * $M27, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="7">
-        <v>0</v>
-      </c>
-      <c r="R27" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$4 * $M27, 0)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O28" s="7"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>3</v>
       </c>
@@ -5602,24 +5511,18 @@
       </c>
       <c r="N29" s="7">
         <f>ROUND(income!$B$5 * $M29, 0)</f>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="O29" s="7">
-        <f>ROUND(income!$F$5 * $M29, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$5 * $M29, 0)</f>
+        <v>24</v>
       </c>
       <c r="P29" s="7">
-        <f>ROUND(income!$C$5 * $M29, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q29" s="7">
-        <v>0</v>
-      </c>
-      <c r="R29" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$5 * $M29, 0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <f>A29</f>
         <v>3</v>
@@ -5648,24 +5551,18 @@
       </c>
       <c r="N30" s="7">
         <f>ROUND(income!$B$5 * $M30, 0)</f>
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="O30" s="7">
-        <f>ROUND(income!$F$5 * $M30, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$5 * $M30, 0)</f>
+        <v>25</v>
       </c>
       <c r="P30" s="7">
-        <f>ROUND(income!$C$5 * $M30, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="7">
-        <v>0</v>
-      </c>
-      <c r="R30" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$5 * $M30, 0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <f t="shared" ref="A31:A40" si="8">A30</f>
         <v>3</v>
@@ -5694,24 +5591,18 @@
       </c>
       <c r="N31" s="7">
         <f>ROUND(income!$B$5 * $M31, 0)</f>
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="O31" s="7">
-        <f>ROUND(income!$F$5 * $M31, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$5 * $M31, 0)</f>
+        <v>26</v>
       </c>
       <c r="P31" s="7">
-        <f>ROUND(income!$C$5 * $M31, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="7">
-        <v>0</v>
-      </c>
-      <c r="R31" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$5 * $M31, 0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <f t="shared" si="8"/>
         <v>3</v>
@@ -5740,24 +5631,18 @@
       </c>
       <c r="N32" s="7">
         <f>ROUND(income!$B$5 * $M32, 0)</f>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="O32" s="7">
-        <f>ROUND(income!$F$5 * $M32, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$5 * $M32, 0)</f>
+        <v>28</v>
       </c>
       <c r="P32" s="7">
-        <f>ROUND(income!$C$5 * $M32, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q32" s="7">
-        <v>0</v>
-      </c>
-      <c r="R32" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$5 * $M32, 0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <f t="shared" si="8"/>
         <v>3</v>
@@ -5786,24 +5671,18 @@
       </c>
       <c r="N33" s="7">
         <f>ROUND(income!$B$5 * $M33, 0)</f>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="O33" s="7">
-        <f>ROUND(income!$F$5 * $M33, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$5 * $M33, 0)</f>
+        <v>29</v>
       </c>
       <c r="P33" s="7">
-        <f>ROUND(income!$C$5 * $M33, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q33" s="7">
-        <v>0</v>
-      </c>
-      <c r="R33" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$5 * $M33, 0)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <f t="shared" si="8"/>
         <v>3</v>
@@ -5835,24 +5714,18 @@
       </c>
       <c r="N34" s="7">
         <f>ROUND(income!$B$5 * $M34, 0)</f>
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="O34" s="7">
-        <f>ROUND(income!$F$5 * $M34, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$5 * $M34, 0)</f>
+        <v>43</v>
       </c>
       <c r="P34" s="7">
-        <f>ROUND(income!$C$5 * $M34, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q34" s="7">
-        <v>0</v>
-      </c>
-      <c r="R34" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$5 * $M34, 0)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <f t="shared" si="8"/>
         <v>3</v>
@@ -5885,24 +5758,18 @@
       </c>
       <c r="N35" s="7">
         <f>ROUND(income!$B$5 * $M35, 0)</f>
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="O35" s="7">
-        <f>ROUND(income!$F$5 * $M35, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$5 * $M35, 0)</f>
+        <v>46</v>
       </c>
       <c r="P35" s="7">
-        <f>ROUND(income!$C$5 * $M35, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q35" s="7">
-        <v>0</v>
-      </c>
-      <c r="R35" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$5 * $M35, 0)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <f t="shared" si="8"/>
         <v>3</v>
@@ -5935,24 +5802,18 @@
       </c>
       <c r="N36" s="7">
         <f>ROUND(income!$B$5 * $M36, 0)</f>
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="O36" s="7">
-        <f>ROUND(income!$F$5 * $M36, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$5 * $M36, 0)</f>
+        <v>48</v>
       </c>
       <c r="P36" s="7">
-        <f>ROUND(income!$C$5 * $M36, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q36" s="7">
-        <v>0</v>
-      </c>
-      <c r="R36" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$5 * $M36, 0)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <f t="shared" si="8"/>
         <v>3</v>
@@ -5985,24 +5846,18 @@
       </c>
       <c r="N37" s="7">
         <f>ROUND(income!$B$5 * $M37, 0)</f>
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="O37" s="7">
-        <f>ROUND(income!$F$5 * $M37, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$5 * $M37, 0)</f>
+        <v>50</v>
       </c>
       <c r="P37" s="7">
-        <f>ROUND(income!$C$5 * $M37, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q37" s="7">
-        <v>0</v>
-      </c>
-      <c r="R37" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$5 * $M37, 0)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <f t="shared" si="8"/>
         <v>3</v>
@@ -6038,24 +5893,18 @@
       </c>
       <c r="N38" s="7">
         <f>ROUND(income!$B$5 * $M38, 0)</f>
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="O38" s="7">
-        <f>ROUND(income!$F$5 * $M38, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$5 * $M38, 0)</f>
+        <v>67</v>
       </c>
       <c r="P38" s="7">
-        <f>ROUND(income!$C$5 * $M38, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q38" s="7">
-        <v>0</v>
-      </c>
-      <c r="R38" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$5 * $M38, 0)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <f t="shared" si="8"/>
         <v>3</v>
@@ -6091,24 +5940,18 @@
       </c>
       <c r="N39" s="7">
         <f>ROUND(income!$B$5 * $M39, 0)</f>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="O39" s="7">
-        <f>ROUND(income!$F$5 * $M39, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$5 * $M39, 0)</f>
+        <v>72</v>
       </c>
       <c r="P39" s="7">
-        <f>ROUND(income!$C$5 * $M39, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q39" s="7">
-        <v>0</v>
-      </c>
-      <c r="R39" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$5 * $M39, 0)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <f t="shared" si="8"/>
         <v>3</v>
@@ -6145,21 +5988,15 @@
       </c>
       <c r="N40" s="7">
         <f>ROUND(income!$B$5 * $M40, 0)</f>
-        <v>0</v>
+        <v>179</v>
       </c>
       <c r="O40" s="7">
-        <f>ROUND(income!$F$5 * $M40, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$5 * $M40, 0)</f>
+        <v>77</v>
       </c>
       <c r="P40" s="7">
-        <f>ROUND(income!$C$5 * $M40, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q40" s="7">
-        <v>0</v>
-      </c>
-      <c r="R40" s="7">
-        <v>0</v>
+        <f>ROUND(income!$D$5 * $M40, 0)</f>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -6170,24 +6007,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T32"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N21" sqref="N21"/>
+      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="8.77734375" style="1" customWidth="1"/>
     <col min="3" max="12" width="10.77734375" style="1" customWidth="1"/>
-    <col min="13" max="18" width="8.77734375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="1.77734375" customWidth="1"/>
+    <col min="13" max="16" width="8.77734375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="1.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>45</v>
@@ -6211,37 +6048,31 @@
         <v>44</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>46</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -6259,24 +6090,18 @@
       </c>
       <c r="N3" s="7">
         <f>ROUND(income!$B$3 * $M3, 0)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O3" s="7">
-        <f>ROUND(income!$F$3 * $M3, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$3 * $M3, 0)</f>
+        <v>40</v>
       </c>
       <c r="P3" s="7">
-        <f>ROUND(income!$C$3 * $M3, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="7">
-        <v>0</v>
-      </c>
-      <c r="R3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$3 * $M3, 0)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -6295,34 +6120,26 @@
       </c>
       <c r="N4" s="7">
         <f>ROUND(income!$B$3 * $M4, 0)</f>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="O4" s="7">
-        <f>ROUND(income!$F$3 * $M4, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$3 * $M4, 0)</f>
+        <v>44</v>
       </c>
       <c r="P4" s="7">
-        <f>ROUND(income!$C$3 * $M4, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q4" s="7">
-        <v>0</v>
-      </c>
-      <c r="R4" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$3 * $M4, 0)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="M5" s="15"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>2</v>
       </c>
@@ -6340,24 +6157,18 @@
       </c>
       <c r="N6" s="7">
         <f>ROUND(income!$B$4 * $M6, 0)</f>
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="O6" s="7">
-        <f>ROUND(income!$F$4 * $M6, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$4 * $M6, 0)</f>
+        <v>44</v>
       </c>
       <c r="P6" s="7">
-        <f>ROUND(income!$C$4 * $M6, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="7">
-        <v>0</v>
-      </c>
-      <c r="R6" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$4 * $M6, 0)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>2</v>
       </c>
@@ -6384,24 +6195,18 @@
       </c>
       <c r="N7" s="7">
         <f>ROUND(income!$B$4 * $M7, 0)</f>
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="O7" s="7">
-        <f>ROUND(income!$F$4 * $M7, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$4 * $M7, 0)</f>
+        <v>48</v>
       </c>
       <c r="P7" s="7">
-        <f>ROUND(income!$C$4 * $M7, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="7">
-        <v>0</v>
-      </c>
-      <c r="R7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$4 * $M7, 0)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="12"/>
@@ -6418,10 +6223,8 @@
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-    </row>
-    <row r="9" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>3</v>
       </c>
@@ -6447,24 +6250,18 @@
       </c>
       <c r="N9" s="7">
         <f>ROUND(income!$B$5 * $M9, 0)</f>
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="O9" s="7">
-        <f>ROUND(income!$F$5 * $M9, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$5 * $M9, 0)</f>
+        <v>48</v>
       </c>
       <c r="P9" s="7">
-        <f>ROUND(income!$C$5 * $M9, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="7">
-        <v>0</v>
-      </c>
-      <c r="R9" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$5 * $M9, 0)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>3</v>
       </c>
@@ -6495,24 +6292,18 @@
       </c>
       <c r="N10" s="7">
         <f>ROUND(income!$B$5 * $M10, 0)</f>
-        <v>0</v>
+        <v>213</v>
       </c>
       <c r="O10" s="7">
-        <f>ROUND(income!$F$5 * $M10, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$5 * $M10, 0)</f>
+        <v>91</v>
       </c>
       <c r="P10" s="7">
-        <f>ROUND(income!$C$5 * $M10, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="7">
-        <v>0</v>
-      </c>
-      <c r="R10" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$5 * $M10, 0)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="12"/>
@@ -6529,10 +6320,8 @@
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-    </row>
-    <row r="12" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>4</v>
       </c>
@@ -6562,25 +6351,18 @@
       </c>
       <c r="N12" s="7">
         <f>ROUND(income!$B$6 * $M12, 0)</f>
-        <v>0</v>
+        <v>236</v>
       </c>
       <c r="O12" s="7">
-        <f>ROUND(income!$F$6 * $M12, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$6 * $M12, 0)</f>
+        <v>104</v>
       </c>
       <c r="P12" s="7">
-        <f>ROUND(income!$C$6 * $M12, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="7">
         <f>ROUND(income!$D$6 * $M12, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="R12" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>4</v>
       </c>
@@ -6611,25 +6393,18 @@
       </c>
       <c r="N13" s="7">
         <f>ROUND(income!$B$6 * $M13, 0)</f>
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="O13" s="7">
-        <f>ROUND(income!$F$6 * $M13, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$6 * $M13, 0)</f>
+        <v>114</v>
       </c>
       <c r="P13" s="7">
-        <f>ROUND(income!$C$6 * $M13, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="7">
         <f>ROUND(income!$D$6 * $M13, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="R13" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="12"/>
@@ -6646,10 +6421,8 @@
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-    </row>
-    <row r="15" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>5</v>
       </c>
@@ -6679,25 +6452,18 @@
       </c>
       <c r="N15" s="7">
         <f>ROUND(income!$B$7 * $M15, 0)</f>
-        <v>0</v>
+        <v>248</v>
       </c>
       <c r="O15" s="7">
-        <f>ROUND(income!$F$7 * $M15, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$7 * $M15, 0)</f>
+        <v>112</v>
       </c>
       <c r="P15" s="7">
-        <f>ROUND(income!$C$7 * $M15, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="7">
         <f>ROUND(income!$D$7 * $M15, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="R15" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>5</v>
       </c>
@@ -6728,35 +6494,26 @@
       </c>
       <c r="N16" s="7">
         <f>ROUND(income!$B$7 * $M16, 0)</f>
-        <v>0</v>
+        <v>273</v>
       </c>
       <c r="O16" s="7">
-        <f>ROUND(income!$F$7 * $M16, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$7 * $M16, 0)</f>
+        <v>123</v>
       </c>
       <c r="P16" s="7">
-        <f>ROUND(income!$C$7 * $M16, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="7">
         <f>ROUND(income!$D$7 * $M16, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="R16" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-    </row>
-    <row r="18" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>6</v>
       </c>
@@ -6780,25 +6537,18 @@
       </c>
       <c r="N18" s="7">
         <f>ROUND(income!$B$8 * $M18, 0)</f>
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="O18" s="7">
-        <f>ROUND(income!$F$8 * $M18, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$8 * $M18, 0)</f>
+        <v>120</v>
       </c>
       <c r="P18" s="7">
-        <f>ROUND(income!$C$8 * $M18, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="7">
         <f>ROUND(income!$D$8 * $M18, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="R18" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>6</v>
       </c>
@@ -6831,35 +6581,26 @@
       </c>
       <c r="N19" s="7">
         <f>ROUND(income!$B$8 * $M19, 0)</f>
-        <v>0</v>
+        <v>364</v>
       </c>
       <c r="O19" s="7">
-        <f>ROUND(income!$F$8 * $M19, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$8 * $M19, 0)</f>
+        <v>168</v>
       </c>
       <c r="P19" s="7">
-        <f>ROUND(income!$C$8 * $M19, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="7">
         <f>ROUND(income!$D$8 * $M19, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="R19" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-    </row>
-    <row r="21" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>7</v>
       </c>
@@ -6892,10 +6633,8 @@
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-    </row>
-    <row r="22" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>7</v>
       </c>
@@ -6929,20 +6668,16 @@
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-    </row>
-    <row r="23" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-    </row>
-    <row r="24" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>8</v>
       </c>
@@ -6977,10 +6712,8 @@
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-    </row>
-    <row r="25" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>8</v>
       </c>
@@ -7012,20 +6745,16 @@
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-    </row>
-    <row r="26" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-    </row>
-    <row r="27" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>9</v>
       </c>
@@ -7060,10 +6789,8 @@
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-    </row>
-    <row r="28" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
         <v>9</v>
       </c>
@@ -7103,10 +6830,8 @@
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
-    </row>
-    <row r="29" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="11"/>
@@ -7125,10 +6850,8 @@
       <c r="P29" s="11"/>
       <c r="Q29" s="11"/>
       <c r="R29" s="11"/>
-      <c r="S29" s="11"/>
-      <c r="T29" s="11"/>
-    </row>
-    <row r="30" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
@@ -7141,12 +6864,11 @@
       <c r="L30" s="14"/>
       <c r="M30" s="14"/>
       <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
       <c r="P30" s="14"/>
-      <c r="S30" s="13"/>
-      <c r="T30" s="13"/>
-    </row>
-    <row r="31" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
+    </row>
+    <row r="31" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -7163,10 +6885,8 @@
       <c r="N31" s="12"/>
       <c r="O31" s="12"/>
       <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="12"/>
-    </row>
-    <row r="32" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -7183,8 +6903,6 @@
       <c r="N32" s="12"/>
       <c r="O32" s="12"/>
       <c r="P32" s="12"/>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7194,24 +6912,24 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="8.77734375" style="1" customWidth="1"/>
     <col min="3" max="12" width="10.77734375" style="1" customWidth="1"/>
-    <col min="13" max="18" width="8.77734375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="1.77734375" customWidth="1"/>
+    <col min="13" max="16" width="8.77734375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="1.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>45</v>
@@ -7235,37 +6953,31 @@
         <v>44</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>46</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -7295,24 +7007,18 @@
       </c>
       <c r="N3" s="7">
         <f>ROUND(income!B$3 * $M3, 0)</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="O3" s="7">
-        <f>ROUND(income!F$3 * $M3, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!C$3 * $M3, 0)</f>
+        <v>60</v>
       </c>
       <c r="P3" s="7">
-        <f>ROUND(income!C$3 * $M3, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="7">
-        <v>0</v>
-      </c>
-      <c r="R3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!D$3 * $M3, 0)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="17"/>
@@ -7327,10 +7033,8 @@
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>2</v>
       </c>
@@ -7366,24 +7070,18 @@
       </c>
       <c r="N5" s="7">
         <f>ROUND(income!$B$4 * $M5, 0)</f>
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="O5" s="7">
-        <f>ROUND(income!$F$4 * $M5, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$4 * $M5, 0)</f>
+        <v>68</v>
       </c>
       <c r="P5" s="7">
-        <f>ROUND(income!$C$4 * $M5, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="7">
-        <v>0</v>
-      </c>
-      <c r="R5" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$4 * $M5, 0)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="17"/>
@@ -7400,10 +7098,8 @@
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-    </row>
-    <row r="7" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>3</v>
       </c>
@@ -7441,24 +7137,18 @@
       </c>
       <c r="N7" s="7">
         <f>ROUND(income!$B$5 * $M7, 0)</f>
-        <v>0</v>
+        <v>179</v>
       </c>
       <c r="O7" s="7">
-        <f>ROUND(income!$F$5 * $M7, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$5 * $M7, 0)</f>
+        <v>77</v>
       </c>
       <c r="P7" s="7">
-        <f>ROUND(income!$C$5 * $M7, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="7">
-        <v>0</v>
-      </c>
-      <c r="R7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$5 * $M7, 0)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="17"/>
@@ -7475,10 +7165,8 @@
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-    </row>
-    <row r="9" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>4</v>
       </c>
@@ -7516,25 +7204,18 @@
       </c>
       <c r="N9" s="7">
         <f>ROUND(income!$B$6 * $M9, 0)</f>
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="O9" s="7">
-        <f>ROUND(income!$F$6 * $M9, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$6 * $M9, 0)</f>
+        <v>86</v>
       </c>
       <c r="P9" s="7">
-        <f>ROUND(income!$C$6 * $M9, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="7">
         <f>ROUND(income!$D$6 * $M9, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="R9" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="17"/>
@@ -7551,10 +7232,8 @@
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-    </row>
-    <row r="11" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>5</v>
       </c>
@@ -7592,25 +7271,18 @@
       </c>
       <c r="N11" s="7">
         <f>ROUND(income!$B$7 * $M11, 0)</f>
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="O11" s="7">
-        <f>ROUND(income!$F$7 * $M11, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$7 * $M11, 0)</f>
+        <v>95</v>
       </c>
       <c r="P11" s="7">
-        <f>ROUND(income!$C$7 * $M11, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="7">
         <f>ROUND(income!$D$7 * $M11, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="R11" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="17"/>
@@ -7625,10 +7297,8 @@
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-    </row>
-    <row r="13" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>6</v>
       </c>
@@ -7664,35 +7334,26 @@
       </c>
       <c r="N13" s="7">
         <f>ROUND(income!$B$8 * $M13, 0)</f>
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="O13" s="7">
-        <f>ROUND(income!$F$8 * $M13, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$8 * $M13, 0)</f>
+        <v>105</v>
       </c>
       <c r="P13" s="7">
-        <f>ROUND(income!$C$8 * $M13, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="7">
         <f>ROUND(income!$D$8 * $M13, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="R13" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-    </row>
-    <row r="15" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>7</v>
       </c>
@@ -7710,36 +7371,26 @@
       </c>
       <c r="N15" s="7">
         <f>ROUND(income!B$9 * $M15, 0)</f>
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="O15" s="7">
-        <f>ROUND(income!F$9 * $M15, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!C$9 * $M15, 0)</f>
+        <v>115</v>
       </c>
       <c r="P15" s="7">
-        <f>ROUND(income!C$9 * $M15, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="7">
         <f>ROUND(income!D$9 * $M15, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="R15" s="7">
-        <f>ROUND(income!E$9 * $M15, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-    </row>
-    <row r="17" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>8</v>
       </c>
@@ -7759,36 +7410,26 @@
       </c>
       <c r="N17" s="7">
         <f>ROUND(income!B$10 * $M17, 0)</f>
-        <v>0</v>
+        <v>263</v>
       </c>
       <c r="O17" s="7">
-        <f>ROUND(income!F$10 * $M17, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!C$10 * $M17, 0)</f>
+        <v>126</v>
       </c>
       <c r="P17" s="7">
-        <f>ROUND(income!C$10 * $M17, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="7">
         <f>ROUND(income!D$10 * $M17, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="R17" s="7">
-        <f>ROUND(income!E$10 * $M17, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-    </row>
-    <row r="19" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>9</v>
       </c>
@@ -7808,26 +7449,18 @@
       </c>
       <c r="N19" s="7">
         <f>ROUND(income!B$11 * $M19, 0)</f>
-        <v>0</v>
+        <v>281</v>
       </c>
       <c r="O19" s="7">
-        <f>ROUND(income!F$11 * $M19, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!C$11 * $M19, 0)</f>
+        <v>137</v>
       </c>
       <c r="P19" s="7">
-        <f>ROUND(income!C$11 * $M19, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="7">
         <f>ROUND(income!D$11 * $M19, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="R19" s="7">
-        <f>ROUND(income!E$11 * $M19, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="11"/>
@@ -7846,10 +7479,8 @@
       <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
       <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-    </row>
-    <row r="21" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
@@ -7862,12 +7493,11 @@
       <c r="L21" s="14"/>
       <c r="M21" s="14"/>
       <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
       <c r="P21" s="14"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="13"/>
-    </row>
-    <row r="22" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+    </row>
+    <row r="22" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -7884,10 +7514,8 @@
       <c r="N22" s="12"/>
       <c r="O22" s="12"/>
       <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-    </row>
-    <row r="23" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -7904,8 +7532,6 @@
       <c r="N23" s="12"/>
       <c r="O23" s="12"/>
       <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7915,22 +7541,22 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R45"/>
+  <dimension ref="A1:P45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S1" sqref="S1"/>
+      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="8.77734375" style="1" customWidth="1"/>
     <col min="3" max="12" width="10.77734375" style="1" customWidth="1"/>
-    <col min="13" max="18" width="8.77734375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="1.77734375" customWidth="1"/>
+    <col min="13" max="16" width="8.77734375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="1.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
@@ -7956,37 +7582,31 @@
         <v>44</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>46</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -8004,24 +7624,18 @@
       </c>
       <c r="N3" s="7">
         <f>ROUND(income!$B$3 * $M3, 0)</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O3" s="7">
-        <f>ROUND(income!$F$3 * $M3, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$3 * $M3, 0)</f>
+        <v>80</v>
       </c>
       <c r="P3" s="7">
-        <f>ROUND(income!$C$3 * $M3, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="7">
-        <v>0</v>
-      </c>
-      <c r="R3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$3 * $M3, 0)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <f>A3</f>
         <v>1</v>
@@ -8042,24 +7656,18 @@
       </c>
       <c r="N4" s="7">
         <f>ROUND(income!$B$3 * M4, 0)</f>
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="O4" s="7">
-        <f>ROUND(income!$F$3 * $M4, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$3 * $M4, 0)</f>
+        <v>81</v>
       </c>
       <c r="P4" s="7">
-        <f>ROUND(income!$C$3 * $M4, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q4" s="7">
-        <v>0</v>
-      </c>
-      <c r="R4" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$3 * $M4, 0)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <f t="shared" ref="A5:A12" si="0">A4</f>
         <v>1</v>
@@ -8080,24 +7688,18 @@
       </c>
       <c r="N5" s="7">
         <f>ROUND(income!$B$3 * M5, 0)</f>
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="O5" s="7">
-        <f>ROUND(income!$F$3 * $M5, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$3 * $M5, 0)</f>
+        <v>82</v>
       </c>
       <c r="P5" s="7">
-        <f>ROUND(income!$C$3 * $M5, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="7">
-        <v>0</v>
-      </c>
-      <c r="R5" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$3 * $M5, 0)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -8118,24 +7720,18 @@
       </c>
       <c r="N6" s="7">
         <f>ROUND(income!$B$3 * M6, 0)</f>
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="O6" s="7">
-        <f>ROUND(income!$F$3 * $M6, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$3 * $M6, 0)</f>
+        <v>83</v>
       </c>
       <c r="P6" s="7">
-        <f>ROUND(income!$C$3 * $M6, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="7">
-        <v>0</v>
-      </c>
-      <c r="R6" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$3 * $M6, 0)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -8162,24 +7758,18 @@
       </c>
       <c r="N7" s="7">
         <f>ROUND(income!$B$3 * M7, 0)</f>
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="O7" s="7">
-        <f>ROUND(income!$F$3 * $M7, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$3 * $M7, 0)</f>
+        <v>84</v>
       </c>
       <c r="P7" s="7">
-        <f>ROUND(income!$C$3 * $M7, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="7">
-        <v>0</v>
-      </c>
-      <c r="R7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$3 * $M7, 0)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -8206,24 +7796,18 @@
       </c>
       <c r="N8" s="7">
         <f>ROUND(income!$B$3 * M8, 0)</f>
-        <v>0</v>
+        <v>213</v>
       </c>
       <c r="O8" s="7">
-        <f>ROUND(income!$F$3 * $M8, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$3 * $M8, 0)</f>
+        <v>85</v>
       </c>
       <c r="P8" s="7">
-        <f>ROUND(income!$C$3 * $M8, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="7">
-        <v>0</v>
-      </c>
-      <c r="R8" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$3 * $M8, 0)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -8250,24 +7834,18 @@
       </c>
       <c r="N9" s="7">
         <f>ROUND(income!$B$3 * M9, 0)</f>
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="O9" s="7">
-        <f>ROUND(income!$F$3 * $M9, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$3 * $M9, 0)</f>
+        <v>86</v>
       </c>
       <c r="P9" s="7">
-        <f>ROUND(income!$C$3 * $M9, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="7">
-        <v>0</v>
-      </c>
-      <c r="R9" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$3 * $M9, 0)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -8294,24 +7872,18 @@
       </c>
       <c r="N10" s="7">
         <f>ROUND(income!$B$3 * M10, 0)</f>
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="O10" s="7">
-        <f>ROUND(income!$F$3 * $M10, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$3 * $M10, 0)</f>
+        <v>87</v>
       </c>
       <c r="P10" s="7">
-        <f>ROUND(income!$C$3 * $M10, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="7">
-        <v>0</v>
-      </c>
-      <c r="R10" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$3 * $M10, 0)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -8344,24 +7916,18 @@
       </c>
       <c r="N11" s="7">
         <f>ROUND(income!$B$3 * M11, 0)</f>
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="O11" s="7">
-        <f>ROUND(income!$F$3 * $M11, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$3 * $M11, 0)</f>
+        <v>88</v>
       </c>
       <c r="P11" s="7">
-        <f>ROUND(income!$C$3 * $M11, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="7">
-        <v>0</v>
-      </c>
-      <c r="R11" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$3 * $M11, 0)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -8394,24 +7960,18 @@
       </c>
       <c r="N12" s="7">
         <f>ROUND(income!$B$3 * M12, 0)</f>
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="O12" s="7">
-        <f>ROUND(income!$F$3 * $M12, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$3 * $M12, 0)</f>
+        <v>89</v>
       </c>
       <c r="P12" s="7">
-        <f>ROUND(income!$C$3 * $M12, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="7">
-        <v>0</v>
-      </c>
-      <c r="R12" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$3 * $M12, 0)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -8426,10 +7986,8 @@
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>2</v>
       </c>
@@ -8447,24 +8005,18 @@
       </c>
       <c r="N14" s="7">
         <f>ROUND(income!$B$4 * $M14, 0)</f>
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="O14" s="7">
-        <f>ROUND(income!$F$4 * $M14, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$4 * $M14, 0)</f>
+        <v>88</v>
       </c>
       <c r="P14" s="7">
-        <f>ROUND(income!$C$4 * $M14, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="7">
-        <v>0</v>
-      </c>
-      <c r="R14" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$4 * $M14, 0)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <f>A14</f>
         <v>2</v>
@@ -8485,24 +8037,18 @@
       </c>
       <c r="N15" s="7">
         <f>ROUND(income!$B$4 * $M15, 0)</f>
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="O15" s="7">
-        <f>ROUND(income!$F$4 * $M15, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$4 * $M15, 0)</f>
+        <v>89</v>
       </c>
       <c r="P15" s="7">
-        <f>ROUND(income!$C$4 * $M15, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="7">
-        <v>0</v>
-      </c>
-      <c r="R15" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$4 * $M15, 0)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <f t="shared" ref="A16:A27" si="3">A15</f>
         <v>2</v>
@@ -8523,24 +8069,18 @@
       </c>
       <c r="N16" s="7">
         <f>ROUND(income!$B$4 * $M16, 0)</f>
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="O16" s="7">
-        <f>ROUND(income!$F$4 * $M16, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$4 * $M16, 0)</f>
+        <v>90</v>
       </c>
       <c r="P16" s="7">
-        <f>ROUND(income!$C$4 * $M16, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="7">
-        <v>0</v>
-      </c>
-      <c r="R16" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$4 * $M16, 0)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -8567,24 +8107,18 @@
       </c>
       <c r="N17" s="7">
         <f>ROUND(income!$B$4 * $M17, 0)</f>
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="O17" s="7">
-        <f>ROUND(income!$F$4 * $M17, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$4 * $M17, 0)</f>
+        <v>91</v>
       </c>
       <c r="P17" s="7">
-        <f>ROUND(income!$C$4 * $M17, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="7">
-        <v>0</v>
-      </c>
-      <c r="R17" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$4 * $M17, 0)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -8611,24 +8145,18 @@
       </c>
       <c r="N18" s="7">
         <f>ROUND(income!$B$4 * $M18, 0)</f>
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="O18" s="7">
-        <f>ROUND(income!$F$4 * $M18, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$4 * $M18, 0)</f>
+        <v>92</v>
       </c>
       <c r="P18" s="7">
-        <f>ROUND(income!$C$4 * $M18, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="7">
-        <v>0</v>
-      </c>
-      <c r="R18" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$4 * $M18, 0)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -8649,24 +8177,18 @@
       </c>
       <c r="N19" s="7">
         <f>ROUND(income!$B$4 * $M19, 0)</f>
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="O19" s="7">
-        <f>ROUND(income!$F$4 * $M19, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$4 * $M19, 0)</f>
+        <v>94</v>
       </c>
       <c r="P19" s="7">
-        <f>ROUND(income!$C$4 * $M19, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="7">
-        <v>0</v>
-      </c>
-      <c r="R19" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$4 * $M19, 0)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -8693,24 +8215,18 @@
       </c>
       <c r="N20" s="7">
         <f>ROUND(income!$B$4 * $M20, 0)</f>
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="O20" s="7">
-        <f>ROUND(income!$F$4 * $M20, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$4 * $M20, 0)</f>
+        <v>95</v>
       </c>
       <c r="P20" s="7">
-        <f>ROUND(income!$C$4 * $M20, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="7">
-        <v>0</v>
-      </c>
-      <c r="R20" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$4 * $M20, 0)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -8737,24 +8253,18 @@
       </c>
       <c r="N21" s="7">
         <f>ROUND(income!$B$4 * $M21, 0)</f>
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="O21" s="7">
-        <f>ROUND(income!$F$4 * $M21, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$4 * $M21, 0)</f>
+        <v>96</v>
       </c>
       <c r="P21" s="7">
-        <f>ROUND(income!$C$4 * $M21, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="7">
-        <v>0</v>
-      </c>
-      <c r="R21" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$4 * $M21, 0)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -8775,24 +8285,18 @@
       </c>
       <c r="N22" s="7">
         <f>ROUND(income!$B$4 * $M22, 0)</f>
-        <v>0</v>
+        <v>233</v>
       </c>
       <c r="O22" s="7">
-        <f>ROUND(income!$F$4 * $M22, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$4 * $M22, 0)</f>
+        <v>97</v>
       </c>
       <c r="P22" s="7">
-        <f>ROUND(income!$C$4 * $M22, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="7">
-        <v>0</v>
-      </c>
-      <c r="R22" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$4 * $M22, 0)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -8819,24 +8323,18 @@
       </c>
       <c r="N23" s="7">
         <f>ROUND(income!$B$4 * $M23, 0)</f>
-        <v>0</v>
+        <v>236</v>
       </c>
       <c r="O23" s="7">
-        <f>ROUND(income!$F$4 * $M23, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$4 * $M23, 0)</f>
+        <v>98</v>
       </c>
       <c r="P23" s="7">
-        <f>ROUND(income!$C$4 * $M23, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="7">
-        <v>0</v>
-      </c>
-      <c r="R23" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$4 * $M23, 0)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -8863,24 +8361,18 @@
       </c>
       <c r="N24" s="7">
         <f>ROUND(income!$B$4 * $M24, 0)</f>
-        <v>0</v>
+        <v>239</v>
       </c>
       <c r="O24" s="7">
-        <f>ROUND(income!$F$4 * $M24, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$4 * $M24, 0)</f>
+        <v>99</v>
       </c>
       <c r="P24" s="7">
-        <f>ROUND(income!$C$4 * $M24, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="7">
-        <v>0</v>
-      </c>
-      <c r="R24" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$4 * $M24, 0)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -8901,24 +8393,18 @@
       </c>
       <c r="N25" s="7">
         <f>ROUND(income!$B$4 * $M25, 0)</f>
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="O25" s="7">
-        <f>ROUND(income!$F$4 * $M25, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$4 * $M25, 0)</f>
+        <v>100</v>
       </c>
       <c r="P25" s="7">
-        <f>ROUND(income!$C$4 * $M25, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="7">
-        <v>0</v>
-      </c>
-      <c r="R25" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$4 * $M25, 0)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -8951,24 +8437,18 @@
       </c>
       <c r="N26" s="7">
         <f>ROUND(income!$B$4 * $M26, 0)</f>
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="O26" s="7">
-        <f>ROUND(income!$F$4 * $M26, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$4 * $M26, 0)</f>
+        <v>101</v>
       </c>
       <c r="P26" s="7">
-        <f>ROUND(income!$C$4 * $M26, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="7">
-        <v>0</v>
-      </c>
-      <c r="R26" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$4 * $M26, 0)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -9001,29 +8481,22 @@
       </c>
       <c r="N27" s="7">
         <f>ROUND(income!$B$4 * $M27, 0)</f>
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="O27" s="7">
-        <f>ROUND(income!$F$4 * $M27, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$4 * $M27, 0)</f>
+        <v>102</v>
       </c>
       <c r="P27" s="7">
-        <f>ROUND(income!$C$4 * $M27, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="7">
-        <v>0</v>
-      </c>
-      <c r="R27" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$4 * $M27, 0)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="M28" s="15"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O28" s="7"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>3</v>
       </c>
@@ -9041,24 +8514,18 @@
       </c>
       <c r="N29" s="7">
         <f>ROUND(income!$B$5 * $M29, 0)</f>
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="O29" s="7">
-        <f>ROUND(income!$F$5 * $M29, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$5 * $M29, 0)</f>
+        <v>96</v>
       </c>
       <c r="P29" s="7">
-        <f>ROUND(income!$C$5 * $M29, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q29" s="7">
-        <v>0</v>
-      </c>
-      <c r="R29" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$5 * $M29, 0)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <f>A29</f>
         <v>3</v>
@@ -9079,24 +8546,18 @@
       </c>
       <c r="N30" s="7">
         <f>ROUND(income!$B$5 * $M30, 0)</f>
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="O30" s="7">
-        <f>ROUND(income!$F$5 * $M30, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$5 * $M30, 0)</f>
+        <v>97</v>
       </c>
       <c r="P30" s="7">
-        <f>ROUND(income!$C$5 * $M30, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="7">
-        <v>0</v>
-      </c>
-      <c r="R30" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$5 * $M30, 0)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <f t="shared" ref="A31:A45" si="7">A30</f>
         <v>3</v>
@@ -9117,24 +8578,18 @@
       </c>
       <c r="N31" s="7">
         <f>ROUND(income!$B$5 * $M31, 0)</f>
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="O31" s="7">
-        <f>ROUND(income!$F$5 * $M31, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$5 * $M31, 0)</f>
+        <v>98</v>
       </c>
       <c r="P31" s="7">
-        <f>ROUND(income!$C$5 * $M31, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="7">
-        <v>0</v>
-      </c>
-      <c r="R31" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$5 * $M31, 0)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <f t="shared" si="7"/>
         <v>3</v>
@@ -9161,24 +8616,18 @@
       </c>
       <c r="N32" s="7">
         <f>ROUND(income!$B$5 * $M32, 0)</f>
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="O32" s="7">
-        <f>ROUND(income!$F$5 * $M32, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$5 * $M32, 0)</f>
+        <v>100</v>
       </c>
       <c r="P32" s="7">
-        <f>ROUND(income!$C$5 * $M32, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q32" s="7">
-        <v>0</v>
-      </c>
-      <c r="R32" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$5 * $M32, 0)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <f t="shared" si="7"/>
         <v>3</v>
@@ -9199,24 +8648,18 @@
       </c>
       <c r="N33" s="7">
         <f>ROUND(income!$B$5 * $M33, 0)</f>
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="O33" s="7">
-        <f>ROUND(income!$F$5 * $M33, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$5 * $M33, 0)</f>
+        <v>101</v>
       </c>
       <c r="P33" s="7">
-        <f>ROUND(income!$C$5 * $M33, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q33" s="7">
-        <v>0</v>
-      </c>
-      <c r="R33" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$5 * $M33, 0)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
         <f t="shared" si="7"/>
         <v>3</v>
@@ -9243,24 +8686,18 @@
       </c>
       <c r="N34" s="7">
         <f>ROUND(income!$B$5 * $M34, 0)</f>
-        <v>0</v>
+        <v>238</v>
       </c>
       <c r="O34" s="7">
-        <f>ROUND(income!$F$5 * $M34, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$5 * $M34, 0)</f>
+        <v>102</v>
       </c>
       <c r="P34" s="7">
-        <f>ROUND(income!$C$5 * $M34, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q34" s="7">
-        <v>0</v>
-      </c>
-      <c r="R34" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$5 * $M34, 0)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
         <f t="shared" si="7"/>
         <v>3</v>
@@ -9287,24 +8724,18 @@
       </c>
       <c r="N35" s="7">
         <f>ROUND(income!$B$5 * $M35, 0)</f>
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="O35" s="7">
-        <f>ROUND(income!$F$5 * $M35, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$5 * $M35, 0)</f>
+        <v>103</v>
       </c>
       <c r="P35" s="7">
-        <f>ROUND(income!$C$5 * $M35, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q35" s="7">
-        <v>0</v>
-      </c>
-      <c r="R35" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$5 * $M35, 0)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
         <f t="shared" si="7"/>
         <v>3</v>
@@ -9331,24 +8762,18 @@
       </c>
       <c r="N36" s="7">
         <f>ROUND(income!$B$5 * $M36, 0)</f>
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="O36" s="7">
-        <f>ROUND(income!$F$5 * $M36, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$5 * $M36, 0)</f>
+        <v>104</v>
       </c>
       <c r="P36" s="7">
-        <f>ROUND(income!$C$5 * $M36, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q36" s="7">
-        <v>0</v>
-      </c>
-      <c r="R36" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$5 * $M36, 0)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="9">
         <f t="shared" si="7"/>
         <v>3</v>
@@ -9375,24 +8800,18 @@
       </c>
       <c r="N37" s="7">
         <f>ROUND(income!$B$5 * $M37, 0)</f>
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="O37" s="7">
-        <f>ROUND(income!$F$5 * $M37, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$5 * $M37, 0)</f>
+        <v>106</v>
       </c>
       <c r="P37" s="7">
-        <f>ROUND(income!$C$5 * $M37, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q37" s="7">
-        <v>0</v>
-      </c>
-      <c r="R37" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$5 * $M37, 0)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="9">
         <f t="shared" si="7"/>
         <v>3</v>
@@ -9425,24 +8844,18 @@
       </c>
       <c r="N38" s="7">
         <f>ROUND(income!$B$5 * $M38, 0)</f>
-        <v>0</v>
+        <v>249</v>
       </c>
       <c r="O38" s="7">
-        <f>ROUND(income!$F$5 * $M38, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$5 * $M38, 0)</f>
+        <v>107</v>
       </c>
       <c r="P38" s="7">
-        <f>ROUND(income!$C$5 * $M38, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q38" s="7">
-        <v>0</v>
-      </c>
-      <c r="R38" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$5 * $M38, 0)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="9">
         <f t="shared" si="7"/>
         <v>3</v>
@@ -9469,24 +8882,18 @@
       </c>
       <c r="N39" s="7">
         <f>ROUND(income!$B$5 * $M39, 0)</f>
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="O39" s="7">
-        <f>ROUND(income!$F$5 * $M39, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$5 * $M39, 0)</f>
+        <v>108</v>
       </c>
       <c r="P39" s="7">
-        <f>ROUND(income!$C$5 * $M39, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q39" s="7">
-        <v>0</v>
-      </c>
-      <c r="R39" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$5 * $M39, 0)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="9">
         <f t="shared" si="7"/>
         <v>3</v>
@@ -9513,24 +8920,18 @@
       </c>
       <c r="N40" s="7">
         <f>ROUND(income!$B$5 * $M40, 0)</f>
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="O40" s="7">
-        <f>ROUND(income!$F$5 * $M40, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$5 * $M40, 0)</f>
+        <v>109</v>
       </c>
       <c r="P40" s="7">
-        <f>ROUND(income!$C$5 * $M40, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q40" s="7">
-        <v>0</v>
-      </c>
-      <c r="R40" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$5 * $M40, 0)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="9">
         <f t="shared" si="7"/>
         <v>3</v>
@@ -9557,24 +8958,18 @@
       </c>
       <c r="N41" s="7">
         <f>ROUND(income!$B$5 * $M41, 0)</f>
-        <v>0</v>
+        <v>258</v>
       </c>
       <c r="O41" s="7">
-        <f>ROUND(income!$F$5 * $M41, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$5 * $M41, 0)</f>
+        <v>110</v>
       </c>
       <c r="P41" s="7">
-        <f>ROUND(income!$C$5 * $M41, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q41" s="7">
-        <v>0</v>
-      </c>
-      <c r="R41" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$5 * $M41, 0)</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="9">
         <f t="shared" si="7"/>
         <v>3</v>
@@ -9607,24 +9002,18 @@
       </c>
       <c r="N42" s="7">
         <f>ROUND(income!$B$5 * $M42, 0)</f>
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="O42" s="7">
-        <f>ROUND(income!$F$5 * $M42, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$5 * $M42, 0)</f>
+        <v>112</v>
       </c>
       <c r="P42" s="7">
-        <f>ROUND(income!$C$5 * $M42, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q42" s="7">
-        <v>0</v>
-      </c>
-      <c r="R42" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$5 * $M42, 0)</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="9">
         <f t="shared" si="7"/>
         <v>3</v>
@@ -9651,24 +9040,18 @@
       </c>
       <c r="N43" s="7">
         <f>ROUND(income!$B$5 * $M43, 0)</f>
-        <v>0</v>
+        <v>263</v>
       </c>
       <c r="O43" s="7">
-        <f>ROUND(income!$F$5 * $M43, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$5 * $M43, 0)</f>
+        <v>113</v>
       </c>
       <c r="P43" s="7">
-        <f>ROUND(income!$C$5 * $M43, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q43" s="7">
-        <v>0</v>
-      </c>
-      <c r="R43" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$5 * $M43, 0)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="9">
         <f t="shared" si="7"/>
         <v>3</v>
@@ -9701,24 +9084,18 @@
       </c>
       <c r="N44" s="7">
         <f>ROUND(income!$B$5 * $M44, 0)</f>
-        <v>0</v>
+        <v>266</v>
       </c>
       <c r="O44" s="7">
-        <f>ROUND(income!$F$5 * $M44, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$5 * $M44, 0)</f>
+        <v>114</v>
       </c>
       <c r="P44" s="7">
-        <f>ROUND(income!$C$5 * $M44, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q44" s="7">
-        <v>0</v>
-      </c>
-      <c r="R44" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+        <f>ROUND(income!$D$5 * $M44, 0)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="9">
         <f t="shared" si="7"/>
         <v>3</v>
@@ -9757,21 +9134,15 @@
       </c>
       <c r="N45" s="7">
         <f>ROUND(income!$B$5 * $M45, 0)</f>
-        <v>0</v>
+        <v>269</v>
       </c>
       <c r="O45" s="7">
-        <f>ROUND(income!$F$5 * $M45, 0)</f>
-        <v>0</v>
+        <f>ROUND(income!$C$5 * $M45, 0)</f>
+        <v>115</v>
       </c>
       <c r="P45" s="7">
-        <f>ROUND(income!$C$5 * $M45, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q45" s="7">
-        <v>0</v>
-      </c>
-      <c r="R45" s="7">
-        <v>0</v>
+        <f>ROUND(income!$D$5 * $M45, 0)</f>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -9796,66 +9167,66 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -9868,7 +9239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
@@ -9882,13 +9253,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -9899,7 +9270,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -9910,7 +9281,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -9921,7 +9292,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -9932,7 +9303,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -9943,7 +9314,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -9954,7 +9325,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/backend/emporium/data/StageData.xlsx
+++ b/backend/emporium/data/StageData.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="828" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="828" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="income" sheetId="8" r:id="rId1"/>
+    <sheet name="constants" sheetId="8" r:id="rId1"/>
     <sheet name="Trap" sheetId="4" r:id="rId2"/>
     <sheet name="Enemy" sheetId="5" r:id="rId3"/>
     <sheet name="GothicTower" sheetId="6" r:id="rId4"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="114">
   <si>
     <t>Name</t>
   </si>
@@ -355,6 +355,21 @@
   </si>
   <si>
     <t>13 hr</t>
+  </si>
+  <si>
+    <t>trap damage per world</t>
+  </si>
+  <si>
+    <t>trap damage starting</t>
+  </si>
+  <si>
+    <t>trap starting xp</t>
+  </si>
+  <si>
+    <t>trap xp per world</t>
+  </si>
+  <si>
+    <t>Rank</t>
   </si>
 </sst>
 </file>
@@ -401,7 +416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -444,9 +459,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -728,7 +740,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -739,9 +751,12 @@
   <cols>
     <col min="1" max="4" width="10.77734375" style="1" customWidth="1"/>
     <col min="5" max="5" width="1.77734375" customWidth="1"/>
+    <col min="6" max="6" width="20.77734375" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" customWidth="1"/>
+    <col min="8" max="8" width="1.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>71</v>
       </c>
@@ -755,13 +770,13 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -774,8 +789,14 @@
       <c r="D3" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G3" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -788,8 +809,14 @@
       <c r="D4" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -803,7 +830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -816,8 +843,14 @@
       <c r="D6" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G6" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -830,8 +863,14 @@
       <c r="D7" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -845,7 +884,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -859,7 +898,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -873,7 +912,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1181,7 +1220,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J79"/>
+  <dimension ref="A1:L79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1196,9 +1235,10 @@
     <col min="6" max="7" width="24.77734375" style="5" customWidth="1"/>
     <col min="8" max="10" width="10.77734375" style="1" customWidth="1"/>
     <col min="11" max="11" width="1.77734375" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
@@ -1229,8 +1269,9 @@
       <c r="J1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L1" s="3"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1253,16 +1294,18 @@
         <v>34</v>
       </c>
       <c r="H3" s="1">
-        <v>8</v>
+        <f>constants!$G$3 + ($A3 - 1) * constants!$G$4</f>
+        <v>10</v>
       </c>
       <c r="I3" s="1">
         <v>12</v>
       </c>
       <c r="J3" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <f>constants!$G$6 + (Trap!$A3 - 1) * constants!$G$7</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1285,16 +1328,18 @@
         <v>34</v>
       </c>
       <c r="H4" s="1">
-        <v>8</v>
+        <f>constants!$G$3 + ($A4 - 1) * constants!$G$4</f>
+        <v>10</v>
       </c>
       <c r="I4" s="1">
         <v>12</v>
       </c>
       <c r="J4" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <f>constants!$G$6 + (Trap!$A4 - 1) * constants!$G$7</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1317,16 +1362,18 @@
         <v>34</v>
       </c>
       <c r="H5" s="1">
-        <v>8</v>
+        <f>constants!$G$3 + ($A5 - 1) * constants!$G$4</f>
+        <v>10</v>
       </c>
       <c r="I5" s="1">
         <v>14</v>
       </c>
       <c r="J5" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <f>constants!$G$6 + (Trap!$A5 - 1) * constants!$G$7</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1349,16 +1396,18 @@
         <v>35</v>
       </c>
       <c r="H6" s="1">
-        <v>8</v>
+        <f>constants!$G$3 + ($A6 - 1) * constants!$G$4</f>
+        <v>10</v>
       </c>
       <c r="I6" s="1">
         <v>16</v>
       </c>
       <c r="J6" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <f>constants!$G$6 + (Trap!$A6 - 1) * constants!$G$7</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -1381,16 +1430,18 @@
         <v>34</v>
       </c>
       <c r="H7" s="1">
-        <v>8</v>
+        <f>constants!$G$3 + ($A7 - 1) * constants!$G$4</f>
+        <v>10</v>
       </c>
       <c r="I7" s="1">
         <v>12</v>
       </c>
       <c r="J7" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <f>constants!$G$6 + (Trap!$A7 - 1) * constants!$G$7</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -1413,16 +1464,18 @@
         <v>34</v>
       </c>
       <c r="H8" s="1">
-        <v>8</v>
+        <f>constants!$G$3 + ($A8 - 1) * constants!$G$4</f>
+        <v>10</v>
       </c>
       <c r="I8" s="1">
         <v>12</v>
       </c>
       <c r="J8" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <f>constants!$G$6 + (Trap!$A8 - 1) * constants!$G$7</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -1445,16 +1498,18 @@
         <v>34</v>
       </c>
       <c r="H9" s="1">
-        <v>8</v>
+        <f>constants!$G$3 + ($A9 - 1) * constants!$G$4</f>
+        <v>10</v>
       </c>
       <c r="I9" s="1">
         <v>14</v>
       </c>
       <c r="J9" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <f>constants!$G$6 + (Trap!$A9 - 1) * constants!$G$7</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -1477,16 +1532,18 @@
         <v>35</v>
       </c>
       <c r="H10" s="1">
-        <v>8</v>
+        <f>constants!$G$3 + ($A10 - 1) * constants!$G$4</f>
+        <v>10</v>
       </c>
       <c r="I10" s="1">
         <v>16</v>
       </c>
       <c r="J10" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <f>constants!$G$6 + (Trap!$A10 - 1) * constants!$G$7</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -1509,16 +1566,18 @@
         <v>34</v>
       </c>
       <c r="H11" s="1">
-        <v>8</v>
+        <f>constants!$G$3 + ($A11 - 1) * constants!$G$4</f>
+        <v>10</v>
       </c>
       <c r="I11" s="1">
         <v>12</v>
       </c>
       <c r="J11" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <f>constants!$G$6 + (Trap!$A11 - 1) * constants!$G$7</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -1541,16 +1600,18 @@
         <v>34</v>
       </c>
       <c r="H12" s="1">
-        <v>8</v>
+        <f>constants!$G$3 + ($A12 - 1) * constants!$G$4</f>
+        <v>10</v>
       </c>
       <c r="I12" s="1">
         <v>12</v>
       </c>
       <c r="J12" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <f>constants!$G$6 + (Trap!$A12 - 1) * constants!$G$7</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -1573,16 +1634,18 @@
         <v>34</v>
       </c>
       <c r="H13" s="1">
-        <v>8</v>
+        <f>constants!$G$3 + ($A13 - 1) * constants!$G$4</f>
+        <v>10</v>
       </c>
       <c r="I13" s="1">
         <v>14</v>
       </c>
       <c r="J13" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <f>constants!$G$6 + (Trap!$A13 - 1) * constants!$G$7</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -1605,16 +1668,18 @@
         <v>35</v>
       </c>
       <c r="H14" s="1">
-        <v>8</v>
+        <f>constants!$G$3 + ($A14 - 1) * constants!$G$4</f>
+        <v>10</v>
       </c>
       <c r="I14" s="1">
         <v>16</v>
       </c>
       <c r="J14" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <f>constants!$G$6 + (Trap!$A14 - 1) * constants!$G$7</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -1637,13 +1702,15 @@
         <v>34</v>
       </c>
       <c r="H16" s="1">
-        <v>8</v>
+        <f>constants!$G$3 + ($A16 - 1) * constants!$G$4 +1</f>
+        <v>11</v>
       </c>
       <c r="I16" s="1">
         <v>13</v>
       </c>
       <c r="J16" s="1">
-        <v>11</v>
+        <f>constants!$G$6 + (Trap!$A16 - 1) * constants!$G$7 +1</f>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1669,13 +1736,15 @@
         <v>34</v>
       </c>
       <c r="H17" s="1">
-        <v>8</v>
+        <f>constants!$G$3 + ($A17 - 1) * constants!$G$4 +1</f>
+        <v>11</v>
       </c>
       <c r="I17" s="1">
         <v>13</v>
       </c>
       <c r="J17" s="1">
-        <v>11</v>
+        <f>constants!$G$6 + (Trap!$A17 - 1) * constants!$G$7 +1</f>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -1701,13 +1770,15 @@
         <v>34</v>
       </c>
       <c r="H18" s="1">
-        <v>8</v>
+        <f>constants!$G$3 + ($A18 - 1) * constants!$G$4 +1</f>
+        <v>11</v>
       </c>
       <c r="I18" s="1">
         <v>15</v>
       </c>
       <c r="J18" s="1">
-        <v>11</v>
+        <f>constants!$G$6 + (Trap!$A18 - 1) * constants!$G$7 +1</f>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -1733,13 +1804,15 @@
         <v>35</v>
       </c>
       <c r="H19" s="1">
-        <v>8</v>
+        <f>constants!$G$3 + ($A19 - 1) * constants!$G$4 +1</f>
+        <v>11</v>
       </c>
       <c r="I19" s="1">
         <v>17</v>
       </c>
       <c r="J19" s="1">
-        <v>11</v>
+        <f>constants!$G$6 + (Trap!$A19 - 1) * constants!$G$7 +1</f>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -1765,13 +1838,15 @@
         <v>34</v>
       </c>
       <c r="H20" s="1">
-        <v>8</v>
+        <f>constants!$G$3 + ($A20 - 1) * constants!$G$4 +1</f>
+        <v>11</v>
       </c>
       <c r="I20" s="1">
         <v>13</v>
       </c>
       <c r="J20" s="1">
-        <v>11</v>
+        <f>constants!$G$6 + (Trap!$A20 - 1) * constants!$G$7 +1</f>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -1797,13 +1872,15 @@
         <v>34</v>
       </c>
       <c r="H21" s="1">
-        <v>8</v>
+        <f>constants!$G$3 + ($A21 - 1) * constants!$G$4 +1</f>
+        <v>11</v>
       </c>
       <c r="I21" s="1">
         <v>13</v>
       </c>
       <c r="J21" s="1">
-        <v>11</v>
+        <f>constants!$G$6 + (Trap!$A21 - 1) * constants!$G$7 +1</f>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -1829,13 +1906,15 @@
         <v>34</v>
       </c>
       <c r="H22" s="1">
-        <v>8</v>
+        <f>constants!$G$3 + ($A22 - 1) * constants!$G$4 +1</f>
+        <v>11</v>
       </c>
       <c r="I22" s="1">
         <v>15</v>
       </c>
       <c r="J22" s="1">
-        <v>11</v>
+        <f>constants!$G$6 + (Trap!$A22 - 1) * constants!$G$7 +1</f>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -1861,13 +1940,15 @@
         <v>35</v>
       </c>
       <c r="H23" s="1">
-        <v>8</v>
+        <f>constants!$G$3 + ($A23 - 1) * constants!$G$4 +1</f>
+        <v>11</v>
       </c>
       <c r="I23" s="1">
         <v>17</v>
       </c>
       <c r="J23" s="1">
-        <v>11</v>
+        <f>constants!$G$6 + (Trap!$A23 - 1) * constants!$G$7 +1</f>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -1893,13 +1974,15 @@
         <v>34</v>
       </c>
       <c r="H24" s="1">
-        <v>8</v>
+        <f>constants!$G$3 + ($A24 - 1) * constants!$G$4 +1</f>
+        <v>11</v>
       </c>
       <c r="I24" s="1">
         <v>13</v>
       </c>
       <c r="J24" s="1">
-        <v>11</v>
+        <f>constants!$G$6 + (Trap!$A24 - 1) * constants!$G$7 +1</f>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -1925,13 +2008,15 @@
         <v>34</v>
       </c>
       <c r="H25" s="1">
-        <v>8</v>
+        <f>constants!$G$3 + ($A25 - 1) * constants!$G$4 +1</f>
+        <v>11</v>
       </c>
       <c r="I25" s="1">
         <v>13</v>
       </c>
       <c r="J25" s="1">
-        <v>11</v>
+        <f>constants!$G$6 + (Trap!$A25 - 1) * constants!$G$7 +1</f>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -1957,13 +2042,15 @@
         <v>34</v>
       </c>
       <c r="H26" s="1">
-        <v>8</v>
+        <f>constants!$G$3 + ($A26 - 1) * constants!$G$4 +1</f>
+        <v>11</v>
       </c>
       <c r="I26" s="1">
         <v>15</v>
       </c>
       <c r="J26" s="1">
-        <v>11</v>
+        <f>constants!$G$6 + (Trap!$A26 - 1) * constants!$G$7 +1</f>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -1989,13 +2076,15 @@
         <v>35</v>
       </c>
       <c r="H27" s="1">
-        <v>8</v>
+        <f>constants!$G$3 + ($A27 - 1) * constants!$G$4 +1</f>
+        <v>11</v>
       </c>
       <c r="I27" s="1">
         <v>17</v>
       </c>
       <c r="J27" s="1">
-        <v>11</v>
+        <f>constants!$G$6 + (Trap!$A27 - 1) * constants!$G$7 +1</f>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -2021,13 +2110,15 @@
         <v>34</v>
       </c>
       <c r="H29" s="1">
-        <v>9</v>
+        <f>constants!$G$3 + ($A29 - 1) * constants!$G$4</f>
+        <v>13</v>
       </c>
       <c r="I29" s="1">
         <v>14</v>
       </c>
       <c r="J29" s="1">
-        <v>14</v>
+        <f>constants!$G$6 + (Trap!$A29 - 1) * constants!$G$7</f>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -2053,13 +2144,15 @@
         <v>34</v>
       </c>
       <c r="H30" s="1">
-        <v>9</v>
+        <f>constants!$G$3 + ($A30 - 1) * constants!$G$4</f>
+        <v>13</v>
       </c>
       <c r="I30" s="1">
         <v>14</v>
       </c>
       <c r="J30" s="1">
-        <v>14</v>
+        <f>constants!$G$6 + (Trap!$A30 - 1) * constants!$G$7</f>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -2085,13 +2178,15 @@
         <v>34</v>
       </c>
       <c r="H31" s="1">
-        <v>9</v>
+        <f>constants!$G$3 + ($A31 - 1) * constants!$G$4</f>
+        <v>13</v>
       </c>
       <c r="I31" s="1">
         <v>16</v>
       </c>
       <c r="J31" s="1">
-        <v>14</v>
+        <f>constants!$G$6 + (Trap!$A31 - 1) * constants!$G$7</f>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -2117,13 +2212,15 @@
         <v>35</v>
       </c>
       <c r="H32" s="1">
-        <v>9</v>
+        <f>constants!$G$3 + ($A32 - 1) * constants!$G$4</f>
+        <v>13</v>
       </c>
       <c r="I32" s="1">
         <v>18</v>
       </c>
       <c r="J32" s="1">
-        <v>14</v>
+        <f>constants!$G$6 + (Trap!$A32 - 1) * constants!$G$7</f>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -2149,13 +2246,15 @@
         <v>34</v>
       </c>
       <c r="H33" s="1">
-        <v>9</v>
+        <f>constants!$G$3 + ($A33 - 1) * constants!$G$4</f>
+        <v>13</v>
       </c>
       <c r="I33" s="1">
         <v>14</v>
       </c>
       <c r="J33" s="1">
-        <v>14</v>
+        <f>constants!$G$6 + (Trap!$A33 - 1) * constants!$G$7</f>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -2181,13 +2280,15 @@
         <v>34</v>
       </c>
       <c r="H34" s="1">
-        <v>9</v>
+        <f>constants!$G$3 + ($A34 - 1) * constants!$G$4</f>
+        <v>13</v>
       </c>
       <c r="I34" s="1">
         <v>14</v>
       </c>
       <c r="J34" s="1">
-        <v>14</v>
+        <f>constants!$G$6 + (Trap!$A34 - 1) * constants!$G$7</f>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -2213,13 +2314,15 @@
         <v>34</v>
       </c>
       <c r="H35" s="1">
-        <v>9</v>
+        <f>constants!$G$3 + ($A35 - 1) * constants!$G$4</f>
+        <v>13</v>
       </c>
       <c r="I35" s="1">
         <v>16</v>
       </c>
       <c r="J35" s="1">
-        <v>14</v>
+        <f>constants!$G$6 + (Trap!$A35 - 1) * constants!$G$7</f>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -2245,13 +2348,15 @@
         <v>35</v>
       </c>
       <c r="H36" s="1">
-        <v>9</v>
+        <f>constants!$G$3 + ($A36 - 1) * constants!$G$4</f>
+        <v>13</v>
       </c>
       <c r="I36" s="1">
         <v>18</v>
       </c>
       <c r="J36" s="1">
-        <v>14</v>
+        <f>constants!$G$6 + (Trap!$A36 - 1) * constants!$G$7</f>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -2277,13 +2382,15 @@
         <v>34</v>
       </c>
       <c r="H37" s="1">
-        <v>9</v>
+        <f>constants!$G$3 + ($A37 - 1) * constants!$G$4</f>
+        <v>13</v>
       </c>
       <c r="I37" s="1">
         <v>14</v>
       </c>
       <c r="J37" s="1">
-        <v>14</v>
+        <f>constants!$G$6 + (Trap!$A37 - 1) * constants!$G$7</f>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -2309,13 +2416,15 @@
         <v>34</v>
       </c>
       <c r="H38" s="1">
-        <v>9</v>
+        <f>constants!$G$3 + ($A38 - 1) * constants!$G$4</f>
+        <v>13</v>
       </c>
       <c r="I38" s="1">
         <v>14</v>
       </c>
       <c r="J38" s="1">
-        <v>14</v>
+        <f>constants!$G$6 + (Trap!$A38 - 1) * constants!$G$7</f>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -2341,13 +2450,15 @@
         <v>34</v>
       </c>
       <c r="H39" s="1">
-        <v>9</v>
+        <f>constants!$G$3 + ($A39 - 1) * constants!$G$4</f>
+        <v>13</v>
       </c>
       <c r="I39" s="1">
         <v>16</v>
       </c>
       <c r="J39" s="1">
-        <v>14</v>
+        <f>constants!$G$6 + (Trap!$A39 - 1) * constants!$G$7</f>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -2373,13 +2484,15 @@
         <v>35</v>
       </c>
       <c r="H40" s="1">
-        <v>9</v>
+        <f>constants!$G$3 + ($A40 - 1) * constants!$G$4</f>
+        <v>13</v>
       </c>
       <c r="I40" s="1">
         <v>18</v>
       </c>
       <c r="J40" s="1">
-        <v>14</v>
+        <f>constants!$G$6 + (Trap!$A40 - 1) * constants!$G$7</f>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -2405,13 +2518,15 @@
         <v>34</v>
       </c>
       <c r="H42" s="1">
-        <v>9</v>
+        <f>constants!$G$3 + ($A42 - 1) * constants!$G$4 +1</f>
+        <v>14</v>
       </c>
       <c r="I42" s="1">
         <v>15</v>
       </c>
       <c r="J42" s="1">
-        <v>15</v>
+        <f>constants!$G$6 + (Trap!$A42 - 1) * constants!$G$7 +1</f>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -2437,13 +2552,15 @@
         <v>34</v>
       </c>
       <c r="H43" s="1">
-        <v>9</v>
+        <f>constants!$G$3 + ($A43 - 1) * constants!$G$4 +1</f>
+        <v>14</v>
       </c>
       <c r="I43" s="1">
         <v>15</v>
       </c>
       <c r="J43" s="1">
-        <v>15</v>
+        <f>constants!$G$6 + (Trap!$A43 - 1) * constants!$G$7 +1</f>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -2469,13 +2586,15 @@
         <v>34</v>
       </c>
       <c r="H44" s="1">
-        <v>9</v>
+        <f>constants!$G$3 + ($A44 - 1) * constants!$G$4 +1</f>
+        <v>14</v>
       </c>
       <c r="I44" s="1">
         <v>17</v>
       </c>
       <c r="J44" s="1">
-        <v>15</v>
+        <f>constants!$G$6 + (Trap!$A44 - 1) * constants!$G$7 +1</f>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -2501,13 +2620,15 @@
         <v>35</v>
       </c>
       <c r="H45" s="1">
-        <v>9</v>
+        <f>constants!$G$3 + ($A45 - 1) * constants!$G$4 +1</f>
+        <v>14</v>
       </c>
       <c r="I45" s="1">
         <v>19</v>
       </c>
       <c r="J45" s="1">
-        <v>15</v>
+        <f>constants!$G$6 + (Trap!$A45 - 1) * constants!$G$7 +1</f>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
@@ -2533,13 +2654,15 @@
         <v>34</v>
       </c>
       <c r="H46" s="1">
-        <v>9</v>
+        <f>constants!$G$3 + ($A46 - 1) * constants!$G$4 +1</f>
+        <v>14</v>
       </c>
       <c r="I46" s="1">
         <v>15</v>
       </c>
       <c r="J46" s="1">
-        <v>15</v>
+        <f>constants!$G$6 + (Trap!$A46 - 1) * constants!$G$7 +1</f>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -2565,13 +2688,15 @@
         <v>34</v>
       </c>
       <c r="H47" s="1">
-        <v>9</v>
+        <f>constants!$G$3 + ($A47 - 1) * constants!$G$4 +1</f>
+        <v>14</v>
       </c>
       <c r="I47" s="1">
         <v>15</v>
       </c>
       <c r="J47" s="1">
-        <v>15</v>
+        <f>constants!$G$6 + (Trap!$A47 - 1) * constants!$G$7 +1</f>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -2597,13 +2722,15 @@
         <v>34</v>
       </c>
       <c r="H48" s="1">
-        <v>9</v>
+        <f>constants!$G$3 + ($A48 - 1) * constants!$G$4 +1</f>
+        <v>14</v>
       </c>
       <c r="I48" s="1">
         <v>17</v>
       </c>
       <c r="J48" s="1">
-        <v>15</v>
+        <f>constants!$G$6 + (Trap!$A48 - 1) * constants!$G$7 +1</f>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -2629,13 +2756,15 @@
         <v>35</v>
       </c>
       <c r="H49" s="1">
-        <v>9</v>
+        <f>constants!$G$3 + ($A49 - 1) * constants!$G$4 +1</f>
+        <v>14</v>
       </c>
       <c r="I49" s="1">
         <v>19</v>
       </c>
       <c r="J49" s="1">
-        <v>15</v>
+        <f>constants!$G$6 + (Trap!$A49 - 1) * constants!$G$7 +1</f>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -2661,13 +2790,15 @@
         <v>34</v>
       </c>
       <c r="H50" s="1">
-        <v>9</v>
+        <f>constants!$G$3 + ($A50 - 1) * constants!$G$4 +1</f>
+        <v>14</v>
       </c>
       <c r="I50" s="1">
         <v>15</v>
       </c>
       <c r="J50" s="1">
-        <v>15</v>
+        <f>constants!$G$6 + (Trap!$A50 - 1) * constants!$G$7 +1</f>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -2693,13 +2824,15 @@
         <v>34</v>
       </c>
       <c r="H51" s="1">
-        <v>9</v>
+        <f>constants!$G$3 + ($A51 - 1) * constants!$G$4 +1</f>
+        <v>14</v>
       </c>
       <c r="I51" s="1">
         <v>15</v>
       </c>
       <c r="J51" s="1">
-        <v>15</v>
+        <f>constants!$G$6 + (Trap!$A51 - 1) * constants!$G$7 +1</f>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -2725,13 +2858,15 @@
         <v>34</v>
       </c>
       <c r="H52" s="1">
-        <v>9</v>
+        <f>constants!$G$3 + ($A52 - 1) * constants!$G$4 +1</f>
+        <v>14</v>
       </c>
       <c r="I52" s="1">
         <v>17</v>
       </c>
       <c r="J52" s="1">
-        <v>15</v>
+        <f>constants!$G$6 + (Trap!$A52 - 1) * constants!$G$7 +1</f>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -2757,13 +2892,15 @@
         <v>35</v>
       </c>
       <c r="H53" s="1">
-        <v>9</v>
+        <f>constants!$G$3 + ($A53 - 1) * constants!$G$4 +1</f>
+        <v>14</v>
       </c>
       <c r="I53" s="1">
         <v>19</v>
       </c>
       <c r="J53" s="1">
-        <v>15</v>
+        <f>constants!$G$6 + (Trap!$A53 - 1) * constants!$G$7 +1</f>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -2789,13 +2926,15 @@
         <v>34</v>
       </c>
       <c r="H55" s="1">
-        <v>10</v>
+        <f>constants!$G$3 + ($A55 - 1) * constants!$G$4</f>
+        <v>16</v>
       </c>
       <c r="I55" s="1">
         <v>16</v>
       </c>
       <c r="J55" s="1">
-        <v>18</v>
+        <f>constants!$G$6 + (Trap!$A55 - 1) * constants!$G$7</f>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -2821,13 +2960,15 @@
         <v>34</v>
       </c>
       <c r="H56" s="1">
-        <v>10</v>
+        <f>constants!$G$3 + ($A56 - 1) * constants!$G$4</f>
+        <v>16</v>
       </c>
       <c r="I56" s="1">
         <v>16</v>
       </c>
       <c r="J56" s="1">
-        <v>18</v>
+        <f>constants!$G$6 + (Trap!$A56 - 1) * constants!$G$7</f>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -2853,13 +2994,15 @@
         <v>34</v>
       </c>
       <c r="H57" s="1">
-        <v>10</v>
+        <f>constants!$G$3 + ($A57 - 1) * constants!$G$4</f>
+        <v>16</v>
       </c>
       <c r="I57" s="1">
         <v>18</v>
       </c>
       <c r="J57" s="1">
-        <v>18</v>
+        <f>constants!$G$6 + (Trap!$A57 - 1) * constants!$G$7</f>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -2885,13 +3028,15 @@
         <v>35</v>
       </c>
       <c r="H58" s="1">
-        <v>10</v>
+        <f>constants!$G$3 + ($A58 - 1) * constants!$G$4</f>
+        <v>16</v>
       </c>
       <c r="I58" s="1">
         <v>20</v>
       </c>
       <c r="J58" s="1">
-        <v>18</v>
+        <f>constants!$G$6 + (Trap!$A58 - 1) * constants!$G$7</f>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -2917,13 +3062,15 @@
         <v>34</v>
       </c>
       <c r="H59" s="1">
-        <v>10</v>
+        <f>constants!$G$3 + ($A59 - 1) * constants!$G$4</f>
+        <v>16</v>
       </c>
       <c r="I59" s="1">
         <v>16</v>
       </c>
       <c r="J59" s="1">
-        <v>18</v>
+        <f>constants!$G$6 + (Trap!$A59 - 1) * constants!$G$7</f>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -2949,13 +3096,15 @@
         <v>34</v>
       </c>
       <c r="H60" s="1">
-        <v>10</v>
+        <f>constants!$G$3 + ($A60 - 1) * constants!$G$4</f>
+        <v>16</v>
       </c>
       <c r="I60" s="1">
         <v>16</v>
       </c>
       <c r="J60" s="1">
-        <v>18</v>
+        <f>constants!$G$6 + (Trap!$A60 - 1) * constants!$G$7</f>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -2981,13 +3130,15 @@
         <v>34</v>
       </c>
       <c r="H61" s="1">
-        <v>10</v>
+        <f>constants!$G$3 + ($A61 - 1) * constants!$G$4</f>
+        <v>16</v>
       </c>
       <c r="I61" s="1">
         <v>18</v>
       </c>
       <c r="J61" s="1">
-        <v>18</v>
+        <f>constants!$G$6 + (Trap!$A61 - 1) * constants!$G$7</f>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -3013,13 +3164,15 @@
         <v>35</v>
       </c>
       <c r="H62" s="1">
-        <v>10</v>
+        <f>constants!$G$3 + ($A62 - 1) * constants!$G$4</f>
+        <v>16</v>
       </c>
       <c r="I62" s="1">
         <v>20</v>
       </c>
       <c r="J62" s="1">
-        <v>18</v>
+        <f>constants!$G$6 + (Trap!$A62 - 1) * constants!$G$7</f>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -3045,13 +3198,15 @@
         <v>34</v>
       </c>
       <c r="H63" s="1">
-        <v>10</v>
+        <f>constants!$G$3 + ($A63 - 1) * constants!$G$4</f>
+        <v>16</v>
       </c>
       <c r="I63" s="1">
         <v>16</v>
       </c>
       <c r="J63" s="1">
-        <v>18</v>
+        <f>constants!$G$6 + (Trap!$A63 - 1) * constants!$G$7</f>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -3077,13 +3232,15 @@
         <v>34</v>
       </c>
       <c r="H64" s="1">
-        <v>10</v>
+        <f>constants!$G$3 + ($A64 - 1) * constants!$G$4</f>
+        <v>16</v>
       </c>
       <c r="I64" s="1">
         <v>16</v>
       </c>
       <c r="J64" s="1">
-        <v>18</v>
+        <f>constants!$G$6 + (Trap!$A64 - 1) * constants!$G$7</f>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
@@ -3109,13 +3266,15 @@
         <v>34</v>
       </c>
       <c r="H65" s="1">
-        <v>10</v>
+        <f>constants!$G$3 + ($A65 - 1) * constants!$G$4</f>
+        <v>16</v>
       </c>
       <c r="I65" s="1">
         <v>18</v>
       </c>
       <c r="J65" s="1">
-        <v>18</v>
+        <f>constants!$G$6 + (Trap!$A65 - 1) * constants!$G$7</f>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
@@ -3141,13 +3300,15 @@
         <v>35</v>
       </c>
       <c r="H66" s="1">
-        <v>10</v>
+        <f>constants!$G$3 + ($A66 - 1) * constants!$G$4</f>
+        <v>16</v>
       </c>
       <c r="I66" s="1">
         <v>20</v>
       </c>
       <c r="J66" s="1">
-        <v>18</v>
+        <f>constants!$G$6 + (Trap!$A66 - 1) * constants!$G$7</f>
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
@@ -3173,13 +3334,15 @@
         <v>34</v>
       </c>
       <c r="H68" s="1">
-        <v>10</v>
+        <f>constants!$G$3 + ($A68 - 1) * constants!$G$4 +1</f>
+        <v>17</v>
       </c>
       <c r="I68" s="1">
         <v>17</v>
       </c>
       <c r="J68" s="1">
-        <v>19</v>
+        <f>constants!$G$6 + (Trap!$A68 - 1) * constants!$G$7 +1</f>
+        <v>21</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
@@ -3205,13 +3368,15 @@
         <v>34</v>
       </c>
       <c r="H69" s="1">
-        <v>10</v>
+        <f>constants!$G$3 + ($A69 - 1) * constants!$G$4 +1</f>
+        <v>17</v>
       </c>
       <c r="I69" s="1">
         <v>17</v>
       </c>
       <c r="J69" s="1">
-        <v>19</v>
+        <f>constants!$G$6 + (Trap!$A69 - 1) * constants!$G$7 +1</f>
+        <v>21</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
@@ -3237,13 +3402,15 @@
         <v>34</v>
       </c>
       <c r="H70" s="1">
-        <v>10</v>
+        <f>constants!$G$3 + ($A70 - 1) * constants!$G$4 +1</f>
+        <v>17</v>
       </c>
       <c r="I70" s="1">
         <v>19</v>
       </c>
       <c r="J70" s="1">
-        <v>19</v>
+        <f>constants!$G$6 + (Trap!$A70 - 1) * constants!$G$7 +1</f>
+        <v>21</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
@@ -3269,13 +3436,15 @@
         <v>35</v>
       </c>
       <c r="H71" s="1">
-        <v>10</v>
+        <f>constants!$G$3 + ($A71 - 1) * constants!$G$4 +1</f>
+        <v>17</v>
       </c>
       <c r="I71" s="1">
         <v>21</v>
       </c>
       <c r="J71" s="1">
-        <v>19</v>
+        <f>constants!$G$6 + (Trap!$A71 - 1) * constants!$G$7 +1</f>
+        <v>21</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
@@ -3301,13 +3470,15 @@
         <v>34</v>
       </c>
       <c r="H72" s="1">
-        <v>10</v>
+        <f>constants!$G$3 + ($A72 - 1) * constants!$G$4 +1</f>
+        <v>17</v>
       </c>
       <c r="I72" s="1">
         <v>17</v>
       </c>
       <c r="J72" s="1">
-        <v>19</v>
+        <f>constants!$G$6 + (Trap!$A72 - 1) * constants!$G$7 +1</f>
+        <v>21</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
@@ -3333,13 +3504,15 @@
         <v>34</v>
       </c>
       <c r="H73" s="1">
-        <v>10</v>
+        <f>constants!$G$3 + ($A73 - 1) * constants!$G$4 +1</f>
+        <v>17</v>
       </c>
       <c r="I73" s="1">
         <v>17</v>
       </c>
       <c r="J73" s="1">
-        <v>19</v>
+        <f>constants!$G$6 + (Trap!$A73 - 1) * constants!$G$7 +1</f>
+        <v>21</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
@@ -3365,13 +3538,15 @@
         <v>34</v>
       </c>
       <c r="H74" s="1">
-        <v>10</v>
+        <f>constants!$G$3 + ($A74 - 1) * constants!$G$4 +1</f>
+        <v>17</v>
       </c>
       <c r="I74" s="1">
         <v>19</v>
       </c>
       <c r="J74" s="1">
-        <v>19</v>
+        <f>constants!$G$6 + (Trap!$A74 - 1) * constants!$G$7 +1</f>
+        <v>21</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
@@ -3397,13 +3572,15 @@
         <v>35</v>
       </c>
       <c r="H75" s="1">
-        <v>10</v>
+        <f>constants!$G$3 + ($A75 - 1) * constants!$G$4 +1</f>
+        <v>17</v>
       </c>
       <c r="I75" s="1">
         <v>21</v>
       </c>
       <c r="J75" s="1">
-        <v>19</v>
+        <f>constants!$G$6 + (Trap!$A75 - 1) * constants!$G$7 +1</f>
+        <v>21</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
@@ -3429,13 +3606,15 @@
         <v>34</v>
       </c>
       <c r="H76" s="1">
-        <v>10</v>
+        <f>constants!$G$3 + ($A76 - 1) * constants!$G$4 +1</f>
+        <v>17</v>
       </c>
       <c r="I76" s="1">
         <v>17</v>
       </c>
       <c r="J76" s="1">
-        <v>19</v>
+        <f>constants!$G$6 + (Trap!$A76 - 1) * constants!$G$7 +1</f>
+        <v>21</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
@@ -3461,13 +3640,15 @@
         <v>34</v>
       </c>
       <c r="H77" s="1">
-        <v>10</v>
+        <f>constants!$G$3 + ($A77 - 1) * constants!$G$4 +1</f>
+        <v>17</v>
       </c>
       <c r="I77" s="1">
         <v>17</v>
       </c>
       <c r="J77" s="1">
-        <v>19</v>
+        <f>constants!$G$6 + (Trap!$A77 - 1) * constants!$G$7 +1</f>
+        <v>21</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
@@ -3493,13 +3674,15 @@
         <v>34</v>
       </c>
       <c r="H78" s="1">
-        <v>10</v>
+        <f>constants!$G$3 + ($A78 - 1) * constants!$G$4 +1</f>
+        <v>17</v>
       </c>
       <c r="I78" s="1">
         <v>19</v>
       </c>
       <c r="J78" s="1">
-        <v>19</v>
+        <f>constants!$G$6 + (Trap!$A78 - 1) * constants!$G$7 +1</f>
+        <v>21</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
@@ -3525,13 +3708,15 @@
         <v>35</v>
       </c>
       <c r="H79" s="1">
-        <v>10</v>
+        <f>constants!$G$3 + ($A79 - 1) * constants!$G$4 +1</f>
+        <v>17</v>
       </c>
       <c r="I79" s="1">
         <v>21</v>
       </c>
       <c r="J79" s="1">
-        <v>19</v>
+        <f>constants!$G$6 + (Trap!$A79 - 1) * constants!$G$7 +1</f>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -3624,8 +3809,8 @@
         <v>18</v>
       </c>
       <c r="H3" s="1">
-        <f>ROUND(8* 1.6,0)</f>
-        <v>13</v>
+        <f>ROUND(Trap!$H$3 * 1.6, 0)</f>
+        <v>16</v>
       </c>
       <c r="I3" s="1">
         <v>2</v>
@@ -3667,8 +3852,8 @@
         <v>18</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H5" si="0">ROUND(8* 1.6,0)</f>
-        <v>13</v>
+        <f>ROUND(Trap!$H$3 * 1.6, 0)</f>
+        <v>16</v>
       </c>
       <c r="I4" s="1">
         <v>3</v>
@@ -3683,7 +3868,7 @@
         <v>9</v>
       </c>
       <c r="N4" s="1">
-        <f t="shared" ref="N4:N17" si="1">SUM(I4:L4)</f>
+        <f t="shared" ref="N4:N17" si="0">SUM(I4:L4)</f>
         <v>34</v>
       </c>
     </row>
@@ -3710,8 +3895,8 @@
         <v>18</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="0"/>
-        <v>13</v>
+        <f>ROUND(Trap!$H$3 * 1.6, 0)</f>
+        <v>16</v>
       </c>
       <c r="I5" s="1">
         <v>2</v>
@@ -3726,7 +3911,7 @@
         <v>12</v>
       </c>
       <c r="N5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
     </row>
@@ -3756,8 +3941,8 @@
         <v>18</v>
       </c>
       <c r="H7" s="1">
-        <f>ROUND(8* 1.6,0)</f>
-        <v>13</v>
+        <f>ROUND(Trap!H16 * 1.6, 0)</f>
+        <v>18</v>
       </c>
       <c r="I7" s="1">
         <v>3</v>
@@ -3772,7 +3957,7 @@
         <v>11</v>
       </c>
       <c r="N7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
     </row>
@@ -3799,8 +3984,8 @@
         <v>18</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" ref="H8:H9" si="2">ROUND(8* 1.6,0)</f>
-        <v>13</v>
+        <f>ROUND(Trap!H17 * 1.6, 0)</f>
+        <v>18</v>
       </c>
       <c r="I8" s="1">
         <v>3</v>
@@ -3815,7 +4000,7 @@
         <v>9</v>
       </c>
       <c r="N8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
     </row>
@@ -3842,8 +4027,8 @@
         <v>18</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="2"/>
-        <v>13</v>
+        <f>ROUND(Trap!H18 * 1.6, 0)</f>
+        <v>18</v>
       </c>
       <c r="I9" s="1">
         <v>2</v>
@@ -3858,7 +4043,7 @@
         <v>12</v>
       </c>
       <c r="N9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
     </row>
@@ -3885,8 +4070,8 @@
         <v>18</v>
       </c>
       <c r="H11" s="1">
-        <f>ROUND(9* 1.6,0)</f>
-        <v>14</v>
+        <f>ROUND(Trap!H29 * 1.6, 0)</f>
+        <v>21</v>
       </c>
       <c r="I11" s="1">
         <v>3</v>
@@ -3901,7 +4086,7 @@
         <v>12</v>
       </c>
       <c r="N11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
     </row>
@@ -3928,8 +4113,8 @@
         <v>18</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" ref="H12:H13" si="3">ROUND(9* 1.6,0)</f>
-        <v>14</v>
+        <f>ROUND(Trap!H30 * 1.6, 0)</f>
+        <v>21</v>
       </c>
       <c r="I12" s="1">
         <v>4</v>
@@ -3944,7 +4129,7 @@
         <v>10</v>
       </c>
       <c r="N12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
     </row>
@@ -3971,8 +4156,8 @@
         <v>18</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="3"/>
-        <v>14</v>
+        <f>ROUND(Trap!H31 * 1.6, 0)</f>
+        <v>21</v>
       </c>
       <c r="I13" s="1">
         <v>3</v>
@@ -3987,7 +4172,7 @@
         <v>13</v>
       </c>
       <c r="N13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
@@ -4014,8 +4199,8 @@
         <v>18</v>
       </c>
       <c r="H15" s="1">
-        <f>ROUND(9* 1.6,0)</f>
-        <v>14</v>
+        <f>ROUND(Trap!H42 * 1.6, 0)</f>
+        <v>22</v>
       </c>
       <c r="I15" s="1">
         <v>4</v>
@@ -4030,7 +4215,7 @@
         <v>12</v>
       </c>
       <c r="N15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
@@ -4057,8 +4242,8 @@
         <v>18</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" ref="H16:H17" si="4">ROUND(9* 1.6,0)</f>
-        <v>14</v>
+        <f>ROUND(Trap!H43 * 1.6, 0)</f>
+        <v>22</v>
       </c>
       <c r="I16" s="1">
         <v>4</v>
@@ -4073,7 +4258,7 @@
         <v>10</v>
       </c>
       <c r="N16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
@@ -4100,8 +4285,8 @@
         <v>18</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="4"/>
-        <v>14</v>
+        <f>ROUND(Trap!H44 * 1.6, 0)</f>
+        <v>22</v>
       </c>
       <c r="I17" s="1">
         <v>3</v>
@@ -4116,7 +4301,7 @@
         <v>13</v>
       </c>
       <c r="N17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
     </row>
@@ -4143,8 +4328,8 @@
         <v>18</v>
       </c>
       <c r="H19" s="1">
-        <f>ROUND(10* 1.6,0)</f>
-        <v>16</v>
+        <f>ROUND(Trap!H55 * 1.6, 0)</f>
+        <v>26</v>
       </c>
       <c r="I19" s="1">
         <v>4</v>
@@ -4159,7 +4344,7 @@
         <v>13</v>
       </c>
       <c r="N19" s="1">
-        <f t="shared" ref="N19:N21" si="5">SUM(I19:L19)</f>
+        <f t="shared" ref="N19:N21" si="1">SUM(I19:L19)</f>
         <v>40</v>
       </c>
     </row>
@@ -4186,8 +4371,8 @@
         <v>18</v>
       </c>
       <c r="H20" s="1">
-        <f>ROUND(10* 1.6,0)</f>
-        <v>16</v>
+        <f>ROUND(Trap!H56 * 1.6, 0)</f>
+        <v>26</v>
       </c>
       <c r="I20" s="1">
         <v>5</v>
@@ -4202,7 +4387,7 @@
         <v>11</v>
       </c>
       <c r="N20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
@@ -4229,8 +4414,8 @@
         <v>18</v>
       </c>
       <c r="H21" s="1">
-        <f>ROUND(10* 1.6,0)</f>
-        <v>16</v>
+        <f>ROUND(Trap!H57 * 1.6, 0)</f>
+        <v>26</v>
       </c>
       <c r="I21" s="1">
         <v>3</v>
@@ -4245,7 +4430,7 @@
         <v>14</v>
       </c>
       <c r="N21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
     </row>
@@ -4272,8 +4457,8 @@
         <v>18</v>
       </c>
       <c r="H23" s="1">
-        <f>ROUND(10* 1.6,0)</f>
-        <v>16</v>
+        <f>ROUND(Trap!H68 * 1.6, 0)</f>
+        <v>27</v>
       </c>
       <c r="I23" s="1">
         <v>5</v>
@@ -4288,7 +4473,7 @@
         <v>13</v>
       </c>
       <c r="N23" s="1">
-        <f t="shared" ref="N23:N25" si="6">SUM(I23:L23)</f>
+        <f t="shared" ref="N23:N25" si="2">SUM(I23:L23)</f>
         <v>41</v>
       </c>
     </row>
@@ -4315,8 +4500,8 @@
         <v>18</v>
       </c>
       <c r="H24" s="1">
-        <f>ROUND(10* 1.6,0)</f>
-        <v>16</v>
+        <f>ROUND(Trap!H69 * 1.6, 0)</f>
+        <v>27</v>
       </c>
       <c r="I24" s="1">
         <v>5</v>
@@ -4331,7 +4516,7 @@
         <v>11</v>
       </c>
       <c r="N24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
     </row>
@@ -4358,8 +4543,8 @@
         <v>18</v>
       </c>
       <c r="H25" s="1">
-        <f>ROUND(10* 1.6,0)</f>
-        <v>16</v>
+        <f>ROUND(Trap!H70 * 1.6, 0)</f>
+        <v>27</v>
       </c>
       <c r="I25" s="1">
         <v>3</v>
@@ -4374,7 +4559,7 @@
         <v>14</v>
       </c>
       <c r="N25" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
     </row>
@@ -4386,22 +4571,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P40"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1"/>
+      <selection pane="bottomLeft" activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="8.77734375" style="1" customWidth="1"/>
-    <col min="3" max="12" width="10.77734375" style="1" customWidth="1"/>
-    <col min="13" max="16" width="8.77734375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="1.77734375" customWidth="1"/>
+    <col min="3" max="13" width="10.77734375" style="1" customWidth="1"/>
+    <col min="14" max="17" width="8.77734375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="1.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>103</v>
       </c>
@@ -4439,56 +4624,54 @@
         <v>58</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="1">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
+      <c r="N3" s="8">
+        <v>1</v>
+      </c>
+      <c r="O3" s="7">
+        <f>ROUND(constants!B$3 * $M3 * $N3, 0)</f>
+        <v>50</v>
+      </c>
+      <c r="P3" s="7">
+        <f>ROUND(constants!C$3 * $M3 * $N3, 0)</f>
+        <v>20</v>
+      </c>
+      <c r="Q3" s="7">
+        <f>ROUND(constants!D$3 * 1 * $N3, 0)</f>
         <v>6</v>
       </c>
-      <c r="D3" s="7">
-        <v>1</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="8">
-        <v>1</v>
-      </c>
-      <c r="N3" s="7">
-        <f>ROUND(income!$B$3 * $M3, 0)</f>
-        <v>50</v>
-      </c>
-      <c r="O3" s="7">
-        <f>ROUND(income!$C$3 * $M3, 0)</f>
-        <v>20</v>
-      </c>
-      <c r="P3" s="7">
-        <f>ROUND(income!$D$3 * $M3, 0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <f>A3</f>
         <v>1</v>
@@ -4497,38 +4680,33 @@
         <f>B3+1</f>
         <v>2</v>
       </c>
-      <c r="C4" s="7">
-        <v>7</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="8">
-        <f>M3+0.05</f>
+      <c r="C4" s="1">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
+      <c r="N4" s="8">
+        <f>N3+0.05</f>
         <v>1.05</v>
       </c>
-      <c r="N4" s="7">
-        <f>ROUND(income!$B$3 * M4, 0)</f>
+      <c r="O4" s="7">
+        <f>ROUND(constants!B$3 * $M4 * $N4, 0)</f>
         <v>53</v>
       </c>
-      <c r="O4" s="7">
-        <f>ROUND(income!$C$3 * $M4, 0)</f>
+      <c r="P4" s="7">
+        <f>ROUND(constants!C$3 * $M4 * $N4, 0)</f>
         <v>21</v>
       </c>
-      <c r="P4" s="7">
-        <f>ROUND(income!$D$3 * $M4, 0)</f>
+      <c r="Q4" s="7">
+        <f>ROUND(constants!D$3 * 1 * $N4, 0)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <f t="shared" ref="A5:A14" si="0">A4</f>
         <v>1</v>
@@ -4537,38 +4715,33 @@
         <f t="shared" ref="B5:B14" si="1">B4+1</f>
         <v>3</v>
       </c>
-      <c r="C5" s="7">
-        <v>8</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="8">
-        <f t="shared" ref="M5:M7" si="2">M4+0.05</f>
+      <c r="C5" s="1">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+      <c r="N5" s="8">
+        <f t="shared" ref="N5:N14" si="2">N4+0.05</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="N5" s="7">
-        <f>ROUND(income!$B$3 * M5, 0)</f>
+      <c r="O5" s="7">
+        <f>ROUND(constants!B$3 * $M5 * $N5, 0)</f>
         <v>55</v>
       </c>
-      <c r="O5" s="7">
-        <f>ROUND(income!$C$3 * $M5, 0)</f>
+      <c r="P5" s="7">
+        <f>ROUND(constants!C$3 * $M5 * $N5, 0)</f>
         <v>22</v>
       </c>
-      <c r="P5" s="7">
-        <f>ROUND(income!$D$3 * $M5, 0)</f>
+      <c r="Q5" s="7">
+        <f>ROUND(constants!D$3 * 1 * $N5, 0)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4577,38 +4750,33 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C6" s="7">
-        <v>9</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="8">
+      <c r="C6" s="1">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1</v>
+      </c>
+      <c r="N6" s="8">
         <f t="shared" si="2"/>
         <v>1.1500000000000001</v>
       </c>
-      <c r="N6" s="7">
-        <f>ROUND(income!$B$3 * M6, 0)</f>
+      <c r="O6" s="7">
+        <f>ROUND(constants!B$3 * $M6 * $N6, 0)</f>
         <v>58</v>
       </c>
-      <c r="O6" s="7">
-        <f>ROUND(income!$C$3 * $M6, 0)</f>
+      <c r="P6" s="7">
+        <f>ROUND(constants!C$3 * $M6 * $N6, 0)</f>
         <v>23</v>
       </c>
-      <c r="P6" s="7">
-        <f>ROUND(income!$D$3 * $M6, 0)</f>
+      <c r="Q6" s="7">
+        <f>ROUND(constants!D$3 * 1 * $N6, 0)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4617,38 +4785,33 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C7" s="7">
-        <v>10</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="8">
+      <c r="C7" s="1">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
+      <c r="N7" s="8">
         <f t="shared" si="2"/>
         <v>1.2000000000000002</v>
       </c>
-      <c r="N7" s="7">
-        <f>ROUND(income!$B$3 * M7, 0)</f>
+      <c r="O7" s="7">
+        <f>ROUND(constants!B$3 * $M7 * $N7, 0)</f>
         <v>60</v>
       </c>
-      <c r="O7" s="7">
-        <f>ROUND(income!$C$3 * $M7, 0)</f>
+      <c r="P7" s="7">
+        <f>ROUND(constants!C$3 * $M7 * $N7, 0)</f>
         <v>24</v>
       </c>
-      <c r="P7" s="7">
-        <f>ROUND(income!$D$3 * $M7, 0)</f>
+      <c r="Q7" s="7">
+        <f>ROUND(constants!D$3 * 1 * $N7, 0)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4657,41 +4820,41 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C8" s="7">
-        <v>6</v>
-      </c>
-      <c r="D8" s="7">
-        <v>2</v>
-      </c>
-      <c r="E8" s="7">
-        <v>6</v>
-      </c>
-      <c r="F8" s="7">
-        <v>1</v>
+      <c r="C8" s="1">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>14</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="8">
-        <v>1.8</v>
-      </c>
-      <c r="N8" s="7">
-        <f>ROUND(income!$B$3 * M8, 0)</f>
-        <v>90</v>
+      <c r="M8" s="1">
+        <v>2</v>
+      </c>
+      <c r="N8" s="8">
+        <f t="shared" si="2"/>
+        <v>1.2500000000000002</v>
       </c>
       <c r="O8" s="7">
-        <f>ROUND(income!$C$3 * $M8, 0)</f>
-        <v>36</v>
+        <f>ROUND(constants!B$3 * $M8 * $N8, 0)</f>
+        <v>125</v>
       </c>
       <c r="P8" s="7">
-        <f>ROUND(income!$D$3 * $M8, 0)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+        <f>ROUND(constants!C$3 * $M8 * $N8, 0)</f>
+        <v>50</v>
+      </c>
+      <c r="Q8" s="7">
+        <f>ROUND(constants!D$3 * 1 * $N8, 0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4700,42 +4863,39 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C9" s="7">
-        <v>7</v>
-      </c>
-      <c r="D9" s="7">
-        <v>1</v>
-      </c>
-      <c r="E9" s="7">
-        <v>7</v>
-      </c>
-      <c r="F9" s="7">
-        <v>1</v>
-      </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="8">
-        <f>M8+0.1</f>
-        <v>1.9000000000000001</v>
-      </c>
-      <c r="N9" s="7">
-        <f>ROUND(income!$B$3 * M9, 0)</f>
-        <v>95</v>
+      <c r="C9" s="1">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>2</v>
+      </c>
+      <c r="N9" s="8">
+        <f t="shared" si="2"/>
+        <v>1.3000000000000003</v>
       </c>
       <c r="O9" s="7">
-        <f>ROUND(income!$C$3 * $M9, 0)</f>
-        <v>38</v>
+        <f>ROUND(constants!B$3 * $M9 * $N9, 0)</f>
+        <v>130</v>
       </c>
       <c r="P9" s="7">
-        <f>ROUND(income!$D$3 * $M9, 0)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+        <f>ROUND(constants!C$3 * $M9 * $N9, 0)</f>
+        <v>52</v>
+      </c>
+      <c r="Q9" s="7">
+        <f>ROUND(constants!D$3 * 1 * $N9, 0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4744,42 +4904,39 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="1">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>18</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>2</v>
+      </c>
+      <c r="N10" s="8">
+        <f t="shared" si="2"/>
+        <v>1.3500000000000003</v>
+      </c>
+      <c r="O10" s="7">
+        <f>ROUND(constants!B$3 * $M10 * $N10, 0)</f>
+        <v>135</v>
+      </c>
+      <c r="P10" s="7">
+        <f>ROUND(constants!C$3 * $M10 * $N10, 0)</f>
+        <v>54</v>
+      </c>
+      <c r="Q10" s="7">
+        <f>ROUND(constants!D$3 * 1 * $N10, 0)</f>
         <v>8</v>
       </c>
-      <c r="D10" s="7">
-        <v>1</v>
-      </c>
-      <c r="E10" s="7">
-        <v>7</v>
-      </c>
-      <c r="F10" s="7">
-        <v>2</v>
-      </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="8">
-        <f t="shared" ref="M10:M11" si="3">M9+0.1</f>
-        <v>2</v>
-      </c>
-      <c r="N10" s="7">
-        <f>ROUND(income!$B$3 * M10, 0)</f>
-        <v>100</v>
-      </c>
-      <c r="O10" s="7">
-        <f>ROUND(income!$C$3 * $M10, 0)</f>
-        <v>40</v>
-      </c>
-      <c r="P10" s="7">
-        <f>ROUND(income!$D$3 * $M10, 0)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4788,42 +4945,41 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C11" s="7">
-        <v>8</v>
-      </c>
-      <c r="D11" s="7">
-        <v>2</v>
-      </c>
-      <c r="E11" s="7">
-        <v>8</v>
-      </c>
-      <c r="F11" s="7">
+      <c r="C11" s="1">
+        <v>18</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>17</v>
+      </c>
+      <c r="F11" s="1">
         <v>2</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="8">
-        <f t="shared" si="3"/>
-        <v>2.1</v>
-      </c>
-      <c r="N11" s="7">
-        <f>ROUND(income!$B$3 * M11, 0)</f>
-        <v>105</v>
+      <c r="M11" s="1">
+        <v>2</v>
+      </c>
+      <c r="N11" s="8">
+        <f t="shared" si="2"/>
+        <v>1.4000000000000004</v>
       </c>
       <c r="O11" s="7">
-        <f>ROUND(income!$C$3 * $M11, 0)</f>
-        <v>42</v>
+        <f>ROUND(constants!B$3 * $M11 * $N11, 0)</f>
+        <v>140</v>
       </c>
       <c r="P11" s="7">
-        <f>ROUND(income!$D$3 * $M11, 0)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+        <f>ROUND(constants!C$3 * $M11 * $N11, 0)</f>
+        <v>56</v>
+      </c>
+      <c r="Q11" s="7">
+        <f>ROUND(constants!D$3 * 1 * $N11, 0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4832,45 +4988,45 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C12" s="7">
-        <v>6</v>
-      </c>
-      <c r="D12" s="7">
-        <v>1</v>
-      </c>
-      <c r="E12" s="7">
-        <v>7</v>
-      </c>
-      <c r="F12" s="7">
-        <v>1</v>
-      </c>
-      <c r="G12" s="7">
-        <v>7</v>
-      </c>
-      <c r="H12" s="7">
-        <v>2</v>
-      </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="8">
-        <v>2.8</v>
-      </c>
-      <c r="N12" s="7">
-        <f>ROUND(income!$B$3 * M12, 0)</f>
-        <v>140</v>
+      <c r="C12" s="1">
+        <v>16</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>17</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>17</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2</v>
+      </c>
+      <c r="M12" s="1">
+        <v>3</v>
+      </c>
+      <c r="N12" s="8">
+        <f t="shared" si="2"/>
+        <v>1.4500000000000004</v>
       </c>
       <c r="O12" s="7">
-        <f>ROUND(income!$C$3 * $M12, 0)</f>
-        <v>56</v>
+        <f>ROUND(constants!B$3 * $M12 * $N12, 0)</f>
+        <v>218</v>
       </c>
       <c r="P12" s="7">
-        <f>ROUND(income!$D$3 * $M12, 0)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+        <f>ROUND(constants!C$3 * $M12 * $N12, 0)</f>
+        <v>87</v>
+      </c>
+      <c r="Q12" s="7">
+        <f>ROUND(constants!D$3 * 1 * $N12, 0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4879,45 +5035,47 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C13" s="7">
-        <v>7</v>
-      </c>
-      <c r="D13" s="7">
-        <v>2</v>
-      </c>
-      <c r="E13" s="7">
-        <v>8</v>
-      </c>
-      <c r="F13" s="7">
-        <v>1</v>
-      </c>
-      <c r="G13" s="7">
-        <v>7</v>
-      </c>
-      <c r="H13" s="7">
+      <c r="C13" s="1">
+        <v>17</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>15</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>18</v>
+      </c>
+      <c r="H13" s="1">
         <v>2</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="8">
-        <v>3</v>
-      </c>
-      <c r="N13" s="7">
-        <f>ROUND(income!$B$3 * M13, 0)</f>
-        <v>150</v>
+      <c r="M13" s="1">
+        <v>3</v>
+      </c>
+      <c r="N13" s="8">
+        <f t="shared" si="2"/>
+        <v>1.5000000000000004</v>
       </c>
       <c r="O13" s="7">
-        <f>ROUND(income!$C$3 * $M13, 0)</f>
-        <v>60</v>
+        <f>ROUND(constants!B$3 * $M13 * $N13, 0)</f>
+        <v>225</v>
       </c>
       <c r="P13" s="7">
-        <f>ROUND(income!$D$3 * $M13, 0)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+        <f>ROUND(constants!C$3 * $M13 * $N13, 0)</f>
+        <v>90</v>
+      </c>
+      <c r="Q13" s="7">
+        <f>ROUND(constants!D$3 * 1 * $N13, 0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4926,86 +5084,80 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C14" s="7">
-        <v>8</v>
-      </c>
-      <c r="D14" s="7">
-        <v>1</v>
-      </c>
-      <c r="E14" s="7">
+      <c r="C14" s="1">
+        <v>18</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>16</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2</v>
+      </c>
+      <c r="G14" s="1">
+        <v>18</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2</v>
+      </c>
+      <c r="M14" s="1">
+        <v>3</v>
+      </c>
+      <c r="N14" s="8">
+        <f t="shared" si="2"/>
+        <v>1.5500000000000005</v>
+      </c>
+      <c r="O14" s="7">
+        <f>ROUND(constants!B$3 * $M14 * $N14, 0)</f>
+        <v>233</v>
+      </c>
+      <c r="P14" s="7">
+        <f>ROUND(constants!C$3 * $M14 * $N14, 0)</f>
+        <v>93</v>
+      </c>
+      <c r="Q14" s="7">
+        <f>ROUND(constants!D$3 * 1 * $N14, 0)</f>
         <v>9</v>
       </c>
-      <c r="F14" s="7">
-        <v>2</v>
-      </c>
-      <c r="G14" s="7">
-        <v>8</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="8">
-        <f>M13+0.2</f>
-        <v>3.2</v>
-      </c>
-      <c r="N14" s="7">
-        <f>ROUND(income!$B$3 * M14, 0)</f>
-        <v>160</v>
-      </c>
-      <c r="O14" s="7">
-        <f>ROUND(income!$C$3 * $M14, 0)</f>
-        <v>64</v>
-      </c>
-      <c r="P14" s="7">
-        <f>ROUND(income!$D$3 * $M14, 0)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="O15" s="7"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P15" s="7"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>2</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
       </c>
-      <c r="C16" s="7">
-        <v>6</v>
-      </c>
-      <c r="D16" s="7">
+      <c r="C16" s="1">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1">
         <v>4</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="8">
-        <v>1</v>
-      </c>
-      <c r="N16" s="7">
-        <f>ROUND(income!$B$4 * $M16, 0)</f>
+      <c r="M16" s="1">
+        <v>1</v>
+      </c>
+      <c r="N16" s="8">
+        <v>1</v>
+      </c>
+      <c r="O16" s="7">
+        <f>ROUND(constants!B$4 * $M16 * $N16, 0)</f>
         <v>53</v>
       </c>
-      <c r="O16" s="7">
-        <f>ROUND(income!$C$4 * $M16, 0)</f>
+      <c r="P16" s="7">
+        <f>ROUND(constants!C$4 * $M16 * $N16, 0)</f>
         <v>22</v>
       </c>
-      <c r="P16" s="7">
-        <f>ROUND(income!$D$4 * $M16, 0)</f>
+      <c r="Q16" s="7">
+        <f>ROUND(constants!D$4 * 1 * $N16, 0)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <f>A16</f>
         <v>2</v>
@@ -5014,515 +5166,484 @@
         <f>B16+1</f>
         <v>2</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="1">
+        <v>13</v>
+      </c>
+      <c r="D17" s="1">
+        <v>4</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1</v>
+      </c>
+      <c r="N17" s="8">
+        <f>N16+0.05</f>
+        <v>1.05</v>
+      </c>
+      <c r="O17" s="7">
+        <f>ROUND(constants!B$4 * $M17 * $N17, 0)</f>
+        <v>56</v>
+      </c>
+      <c r="P17" s="7">
+        <f>ROUND(constants!C$4 * $M17 * $N17, 0)</f>
+        <v>23</v>
+      </c>
+      <c r="Q17" s="7">
+        <f>ROUND(constants!D$4 * 1 * $N17, 0)</f>
         <v>7</v>
       </c>
-      <c r="D17" s="7">
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <f t="shared" ref="A18:A27" si="3">A17</f>
+        <v>2</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" ref="B18:B27" si="4">B17+1</f>
+        <v>3</v>
+      </c>
+      <c r="C18" s="1">
+        <v>12</v>
+      </c>
+      <c r="D18" s="1">
+        <v>5</v>
+      </c>
+      <c r="M18" s="1">
+        <v>1</v>
+      </c>
+      <c r="N18" s="8">
+        <f t="shared" ref="N18:N27" si="5">N17+0.05</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O18" s="7">
+        <f>ROUND(constants!B$4 * $M18 * $N18, 0)</f>
+        <v>58</v>
+      </c>
+      <c r="P18" s="7">
+        <f>ROUND(constants!C$4 * $M18 * $N18, 0)</f>
+        <v>24</v>
+      </c>
+      <c r="Q18" s="7">
+        <f>ROUND(constants!D$4 * 1 * $N18, 0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="B19" s="1">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="8">
-        <f>M16+0.05</f>
-        <v>1.05</v>
-      </c>
-      <c r="N17" s="7">
-        <f>ROUND(income!$B$4 * $M17, 0)</f>
-        <v>56</v>
-      </c>
-      <c r="O17" s="7">
-        <f>ROUND(income!$C$4 * $M17, 0)</f>
-        <v>23</v>
-      </c>
-      <c r="P17" s="7">
-        <f>ROUND(income!$D$4 * $M17, 0)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <f t="shared" ref="A18:A27" si="4">A17</f>
-        <v>2</v>
-      </c>
-      <c r="B18" s="1">
-        <f t="shared" ref="B18:B27" si="5">B17+1</f>
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
+      <c r="C19" s="1">
+        <v>15</v>
+      </c>
+      <c r="D19" s="1">
+        <v>4</v>
+      </c>
+      <c r="M19" s="1">
+        <v>1</v>
+      </c>
+      <c r="N19" s="8">
+        <f t="shared" si="5"/>
+        <v>1.1500000000000001</v>
+      </c>
+      <c r="O19" s="7">
+        <f>ROUND(constants!B$4 * $M19 * $N19, 0)</f>
+        <v>61</v>
+      </c>
+      <c r="P19" s="7">
+        <f>ROUND(constants!C$4 * $M19 * $N19, 0)</f>
+        <v>25</v>
+      </c>
+      <c r="Q19" s="7">
+        <f>ROUND(constants!D$4 * 1 * $N19, 0)</f>
         <v>8</v>
       </c>
-      <c r="D18" s="7">
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="B20" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C20" s="1">
+        <v>17</v>
+      </c>
+      <c r="D20" s="1">
         <v>4</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="8">
-        <f t="shared" ref="M18:M20" si="6">M17+0.05</f>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N18" s="7">
-        <f>ROUND(income!$B$4 * $M18, 0)</f>
-        <v>58</v>
-      </c>
-      <c r="O18" s="7">
-        <f>ROUND(income!$C$4 * $M18, 0)</f>
-        <v>24</v>
-      </c>
-      <c r="P18" s="7">
-        <f>ROUND(income!$D$4 * $M18, 0)</f>
+      <c r="M20" s="1">
+        <v>1</v>
+      </c>
+      <c r="N20" s="8">
+        <f t="shared" si="5"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="O20" s="7">
+        <f>ROUND(constants!B$4 * $M20 * $N20, 0)</f>
+        <v>64</v>
+      </c>
+      <c r="P20" s="7">
+        <f>ROUND(constants!C$4 * $M20 * $N20, 0)</f>
+        <v>26</v>
+      </c>
+      <c r="Q20" s="7">
+        <f>ROUND(constants!D$4 * 1 * $N20, 0)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="B21" s="1">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="B19" s="1">
-        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="C21" s="1">
+        <v>15</v>
+      </c>
+      <c r="D21" s="1">
         <v>4</v>
       </c>
-      <c r="C19" s="7">
-        <v>9</v>
-      </c>
-      <c r="D19" s="7">
-        <v>4</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="8">
-        <f t="shared" si="6"/>
-        <v>1.1500000000000001</v>
-      </c>
-      <c r="N19" s="7">
-        <f>ROUND(income!$B$4 * $M19, 0)</f>
-        <v>61</v>
-      </c>
-      <c r="O19" s="7">
-        <f>ROUND(income!$C$4 * $M19, 0)</f>
-        <v>25</v>
-      </c>
-      <c r="P19" s="7">
-        <f>ROUND(income!$D$4 * $M19, 0)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="B20" s="1">
-        <f t="shared" si="5"/>
+      <c r="E21" s="1">
+        <v>14</v>
+      </c>
+      <c r="F21" s="1">
         <v>5</v>
-      </c>
-      <c r="C20" s="7">
-        <v>10</v>
-      </c>
-      <c r="D20" s="7">
-        <v>4</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="8">
-        <f t="shared" si="6"/>
-        <v>1.2000000000000002</v>
-      </c>
-      <c r="N20" s="7">
-        <f>ROUND(income!$B$4 * $M20, 0)</f>
-        <v>64</v>
-      </c>
-      <c r="O20" s="7">
-        <f>ROUND(income!$C$4 * $M20, 0)</f>
-        <v>26</v>
-      </c>
-      <c r="P20" s="7">
-        <f>ROUND(income!$D$4 * $M20, 0)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="B21" s="1">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="C21" s="7">
-        <v>6</v>
-      </c>
-      <c r="D21" s="7">
-        <v>5</v>
-      </c>
-      <c r="E21" s="7">
-        <v>6</v>
-      </c>
-      <c r="F21" s="7">
-        <v>4</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="8">
-        <v>1.8</v>
-      </c>
-      <c r="N21" s="7">
-        <f>ROUND(income!$B$4 * $M21, 0)</f>
-        <v>95</v>
+      <c r="M21" s="1">
+        <v>2</v>
+      </c>
+      <c r="N21" s="8">
+        <f t="shared" si="5"/>
+        <v>1.2500000000000002</v>
       </c>
       <c r="O21" s="7">
-        <f>ROUND(income!$C$4 * $M21, 0)</f>
-        <v>40</v>
+        <f>ROUND(constants!B$4 * $M21 * $N21, 0)</f>
+        <v>133</v>
       </c>
       <c r="P21" s="7">
-        <f>ROUND(income!$D$4 * $M21, 0)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+        <f>ROUND(constants!C$4 * $M21 * $N21, 0)</f>
+        <v>55</v>
+      </c>
+      <c r="Q21" s="7">
+        <f>ROUND(constants!D$4 * 1 * $N21, 0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="B22" s="1">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="B22" s="1">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1">
+        <v>16</v>
+      </c>
+      <c r="D22" s="1">
+        <v>4</v>
+      </c>
+      <c r="E22" s="1">
+        <v>17</v>
+      </c>
+      <c r="F22" s="1">
+        <v>4</v>
+      </c>
+      <c r="M22" s="1">
+        <v>2</v>
+      </c>
+      <c r="N22" s="8">
         <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="C22" s="7">
-        <v>7</v>
-      </c>
-      <c r="D22" s="7">
+        <v>1.3000000000000003</v>
+      </c>
+      <c r="O22" s="7">
+        <f>ROUND(constants!B$4 * $M22 * $N22, 0)</f>
+        <v>138</v>
+      </c>
+      <c r="P22" s="7">
+        <f>ROUND(constants!C$4 * $M22 * $N22, 0)</f>
+        <v>57</v>
+      </c>
+      <c r="Q22" s="7">
+        <f>ROUND(constants!D$4 * 1 * $N22, 0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="B23" s="1">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="C23" s="1">
+        <v>15</v>
+      </c>
+      <c r="D23" s="1">
+        <v>5</v>
+      </c>
+      <c r="E23" s="1">
+        <v>18</v>
+      </c>
+      <c r="F23" s="1">
         <v>4</v>
       </c>
-      <c r="E22" s="7">
-        <v>7</v>
-      </c>
-      <c r="F22" s="7">
+      <c r="M23" s="1">
+        <v>2</v>
+      </c>
+      <c r="N23" s="8">
+        <f t="shared" si="5"/>
+        <v>1.3500000000000003</v>
+      </c>
+      <c r="O23" s="7">
+        <f>ROUND(constants!B$4 * $M23 * $N23, 0)</f>
+        <v>143</v>
+      </c>
+      <c r="P23" s="7">
+        <f>ROUND(constants!C$4 * $M23 * $N23, 0)</f>
+        <v>59</v>
+      </c>
+      <c r="Q23" s="7">
+        <f>ROUND(constants!D$4 * 1 * $N23, 0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="B24" s="1">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="C24" s="1">
+        <v>18</v>
+      </c>
+      <c r="D24" s="1">
         <v>4</v>
       </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="8">
-        <f>M21+0.1</f>
-        <v>1.9000000000000001</v>
-      </c>
-      <c r="N22" s="7">
-        <f>ROUND(income!$B$4 * $M22, 0)</f>
-        <v>101</v>
-      </c>
-      <c r="O22" s="7">
-        <f>ROUND(income!$C$4 * $M22, 0)</f>
-        <v>42</v>
-      </c>
-      <c r="P22" s="7">
-        <f>ROUND(income!$D$4 * $M22, 0)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="B23" s="1">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="C23" s="7">
-        <v>8</v>
-      </c>
-      <c r="D23" s="7">
-        <v>4</v>
-      </c>
-      <c r="E23" s="7">
-        <v>7</v>
-      </c>
-      <c r="F23" s="7">
-        <v>5</v>
-      </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="8">
-        <f t="shared" ref="M23:M24" si="7">M22+0.1</f>
-        <v>2</v>
-      </c>
-      <c r="N23" s="7">
-        <f>ROUND(income!$B$4 * $M23, 0)</f>
-        <v>106</v>
-      </c>
-      <c r="O23" s="7">
-        <f>ROUND(income!$C$4 * $M23, 0)</f>
-        <v>44</v>
-      </c>
-      <c r="P23" s="7">
-        <f>ROUND(income!$D$4 * $M23, 0)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="B24" s="1">
-        <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="C24" s="7">
-        <v>8</v>
-      </c>
-      <c r="D24" s="7">
-        <v>5</v>
-      </c>
-      <c r="E24" s="7">
-        <v>8</v>
-      </c>
-      <c r="F24" s="7">
+      <c r="E24" s="1">
+        <v>17</v>
+      </c>
+      <c r="F24" s="1">
         <v>5</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="8">
-        <f t="shared" si="7"/>
-        <v>2.1</v>
-      </c>
-      <c r="N24" s="7">
-        <f>ROUND(income!$B$4 * $M24, 0)</f>
-        <v>111</v>
+      <c r="M24" s="1">
+        <v>2</v>
+      </c>
+      <c r="N24" s="8">
+        <f t="shared" si="5"/>
+        <v>1.4000000000000004</v>
       </c>
       <c r="O24" s="7">
-        <f>ROUND(income!$C$4 * $M24, 0)</f>
-        <v>46</v>
+        <f>ROUND(constants!B$4 * $M24 * $N24, 0)</f>
+        <v>148</v>
       </c>
       <c r="P24" s="7">
-        <f>ROUND(income!$D$4 * $M24, 0)</f>
+        <f>ROUND(constants!C$4 * $M24 * $N24, 0)</f>
+        <v>62</v>
+      </c>
+      <c r="Q24" s="7">
+        <f>ROUND(constants!D$4 * 1 * $N24, 0)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="B25" s="1">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="C25" s="1">
+        <v>16</v>
+      </c>
+      <c r="D25" s="1">
+        <v>4</v>
+      </c>
+      <c r="E25" s="1">
+        <v>17</v>
+      </c>
+      <c r="F25" s="1">
+        <v>4</v>
+      </c>
+      <c r="G25" s="1">
+        <v>17</v>
+      </c>
+      <c r="H25" s="1">
+        <v>5</v>
+      </c>
+      <c r="M25" s="1">
+        <v>3</v>
+      </c>
+      <c r="N25" s="8">
+        <f t="shared" si="5"/>
+        <v>1.4500000000000004</v>
+      </c>
+      <c r="O25" s="7">
+        <f>ROUND(constants!B$4 * $M25 * $N25, 0)</f>
+        <v>231</v>
+      </c>
+      <c r="P25" s="7">
+        <f>ROUND(constants!C$4 * $M25 * $N25, 0)</f>
+        <v>96</v>
+      </c>
+      <c r="Q25" s="7">
+        <f>ROUND(constants!D$4 * 1 * $N25, 0)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="B26" s="1">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="C26" s="1">
+        <v>17</v>
+      </c>
+      <c r="D26" s="1">
+        <v>4</v>
+      </c>
+      <c r="E26" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="B25" s="1">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="C25" s="7">
-        <v>6</v>
-      </c>
-      <c r="D25" s="7">
-        <v>4</v>
-      </c>
-      <c r="E25" s="7">
-        <v>7</v>
-      </c>
-      <c r="F25" s="7">
-        <v>4</v>
-      </c>
-      <c r="G25" s="7">
-        <v>7</v>
-      </c>
-      <c r="H25" s="7">
+      <c r="F26" s="1">
         <v>5</v>
       </c>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="8">
-        <v>2.8</v>
-      </c>
-      <c r="N25" s="7">
-        <f>ROUND(income!$B$4 * $M25, 0)</f>
-        <v>148</v>
-      </c>
-      <c r="O25" s="7">
-        <f>ROUND(income!$C$4 * $M25, 0)</f>
-        <v>62</v>
-      </c>
-      <c r="P25" s="7">
-        <f>ROUND(income!$D$4 * $M25, 0)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="B26" s="1">
-        <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="C26" s="7">
-        <v>7</v>
-      </c>
-      <c r="D26" s="7">
-        <v>5</v>
-      </c>
-      <c r="E26" s="7">
-        <v>8</v>
-      </c>
-      <c r="F26" s="7">
-        <v>4</v>
-      </c>
-      <c r="G26" s="7">
-        <v>7</v>
-      </c>
-      <c r="H26" s="7">
+      <c r="G26" s="1">
+        <v>18</v>
+      </c>
+      <c r="H26" s="1">
         <v>5</v>
       </c>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="8">
-        <v>3</v>
-      </c>
-      <c r="N26" s="7">
-        <f>ROUND(income!$B$4 * $M26, 0)</f>
-        <v>159</v>
+      <c r="M26" s="1">
+        <v>3</v>
+      </c>
+      <c r="N26" s="8">
+        <f t="shared" si="5"/>
+        <v>1.5000000000000004</v>
       </c>
       <c r="O26" s="7">
-        <f>ROUND(income!$C$4 * $M26, 0)</f>
-        <v>66</v>
+        <f>ROUND(constants!B$4 * $M26 * $N26, 0)</f>
+        <v>239</v>
       </c>
       <c r="P26" s="7">
-        <f>ROUND(income!$D$4 * $M26, 0)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+        <f>ROUND(constants!C$4 * $M26 * $N26, 0)</f>
+        <v>99</v>
+      </c>
+      <c r="Q26" s="7">
+        <f>ROUND(constants!D$4 * 1 * $N26, 0)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="B27" s="1">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="B27" s="1">
+        <v>12</v>
+      </c>
+      <c r="C27" s="1">
+        <v>18</v>
+      </c>
+      <c r="D27" s="1">
+        <v>4</v>
+      </c>
+      <c r="E27" s="1">
+        <v>16</v>
+      </c>
+      <c r="F27" s="1">
+        <v>5</v>
+      </c>
+      <c r="G27" s="1">
+        <v>18</v>
+      </c>
+      <c r="H27" s="1">
+        <v>5</v>
+      </c>
+      <c r="M27" s="1">
+        <v>3</v>
+      </c>
+      <c r="N27" s="8">
         <f t="shared" si="5"/>
+        <v>1.5500000000000005</v>
+      </c>
+      <c r="O27" s="7">
+        <f>ROUND(constants!B$4 * $M27 * $N27, 0)</f>
+        <v>246</v>
+      </c>
+      <c r="P27" s="7">
+        <f>ROUND(constants!C$4 * $M27 * $N27, 0)</f>
+        <v>102</v>
+      </c>
+      <c r="Q27" s="7">
+        <f>ROUND(constants!D$4 * 1 * $N27, 0)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P28" s="7"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>3</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1">
         <v>12</v>
       </c>
-      <c r="C27" s="7">
+      <c r="D29" s="1">
+        <v>7</v>
+      </c>
+      <c r="M29" s="1">
+        <v>1</v>
+      </c>
+      <c r="N29" s="8">
+        <v>1</v>
+      </c>
+      <c r="O29" s="7">
+        <f>ROUND(constants!B$5 * $M29 * $N29, 0)</f>
+        <v>56</v>
+      </c>
+      <c r="P29" s="7">
+        <f>ROUND(constants!C$5 * $M29 * $N29, 0)</f>
+        <v>24</v>
+      </c>
+      <c r="Q29" s="7">
+        <f>ROUND(constants!D$5 * 1 * $N29, 0)</f>
         <v>8</v>
       </c>
-      <c r="D27" s="7">
-        <v>4</v>
-      </c>
-      <c r="E27" s="7">
-        <v>9</v>
-      </c>
-      <c r="F27" s="7">
-        <v>5</v>
-      </c>
-      <c r="G27" s="7">
-        <v>8</v>
-      </c>
-      <c r="H27" s="7">
-        <v>4</v>
-      </c>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="8">
-        <f>M26+0.2</f>
-        <v>3.2</v>
-      </c>
-      <c r="N27" s="7">
-        <f>ROUND(income!$B$4 * $M27, 0)</f>
-        <v>170</v>
-      </c>
-      <c r="O27" s="7">
-        <f>ROUND(income!$C$4 * $M27, 0)</f>
-        <v>70</v>
-      </c>
-      <c r="P27" s="7">
-        <f>ROUND(income!$D$4 * $M27, 0)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="O28" s="7"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>3</v>
-      </c>
-      <c r="B29" s="1">
-        <v>1</v>
-      </c>
-      <c r="C29" s="7">
-        <v>6</v>
-      </c>
-      <c r="D29" s="7">
-        <v>7</v>
-      </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="8">
-        <v>1</v>
-      </c>
-      <c r="N29" s="7">
-        <f>ROUND(income!$B$5 * $M29, 0)</f>
-        <v>56</v>
-      </c>
-      <c r="O29" s="7">
-        <f>ROUND(income!$C$5 * $M29, 0)</f>
-        <v>24</v>
-      </c>
-      <c r="P29" s="7">
-        <f>ROUND(income!$D$5 * $M29, 0)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <f>A29</f>
         <v>3</v>
@@ -5531,472 +5652,446 @@
         <f>B29+1</f>
         <v>2</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="1">
+        <v>13</v>
+      </c>
+      <c r="D30" s="1">
         <v>7</v>
       </c>
-      <c r="D30" s="7">
+      <c r="M30" s="1">
+        <v>1</v>
+      </c>
+      <c r="N30" s="8">
+        <f>N29+0.05</f>
+        <v>1.05</v>
+      </c>
+      <c r="O30" s="7">
+        <f>ROUND(constants!B$5 * $M30 * $N30, 0)</f>
+        <v>59</v>
+      </c>
+      <c r="P30" s="7">
+        <f>ROUND(constants!C$5 * $M30 * $N30, 0)</f>
+        <v>25</v>
+      </c>
+      <c r="Q30" s="7">
+        <f>ROUND(constants!D$5 * 1 * $N30, 0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <f t="shared" ref="A31:A40" si="6">A30</f>
+        <v>3</v>
+      </c>
+      <c r="B31" s="1">
+        <f t="shared" ref="B31:B40" si="7">B30+1</f>
+        <v>3</v>
+      </c>
+      <c r="C31" s="1">
+        <v>12</v>
+      </c>
+      <c r="D31" s="1">
+        <v>8</v>
+      </c>
+      <c r="M31" s="1">
+        <v>1</v>
+      </c>
+      <c r="N31" s="8">
+        <f t="shared" ref="N31:N40" si="8">N30+0.05</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O31" s="7">
+        <f>ROUND(constants!B$5 * $M31 * $N31, 0)</f>
+        <v>62</v>
+      </c>
+      <c r="P31" s="7">
+        <f>ROUND(constants!C$5 * $M31 * $N31, 0)</f>
+        <v>26</v>
+      </c>
+      <c r="Q31" s="7">
+        <f>ROUND(constants!D$5 * 1 * $N31, 0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="B32" s="1">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="C32" s="1">
+        <v>15</v>
+      </c>
+      <c r="D32" s="1">
         <v>7</v>
       </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="8">
-        <f>M29+0.05</f>
-        <v>1.05</v>
-      </c>
-      <c r="N30" s="7">
-        <f>ROUND(income!$B$5 * $M30, 0)</f>
-        <v>59</v>
-      </c>
-      <c r="O30" s="7">
-        <f>ROUND(income!$C$5 * $M30, 0)</f>
-        <v>25</v>
-      </c>
-      <c r="P30" s="7">
-        <f>ROUND(income!$D$5 * $M30, 0)</f>
+      <c r="M32" s="1">
+        <v>1</v>
+      </c>
+      <c r="N32" s="8">
+        <f t="shared" si="8"/>
+        <v>1.1500000000000001</v>
+      </c>
+      <c r="O32" s="7">
+        <f>ROUND(constants!B$5 * $M32 * $N32, 0)</f>
+        <v>64</v>
+      </c>
+      <c r="P32" s="7">
+        <f>ROUND(constants!C$5 * $M32 * $N32, 0)</f>
+        <v>28</v>
+      </c>
+      <c r="Q32" s="7">
+        <f>ROUND(constants!D$5 * 1 * $N32, 0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="C33" s="1">
+        <v>17</v>
+      </c>
+      <c r="D33" s="1">
+        <v>7</v>
+      </c>
+      <c r="M33" s="1">
+        <v>1</v>
+      </c>
+      <c r="N33" s="8">
+        <f t="shared" si="8"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="O33" s="7">
+        <f>ROUND(constants!B$5 * $M33 * $N33, 0)</f>
+        <v>67</v>
+      </c>
+      <c r="P33" s="7">
+        <f>ROUND(constants!C$5 * $M33 * $N33, 0)</f>
+        <v>29</v>
+      </c>
+      <c r="Q33" s="7">
+        <f>ROUND(constants!D$5 * 1 * $N33, 0)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="B34" s="1">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="C34" s="1">
+        <v>15</v>
+      </c>
+      <c r="D34" s="1">
+        <v>7</v>
+      </c>
+      <c r="E34" s="1">
+        <v>14</v>
+      </c>
+      <c r="F34" s="1">
         <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <f t="shared" ref="A31:A40" si="8">A30</f>
-        <v>3</v>
-      </c>
-      <c r="B31" s="1">
-        <f t="shared" ref="B31:B40" si="9">B30+1</f>
-        <v>3</v>
-      </c>
-      <c r="C31" s="7">
-        <v>8</v>
-      </c>
-      <c r="D31" s="7">
-        <v>7</v>
-      </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="8">
-        <f t="shared" ref="M31:M33" si="10">M30+0.05</f>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N31" s="7">
-        <f>ROUND(income!$B$5 * $M31, 0)</f>
-        <v>62</v>
-      </c>
-      <c r="O31" s="7">
-        <f>ROUND(income!$C$5 * $M31, 0)</f>
-        <v>26</v>
-      </c>
-      <c r="P31" s="7">
-        <f>ROUND(income!$D$5 * $M31, 0)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="B32" s="1">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="C32" s="7">
-        <v>9</v>
-      </c>
-      <c r="D32" s="7">
-        <v>7</v>
-      </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="8">
-        <f t="shared" si="10"/>
-        <v>1.1500000000000001</v>
-      </c>
-      <c r="N32" s="7">
-        <f>ROUND(income!$B$5 * $M32, 0)</f>
-        <v>64</v>
-      </c>
-      <c r="O32" s="7">
-        <f>ROUND(income!$C$5 * $M32, 0)</f>
-        <v>28</v>
-      </c>
-      <c r="P32" s="7">
-        <f>ROUND(income!$D$5 * $M32, 0)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="B33" s="1">
-        <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="C33" s="7">
-        <v>10</v>
-      </c>
-      <c r="D33" s="7">
-        <v>7</v>
-      </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="8">
-        <f t="shared" si="10"/>
-        <v>1.2000000000000002</v>
-      </c>
-      <c r="N33" s="7">
-        <f>ROUND(income!$B$5 * $M33, 0)</f>
-        <v>67</v>
-      </c>
-      <c r="O33" s="7">
-        <f>ROUND(income!$C$5 * $M33, 0)</f>
-        <v>29</v>
-      </c>
-      <c r="P33" s="7">
-        <f>ROUND(income!$D$5 * $M33, 0)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="B34" s="1">
-        <f t="shared" si="9"/>
-        <v>6</v>
-      </c>
-      <c r="C34" s="7">
-        <v>6</v>
-      </c>
-      <c r="D34" s="7">
-        <v>8</v>
-      </c>
-      <c r="E34" s="7">
-        <v>6</v>
-      </c>
-      <c r="F34" s="7">
-        <v>7</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="8">
-        <v>1.8</v>
-      </c>
-      <c r="N34" s="7">
-        <f>ROUND(income!$B$5 * $M34, 0)</f>
-        <v>101</v>
+      <c r="M34" s="1">
+        <v>2</v>
+      </c>
+      <c r="N34" s="8">
+        <f t="shared" si="8"/>
+        <v>1.2500000000000002</v>
       </c>
       <c r="O34" s="7">
-        <f>ROUND(income!$C$5 * $M34, 0)</f>
-        <v>43</v>
+        <f>ROUND(constants!B$5 * $M34 * $N34, 0)</f>
+        <v>140</v>
       </c>
       <c r="P34" s="7">
-        <f>ROUND(income!$D$5 * $M34, 0)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+        <f>ROUND(constants!C$5 * $M34 * $N34, 0)</f>
+        <v>60</v>
+      </c>
+      <c r="Q34" s="7">
+        <f>ROUND(constants!D$5 * 1 * $N34, 0)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="B35" s="1">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="C35" s="1">
+        <v>16</v>
+      </c>
+      <c r="D35" s="1">
+        <v>7</v>
+      </c>
+      <c r="E35" s="1">
+        <v>17</v>
+      </c>
+      <c r="F35" s="1">
+        <v>7</v>
+      </c>
+      <c r="M35" s="1">
+        <v>2</v>
+      </c>
+      <c r="N35" s="8">
         <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="B35" s="1">
-        <f t="shared" si="9"/>
+        <v>1.3000000000000003</v>
+      </c>
+      <c r="O35" s="7">
+        <f>ROUND(constants!B$5 * $M35 * $N35, 0)</f>
+        <v>146</v>
+      </c>
+      <c r="P35" s="7">
+        <f>ROUND(constants!C$5 * $M35 * $N35, 0)</f>
+        <v>62</v>
+      </c>
+      <c r="Q35" s="7">
+        <f>ROUND(constants!D$5 * 1 * $N35, 0)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="B36" s="1">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="C36" s="1">
+        <v>15</v>
+      </c>
+      <c r="D36" s="1">
+        <v>8</v>
+      </c>
+      <c r="E36" s="1">
+        <v>18</v>
+      </c>
+      <c r="F36" s="1">
         <v>7</v>
       </c>
-      <c r="C35" s="7">
+      <c r="M36" s="1">
+        <v>2</v>
+      </c>
+      <c r="N36" s="8">
+        <f t="shared" si="8"/>
+        <v>1.3500000000000003</v>
+      </c>
+      <c r="O36" s="7">
+        <f>ROUND(constants!B$5 * $M36 * $N36, 0)</f>
+        <v>151</v>
+      </c>
+      <c r="P36" s="7">
+        <f>ROUND(constants!C$5 * $M36 * $N36, 0)</f>
+        <v>65</v>
+      </c>
+      <c r="Q36" s="7">
+        <f>ROUND(constants!D$5 * 1 * $N36, 0)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="C37" s="1">
+        <v>18</v>
+      </c>
+      <c r="D37" s="1">
         <v>7</v>
       </c>
-      <c r="D35" s="7">
-        <v>7</v>
-      </c>
-      <c r="E35" s="7">
-        <v>7</v>
-      </c>
-      <c r="F35" s="7">
-        <v>7</v>
-      </c>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="8">
-        <f>M34+0.1</f>
-        <v>1.9000000000000001</v>
-      </c>
-      <c r="N35" s="7">
-        <f>ROUND(income!$B$5 * $M35, 0)</f>
-        <v>106</v>
-      </c>
-      <c r="O35" s="7">
-        <f>ROUND(income!$C$5 * $M35, 0)</f>
-        <v>46</v>
-      </c>
-      <c r="P35" s="7">
-        <f>ROUND(income!$D$5 * $M35, 0)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="B36" s="1">
-        <f t="shared" si="9"/>
-        <v>8</v>
-      </c>
-      <c r="C36" s="7">
-        <v>8</v>
-      </c>
-      <c r="D36" s="7">
-        <v>7</v>
-      </c>
-      <c r="E36" s="7">
-        <v>7</v>
-      </c>
-      <c r="F36" s="7">
-        <v>8</v>
-      </c>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="8">
-        <f t="shared" ref="M36:M37" si="11">M35+0.1</f>
-        <v>2</v>
-      </c>
-      <c r="N36" s="7">
-        <f>ROUND(income!$B$5 * $M36, 0)</f>
-        <v>112</v>
-      </c>
-      <c r="O36" s="7">
-        <f>ROUND(income!$C$5 * $M36, 0)</f>
-        <v>48</v>
-      </c>
-      <c r="P36" s="7">
-        <f>ROUND(income!$D$5 * $M36, 0)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="B37" s="1">
-        <f t="shared" si="9"/>
-        <v>9</v>
-      </c>
-      <c r="C37" s="7">
-        <v>8</v>
-      </c>
-      <c r="D37" s="7">
-        <v>8</v>
-      </c>
-      <c r="E37" s="7">
-        <v>8</v>
-      </c>
-      <c r="F37" s="7">
+      <c r="E37" s="1">
+        <v>17</v>
+      </c>
+      <c r="F37" s="1">
         <v>8</v>
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="8">
-        <f t="shared" si="11"/>
-        <v>2.1</v>
-      </c>
-      <c r="N37" s="7">
-        <f>ROUND(income!$B$5 * $M37, 0)</f>
-        <v>118</v>
+      <c r="M37" s="1">
+        <v>2</v>
+      </c>
+      <c r="N37" s="8">
+        <f t="shared" si="8"/>
+        <v>1.4000000000000004</v>
       </c>
       <c r="O37" s="7">
-        <f>ROUND(income!$C$5 * $M37, 0)</f>
-        <v>50</v>
+        <f>ROUND(constants!B$5 * $M37 * $N37, 0)</f>
+        <v>157</v>
       </c>
       <c r="P37" s="7">
-        <f>ROUND(income!$D$5 * $M37, 0)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+        <f>ROUND(constants!C$5 * $M37 * $N37, 0)</f>
+        <v>67</v>
+      </c>
+      <c r="Q37" s="7">
+        <f>ROUND(constants!D$5 * 1 * $N37, 0)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="B38" s="1">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="C38" s="1">
+        <v>16</v>
+      </c>
+      <c r="D38" s="1">
+        <v>7</v>
+      </c>
+      <c r="E38" s="1">
+        <v>17</v>
+      </c>
+      <c r="F38" s="1">
+        <v>7</v>
+      </c>
+      <c r="G38" s="1">
+        <v>17</v>
+      </c>
+      <c r="H38" s="1">
+        <v>8</v>
+      </c>
+      <c r="M38" s="1">
+        <v>3</v>
+      </c>
+      <c r="N38" s="8">
         <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="B38" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="C38" s="7">
-        <v>6</v>
-      </c>
-      <c r="D38" s="7">
+        <v>1.4500000000000004</v>
+      </c>
+      <c r="O38" s="7">
+        <f>ROUND(constants!B$5 * $M38 * $N38, 0)</f>
+        <v>244</v>
+      </c>
+      <c r="P38" s="7">
+        <f>ROUND(constants!C$5 * $M38 * $N38, 0)</f>
+        <v>104</v>
+      </c>
+      <c r="Q38" s="7">
+        <f>ROUND(constants!D$5 * 1 * $N38, 0)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="B39" s="1">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="C39" s="1">
+        <v>17</v>
+      </c>
+      <c r="D39" s="1">
         <v>7</v>
       </c>
-      <c r="E38" s="7">
-        <v>7</v>
-      </c>
-      <c r="F38" s="7">
-        <v>7</v>
-      </c>
-      <c r="G38" s="7">
-        <v>7</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="E39" s="1">
+        <v>15</v>
+      </c>
+      <c r="F39" s="1">
         <v>8</v>
       </c>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="8">
-        <v>2.8</v>
-      </c>
-      <c r="N38" s="7">
-        <f>ROUND(income!$B$5 * $M38, 0)</f>
-        <v>157</v>
-      </c>
-      <c r="O38" s="7">
-        <f>ROUND(income!$C$5 * $M38, 0)</f>
-        <v>67</v>
-      </c>
-      <c r="P38" s="7">
-        <f>ROUND(income!$D$5 * $M38, 0)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="B39" s="1">
-        <f t="shared" si="9"/>
-        <v>11</v>
-      </c>
-      <c r="C39" s="7">
-        <v>7</v>
-      </c>
-      <c r="D39" s="7">
-        <v>8</v>
-      </c>
-      <c r="E39" s="7">
-        <v>8</v>
-      </c>
-      <c r="F39" s="7">
-        <v>7</v>
-      </c>
-      <c r="G39" s="7">
-        <v>7</v>
-      </c>
-      <c r="H39" s="7">
+      <c r="G39" s="1">
+        <v>18</v>
+      </c>
+      <c r="H39" s="1">
         <v>8</v>
       </c>
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="8">
-        <v>3</v>
-      </c>
-      <c r="N39" s="7">
-        <f>ROUND(income!$B$5 * $M39, 0)</f>
-        <v>168</v>
+      <c r="M39" s="1">
+        <v>3</v>
+      </c>
+      <c r="N39" s="8">
+        <f t="shared" si="8"/>
+        <v>1.5000000000000004</v>
       </c>
       <c r="O39" s="7">
-        <f>ROUND(income!$C$5 * $M39, 0)</f>
-        <v>72</v>
+        <f>ROUND(constants!B$5 * $M39 * $N39, 0)</f>
+        <v>252</v>
       </c>
       <c r="P39" s="7">
-        <f>ROUND(income!$D$5 * $M39, 0)</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+        <f>ROUND(constants!C$5 * $M39 * $N39, 0)</f>
+        <v>108</v>
+      </c>
+      <c r="Q39" s="7">
+        <f>ROUND(constants!D$5 * 1 * $N39, 0)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="B40" s="1">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="C40" s="1">
+        <v>18</v>
+      </c>
+      <c r="D40" s="1">
+        <v>7</v>
+      </c>
+      <c r="E40" s="1">
+        <v>16</v>
+      </c>
+      <c r="F40" s="1">
+        <v>8</v>
+      </c>
+      <c r="G40" s="1">
+        <v>18</v>
+      </c>
+      <c r="H40" s="1">
+        <v>8</v>
+      </c>
+      <c r="M40" s="1">
+        <v>3</v>
+      </c>
+      <c r="N40" s="8">
         <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="B40" s="1">
-        <f t="shared" si="9"/>
+        <v>1.5500000000000005</v>
+      </c>
+      <c r="O40" s="7">
+        <f>ROUND(constants!B$5 * $M40 * $N40, 0)</f>
+        <v>260</v>
+      </c>
+      <c r="P40" s="7">
+        <f>ROUND(constants!C$5 * $M40 * $N40, 0)</f>
+        <v>112</v>
+      </c>
+      <c r="Q40" s="7">
+        <f>ROUND(constants!D$5 * 1 * $N40, 0)</f>
         <v>12</v>
-      </c>
-      <c r="C40" s="7">
-        <v>8</v>
-      </c>
-      <c r="D40" s="7">
-        <v>7</v>
-      </c>
-      <c r="E40" s="7">
-        <v>9</v>
-      </c>
-      <c r="F40" s="7">
-        <v>8</v>
-      </c>
-      <c r="G40" s="7">
-        <v>8</v>
-      </c>
-      <c r="H40" s="7">
-        <v>7</v>
-      </c>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="8">
-        <f>M39+0.2</f>
-        <v>3.2</v>
-      </c>
-      <c r="N40" s="7">
-        <f>ROUND(income!$B$5 * $M40, 0)</f>
-        <v>179</v>
-      </c>
-      <c r="O40" s="7">
-        <f>ROUND(income!$C$5 * $M40, 0)</f>
-        <v>77</v>
-      </c>
-      <c r="P40" s="7">
-        <f>ROUND(income!$D$5 * $M40, 0)</f>
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -6007,22 +6102,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1"/>
+      <selection pane="bottomLeft" activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="8.77734375" style="1" customWidth="1"/>
-    <col min="3" max="12" width="10.77734375" style="1" customWidth="1"/>
-    <col min="13" max="16" width="8.77734375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="1.77734375" customWidth="1"/>
+    <col min="3" max="13" width="10.77734375" style="1" customWidth="1"/>
+    <col min="14" max="17" width="8.77734375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="1.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>103</v>
       </c>
@@ -6060,19 +6155,22 @@
         <v>58</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -6080,28 +6178,31 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="M3" s="15">
-        <v>2</v>
-      </c>
-      <c r="N3" s="7">
-        <f>ROUND(income!$B$3 * $M3, 0)</f>
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
+      <c r="N3" s="15">
+        <v>2</v>
+      </c>
+      <c r="O3" s="7">
+        <f>ROUND(constants!B$3 * $M3 * $N3, 0)</f>
         <v>100</v>
       </c>
-      <c r="O3" s="7">
-        <f>ROUND(income!$C$3 * $M3, 0)</f>
+      <c r="P3" s="7">
+        <f>ROUND(constants!C$3 * $M3 * $N3, 0)</f>
         <v>40</v>
       </c>
-      <c r="P3" s="7">
-        <f>ROUND(income!$D$3 * $M3, 0)</f>
+      <c r="Q3" s="7">
+        <f>ROUND(constants!D$3 * 1 * $N3, 0)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -6110,36 +6211,39 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1">
-        <v>2</v>
-      </c>
-      <c r="M4" s="15">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
+      <c r="N4" s="15">
         <v>2.2000000000000002</v>
       </c>
-      <c r="N4" s="7">
-        <f>ROUND(income!$B$3 * $M4, 0)</f>
+      <c r="O4" s="7">
+        <f>ROUND(constants!B$3 * $M4 * $N4, 0)</f>
         <v>110</v>
       </c>
-      <c r="O4" s="7">
-        <f>ROUND(income!$C$3 * $M4, 0)</f>
+      <c r="P4" s="7">
+        <f>ROUND(constants!C$3 * $M4 * $N4, 0)</f>
         <v>44</v>
       </c>
-      <c r="P4" s="7">
-        <f>ROUND(income!$D$3 * $M4, 0)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q4" s="7">
+        <f>ROUND(constants!D$3 * 1 * $N4, 0)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="7"/>
+      <c r="N5" s="15"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q5" s="7"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>2</v>
       </c>
@@ -6147,28 +6251,31 @@
         <v>1</v>
       </c>
       <c r="C6" s="1">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1">
-        <v>5</v>
-      </c>
-      <c r="M6" s="15">
-        <v>2</v>
-      </c>
-      <c r="N6" s="7">
-        <f>ROUND(income!$B$4 * $M6, 0)</f>
-        <v>106</v>
+        <v>4</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1</v>
+      </c>
+      <c r="N6" s="15">
+        <v>2.1</v>
       </c>
       <c r="O6" s="7">
-        <f>ROUND(income!$C$4 * $M6, 0)</f>
-        <v>44</v>
+        <f>ROUND(constants!B$4 * $M6 * $N6, 0)</f>
+        <v>111</v>
       </c>
       <c r="P6" s="7">
-        <f>ROUND(income!$D$4 * $M6, 0)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.3">
+        <f>ROUND(constants!C$4 * $M6 * $N6, 0)</f>
+        <v>46</v>
+      </c>
+      <c r="Q6" s="7">
+        <f>ROUND(constants!D$4 * 1 * $N6, 0)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>2</v>
       </c>
@@ -6176,92 +6283,99 @@
         <f>B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="12">
-        <v>9</v>
-      </c>
-      <c r="D7" s="12">
+      <c r="C7" s="1">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1">
         <v>4</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="15">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="N7" s="7">
-        <f>ROUND(income!$B$4 * $M7, 0)</f>
-        <v>117</v>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="12">
+        <v>1</v>
+      </c>
+      <c r="N7" s="15">
+        <v>2.2999999999999998</v>
       </c>
       <c r="O7" s="7">
-        <f>ROUND(income!$C$4 * $M7, 0)</f>
-        <v>48</v>
+        <f>ROUND(constants!B$4 * $M7 * $N7, 0)</f>
+        <v>122</v>
       </c>
       <c r="P7" s="7">
-        <f>ROUND(income!$D$4 * $M7, 0)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.3">
+        <f>ROUND(constants!C$4 * $M7 * $N7, 0)</f>
+        <v>51</v>
+      </c>
+      <c r="Q7" s="7">
+        <f>ROUND(constants!D$4 * 1 * $N7, 0)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="7"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="15"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
-    </row>
-    <row r="9" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q8" s="7"/>
+    </row>
+    <row r="9" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>3</v>
       </c>
       <c r="B9" s="10">
         <v>1</v>
       </c>
-      <c r="C9" s="12">
-        <v>8</v>
-      </c>
-      <c r="D9" s="12">
+      <c r="C9" s="1">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1">
         <v>7</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="15">
-        <v>2</v>
-      </c>
-      <c r="N9" s="7">
-        <f>ROUND(income!$B$5 * $M9, 0)</f>
-        <v>112</v>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="12">
+        <v>1</v>
+      </c>
+      <c r="N9" s="15">
+        <v>2.2000000000000002</v>
       </c>
       <c r="O9" s="7">
-        <f>ROUND(income!$C$5 * $M9, 0)</f>
-        <v>48</v>
+        <f>ROUND(constants!B$5 * $M9 * $N9, 0)</f>
+        <v>123</v>
       </c>
       <c r="P9" s="7">
-        <f>ROUND(income!$D$5 * $M9, 0)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.3">
+        <f>ROUND(constants!C$5 * $M9 * $N9, 0)</f>
+        <v>53</v>
+      </c>
+      <c r="Q9" s="7">
+        <f>ROUND(constants!D$5 * 1 * $N9, 0)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>3</v>
       </c>
@@ -6269,41 +6383,40 @@
         <f>B9+1</f>
         <v>2</v>
       </c>
-      <c r="C10" s="12">
-        <v>6</v>
-      </c>
-      <c r="D10" s="12">
+      <c r="C10" s="1">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1">
         <v>7</v>
       </c>
-      <c r="E10" s="12">
-        <v>6</v>
-      </c>
-      <c r="F10" s="12">
-        <v>7</v>
-      </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="15">
-        <v>3.8</v>
-      </c>
-      <c r="N10" s="7">
-        <f>ROUND(income!$B$5 * $M10, 0)</f>
-        <v>213</v>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="12">
+        <v>1</v>
+      </c>
+      <c r="N10" s="15">
+        <v>2.4</v>
       </c>
       <c r="O10" s="7">
-        <f>ROUND(income!$C$5 * $M10, 0)</f>
-        <v>91</v>
+        <f>ROUND(constants!B$5 * $M10 * $N10, 0)</f>
+        <v>134</v>
       </c>
       <c r="P10" s="7">
-        <f>ROUND(income!$D$5 * $M10, 0)</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.3">
+        <f>ROUND(constants!C$5 * $M10 * $N10, 0)</f>
+        <v>58</v>
+      </c>
+      <c r="Q10" s="7">
+        <f>ROUND(constants!D$5 * 1 * $N10, 0)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="12"/>
@@ -6316,53 +6429,53 @@
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="7"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="15"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
-    </row>
-    <row r="12" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q11" s="7"/>
+    </row>
+    <row r="12" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>4</v>
       </c>
       <c r="B12" s="10">
         <v>1</v>
       </c>
-      <c r="C12" s="12">
-        <v>6</v>
-      </c>
-      <c r="D12" s="12">
-        <v>10</v>
-      </c>
-      <c r="E12" s="12">
-        <v>6</v>
-      </c>
-      <c r="F12" s="12">
-        <v>12</v>
-      </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="15">
-        <v>4</v>
-      </c>
-      <c r="N12" s="7">
-        <f>ROUND(income!$B$6 * $M12, 0)</f>
-        <v>236</v>
+      <c r="C12" s="1">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="12">
+        <v>1</v>
+      </c>
+      <c r="N12" s="15">
+        <v>2.2999999999999998</v>
       </c>
       <c r="O12" s="7">
-        <f>ROUND(income!$C$6 * $M12, 0)</f>
-        <v>104</v>
+        <f>ROUND(constants!B$6 * $M12 * $N12, 0)</f>
+        <v>136</v>
       </c>
       <c r="P12" s="7">
-        <f>ROUND(income!$D$6 * $M12, 0)</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.3">
+        <f>ROUND(constants!C$6 * $M12 * $N12, 0)</f>
+        <v>60</v>
+      </c>
+      <c r="Q12" s="7">
+        <f>ROUND(constants!D$6 * 1 * $N12, 0)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>4</v>
       </c>
@@ -6370,41 +6483,44 @@
         <f>B12+1</f>
         <v>2</v>
       </c>
-      <c r="C13" s="12">
-        <v>6</v>
-      </c>
-      <c r="D13" s="12">
-        <v>12</v>
-      </c>
-      <c r="E13" s="12">
-        <v>8</v>
-      </c>
-      <c r="F13" s="12">
-        <v>10</v>
-      </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="15">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="N13" s="7">
-        <f>ROUND(income!$B$6 * $M13, 0)</f>
-        <v>260</v>
+      <c r="C13" s="1">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>17</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="12">
+        <v>2</v>
+      </c>
+      <c r="N13" s="15">
+        <v>2.5</v>
       </c>
       <c r="O13" s="7">
-        <f>ROUND(income!$C$6 * $M13, 0)</f>
-        <v>114</v>
+        <f>ROUND(constants!B$6 * $M13 * $N13, 0)</f>
+        <v>295</v>
       </c>
       <c r="P13" s="7">
-        <f>ROUND(income!$D$6 * $M13, 0)</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.3">
+        <f>ROUND(constants!C$6 * $M13 * $N13, 0)</f>
+        <v>130</v>
+      </c>
+      <c r="Q13" s="7">
+        <f>ROUND(constants!D$6 * 1 * $N13, 0)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="12"/>
@@ -6417,53 +6533,53 @@
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="7"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="15"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
-    </row>
-    <row r="15" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q14" s="7"/>
+    </row>
+    <row r="15" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>5</v>
       </c>
       <c r="B15" s="10">
         <v>1</v>
       </c>
-      <c r="C15" s="12">
-        <v>6</v>
-      </c>
-      <c r="D15" s="12">
-        <v>14</v>
-      </c>
-      <c r="E15" s="12">
-        <v>7</v>
-      </c>
-      <c r="F15" s="12">
-        <v>16</v>
-      </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="15">
-        <v>4</v>
-      </c>
-      <c r="N15" s="7">
-        <f>ROUND(income!$B$7 * $M15, 0)</f>
-        <v>248</v>
+      <c r="C15" s="1">
+        <v>17</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="12">
+        <v>1</v>
+      </c>
+      <c r="N15" s="15">
+        <v>2.4</v>
       </c>
       <c r="O15" s="7">
-        <f>ROUND(income!$C$7 * $M15, 0)</f>
-        <v>112</v>
+        <f>ROUND(constants!B$7 * $M15 * $N15, 0)</f>
+        <v>149</v>
       </c>
       <c r="P15" s="7">
-        <f>ROUND(income!$D$7 * $M15, 0)</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.3">
+        <f>ROUND(constants!C$7 * $M15 * $N15, 0)</f>
+        <v>67</v>
+      </c>
+      <c r="Q15" s="7">
+        <f>ROUND(constants!D$7 * 1 * $N15, 0)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>5</v>
       </c>
@@ -6471,84 +6587,98 @@
         <f>B15+1</f>
         <v>2</v>
       </c>
-      <c r="C16" s="12">
-        <v>6</v>
-      </c>
-      <c r="D16" s="12">
+      <c r="C16" s="1">
         <v>16</v>
       </c>
-      <c r="E16" s="12">
-        <v>9</v>
-      </c>
-      <c r="F16" s="12">
-        <v>14</v>
-      </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="15">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="N16" s="7">
-        <f>ROUND(income!$B$7 * $M16, 0)</f>
-        <v>273</v>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>15</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="12">
+        <v>2</v>
+      </c>
+      <c r="N16" s="15">
+        <v>2.6</v>
       </c>
       <c r="O16" s="7">
-        <f>ROUND(income!$C$7 * $M16, 0)</f>
-        <v>123</v>
+        <f>ROUND(constants!B$7 * $M16 * $N16, 0)</f>
+        <v>322</v>
       </c>
       <c r="P16" s="7">
-        <f>ROUND(income!$D$7 * $M16, 0)</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
+        <f>ROUND(constants!C$7 * $M16 * $N16, 0)</f>
+        <v>146</v>
+      </c>
+      <c r="Q16" s="7">
+        <f>ROUND(constants!D$7 * 1 * $N16, 0)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="7"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="N17" s="15"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
-    </row>
-    <row r="18" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q17" s="7"/>
+    </row>
+    <row r="18" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>6</v>
       </c>
       <c r="B18" s="10">
         <v>1</v>
       </c>
-      <c r="C18" s="12">
-        <v>6</v>
-      </c>
-      <c r="D18" s="12">
-        <v>20</v>
-      </c>
-      <c r="E18" s="12">
-        <v>8</v>
-      </c>
-      <c r="F18" s="12">
-        <v>18</v>
-      </c>
-      <c r="M18" s="15">
-        <v>4</v>
-      </c>
-      <c r="N18" s="7">
-        <f>ROUND(income!$B$8 * $M18, 0)</f>
-        <v>260</v>
+      <c r="C18" s="1">
+        <v>14</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>16</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="12">
+        <v>2</v>
+      </c>
+      <c r="N18" s="15">
+        <v>2.5</v>
       </c>
       <c r="O18" s="7">
-        <f>ROUND(income!$C$8 * $M18, 0)</f>
-        <v>120</v>
+        <f>ROUND(constants!B$8 * $M18 * $N18, 0)</f>
+        <v>325</v>
       </c>
       <c r="P18" s="7">
-        <f>ROUND(income!$D$8 * $M18, 0)</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
+        <f>ROUND(constants!C$8 * $M18 * $N18, 0)</f>
+        <v>150</v>
+      </c>
+      <c r="Q18" s="7">
+        <f>ROUND(constants!D$8 * 1 * $N18, 0)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>6</v>
       </c>
@@ -6556,282 +6686,167 @@
         <f>B18+1</f>
         <v>2</v>
       </c>
-      <c r="C19" s="14">
-        <v>6</v>
-      </c>
-      <c r="D19" s="14">
-        <v>20</v>
-      </c>
-      <c r="E19" s="14">
-        <v>6</v>
-      </c>
-      <c r="F19" s="14">
-        <v>18</v>
-      </c>
-      <c r="G19" s="14">
-        <v>7</v>
-      </c>
-      <c r="H19" s="14">
-        <v>18</v>
-      </c>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="15">
-        <v>5.6</v>
-      </c>
-      <c r="N19" s="7">
-        <f>ROUND(income!$B$8 * $M19, 0)</f>
-        <v>364</v>
+      <c r="C19" s="1">
+        <v>15</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>17</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="14">
+        <v>2</v>
+      </c>
+      <c r="N19" s="15">
+        <v>2.7</v>
       </c>
       <c r="O19" s="7">
-        <f>ROUND(income!$C$8 * $M19, 0)</f>
-        <v>168</v>
+        <f>ROUND(constants!B$8 * $M19 * $N19, 0)</f>
+        <v>351</v>
       </c>
       <c r="P19" s="7">
-        <f>ROUND(income!$D$8 * $M19, 0)</f>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
+        <f>ROUND(constants!C$8 * $M19 * $N19, 0)</f>
+        <v>162</v>
+      </c>
+      <c r="Q19" s="7">
+        <f>ROUND(constants!D$8 * 1 * $N19, 0)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="7"/>
+      <c r="N20" s="15"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
-    </row>
-    <row r="21" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10">
-        <v>7</v>
-      </c>
-      <c r="B21" s="10">
-        <v>1</v>
-      </c>
-      <c r="C21" s="14">
-        <v>6</v>
-      </c>
-      <c r="D21" s="14">
-        <v>1</v>
-      </c>
-      <c r="E21" s="14">
-        <v>6</v>
-      </c>
-      <c r="F21" s="14">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G21" s="14">
-        <v>6</v>
-      </c>
-      <c r="H21" s="14">
-        <v>1</v>
-      </c>
+      <c r="Q20" s="7"/>
+    </row>
+    <row r="21" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
-      <c r="M21" s="15">
-        <v>6</v>
-      </c>
-      <c r="N21" s="7"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="15"/>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
-    </row>
-    <row r="22" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10">
-        <v>7</v>
-      </c>
-      <c r="B22" s="10">
-        <f>B21+1</f>
-        <v>2</v>
-      </c>
-      <c r="C22" s="14">
-        <v>6</v>
-      </c>
-      <c r="D22" s="14">
-        <v>1</v>
-      </c>
-      <c r="E22" s="14">
-        <v>7</v>
-      </c>
-      <c r="F22" s="14">
-        <v>1</v>
-      </c>
-      <c r="G22" s="14">
-        <v>8</v>
-      </c>
-      <c r="H22" s="14">
-        <v>1</v>
-      </c>
+      <c r="Q21" s="7"/>
+    </row>
+    <row r="22" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
-      <c r="M22" s="15">
-        <v>6.6</v>
-      </c>
-      <c r="N22" s="7"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="15"/>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
-    </row>
-    <row r="23" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q22" s="7"/>
+    </row>
+    <row r="23" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="7"/>
+      <c r="N23" s="15"/>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
-    </row>
-    <row r="24" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="10">
-        <v>8</v>
-      </c>
-      <c r="B24" s="10">
-        <v>1</v>
-      </c>
-      <c r="C24" s="14">
-        <v>6</v>
-      </c>
-      <c r="D24" s="14">
-        <v>1</v>
-      </c>
-      <c r="E24" s="14">
-        <v>7</v>
-      </c>
-      <c r="F24" s="14">
-        <v>1</v>
-      </c>
-      <c r="G24" s="14">
-        <v>7</v>
-      </c>
-      <c r="H24" s="14">
-        <v>1</v>
-      </c>
+      <c r="Q23" s="7"/>
+    </row>
+    <row r="24" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
-      <c r="M24" s="15">
-        <v>6</v>
-      </c>
-      <c r="N24" s="7"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="15"/>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
-    </row>
-    <row r="25" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="10">
-        <v>8</v>
-      </c>
-      <c r="B25" s="10">
-        <f>B24+1</f>
-        <v>2</v>
-      </c>
-      <c r="C25" s="12">
-        <v>6</v>
-      </c>
-      <c r="D25" s="12">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E25" s="12">
-        <v>7</v>
-      </c>
-      <c r="F25" s="12">
-        <v>1</v>
-      </c>
-      <c r="G25" s="12">
-        <v>8</v>
-      </c>
-      <c r="H25" s="12">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M25" s="15">
-        <v>6.6</v>
-      </c>
-      <c r="N25" s="7"/>
+      <c r="Q24" s="7"/>
+    </row>
+    <row r="25" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="N25" s="15"/>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
-    </row>
-    <row r="26" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q25" s="7"/>
+    </row>
+    <row r="26" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="7"/>
+      <c r="N26" s="15"/>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
-    </row>
-    <row r="27" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="10">
-        <v>9</v>
-      </c>
-      <c r="B27" s="10">
-        <v>1</v>
-      </c>
-      <c r="C27" s="14">
-        <v>6</v>
-      </c>
-      <c r="D27" s="14">
-        <v>1</v>
-      </c>
-      <c r="E27" s="14">
-        <v>7</v>
-      </c>
-      <c r="F27" s="14">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G27" s="14">
-        <v>8</v>
-      </c>
-      <c r="H27" s="14">
-        <v>1</v>
-      </c>
+      <c r="Q26" s="7"/>
+    </row>
+    <row r="27" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
-      <c r="M27" s="15">
-        <v>6</v>
-      </c>
-      <c r="N27" s="7"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="15"/>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
-    </row>
-    <row r="28" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="10">
-        <v>9</v>
-      </c>
-      <c r="B28" s="10">
-        <f>B27+1</f>
-        <v>2</v>
-      </c>
-      <c r="C28" s="14">
-        <v>6</v>
-      </c>
-      <c r="D28" s="14">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E28" s="14">
-        <v>7</v>
-      </c>
-      <c r="F28" s="14">
-        <v>1</v>
-      </c>
-      <c r="G28" s="14">
-        <v>7</v>
-      </c>
-      <c r="H28" s="14">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I28" s="14">
-        <v>6</v>
-      </c>
-      <c r="J28" s="14">
-        <v>1</v>
-      </c>
+      <c r="Q27" s="7"/>
+    </row>
+    <row r="28" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
       <c r="K28" s="14"/>
       <c r="L28" s="14"/>
-      <c r="M28" s="15">
-        <v>7.2</v>
-      </c>
-      <c r="N28" s="7"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="15"/>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
-    </row>
-    <row r="29" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q28" s="7"/>
+    </row>
+    <row r="29" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="11"/>
@@ -6844,14 +6859,15 @@
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="15"/>
       <c r="O29" s="11"/>
       <c r="P29" s="11"/>
       <c r="Q29" s="11"/>
       <c r="R29" s="11"/>
-    </row>
-    <row r="30" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S29" s="11"/>
+    </row>
+    <row r="30" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
@@ -6864,11 +6880,12 @@
       <c r="L30" s="14"/>
       <c r="M30" s="14"/>
       <c r="N30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="13"/>
+      <c r="O30" s="14"/>
+      <c r="Q30" s="14"/>
       <c r="R30" s="13"/>
-    </row>
-    <row r="31" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S30" s="13"/>
+    </row>
+    <row r="31" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -6885,8 +6902,9 @@
       <c r="N31" s="12"/>
       <c r="O31" s="12"/>
       <c r="P31" s="12"/>
-    </row>
-    <row r="32" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q31" s="12"/>
+    </row>
+    <row r="32" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -6903,6 +6921,7 @@
       <c r="N32" s="12"/>
       <c r="O32" s="12"/>
       <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6912,22 +6931,22 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1"/>
+      <selection pane="bottomLeft" activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="8.77734375" style="1" customWidth="1"/>
-    <col min="3" max="12" width="10.77734375" style="1" customWidth="1"/>
-    <col min="13" max="16" width="8.77734375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="1.77734375" customWidth="1"/>
+    <col min="3" max="13" width="10.77734375" style="1" customWidth="1"/>
+    <col min="14" max="17" width="8.77734375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="1.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>103</v>
       </c>
@@ -6965,19 +6984,22 @@
         <v>58</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -6985,56 +7007,62 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
       </c>
       <c r="G3" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H3" s="1">
         <v>2</v>
       </c>
-      <c r="M3" s="15">
-        <v>3</v>
-      </c>
-      <c r="N3" s="7">
-        <f>ROUND(income!B$3 * $M3, 0)</f>
-        <v>150</v>
+      <c r="M3" s="1">
+        <v>3</v>
+      </c>
+      <c r="N3" s="15">
+        <v>3</v>
       </c>
       <c r="O3" s="7">
-        <f>ROUND(income!C$3 * $M3, 0)</f>
-        <v>60</v>
+        <f>ROUND(constants!B$3 *$M3 * $N3, 0)</f>
+        <v>450</v>
       </c>
       <c r="P3" s="7">
-        <f>ROUND(income!D$3 * $M3, 0)</f>
+        <f>ROUND(constants!C$3 *$M3 * $N3, 0)</f>
+        <v>180</v>
+      </c>
+      <c r="Q3" s="7">
+        <f>ROUND(constants!D$3 * 1 * $N3, 0)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="15"/>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q4" s="7"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>2</v>
       </c>
@@ -7042,64 +7070,62 @@
         <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F5" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G5" s="1">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="H5" s="1">
-        <v>5</v>
-      </c>
-      <c r="I5" s="1">
-        <v>8</v>
-      </c>
-      <c r="J5" s="1">
-        <v>4</v>
-      </c>
-      <c r="M5" s="15">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>3</v>
+      </c>
+      <c r="N5" s="15">
         <v>3.1</v>
       </c>
-      <c r="N5" s="7">
-        <f>ROUND(income!$B$4 * $M5, 0)</f>
-        <v>164</v>
-      </c>
       <c r="O5" s="7">
-        <f>ROUND(income!$C$4 * $M5, 0)</f>
-        <v>68</v>
+        <f>ROUND(constants!B$4 *$M5 * $N5, 0)</f>
+        <v>493</v>
       </c>
       <c r="P5" s="7">
-        <f>ROUND(income!$D$4 * $M5, 0)</f>
+        <f>ROUND(constants!C$4 *$M5 * $N5, 0)</f>
+        <v>205</v>
+      </c>
+      <c r="Q5" s="7">
+        <f>ROUND(constants!D$4 *1 * $N5, 0)</f>
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="15"/>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
-    </row>
-    <row r="7" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q6" s="7"/>
+    </row>
+    <row r="7" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>3</v>
       </c>
@@ -7107,133 +7133,137 @@
         <v>1</v>
       </c>
       <c r="C7" s="1">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E7" s="1">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F7" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G7" s="1">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="H7" s="1">
-        <v>7</v>
-      </c>
-      <c r="I7" s="1">
-        <v>9</v>
-      </c>
-      <c r="J7" s="1">
-        <v>8</v>
-      </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="15">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1">
+        <v>3</v>
+      </c>
+      <c r="N7" s="15">
         <v>3.2</v>
       </c>
-      <c r="N7" s="7">
-        <f>ROUND(income!$B$5 * $M7, 0)</f>
-        <v>179</v>
-      </c>
       <c r="O7" s="7">
-        <f>ROUND(income!$C$5 * $M7, 0)</f>
-        <v>77</v>
+        <f>ROUND(constants!B$5 *$M7 * $N7, 0)</f>
+        <v>538</v>
       </c>
       <c r="P7" s="7">
-        <f>ROUND(income!$D$5 * $M7, 0)</f>
+        <f>ROUND(constants!C$5 *$M7 * $N7, 0)</f>
+        <v>230</v>
+      </c>
+      <c r="Q7" s="7">
+        <f>ROUND(constants!D$5 *1 * $N7, 0)</f>
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="15"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
-    </row>
-    <row r="9" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q8" s="7"/>
+    </row>
+    <row r="9" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>4</v>
       </c>
       <c r="B9" s="10">
         <v>1</v>
       </c>
-      <c r="C9" s="1">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1">
-        <v>10</v>
-      </c>
-      <c r="E9" s="1">
-        <v>9</v>
-      </c>
-      <c r="F9" s="1">
-        <v>10</v>
-      </c>
-      <c r="G9" s="1">
-        <v>9</v>
-      </c>
-      <c r="H9" s="1">
-        <v>12</v>
-      </c>
-      <c r="I9" s="1">
-        <v>10</v>
-      </c>
-      <c r="J9" s="1">
-        <v>10</v>
-      </c>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="15">
+      <c r="C9" s="7">
+        <v>13</v>
+      </c>
+      <c r="D9" s="7">
+        <v>2</v>
+      </c>
+      <c r="E9" s="7">
+        <v>16</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7">
+        <v>17</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1</v>
+      </c>
+      <c r="I9" s="7">
+        <v>17</v>
+      </c>
+      <c r="J9" s="7">
+        <v>2</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1">
+        <v>4</v>
+      </c>
+      <c r="N9" s="15">
         <v>3.3</v>
       </c>
-      <c r="N9" s="7">
-        <f>ROUND(income!$B$6 * $M9, 0)</f>
-        <v>195</v>
-      </c>
       <c r="O9" s="7">
-        <f>ROUND(income!$C$6 * $M9, 0)</f>
-        <v>86</v>
+        <f>ROUND(constants!B$6 *$M9 * $N9, 0)</f>
+        <v>779</v>
       </c>
       <c r="P9" s="7">
-        <f>ROUND(income!$D$6 * $M9, 0)</f>
+        <f>ROUND(constants!C$6 *$M9 * $N9, 0)</f>
+        <v>343</v>
+      </c>
+      <c r="Q9" s="7">
+        <f>ROUND(constants!D$6 * 1 * $N9, 0)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="15"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
-    </row>
-    <row r="11" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q10" s="7"/>
+    </row>
+    <row r="11" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>5</v>
       </c>
@@ -7241,64 +7271,70 @@
         <v>1</v>
       </c>
       <c r="C11" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>15</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1">
         <v>16</v>
       </c>
-      <c r="E11" s="1">
-        <v>9</v>
-      </c>
-      <c r="F11" s="1">
-        <v>16</v>
-      </c>
-      <c r="G11" s="1">
-        <v>10</v>
-      </c>
       <c r="H11" s="1">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="I11" s="1">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="J11" s="1">
-        <v>16</v>
-      </c>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="15">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1">
+        <v>4</v>
+      </c>
+      <c r="N11" s="15">
         <v>3.4</v>
       </c>
-      <c r="N11" s="7">
-        <f>ROUND(income!$B$7 * $M11, 0)</f>
-        <v>211</v>
-      </c>
       <c r="O11" s="7">
-        <f>ROUND(income!$C$7 * $M11, 0)</f>
-        <v>95</v>
+        <f>ROUND(constants!B$7 *$M11 * $N11, 0)</f>
+        <v>843</v>
       </c>
       <c r="P11" s="7">
-        <f>ROUND(income!$D$7 * $M11, 0)</f>
+        <f>ROUND(constants!C$7 *$M11 * $N11, 0)</f>
+        <v>381</v>
+      </c>
+      <c r="Q11" s="7">
+        <f>ROUND(constants!D$7 *1 * $N11, 0)</f>
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="15"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
-    </row>
-    <row r="13" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q12" s="7"/>
+    </row>
+    <row r="13" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>6</v>
       </c>
@@ -7306,54 +7342,59 @@
         <v>1</v>
       </c>
       <c r="C13" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D13" s="1">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E13" s="1">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>19</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
         <v>18</v>
       </c>
-      <c r="G13" s="1">
-        <v>9</v>
-      </c>
-      <c r="H13" s="1">
-        <v>20</v>
-      </c>
-      <c r="I13" s="1">
-        <v>10</v>
-      </c>
       <c r="J13" s="1">
-        <v>20</v>
-      </c>
-      <c r="M13" s="15">
+        <v>2</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1">
+        <v>4</v>
+      </c>
+      <c r="N13" s="15">
         <v>3.5</v>
       </c>
-      <c r="N13" s="7">
-        <f>ROUND(income!$B$8 * $M13, 0)</f>
-        <v>228</v>
-      </c>
       <c r="O13" s="7">
-        <f>ROUND(income!$C$8 * $M13, 0)</f>
-        <v>105</v>
+        <f>ROUND(constants!B$8 *$M13 * $N13, 0)</f>
+        <v>910</v>
       </c>
       <c r="P13" s="7">
-        <f>ROUND(income!$D$8 * $M13, 0)</f>
+        <f>ROUND(constants!C$8 *$M13 * $N13, 0)</f>
+        <v>420</v>
+      </c>
+      <c r="Q13" s="7">
+        <f>ROUND(constants!D$8 *1 * $N13, 0)</f>
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="7"/>
+      <c r="N14" s="15"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
-    </row>
-    <row r="15" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q14" s="7"/>
+    </row>
+    <row r="15" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>7</v>
       </c>
@@ -7366,31 +7407,34 @@
       <c r="H15" s="14"/>
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
-      <c r="M15" s="15">
+      <c r="M15" s="14">
+        <v>5</v>
+      </c>
+      <c r="N15" s="15">
         <v>3.6</v>
       </c>
-      <c r="N15" s="7">
-        <f>ROUND(income!B$9 * $M15, 0)</f>
-        <v>245</v>
-      </c>
       <c r="O15" s="7">
-        <f>ROUND(income!C$9 * $M15, 0)</f>
-        <v>115</v>
+        <f>ROUND(constants!B$9 *$M15 * $N15, 0)</f>
+        <v>1224</v>
       </c>
       <c r="P15" s="7">
-        <f>ROUND(income!D$9 * $M15, 0)</f>
+        <f>ROUND(constants!C$9 *$M15 * $N15, 0)</f>
+        <v>576</v>
+      </c>
+      <c r="Q15" s="7">
+        <f>ROUND(constants!D$9 *1 * $N15, 0)</f>
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="7"/>
+      <c r="N16" s="15"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
-    </row>
-    <row r="17" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q16" s="7"/>
+    </row>
+    <row r="17" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>8</v>
       </c>
@@ -7405,31 +7449,34 @@
       <c r="J17" s="14"/>
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
-      <c r="M17" s="15">
+      <c r="M17" s="14">
+        <v>5</v>
+      </c>
+      <c r="N17" s="15">
         <v>3.7</v>
       </c>
-      <c r="N17" s="7">
-        <f>ROUND(income!B$10 * $M17, 0)</f>
-        <v>263</v>
-      </c>
       <c r="O17" s="7">
-        <f>ROUND(income!C$10 * $M17, 0)</f>
-        <v>126</v>
+        <f>ROUND(constants!B$10 *$M17 * $N17, 0)</f>
+        <v>1314</v>
       </c>
       <c r="P17" s="7">
-        <f>ROUND(income!D$10 * $M17, 0)</f>
+        <f>ROUND(constants!C$10 *$M17 * $N17, 0)</f>
+        <v>629</v>
+      </c>
+      <c r="Q17" s="7">
+        <f>ROUND(constants!D$10 * 1 * $N17, 0)</f>
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="7"/>
+      <c r="N18" s="15"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
-    </row>
-    <row r="19" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q18" s="7"/>
+    </row>
+    <row r="19" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>9</v>
       </c>
@@ -7444,23 +7491,26 @@
       <c r="J19" s="14"/>
       <c r="K19" s="14"/>
       <c r="L19" s="14"/>
-      <c r="M19" s="15">
+      <c r="M19" s="14">
+        <v>5</v>
+      </c>
+      <c r="N19" s="15">
         <v>3.8</v>
       </c>
-      <c r="N19" s="7">
-        <f>ROUND(income!B$11 * $M19, 0)</f>
-        <v>281</v>
-      </c>
       <c r="O19" s="7">
-        <f>ROUND(income!C$11 * $M19, 0)</f>
-        <v>137</v>
+        <f>ROUND(constants!B$11 *$M19 * $N19, 0)</f>
+        <v>1406</v>
       </c>
       <c r="P19" s="7">
-        <f>ROUND(income!D$11 * $M19, 0)</f>
+        <f>ROUND(constants!C$11 *$M19 * $N19, 0)</f>
+        <v>684</v>
+      </c>
+      <c r="Q19" s="7">
+        <f>ROUND(constants!D$11 * 1 * $N19, 0)</f>
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="11"/>
@@ -7473,14 +7523,15 @@
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="15"/>
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
       <c r="R20" s="11"/>
-    </row>
-    <row r="21" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S20" s="11"/>
+    </row>
+    <row r="21" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
@@ -7493,11 +7544,12 @@
       <c r="L21" s="14"/>
       <c r="M21" s="14"/>
       <c r="N21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="13"/>
+      <c r="O21" s="14"/>
+      <c r="Q21" s="14"/>
       <c r="R21" s="13"/>
-    </row>
-    <row r="22" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S21" s="13"/>
+    </row>
+    <row r="22" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -7514,8 +7566,9 @@
       <c r="N22" s="12"/>
       <c r="O22" s="12"/>
       <c r="P22" s="12"/>
-    </row>
-    <row r="23" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q22" s="12"/>
+    </row>
+    <row r="23" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -7532,6 +7585,7 @@
       <c r="N23" s="12"/>
       <c r="O23" s="12"/>
       <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7541,22 +7595,22 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P45"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1"/>
+      <selection pane="bottomLeft" activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="8.77734375" style="1" customWidth="1"/>
-    <col min="3" max="12" width="10.77734375" style="1" customWidth="1"/>
-    <col min="13" max="16" width="8.77734375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="1.77734375" customWidth="1"/>
+    <col min="3" max="13" width="10.77734375" style="1" customWidth="1"/>
+    <col min="14" max="17" width="8.77734375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="1.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
@@ -7594,19 +7648,22 @@
         <v>58</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -7614,28 +7671,31 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="M3" s="16">
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
+      <c r="N3" s="16">
         <v>4</v>
       </c>
-      <c r="N3" s="7">
-        <f>ROUND(income!$B$3 * $M3, 0)</f>
+      <c r="O3" s="7">
+        <f>ROUND(constants!B$3 * $M3 * $N3,0)</f>
         <v>200</v>
       </c>
-      <c r="O3" s="7">
-        <f>ROUND(income!$C$3 * $M3, 0)</f>
+      <c r="P3" s="7">
+        <f>ROUND(constants!C$3 * $M3 * $N3,0)</f>
         <v>80</v>
       </c>
-      <c r="P3" s="7">
-        <f>ROUND(income!$D$3 * $M3, 0)</f>
+      <c r="Q3" s="7">
+        <f>ROUND(constants!D$3 * 1 * $N3,0)</f>
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <f>A3</f>
         <v>1</v>
@@ -7645,29 +7705,32 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="M4" s="16">
-        <f>M3+0.05</f>
+        <v>2</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
+      <c r="N4" s="16">
+        <f>N3+0.05</f>
         <v>4.05</v>
       </c>
-      <c r="N4" s="7">
-        <f>ROUND(income!$B$3 * M4, 0)</f>
+      <c r="O4" s="7">
+        <f>ROUND(constants!B$3 * $M4 * $N4,0)</f>
         <v>203</v>
       </c>
-      <c r="O4" s="7">
-        <f>ROUND(income!$C$3 * $M4, 0)</f>
+      <c r="P4" s="7">
+        <f>ROUND(constants!C$3 * $M4 * $N4,0)</f>
         <v>81</v>
       </c>
-      <c r="P4" s="7">
-        <f>ROUND(income!$D$3 * $M4, 0)</f>
+      <c r="Q4" s="7">
+        <f>ROUND(constants!D$3 * 1 * $N4,0)</f>
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <f t="shared" ref="A5:A12" si="0">A4</f>
         <v>1</v>
@@ -7677,29 +7740,32 @@
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="M5" s="16">
-        <f t="shared" ref="M5:M12" si="2">M4+0.05</f>
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+      <c r="N5" s="16">
+        <f t="shared" ref="N5:N12" si="2">N4+0.05</f>
         <v>4.0999999999999996</v>
       </c>
-      <c r="N5" s="7">
-        <f>ROUND(income!$B$3 * M5, 0)</f>
+      <c r="O5" s="7">
+        <f>ROUND(constants!B$3 * $M5 * $N5,0)</f>
         <v>205</v>
       </c>
-      <c r="O5" s="7">
-        <f>ROUND(income!$C$3 * $M5, 0)</f>
+      <c r="P5" s="7">
+        <f>ROUND(constants!C$3 * $M5 * $N5,0)</f>
         <v>82</v>
       </c>
-      <c r="P5" s="7">
-        <f>ROUND(income!$D$3 * $M5, 0)</f>
+      <c r="Q5" s="7">
+        <f>ROUND(constants!D$3 * 1 * $N5,0)</f>
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -7709,29 +7775,38 @@
         <v>4</v>
       </c>
       <c r="C6" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="M6" s="16">
+      <c r="E6" s="1">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1">
+        <v>2</v>
+      </c>
+      <c r="N6" s="16">
         <f t="shared" si="2"/>
         <v>4.1499999999999995</v>
       </c>
-      <c r="N6" s="7">
-        <f>ROUND(income!$B$3 * M6, 0)</f>
-        <v>208</v>
-      </c>
       <c r="O6" s="7">
-        <f>ROUND(income!$C$3 * $M6, 0)</f>
-        <v>83</v>
+        <f>ROUND(constants!B$3 * $M6 * $N6,0)</f>
+        <v>415</v>
       </c>
       <c r="P6" s="7">
-        <f>ROUND(income!$D$3 * $M6, 0)</f>
+        <f>ROUND(constants!C$3 * $M6 * $N6,0)</f>
+        <v>166</v>
+      </c>
+      <c r="Q6" s="7">
+        <f>ROUND(constants!D$3 * 1 * $N6,0)</f>
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -7741,35 +7816,32 @@
         <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
-      <c r="E7" s="1">
-        <v>6</v>
-      </c>
-      <c r="F7" s="1">
-        <v>2</v>
-      </c>
-      <c r="M7" s="16">
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
+      <c r="N7" s="16">
         <f t="shared" si="2"/>
         <v>4.1999999999999993</v>
       </c>
-      <c r="N7" s="7">
-        <f>ROUND(income!$B$3 * M7, 0)</f>
+      <c r="O7" s="7">
+        <f>ROUND(constants!B$3 * $M7 * $N7,0)</f>
         <v>210</v>
       </c>
-      <c r="O7" s="7">
-        <f>ROUND(income!$C$3 * $M7, 0)</f>
+      <c r="P7" s="7">
+        <f>ROUND(constants!C$3 * $M7 * $N7,0)</f>
         <v>84</v>
       </c>
-      <c r="P7" s="7">
-        <f>ROUND(income!$D$3 * $M7, 0)</f>
+      <c r="Q7" s="7">
+        <f>ROUND(constants!D$3 * 1 * $N7,0)</f>
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -7779,35 +7851,40 @@
         <v>6</v>
       </c>
       <c r="C8" s="1">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="M8" s="16">
+        <v>2</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="M8" s="1">
+        <v>2</v>
+      </c>
+      <c r="N8" s="16">
         <f t="shared" si="2"/>
         <v>4.2499999999999991</v>
       </c>
-      <c r="N8" s="7">
-        <f>ROUND(income!$B$3 * M8, 0)</f>
-        <v>213</v>
-      </c>
       <c r="O8" s="7">
-        <f>ROUND(income!$C$3 * $M8, 0)</f>
-        <v>85</v>
+        <f>ROUND(constants!B$3 * $M8 * $N8,0)</f>
+        <v>425</v>
       </c>
       <c r="P8" s="7">
-        <f>ROUND(income!$D$3 * $M8, 0)</f>
+        <f>ROUND(constants!C$3 * $M8 * $N8,0)</f>
+        <v>170</v>
+      </c>
+      <c r="Q8" s="7">
+        <f>ROUND(constants!D$3 * 1 * $N8,0)</f>
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -7817,35 +7894,32 @@
         <v>7</v>
       </c>
       <c r="C9" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
       </c>
-      <c r="E9" s="1">
-        <v>8</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="M9" s="16">
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
+      <c r="N9" s="16">
         <f t="shared" si="2"/>
         <v>4.2999999999999989</v>
       </c>
-      <c r="N9" s="7">
-        <f>ROUND(income!$B$3 * M9, 0)</f>
+      <c r="O9" s="7">
+        <f>ROUND(constants!B$3 * $M9 * $N9,0)</f>
         <v>215</v>
       </c>
-      <c r="O9" s="7">
-        <f>ROUND(income!$C$3 * $M9, 0)</f>
+      <c r="P9" s="7">
+        <f>ROUND(constants!C$3 * $M9 * $N9,0)</f>
         <v>86</v>
       </c>
-      <c r="P9" s="7">
-        <f>ROUND(income!$D$3 * $M9, 0)</f>
+      <c r="Q9" s="7">
+        <f>ROUND(constants!D$3 * 1 * $N9,0)</f>
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -7855,35 +7929,44 @@
         <v>8</v>
       </c>
       <c r="C10" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
       </c>
-      <c r="M10" s="16">
+      <c r="G10" s="1">
+        <v>12</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2</v>
+      </c>
+      <c r="M10" s="1">
+        <v>3</v>
+      </c>
+      <c r="N10" s="16">
         <f t="shared" si="2"/>
         <v>4.3499999999999988</v>
       </c>
-      <c r="N10" s="7">
-        <f>ROUND(income!$B$3 * M10, 0)</f>
-        <v>218</v>
-      </c>
       <c r="O10" s="7">
-        <f>ROUND(income!$C$3 * $M10, 0)</f>
-        <v>87</v>
+        <f>ROUND(constants!B$3 * $M10 * $N10,0)</f>
+        <v>653</v>
       </c>
       <c r="P10" s="7">
-        <f>ROUND(income!$D$3 * $M10, 0)</f>
+        <f>ROUND(constants!C$3 * $M10 * $N10,0)</f>
+        <v>261</v>
+      </c>
+      <c r="Q10" s="7">
+        <f>ROUND(constants!D$3 * 1 * $N10,0)</f>
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -7893,41 +7976,38 @@
         <v>9</v>
       </c>
       <c r="C11" s="1">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11" s="1">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1">
-        <v>6</v>
-      </c>
-      <c r="H11" s="1">
-        <v>1</v>
-      </c>
-      <c r="M11" s="16">
+        <v>2</v>
+      </c>
+      <c r="M11" s="1">
+        <v>2</v>
+      </c>
+      <c r="N11" s="16">
         <f t="shared" si="2"/>
         <v>4.3999999999999986</v>
       </c>
-      <c r="N11" s="7">
-        <f>ROUND(income!$B$3 * M11, 0)</f>
-        <v>220</v>
-      </c>
       <c r="O11" s="7">
-        <f>ROUND(income!$C$3 * $M11, 0)</f>
-        <v>88</v>
+        <f>ROUND(constants!B$3 * $M11 * $N11,0)</f>
+        <v>440</v>
       </c>
       <c r="P11" s="7">
-        <f>ROUND(income!$D$3 * $M11, 0)</f>
+        <f>ROUND(constants!C$3 * $M11 * $N11,0)</f>
+        <v>176</v>
+      </c>
+      <c r="Q11" s="7">
+        <f>ROUND(constants!D$3 * 1 * $N11,0)</f>
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -7936,42 +8016,45 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C12" s="7">
-        <v>6</v>
-      </c>
-      <c r="D12" s="7">
-        <v>2</v>
-      </c>
-      <c r="E12" s="7">
-        <v>6</v>
-      </c>
-      <c r="F12" s="7">
-        <v>1</v>
-      </c>
-      <c r="G12" s="7">
-        <v>7</v>
-      </c>
-      <c r="H12" s="7">
-        <v>1</v>
-      </c>
-      <c r="M12" s="16">
+      <c r="C12" s="1">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>15</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>14</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2</v>
+      </c>
+      <c r="M12" s="1">
+        <v>3</v>
+      </c>
+      <c r="N12" s="16">
         <f t="shared" si="2"/>
         <v>4.4499999999999984</v>
       </c>
-      <c r="N12" s="7">
-        <f>ROUND(income!$B$3 * M12, 0)</f>
-        <v>223</v>
-      </c>
       <c r="O12" s="7">
-        <f>ROUND(income!$C$3 * $M12, 0)</f>
-        <v>89</v>
+        <f>ROUND(constants!B$3 * $M12 * $N12,0)</f>
+        <v>668</v>
       </c>
       <c r="P12" s="7">
-        <f>ROUND(income!$D$3 * $M12, 0)</f>
+        <f>ROUND(constants!C$3 * $M12 * $N12,0)</f>
+        <v>267</v>
+      </c>
+      <c r="Q12" s="7">
+        <f>ROUND(constants!D$3 * 1 * $N12,0)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -7982,12 +8065,13 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="8"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q13" s="7"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>2</v>
       </c>
@@ -7995,28 +8079,31 @@
         <v>1</v>
       </c>
       <c r="C14" s="1">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D14" s="1">
-        <v>5</v>
-      </c>
-      <c r="M14" s="16">
         <v>4</v>
       </c>
-      <c r="N14" s="7">
-        <f>ROUND(income!$B$4 * $M14, 0)</f>
+      <c r="M14" s="1">
+        <v>1</v>
+      </c>
+      <c r="N14" s="16">
+        <v>4</v>
+      </c>
+      <c r="O14" s="7">
+        <f>ROUND(constants!B$4 * $M14 * $N14,0)</f>
         <v>212</v>
       </c>
-      <c r="O14" s="7">
-        <f>ROUND(income!$C$4 * $M14, 0)</f>
+      <c r="P14" s="7">
+        <f>ROUND(constants!C$4 * $M14 * $N14,0)</f>
         <v>88</v>
       </c>
-      <c r="P14" s="7">
-        <f>ROUND(income!$D$4 * $M14, 0)</f>
+      <c r="Q14" s="7">
+        <f>ROUND(constants!D$4 * 1 * $N14,0)</f>
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <f>A14</f>
         <v>2</v>
@@ -8026,29 +8113,32 @@
         <v>2</v>
       </c>
       <c r="C15" s="1">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D15" s="1">
-        <v>5</v>
-      </c>
-      <c r="M15" s="16">
-        <f>M14+0.05</f>
+        <v>4</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1</v>
+      </c>
+      <c r="N15" s="16">
+        <f>N14+0.05</f>
         <v>4.05</v>
       </c>
-      <c r="N15" s="7">
-        <f>ROUND(income!$B$4 * $M15, 0)</f>
+      <c r="O15" s="7">
+        <f>ROUND(constants!B$4 * $M15 * $N15,0)</f>
         <v>215</v>
       </c>
-      <c r="O15" s="7">
-        <f>ROUND(income!$C$4 * $M15, 0)</f>
+      <c r="P15" s="7">
+        <f>ROUND(constants!C$4 * $M15 * $N15,0)</f>
         <v>89</v>
       </c>
-      <c r="P15" s="7">
-        <f>ROUND(income!$D$4 * $M15, 0)</f>
+      <c r="Q15" s="7">
+        <f>ROUND(constants!D$4 * 1 * $N15,0)</f>
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <f t="shared" ref="A16:A27" si="3">A15</f>
         <v>2</v>
@@ -8058,29 +8148,38 @@
         <v>3</v>
       </c>
       <c r="C16" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D16" s="1">
         <v>5</v>
       </c>
-      <c r="M16" s="16">
-        <f t="shared" ref="M16:M27" si="4">M15+0.05</f>
+      <c r="E16" s="1">
+        <v>16</v>
+      </c>
+      <c r="F16" s="1">
+        <v>4</v>
+      </c>
+      <c r="M16" s="1">
+        <v>2</v>
+      </c>
+      <c r="N16" s="16">
+        <f t="shared" ref="N16:N27" si="4">N15+0.05</f>
         <v>4.0999999999999996</v>
       </c>
-      <c r="N16" s="7">
-        <f>ROUND(income!$B$4 * $M16, 0)</f>
-        <v>217</v>
-      </c>
       <c r="O16" s="7">
-        <f>ROUND(income!$C$4 * $M16, 0)</f>
-        <v>90</v>
+        <f>ROUND(constants!B$4 * $M16 * $N16,0)</f>
+        <v>435</v>
       </c>
       <c r="P16" s="7">
-        <f>ROUND(income!$D$4 * $M16, 0)</f>
+        <f>ROUND(constants!C$4 * $M16 * $N16,0)</f>
+        <v>180</v>
+      </c>
+      <c r="Q16" s="7">
+        <f>ROUND(constants!D$4 * 1 * $N16,0)</f>
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -8090,35 +8189,32 @@
         <v>4</v>
       </c>
       <c r="C17" s="1">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D17" s="1">
         <v>4</v>
       </c>
-      <c r="E17" s="1">
-        <v>6</v>
-      </c>
-      <c r="F17" s="1">
-        <v>4</v>
-      </c>
-      <c r="M17" s="16">
+      <c r="M17" s="1">
+        <v>1</v>
+      </c>
+      <c r="N17" s="16">
         <f t="shared" si="4"/>
         <v>4.1499999999999995</v>
       </c>
-      <c r="N17" s="7">
-        <f>ROUND(income!$B$4 * $M17, 0)</f>
+      <c r="O17" s="7">
+        <f>ROUND(constants!B$4 * $M17 * $N17,0)</f>
         <v>220</v>
       </c>
-      <c r="O17" s="7">
-        <f>ROUND(income!$C$4 * $M17, 0)</f>
+      <c r="P17" s="7">
+        <f>ROUND(constants!C$4 * $M17 * $N17,0)</f>
         <v>91</v>
       </c>
-      <c r="P17" s="7">
-        <f>ROUND(income!$D$4 * $M17, 0)</f>
+      <c r="Q17" s="7">
+        <f>ROUND(constants!D$4 * 1 * $N17,0)</f>
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -8128,35 +8224,38 @@
         <v>5</v>
       </c>
       <c r="C18" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D18" s="1">
         <v>4</v>
       </c>
       <c r="E18" s="1">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F18" s="1">
-        <v>4</v>
-      </c>
-      <c r="M18" s="16">
+        <v>5</v>
+      </c>
+      <c r="M18" s="1">
+        <v>2</v>
+      </c>
+      <c r="N18" s="16">
         <f t="shared" si="4"/>
         <v>4.1999999999999993</v>
       </c>
-      <c r="N18" s="7">
-        <f>ROUND(income!$B$4 * $M18, 0)</f>
-        <v>223</v>
-      </c>
       <c r="O18" s="7">
-        <f>ROUND(income!$C$4 * $M18, 0)</f>
-        <v>92</v>
+        <f>ROUND(constants!B$4 * $M18 * $N18,0)</f>
+        <v>445</v>
       </c>
       <c r="P18" s="7">
-        <f>ROUND(income!$D$4 * $M18, 0)</f>
+        <f>ROUND(constants!C$4 * $M18 * $N18,0)</f>
+        <v>185</v>
+      </c>
+      <c r="Q18" s="7">
+        <f>ROUND(constants!D$4 * 1 * $N18,0)</f>
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -8166,29 +8265,38 @@
         <v>6</v>
       </c>
       <c r="C19" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D19" s="1">
         <v>4</v>
       </c>
-      <c r="M19" s="16">
+      <c r="E19" s="1">
+        <v>15</v>
+      </c>
+      <c r="F19" s="1">
+        <v>4</v>
+      </c>
+      <c r="M19" s="1">
+        <v>2</v>
+      </c>
+      <c r="N19" s="16">
         <f t="shared" si="4"/>
         <v>4.2499999999999991</v>
       </c>
-      <c r="N19" s="7">
-        <f>ROUND(income!$B$4 * $M19, 0)</f>
-        <v>225</v>
-      </c>
       <c r="O19" s="7">
-        <f>ROUND(income!$C$4 * $M19, 0)</f>
-        <v>94</v>
+        <f>ROUND(constants!B$4 * $M19 * $N19,0)</f>
+        <v>451</v>
       </c>
       <c r="P19" s="7">
-        <f>ROUND(income!$D$4 * $M19, 0)</f>
+        <f>ROUND(constants!C$4 * $M19 * $N19,0)</f>
+        <v>187</v>
+      </c>
+      <c r="Q19" s="7">
+        <f>ROUND(constants!D$4 * 1 * $N19,0)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -8198,35 +8306,32 @@
         <v>7</v>
       </c>
       <c r="C20" s="1">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D20" s="1">
-        <v>4</v>
-      </c>
-      <c r="E20" s="1">
-        <v>8</v>
-      </c>
-      <c r="F20" s="1">
         <v>5</v>
       </c>
-      <c r="M20" s="16">
+      <c r="M20" s="1">
+        <v>1</v>
+      </c>
+      <c r="N20" s="16">
         <f t="shared" si="4"/>
         <v>4.2999999999999989</v>
       </c>
-      <c r="N20" s="7">
-        <f>ROUND(income!$B$4 * $M20, 0)</f>
+      <c r="O20" s="7">
+        <f>ROUND(constants!B$4 * $M20 * $N20,0)</f>
         <v>228</v>
       </c>
-      <c r="O20" s="7">
-        <f>ROUND(income!$C$4 * $M20, 0)</f>
+      <c r="P20" s="7">
+        <f>ROUND(constants!C$4 * $M20 * $N20,0)</f>
         <v>95</v>
       </c>
-      <c r="P20" s="7">
-        <f>ROUND(income!$D$4 * $M20, 0)</f>
+      <c r="Q20" s="7">
+        <f>ROUND(constants!D$4 * 1 * $N20,0)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -8236,35 +8341,44 @@
         <v>8</v>
       </c>
       <c r="C21" s="1">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D21" s="1">
+        <v>4</v>
+      </c>
+      <c r="E21" s="1">
+        <v>14</v>
+      </c>
+      <c r="F21" s="1">
         <v>5</v>
       </c>
-      <c r="E21" s="1">
-        <v>8</v>
-      </c>
-      <c r="F21" s="1">
+      <c r="G21" s="1">
+        <v>17</v>
+      </c>
+      <c r="H21" s="1">
         <v>4</v>
       </c>
-      <c r="M21" s="16">
+      <c r="M21" s="1">
+        <v>3</v>
+      </c>
+      <c r="N21" s="16">
         <f t="shared" si="4"/>
         <v>4.3499999999999988</v>
       </c>
-      <c r="N21" s="7">
-        <f>ROUND(income!$B$4 * $M21, 0)</f>
-        <v>231</v>
-      </c>
       <c r="O21" s="7">
-        <f>ROUND(income!$C$4 * $M21, 0)</f>
-        <v>96</v>
+        <f>ROUND(constants!B$4 * $M21 * $N21,0)</f>
+        <v>692</v>
       </c>
       <c r="P21" s="7">
-        <f>ROUND(income!$D$4 * $M21, 0)</f>
+        <f>ROUND(constants!C$4 * $M21 * $N21,0)</f>
+        <v>287</v>
+      </c>
+      <c r="Q21" s="7">
+        <f>ROUND(constants!D$4 * 1 * $N21,0)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -8274,29 +8388,38 @@
         <v>9</v>
       </c>
       <c r="C22" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22" s="1">
         <v>4</v>
       </c>
-      <c r="M22" s="16">
+      <c r="E22" s="1">
+        <v>15</v>
+      </c>
+      <c r="F22" s="1">
+        <v>4</v>
+      </c>
+      <c r="M22" s="1">
+        <v>2</v>
+      </c>
+      <c r="N22" s="16">
         <f t="shared" si="4"/>
         <v>4.3999999999999986</v>
       </c>
-      <c r="N22" s="7">
-        <f>ROUND(income!$B$4 * $M22, 0)</f>
-        <v>233</v>
-      </c>
       <c r="O22" s="7">
-        <f>ROUND(income!$C$4 * $M22, 0)</f>
-        <v>97</v>
+        <f>ROUND(constants!B$4 * $M22 * $N22,0)</f>
+        <v>466</v>
       </c>
       <c r="P22" s="7">
-        <f>ROUND(income!$D$4 * $M22, 0)</f>
+        <f>ROUND(constants!C$4 * $M22 * $N22,0)</f>
+        <v>194</v>
+      </c>
+      <c r="Q22" s="7">
+        <f>ROUND(constants!D$4 * 1 * $N22,0)</f>
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -8306,35 +8429,38 @@
         <v>10</v>
       </c>
       <c r="C23" s="1">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D23" s="1">
         <v>4</v>
       </c>
       <c r="E23" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F23" s="1">
-        <v>4</v>
-      </c>
-      <c r="M23" s="16">
+        <v>5</v>
+      </c>
+      <c r="M23" s="1">
+        <v>2</v>
+      </c>
+      <c r="N23" s="16">
         <f t="shared" si="4"/>
         <v>4.4499999999999984</v>
       </c>
-      <c r="N23" s="7">
-        <f>ROUND(income!$B$4 * $M23, 0)</f>
-        <v>236</v>
-      </c>
       <c r="O23" s="7">
-        <f>ROUND(income!$C$4 * $M23, 0)</f>
-        <v>98</v>
+        <f>ROUND(constants!B$4 * $M23 * $N23,0)</f>
+        <v>472</v>
       </c>
       <c r="P23" s="7">
-        <f>ROUND(income!$D$4 * $M23, 0)</f>
+        <f>ROUND(constants!C$4 * $M23 * $N23,0)</f>
+        <v>196</v>
+      </c>
+      <c r="Q23" s="7">
+        <f>ROUND(constants!D$4 * 1 * $N23,0)</f>
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -8344,35 +8470,38 @@
         <v>11</v>
       </c>
       <c r="C24" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D24" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E24" s="1">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F24" s="1">
         <v>4</v>
       </c>
-      <c r="M24" s="16">
+      <c r="M24" s="1">
+        <v>2</v>
+      </c>
+      <c r="N24" s="16">
         <f t="shared" si="4"/>
         <v>4.4999999999999982</v>
       </c>
-      <c r="N24" s="7">
-        <f>ROUND(income!$B$4 * $M24, 0)</f>
-        <v>239</v>
-      </c>
       <c r="O24" s="7">
-        <f>ROUND(income!$C$4 * $M24, 0)</f>
-        <v>99</v>
+        <f>ROUND(constants!B$4 * $M24 * $N24,0)</f>
+        <v>477</v>
       </c>
       <c r="P24" s="7">
-        <f>ROUND(income!$D$4 * $M24, 0)</f>
+        <f>ROUND(constants!C$4 * $M24 * $N24,0)</f>
+        <v>198</v>
+      </c>
+      <c r="Q24" s="7">
+        <f>ROUND(constants!D$4 * 1 * $N24,0)</f>
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -8382,29 +8511,44 @@
         <v>12</v>
       </c>
       <c r="C25" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D25" s="1">
         <v>4</v>
       </c>
-      <c r="M25" s="16">
+      <c r="E25" s="1">
+        <v>13</v>
+      </c>
+      <c r="F25" s="1">
+        <v>5</v>
+      </c>
+      <c r="G25" s="1">
+        <v>17</v>
+      </c>
+      <c r="H25" s="1">
+        <v>4</v>
+      </c>
+      <c r="M25" s="1">
+        <v>3</v>
+      </c>
+      <c r="N25" s="16">
         <f t="shared" si="4"/>
         <v>4.549999999999998</v>
       </c>
-      <c r="N25" s="7">
-        <f>ROUND(income!$B$4 * $M25, 0)</f>
-        <v>241</v>
-      </c>
       <c r="O25" s="7">
-        <f>ROUND(income!$C$4 * $M25, 0)</f>
-        <v>100</v>
+        <f>ROUND(constants!B$4 * $M25 * $N25,0)</f>
+        <v>723</v>
       </c>
       <c r="P25" s="7">
-        <f>ROUND(income!$D$4 * $M25, 0)</f>
+        <f>ROUND(constants!C$4 * $M25 * $N25,0)</f>
+        <v>300</v>
+      </c>
+      <c r="Q25" s="7">
+        <f>ROUND(constants!D$4 * 1 * $N25,0)</f>
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -8414,41 +8558,39 @@
         <v>13</v>
       </c>
       <c r="C26" s="1">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D26" s="1">
         <v>4</v>
       </c>
       <c r="E26" s="1">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F26" s="1">
         <v>5</v>
       </c>
-      <c r="G26" s="1">
-        <v>8</v>
-      </c>
-      <c r="H26" s="1">
-        <v>5</v>
-      </c>
-      <c r="M26" s="16">
+      <c r="I26" s="7"/>
+      <c r="M26" s="1">
+        <v>2</v>
+      </c>
+      <c r="N26" s="16">
         <f t="shared" si="4"/>
         <v>4.5999999999999979</v>
       </c>
-      <c r="N26" s="7">
-        <f>ROUND(income!$B$4 * $M26, 0)</f>
-        <v>244</v>
-      </c>
       <c r="O26" s="7">
-        <f>ROUND(income!$C$4 * $M26, 0)</f>
-        <v>101</v>
+        <f>ROUND(constants!B$4 * $M26 * $N26,0)</f>
+        <v>488</v>
       </c>
       <c r="P26" s="7">
-        <f>ROUND(income!$D$4 * $M26, 0)</f>
+        <f>ROUND(constants!C$4 * $M26 * $N26,0)</f>
+        <v>202</v>
+      </c>
+      <c r="Q26" s="7">
+        <f>ROUND(constants!D$4 * 1 * $N26,0)</f>
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -8458,45 +8600,48 @@
         <v>14</v>
       </c>
       <c r="C27" s="1">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D27" s="1">
         <v>4</v>
       </c>
       <c r="E27" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F27" s="1">
         <v>5</v>
       </c>
       <c r="G27" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H27" s="1">
         <v>5</v>
       </c>
-      <c r="M27" s="16">
+      <c r="M27" s="1">
+        <v>3</v>
+      </c>
+      <c r="N27" s="16">
         <f t="shared" si="4"/>
         <v>4.6499999999999977</v>
       </c>
-      <c r="N27" s="7">
-        <f>ROUND(income!$B$4 * $M27, 0)</f>
-        <v>246</v>
-      </c>
       <c r="O27" s="7">
-        <f>ROUND(income!$C$4 * $M27, 0)</f>
-        <v>102</v>
+        <f>ROUND(constants!B$4 * $M27 * $N27,0)</f>
+        <v>739</v>
       </c>
       <c r="P27" s="7">
-        <f>ROUND(income!$D$4 * $M27, 0)</f>
+        <f>ROUND(constants!C$4 * $M27 * $N27,0)</f>
+        <v>307</v>
+      </c>
+      <c r="Q27" s="7">
+        <f>ROUND(constants!D$4 * 1 * $N27,0)</f>
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="M28" s="15"/>
-      <c r="O28" s="7"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N28" s="15"/>
+      <c r="P28" s="7"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>3</v>
       </c>
@@ -8504,28 +8649,31 @@
         <v>1</v>
       </c>
       <c r="C29" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D29" s="1">
         <v>7</v>
       </c>
-      <c r="M29" s="16">
+      <c r="M29" s="1">
+        <v>1</v>
+      </c>
+      <c r="N29" s="16">
         <v>4</v>
       </c>
-      <c r="N29" s="7">
-        <f>ROUND(income!$B$5 * $M29, 0)</f>
+      <c r="O29" s="7">
+        <f>ROUND(constants!B$5 * $M29 * $N29,0)</f>
         <v>224</v>
       </c>
-      <c r="O29" s="7">
-        <f>ROUND(income!$C$5 * $M29, 0)</f>
+      <c r="P29" s="7">
+        <f>ROUND(constants!C$5 * $M29 * $N29,0)</f>
         <v>96</v>
       </c>
-      <c r="P29" s="7">
-        <f>ROUND(income!$D$5 * $M29, 0)</f>
+      <c r="Q29" s="7">
+        <f>ROUND(constants!D$5 * 1 * $N29,0)</f>
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <f>A29</f>
         <v>3</v>
@@ -8535,29 +8683,38 @@
         <v>2</v>
       </c>
       <c r="C30" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D30" s="1">
-        <v>8</v>
-      </c>
-      <c r="M30" s="16">
-        <f>M29+0.05</f>
+        <v>7</v>
+      </c>
+      <c r="E30" s="1">
+        <v>17</v>
+      </c>
+      <c r="F30" s="1">
+        <v>7</v>
+      </c>
+      <c r="M30" s="1">
+        <v>2</v>
+      </c>
+      <c r="N30" s="16">
+        <f>N29+0.05</f>
         <v>4.05</v>
       </c>
-      <c r="N30" s="7">
-        <f>ROUND(income!$B$5 * $M30, 0)</f>
-        <v>227</v>
-      </c>
       <c r="O30" s="7">
-        <f>ROUND(income!$C$5 * $M30, 0)</f>
-        <v>97</v>
+        <f>ROUND(constants!B$5 * $M30 * $N30,0)</f>
+        <v>454</v>
       </c>
       <c r="P30" s="7">
-        <f>ROUND(income!$D$5 * $M30, 0)</f>
+        <f>ROUND(constants!C$5 * $M30 * $N30,0)</f>
+        <v>194</v>
+      </c>
+      <c r="Q30" s="7">
+        <f>ROUND(constants!D$5 * 1 * $N30,0)</f>
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <f t="shared" ref="A31:A45" si="7">A30</f>
         <v>3</v>
@@ -8567,29 +8724,34 @@
         <v>3</v>
       </c>
       <c r="C31" s="1">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D31" s="1">
         <v>7</v>
       </c>
-      <c r="M31" s="16">
-        <f t="shared" ref="M31:M45" si="8">M30+0.05</f>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="M31" s="1">
+        <v>1</v>
+      </c>
+      <c r="N31" s="16">
+        <f t="shared" ref="N31:N45" si="8">N30+0.05</f>
         <v>4.0999999999999996</v>
       </c>
-      <c r="N31" s="7">
-        <f>ROUND(income!$B$5 * $M31, 0)</f>
+      <c r="O31" s="7">
+        <f>ROUND(constants!B$5 * $M31 * $N31,0)</f>
         <v>230</v>
       </c>
-      <c r="O31" s="7">
-        <f>ROUND(income!$C$5 * $M31, 0)</f>
+      <c r="P31" s="7">
+        <f>ROUND(constants!C$5 * $M31 * $N31,0)</f>
         <v>98</v>
       </c>
-      <c r="P31" s="7">
-        <f>ROUND(income!$D$5 * $M31, 0)</f>
+      <c r="Q31" s="7">
+        <f>ROUND(constants!D$5 * 1 * $N31,0)</f>
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <f t="shared" si="7"/>
         <v>3</v>
@@ -8599,35 +8761,44 @@
         <v>4</v>
       </c>
       <c r="C32" s="1">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D32" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E32" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F32" s="1">
         <v>8</v>
       </c>
-      <c r="M32" s="16">
+      <c r="G32" s="1">
+        <v>19</v>
+      </c>
+      <c r="H32" s="1">
+        <v>7</v>
+      </c>
+      <c r="M32" s="1">
+        <v>3</v>
+      </c>
+      <c r="N32" s="16">
         <f t="shared" si="8"/>
         <v>4.1499999999999995</v>
       </c>
-      <c r="N32" s="7">
-        <f>ROUND(income!$B$5 * $M32, 0)</f>
-        <v>232</v>
-      </c>
       <c r="O32" s="7">
-        <f>ROUND(income!$C$5 * $M32, 0)</f>
-        <v>100</v>
+        <f>ROUND(constants!B$5 * $M32 * $N32,0)</f>
+        <v>697</v>
       </c>
       <c r="P32" s="7">
-        <f>ROUND(income!$D$5 * $M32, 0)</f>
+        <f>ROUND(constants!C$5 * $M32 * $N32,0)</f>
+        <v>299</v>
+      </c>
+      <c r="Q32" s="7">
+        <f>ROUND(constants!D$5 * 1 * $N32,0)</f>
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <f t="shared" si="7"/>
         <v>3</v>
@@ -8637,29 +8808,38 @@
         <v>5</v>
       </c>
       <c r="C33" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D33" s="1">
         <v>7</v>
       </c>
-      <c r="M33" s="16">
+      <c r="E33" s="1">
+        <v>16</v>
+      </c>
+      <c r="F33" s="1">
+        <v>7</v>
+      </c>
+      <c r="M33" s="1">
+        <v>2</v>
+      </c>
+      <c r="N33" s="16">
         <f t="shared" si="8"/>
         <v>4.1999999999999993</v>
       </c>
-      <c r="N33" s="7">
-        <f>ROUND(income!$B$5 * $M33, 0)</f>
-        <v>235</v>
-      </c>
       <c r="O33" s="7">
-        <f>ROUND(income!$C$5 * $M33, 0)</f>
-        <v>101</v>
+        <f>ROUND(constants!B$5 * $M33 * $N33,0)</f>
+        <v>470</v>
       </c>
       <c r="P33" s="7">
-        <f>ROUND(income!$D$5 * $M33, 0)</f>
+        <f>ROUND(constants!C$5 * $M33 * $N33,0)</f>
+        <v>202</v>
+      </c>
+      <c r="Q33" s="7">
+        <f>ROUND(constants!D$5 * 1 * $N33,0)</f>
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
         <f t="shared" si="7"/>
         <v>3</v>
@@ -8669,35 +8849,34 @@
         <v>6</v>
       </c>
       <c r="C34" s="1">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D34" s="1">
-        <v>7</v>
-      </c>
-      <c r="E34" s="1">
         <v>8</v>
       </c>
-      <c r="F34" s="1">
-        <v>7</v>
-      </c>
-      <c r="M34" s="16">
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="M34" s="1">
+        <v>1</v>
+      </c>
+      <c r="N34" s="16">
         <f t="shared" si="8"/>
         <v>4.2499999999999991</v>
       </c>
-      <c r="N34" s="7">
-        <f>ROUND(income!$B$5 * $M34, 0)</f>
+      <c r="O34" s="7">
+        <f>ROUND(constants!B$5 * $M34 * $N34,0)</f>
         <v>238</v>
       </c>
-      <c r="O34" s="7">
-        <f>ROUND(income!$C$5 * $M34, 0)</f>
+      <c r="P34" s="7">
+        <f>ROUND(constants!C$5 * $M34 * $N34,0)</f>
         <v>102</v>
       </c>
-      <c r="P34" s="7">
-        <f>ROUND(income!$D$5 * $M34, 0)</f>
+      <c r="Q34" s="7">
+        <f>ROUND(constants!D$5 * 1 * $N34,0)</f>
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
         <f t="shared" si="7"/>
         <v>3</v>
@@ -8707,35 +8886,38 @@
         <v>7</v>
       </c>
       <c r="C35" s="1">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D35" s="1">
         <v>7</v>
       </c>
       <c r="E35" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F35" s="1">
-        <v>7</v>
-      </c>
-      <c r="M35" s="16">
+        <v>8</v>
+      </c>
+      <c r="M35" s="1">
+        <v>2</v>
+      </c>
+      <c r="N35" s="16">
         <f t="shared" si="8"/>
         <v>4.2999999999999989</v>
       </c>
-      <c r="N35" s="7">
-        <f>ROUND(income!$B$5 * $M35, 0)</f>
-        <v>241</v>
-      </c>
       <c r="O35" s="7">
-        <f>ROUND(income!$C$5 * $M35, 0)</f>
-        <v>103</v>
+        <f>ROUND(constants!B$5 * $M35 * $N35,0)</f>
+        <v>482</v>
       </c>
       <c r="P35" s="7">
-        <f>ROUND(income!$D$5 * $M35, 0)</f>
+        <f>ROUND(constants!C$5 * $M35 * $N35,0)</f>
+        <v>206</v>
+      </c>
+      <c r="Q35" s="7">
+        <f>ROUND(constants!D$5 * 1 * $N35,0)</f>
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
         <f t="shared" si="7"/>
         <v>3</v>
@@ -8745,35 +8927,38 @@
         <v>8</v>
       </c>
       <c r="C36" s="1">
+        <v>13</v>
+      </c>
+      <c r="D36" s="1">
         <v>8</v>
       </c>
-      <c r="D36" s="1">
-        <v>7</v>
-      </c>
       <c r="E36" s="1">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F36" s="1">
         <v>7</v>
       </c>
-      <c r="M36" s="16">
+      <c r="M36" s="1">
+        <v>2</v>
+      </c>
+      <c r="N36" s="16">
         <f t="shared" si="8"/>
         <v>4.3499999999999988</v>
       </c>
-      <c r="N36" s="7">
-        <f>ROUND(income!$B$5 * $M36, 0)</f>
-        <v>244</v>
-      </c>
       <c r="O36" s="7">
-        <f>ROUND(income!$C$5 * $M36, 0)</f>
-        <v>104</v>
+        <f>ROUND(constants!B$5 * $M36 * $N36,0)</f>
+        <v>487</v>
       </c>
       <c r="P36" s="7">
-        <f>ROUND(income!$D$5 * $M36, 0)</f>
+        <f>ROUND(constants!C$5 * $M36 * $N36,0)</f>
+        <v>209</v>
+      </c>
+      <c r="Q36" s="7">
+        <f>ROUND(constants!D$5 * 1 * $N36,0)</f>
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="9">
         <f t="shared" si="7"/>
         <v>3</v>
@@ -8783,35 +8968,44 @@
         <v>9</v>
       </c>
       <c r="C37" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D37" s="1">
         <v>7</v>
       </c>
       <c r="E37" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F37" s="1">
+        <v>7</v>
+      </c>
+      <c r="G37" s="1">
+        <v>14</v>
+      </c>
+      <c r="H37" s="1">
         <v>8</v>
       </c>
-      <c r="M37" s="16">
+      <c r="M37" s="1">
+        <v>3</v>
+      </c>
+      <c r="N37" s="16">
         <f t="shared" si="8"/>
         <v>4.3999999999999986</v>
       </c>
-      <c r="N37" s="7">
-        <f>ROUND(income!$B$5 * $M37, 0)</f>
-        <v>246</v>
-      </c>
       <c r="O37" s="7">
-        <f>ROUND(income!$C$5 * $M37, 0)</f>
-        <v>106</v>
+        <f>ROUND(constants!B$5 * $M37 * $N37,0)</f>
+        <v>739</v>
       </c>
       <c r="P37" s="7">
-        <f>ROUND(income!$D$5 * $M37, 0)</f>
+        <f>ROUND(constants!C$5 * $M37 * $N37,0)</f>
+        <v>317</v>
+      </c>
+      <c r="Q37" s="7">
+        <f>ROUND(constants!D$5 * 1 * $N37,0)</f>
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="9">
         <f t="shared" si="7"/>
         <v>3</v>
@@ -8821,41 +9015,44 @@
         <v>10</v>
       </c>
       <c r="C38" s="1">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D38" s="1">
         <v>7</v>
       </c>
       <c r="E38" s="1">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F38" s="1">
         <v>8</v>
       </c>
       <c r="G38" s="1">
+        <v>17</v>
+      </c>
+      <c r="H38" s="1">
         <v>7</v>
       </c>
-      <c r="H38" s="1">
-        <v>8</v>
-      </c>
-      <c r="M38" s="16">
+      <c r="M38" s="1">
+        <v>3</v>
+      </c>
+      <c r="N38" s="16">
         <f t="shared" si="8"/>
         <v>4.4499999999999984</v>
       </c>
-      <c r="N38" s="7">
-        <f>ROUND(income!$B$5 * $M38, 0)</f>
-        <v>249</v>
-      </c>
       <c r="O38" s="7">
-        <f>ROUND(income!$C$5 * $M38, 0)</f>
-        <v>107</v>
+        <f>ROUND(constants!B$5 * $M38 * $N38,0)</f>
+        <v>748</v>
       </c>
       <c r="P38" s="7">
-        <f>ROUND(income!$D$5 * $M38, 0)</f>
+        <f>ROUND(constants!C$5 * $M38 * $N38,0)</f>
+        <v>320</v>
+      </c>
+      <c r="Q38" s="7">
+        <f>ROUND(constants!D$5 * 1 * $N38,0)</f>
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="9">
         <f t="shared" si="7"/>
         <v>3</v>
@@ -8865,35 +9062,38 @@
         <v>11</v>
       </c>
       <c r="C39" s="1">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D39" s="1">
+        <v>8</v>
+      </c>
+      <c r="E39" s="1">
+        <v>18</v>
+      </c>
+      <c r="F39" s="1">
         <v>7</v>
       </c>
-      <c r="E39" s="1">
-        <v>12</v>
-      </c>
-      <c r="F39" s="1">
-        <v>8</v>
-      </c>
-      <c r="M39" s="16">
+      <c r="M39" s="1">
+        <v>2</v>
+      </c>
+      <c r="N39" s="16">
         <f t="shared" si="8"/>
         <v>4.4999999999999982</v>
       </c>
-      <c r="N39" s="7">
-        <f>ROUND(income!$B$5 * $M39, 0)</f>
-        <v>252</v>
-      </c>
       <c r="O39" s="7">
-        <f>ROUND(income!$C$5 * $M39, 0)</f>
-        <v>108</v>
+        <f>ROUND(constants!B$5 * $M39 * $N39,0)</f>
+        <v>504</v>
       </c>
       <c r="P39" s="7">
-        <f>ROUND(income!$D$5 * $M39, 0)</f>
+        <f>ROUND(constants!C$5 * $M39 * $N39,0)</f>
+        <v>216</v>
+      </c>
+      <c r="Q39" s="7">
+        <f>ROUND(constants!D$5 * 1 * $N39,0)</f>
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="9">
         <f t="shared" si="7"/>
         <v>3</v>
@@ -8903,35 +9103,32 @@
         <v>12</v>
       </c>
       <c r="C40" s="1">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D40" s="1">
         <v>7</v>
       </c>
-      <c r="E40" s="1">
-        <v>12</v>
-      </c>
-      <c r="F40" s="1">
-        <v>8</v>
-      </c>
-      <c r="M40" s="16">
+      <c r="M40" s="1">
+        <v>1</v>
+      </c>
+      <c r="N40" s="16">
         <f t="shared" si="8"/>
         <v>4.549999999999998</v>
       </c>
-      <c r="N40" s="7">
-        <f>ROUND(income!$B$5 * $M40, 0)</f>
+      <c r="O40" s="7">
+        <f>ROUND(constants!B$5 * $M40 * $N40,0)</f>
         <v>255</v>
       </c>
-      <c r="O40" s="7">
-        <f>ROUND(income!$C$5 * $M40, 0)</f>
+      <c r="P40" s="7">
+        <f>ROUND(constants!C$5 * $M40 * $N40,0)</f>
         <v>109</v>
       </c>
-      <c r="P40" s="7">
-        <f>ROUND(income!$D$5 * $M40, 0)</f>
+      <c r="Q40" s="7">
+        <f>ROUND(constants!D$5 * 1 * $N40,0)</f>
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="9">
         <f t="shared" si="7"/>
         <v>3</v>
@@ -8941,35 +9138,38 @@
         <v>13</v>
       </c>
       <c r="C41" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D41" s="1">
         <v>7</v>
       </c>
       <c r="E41" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F41" s="1">
-        <v>7</v>
-      </c>
-      <c r="M41" s="16">
+        <v>8</v>
+      </c>
+      <c r="M41" s="1">
+        <v>2</v>
+      </c>
+      <c r="N41" s="16">
         <f t="shared" si="8"/>
         <v>4.5999999999999979</v>
       </c>
-      <c r="N41" s="7">
-        <f>ROUND(income!$B$5 * $M41, 0)</f>
-        <v>258</v>
-      </c>
       <c r="O41" s="7">
-        <f>ROUND(income!$C$5 * $M41, 0)</f>
-        <v>110</v>
+        <f>ROUND(constants!B$5 * $M41 * $N41,0)</f>
+        <v>515</v>
       </c>
       <c r="P41" s="7">
-        <f>ROUND(income!$D$5 * $M41, 0)</f>
+        <f>ROUND(constants!C$5 * $M41 * $N41,0)</f>
+        <v>221</v>
+      </c>
+      <c r="Q41" s="7">
+        <f>ROUND(constants!D$5 * 1 * $N41,0)</f>
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="9">
         <f t="shared" si="7"/>
         <v>3</v>
@@ -8979,41 +9179,44 @@
         <v>14</v>
       </c>
       <c r="C42" s="1">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D42" s="1">
         <v>7</v>
       </c>
       <c r="E42" s="1">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F42" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G42" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H42" s="1">
         <v>8</v>
       </c>
-      <c r="M42" s="16">
+      <c r="M42" s="1">
+        <v>3</v>
+      </c>
+      <c r="N42" s="16">
         <f t="shared" si="8"/>
         <v>4.6499999999999977</v>
       </c>
-      <c r="N42" s="7">
-        <f>ROUND(income!$B$5 * $M42, 0)</f>
-        <v>260</v>
-      </c>
       <c r="O42" s="7">
-        <f>ROUND(income!$C$5 * $M42, 0)</f>
-        <v>112</v>
+        <f>ROUND(constants!B$5 * $M42 * $N42,0)</f>
+        <v>781</v>
       </c>
       <c r="P42" s="7">
-        <f>ROUND(income!$D$5 * $M42, 0)</f>
+        <f>ROUND(constants!C$5 * $M42 * $N42,0)</f>
+        <v>335</v>
+      </c>
+      <c r="Q42" s="7">
+        <f>ROUND(constants!D$5 * 1 * $N42,0)</f>
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="9">
         <f t="shared" si="7"/>
         <v>3</v>
@@ -9023,35 +9226,44 @@
         <v>15</v>
       </c>
       <c r="C43" s="1">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D43" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E43" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F43" s="1">
         <v>8</v>
       </c>
-      <c r="M43" s="16">
+      <c r="G43" s="1">
+        <v>18</v>
+      </c>
+      <c r="H43" s="1">
+        <v>7</v>
+      </c>
+      <c r="M43" s="1">
+        <v>3</v>
+      </c>
+      <c r="N43" s="16">
         <f t="shared" si="8"/>
         <v>4.6999999999999975</v>
       </c>
-      <c r="N43" s="7">
-        <f>ROUND(income!$B$5 * $M43, 0)</f>
-        <v>263</v>
-      </c>
       <c r="O43" s="7">
-        <f>ROUND(income!$C$5 * $M43, 0)</f>
-        <v>113</v>
+        <f>ROUND(constants!B$5 * $M43 * $N43,0)</f>
+        <v>790</v>
       </c>
       <c r="P43" s="7">
-        <f>ROUND(income!$D$5 * $M43, 0)</f>
+        <f>ROUND(constants!C$5 * $M43 * $N43,0)</f>
+        <v>338</v>
+      </c>
+      <c r="Q43" s="7">
+        <f>ROUND(constants!D$5 * 1 * $N43,0)</f>
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="9">
         <f t="shared" si="7"/>
         <v>3</v>
@@ -9061,41 +9273,38 @@
         <v>16</v>
       </c>
       <c r="C44" s="1">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D44" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E44" s="1">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F44" s="1">
         <v>7</v>
       </c>
-      <c r="G44" s="1">
-        <v>10</v>
-      </c>
-      <c r="H44" s="1">
-        <v>8</v>
-      </c>
-      <c r="M44" s="16">
+      <c r="M44" s="1">
+        <v>2</v>
+      </c>
+      <c r="N44" s="16">
         <f t="shared" si="8"/>
         <v>4.7499999999999973</v>
       </c>
-      <c r="N44" s="7">
-        <f>ROUND(income!$B$5 * $M44, 0)</f>
-        <v>266</v>
-      </c>
       <c r="O44" s="7">
-        <f>ROUND(income!$C$5 * $M44, 0)</f>
-        <v>114</v>
+        <f>ROUND(constants!B$5 * $M44 * $N44,0)</f>
+        <v>532</v>
       </c>
       <c r="P44" s="7">
-        <f>ROUND(income!$D$5 * $M44, 0)</f>
+        <f>ROUND(constants!C$5 * $M44 * $N44,0)</f>
+        <v>228</v>
+      </c>
+      <c r="Q44" s="7">
+        <f>ROUND(constants!D$5 * 1 * $N44,0)</f>
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="9">
         <f t="shared" si="7"/>
         <v>3</v>
@@ -9105,43 +9314,40 @@
         <v>17</v>
       </c>
       <c r="C45" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D45" s="1">
         <v>7</v>
       </c>
       <c r="E45" s="1">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F45" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G45" s="1">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="H45" s="1">
-        <v>7</v>
-      </c>
-      <c r="I45" s="1">
         <v>8</v>
       </c>
-      <c r="J45" s="1">
-        <v>8</v>
-      </c>
-      <c r="M45" s="16">
+      <c r="M45" s="1">
+        <v>3</v>
+      </c>
+      <c r="N45" s="16">
         <f t="shared" si="8"/>
         <v>4.7999999999999972</v>
       </c>
-      <c r="N45" s="7">
-        <f>ROUND(income!$B$5 * $M45, 0)</f>
-        <v>269</v>
-      </c>
       <c r="O45" s="7">
-        <f>ROUND(income!$C$5 * $M45, 0)</f>
-        <v>115</v>
+        <f>ROUND(constants!B$5 * $M45 * $N45,0)</f>
+        <v>806</v>
       </c>
       <c r="P45" s="7">
-        <f>ROUND(income!$D$5 * $M45, 0)</f>
+        <f>ROUND(constants!C$5 * $M45 * $N45,0)</f>
+        <v>346</v>
+      </c>
+      <c r="Q45" s="7">
+        <f>ROUND(constants!D$5 * 1 * $N45,0)</f>
         <v>38</v>
       </c>
     </row>

--- a/backend/emporium/data/StageData.xlsx
+++ b/backend/emporium/data/StageData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="828" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="828" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="constants" sheetId="8" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="TrialDay" sheetId="11" r:id="rId8"/>
     <sheet name="ExpeditionLevel" sheetId="13" r:id="rId9"/>
     <sheet name="ExpeditionType" sheetId="12" r:id="rId10"/>
+    <sheet name="RequiredPower" sheetId="15" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="116">
   <si>
     <t>Name</t>
   </si>
@@ -370,6 +371,12 @@
   </si>
   <si>
     <t>Rank</t>
+  </si>
+  <si>
+    <t>RequiredPower</t>
+  </si>
+  <si>
+    <t>Obstacles</t>
   </si>
 </sst>
 </file>
@@ -1218,6 +1225,756 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="3" width="10.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="1.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <f>C3+1</f>
+        <v>13</v>
+      </c>
+      <c r="D4" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" ref="C5:C10" si="0">C4+1</f>
+        <v>14</v>
+      </c>
+      <c r="D5" s="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D6" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D7" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D8" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D9" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D10" s="1">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1">
+        <f>C12+1</f>
+        <v>13</v>
+      </c>
+      <c r="D13" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" ref="C14:C19" si="1">C13+1</f>
+        <v>14</v>
+      </c>
+      <c r="D14" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="D15" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="D16" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="D17" s="1">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D18" s="1">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="D19" s="1">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>2</v>
+      </c>
+      <c r="B21" s="1">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1">
+        <v>12</v>
+      </c>
+      <c r="D21" s="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>2</v>
+      </c>
+      <c r="B22" s="1">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1">
+        <f>C21+1</f>
+        <v>13</v>
+      </c>
+      <c r="D22" s="1">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>2</v>
+      </c>
+      <c r="B23" s="1">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" ref="C23:C28" si="2">C22+1</f>
+        <v>14</v>
+      </c>
+      <c r="D23" s="1">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>2</v>
+      </c>
+      <c r="B24" s="1">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="D24" s="1">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>2</v>
+      </c>
+      <c r="B25" s="1">
+        <v>4</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="D25" s="1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>2</v>
+      </c>
+      <c r="B26" s="1">
+        <v>4</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="D26" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>2</v>
+      </c>
+      <c r="B27" s="1">
+        <v>4</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="D27" s="1">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>2</v>
+      </c>
+      <c r="B28" s="1">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="D28" s="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>2</v>
+      </c>
+      <c r="B30" s="1">
+        <v>5</v>
+      </c>
+      <c r="C30" s="1">
+        <v>12</v>
+      </c>
+      <c r="D30" s="1">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>2</v>
+      </c>
+      <c r="B31" s="1">
+        <v>5</v>
+      </c>
+      <c r="C31" s="1">
+        <f>C30+1</f>
+        <v>13</v>
+      </c>
+      <c r="D31" s="1">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>2</v>
+      </c>
+      <c r="B32" s="1">
+        <v>5</v>
+      </c>
+      <c r="C32" s="1">
+        <f t="shared" ref="C32:C37" si="3">C31+1</f>
+        <v>14</v>
+      </c>
+      <c r="D32" s="1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>2</v>
+      </c>
+      <c r="B33" s="1">
+        <v>5</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="D33" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>2</v>
+      </c>
+      <c r="B34" s="1">
+        <v>5</v>
+      </c>
+      <c r="C34" s="1">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="D34" s="1">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>2</v>
+      </c>
+      <c r="B35" s="1">
+        <v>5</v>
+      </c>
+      <c r="C35" s="1">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="D35" s="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>2</v>
+      </c>
+      <c r="B36" s="1">
+        <v>5</v>
+      </c>
+      <c r="C36" s="1">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="D36" s="1">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>2</v>
+      </c>
+      <c r="B37" s="1">
+        <v>5</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="D37" s="1">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>3</v>
+      </c>
+      <c r="B39" s="1">
+        <v>7</v>
+      </c>
+      <c r="C39" s="1">
+        <v>12</v>
+      </c>
+      <c r="D39" s="1">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>3</v>
+      </c>
+      <c r="B40" s="1">
+        <v>7</v>
+      </c>
+      <c r="C40" s="1">
+        <f>C39+1</f>
+        <v>13</v>
+      </c>
+      <c r="D40" s="1">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>3</v>
+      </c>
+      <c r="B41" s="1">
+        <v>7</v>
+      </c>
+      <c r="C41" s="1">
+        <f t="shared" ref="C41:C46" si="4">C40+1</f>
+        <v>14</v>
+      </c>
+      <c r="D41" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>3</v>
+      </c>
+      <c r="B42" s="1">
+        <v>7</v>
+      </c>
+      <c r="C42" s="1">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="D42" s="1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>3</v>
+      </c>
+      <c r="B43" s="1">
+        <v>7</v>
+      </c>
+      <c r="C43" s="1">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="D43" s="1">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>3</v>
+      </c>
+      <c r="B44" s="1">
+        <v>7</v>
+      </c>
+      <c r="C44" s="1">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="D44" s="1">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>3</v>
+      </c>
+      <c r="B45" s="1">
+        <v>7</v>
+      </c>
+      <c r="C45" s="1">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="D45" s="1">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>3</v>
+      </c>
+      <c r="B46" s="1">
+        <v>7</v>
+      </c>
+      <c r="C46" s="1">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="D46" s="1">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>3</v>
+      </c>
+      <c r="B48" s="1">
+        <v>8</v>
+      </c>
+      <c r="C48" s="1">
+        <v>12</v>
+      </c>
+      <c r="D48" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>3</v>
+      </c>
+      <c r="B49" s="1">
+        <v>8</v>
+      </c>
+      <c r="C49" s="1">
+        <f>C48+1</f>
+        <v>13</v>
+      </c>
+      <c r="D49" s="1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>3</v>
+      </c>
+      <c r="B50" s="1">
+        <v>8</v>
+      </c>
+      <c r="C50" s="1">
+        <f t="shared" ref="C50:C55" si="5">C49+1</f>
+        <v>14</v>
+      </c>
+      <c r="D50" s="1">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>3</v>
+      </c>
+      <c r="B51" s="1">
+        <v>8</v>
+      </c>
+      <c r="C51" s="1">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="D51" s="1">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>3</v>
+      </c>
+      <c r="B52" s="1">
+        <v>8</v>
+      </c>
+      <c r="C52" s="1">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="D52" s="1">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>3</v>
+      </c>
+      <c r="B53" s="1">
+        <v>8</v>
+      </c>
+      <c r="C53" s="1">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="D53" s="1">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>3</v>
+      </c>
+      <c r="B54" s="1">
+        <v>8</v>
+      </c>
+      <c r="C54" s="1">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="D54" s="1">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>3</v>
+      </c>
+      <c r="B55" s="1">
+        <v>8</v>
+      </c>
+      <c r="C55" s="1">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="D55" s="1">
+        <v>580</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L79"/>
@@ -4573,7 +5330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="R1" sqref="R1"/>
     </sheetView>
@@ -6933,7 +7690,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="R1" sqref="R1"/>
     </sheetView>
@@ -7076,7 +7833,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F5" s="1">
         <v>2</v>

--- a/backend/emporium/data/StageData.xlsx
+++ b/backend/emporium/data/StageData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="828" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="828" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="constants" sheetId="8" r:id="rId1"/>
@@ -1979,7 +1979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
     </sheetView>
@@ -7690,7 +7690,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="R1" sqref="R1"/>
     </sheetView>

--- a/backend/emporium/data/StageData.xlsx
+++ b/backend/emporium/data/StageData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="828" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="828" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="constants" sheetId="8" r:id="rId1"/>
@@ -148,24 +148,6 @@
     <t>Level</t>
   </si>
   <si>
-    <t>ObstaclesR1</t>
-  </si>
-  <si>
-    <t>LevelR1</t>
-  </si>
-  <si>
-    <t>ObstaclesR2</t>
-  </si>
-  <si>
-    <t>LevelR2</t>
-  </si>
-  <si>
-    <t>ObstaclesR3</t>
-  </si>
-  <si>
-    <t>LevelR3</t>
-  </si>
-  <si>
     <t>StageNo</t>
   </si>
   <si>
@@ -196,18 +178,6 @@
     <t>factor</t>
   </si>
   <si>
-    <t>ObstaclesR4</t>
-  </si>
-  <si>
-    <t>LevelR4</t>
-  </si>
-  <si>
-    <t>ObstaclesR5</t>
-  </si>
-  <si>
-    <t>LevelR5</t>
-  </si>
-  <si>
     <t>sunday</t>
   </si>
   <si>
@@ -377,6 +347,36 @@
   </si>
   <si>
     <t>Obstacles</t>
+  </si>
+  <si>
+    <t>LevelLnd1</t>
+  </si>
+  <si>
+    <t>ObstaclesL1</t>
+  </si>
+  <si>
+    <t>ObstaclesL2</t>
+  </si>
+  <si>
+    <t>ObstaclesL3</t>
+  </si>
+  <si>
+    <t>ObstaclesL4</t>
+  </si>
+  <si>
+    <t>ObstaclesL5</t>
+  </si>
+  <si>
+    <t>LevelLnd2</t>
+  </si>
+  <si>
+    <t>LevelLnd3</t>
+  </si>
+  <si>
+    <t>LevelLnd4</t>
+  </si>
+  <si>
+    <t>LevelLnd5</t>
   </si>
 </sst>
 </file>
@@ -765,16 +765,16 @@
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -797,7 +797,7 @@
         <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="G3" s="1">
         <v>10</v>
@@ -817,7 +817,7 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="G4" s="1">
         <v>3</v>
@@ -851,7 +851,7 @@
         <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G6" s="1">
         <v>12</v>
@@ -871,7 +871,7 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="G7" s="1">
         <v>4</v>
@@ -956,267 +956,267 @@
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F3" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="G3" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H3" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F4" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="G4" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="H4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F6" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H6" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F7" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="H7" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="G9" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H9" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" t="s">
         <v>88</v>
       </c>
-      <c r="B10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" t="s">
-        <v>83</v>
-      </c>
-      <c r="F10" t="s">
-        <v>97</v>
-      </c>
-      <c r="G10" t="s">
-        <v>98</v>
-      </c>
       <c r="H10" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F12" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="G12" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H12" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="G13" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="H13" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E15" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F15" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="G15" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H15" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F16" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1249,10 +1249,10 @@
         <v>38</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1979,7 +1979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
     </sheetView>
@@ -2104,7 +2104,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>23</v>
@@ -2308,7 +2308,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>11</v>
@@ -2376,7 +2376,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>11</v>
@@ -2512,7 +2512,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>23</v>
@@ -2716,7 +2716,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>11</v>
@@ -2784,7 +2784,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>11</v>
@@ -2920,7 +2920,7 @@
         <v>4</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>23</v>
@@ -3124,7 +3124,7 @@
         <v>4</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>11</v>
@@ -3192,7 +3192,7 @@
         <v>4</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>11</v>
@@ -3328,7 +3328,7 @@
         <v>5</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>23</v>
@@ -3532,7 +3532,7 @@
         <v>5</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>11</v>
@@ -3600,7 +3600,7 @@
         <v>5</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>11</v>
@@ -3736,7 +3736,7 @@
         <v>7</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>23</v>
@@ -3940,7 +3940,7 @@
         <v>7</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>11</v>
@@ -4008,7 +4008,7 @@
         <v>7</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>11</v>
@@ -4144,7 +4144,7 @@
         <v>8</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>23</v>
@@ -4348,7 +4348,7 @@
         <v>8</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>11</v>
@@ -4416,7 +4416,7 @@
         <v>8</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>11</v>
@@ -4540,7 +4540,7 @@
         <v>33</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -4554,7 +4554,7 @@
         <v>30</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>29</v>
@@ -4597,7 +4597,7 @@
         <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>29</v>
@@ -4640,7 +4640,7 @@
         <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>29</v>
@@ -4686,7 +4686,7 @@
         <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>29</v>
@@ -4729,7 +4729,7 @@
         <v>32</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>29</v>
@@ -4772,7 +4772,7 @@
         <v>31</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>29</v>
@@ -4815,7 +4815,7 @@
         <v>30</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>29</v>
@@ -4858,7 +4858,7 @@
         <v>32</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>29</v>
@@ -4901,7 +4901,7 @@
         <v>31</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>29</v>
@@ -4944,7 +4944,7 @@
         <v>30</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>29</v>
@@ -4987,7 +4987,7 @@
         <v>32</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>29</v>
@@ -5030,7 +5030,7 @@
         <v>31</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>29</v>
@@ -5073,7 +5073,7 @@
         <v>30</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>29</v>
@@ -5116,7 +5116,7 @@
         <v>32</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>29</v>
@@ -5159,7 +5159,7 @@
         <v>31</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>29</v>
@@ -5202,7 +5202,7 @@
         <v>30</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>29</v>
@@ -5245,7 +5245,7 @@
         <v>32</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>29</v>
@@ -5288,7 +5288,7 @@
         <v>31</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>29</v>
@@ -5330,7 +5330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="R1" sqref="R1"/>
     </sheetView>
@@ -5345,55 +5345,55 @@
   <sheetData>
     <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="N1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="P1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -6876,55 +6876,55 @@
   <sheetData>
     <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="N1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="P1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -7705,55 +7705,55 @@
   <sheetData>
     <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="N1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="P1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -8372,52 +8372,52 @@
         <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="P1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -10130,66 +10130,66 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -10216,13 +10216,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -10233,7 +10233,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -10244,7 +10244,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -10255,7 +10255,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -10266,7 +10266,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -10277,7 +10277,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -10288,7 +10288,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/backend/emporium/data/StageData.xlsx
+++ b/backend/emporium/data/StageData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="828" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="828" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="constants" sheetId="8" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="115">
   <si>
     <t>Name</t>
   </si>
@@ -308,9 +308,6 @@
   </si>
   <si>
     <t>5 hr</t>
-  </si>
-  <si>
-    <t>Throne</t>
   </si>
   <si>
     <t>cmb</t>
@@ -797,7 +794,7 @@
         <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G3" s="1">
         <v>10</v>
@@ -817,7 +814,7 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G4" s="1">
         <v>3</v>
@@ -851,7 +848,7 @@
         <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G6" s="1">
         <v>12</v>
@@ -871,7 +868,7 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G7" s="1">
         <v>4</v>
@@ -1249,10 +1246,10 @@
         <v>38</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -4486,7 +4483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
     </sheetView>
@@ -5330,7 +5327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="R1" sqref="R1"/>
     </sheetView>
@@ -5345,43 +5342,43 @@
   <sheetData>
     <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="M1" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>48</v>
@@ -6876,43 +6873,43 @@
   <sheetData>
     <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="M1" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>48</v>
@@ -7705,43 +7702,43 @@
   <sheetData>
     <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="M1" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>48</v>
@@ -7830,19 +7827,19 @@
         <v>15</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E5" s="1">
         <v>14</v>
       </c>
       <c r="F5" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G5" s="1">
         <v>17</v>
       </c>
       <c r="H5" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M5" s="1">
         <v>3</v>
@@ -7893,19 +7890,19 @@
         <v>14</v>
       </c>
       <c r="D7" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E7" s="1">
         <v>17</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G7" s="1">
         <v>18</v>
       </c>
       <c r="H7" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -8375,37 +8372,37 @@
         <v>39</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="M1" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>48</v>
@@ -10165,7 +10162,7 @@
         <v>55</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -10216,7 +10213,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>38</v>
@@ -10255,7 +10252,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -10266,7 +10263,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -10277,7 +10274,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -10288,7 +10285,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/backend/emporium/data/StageData.xlsx
+++ b/backend/emporium/data/StageData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="828" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="828" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="constants" sheetId="8" r:id="rId1"/>
@@ -420,7 +420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -464,6 +464,13 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1226,7 +1233,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
@@ -1262,8 +1269,8 @@
       <c r="C3" s="1">
         <v>12</v>
       </c>
-      <c r="D3" s="1">
-        <v>130</v>
+      <c r="D3" s="17">
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1277,8 +1284,8 @@
         <f>C3+1</f>
         <v>13</v>
       </c>
-      <c r="D4" s="1">
-        <v>140</v>
+      <c r="D4" s="17">
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1292,8 +1299,8 @@
         <f t="shared" ref="C5:C10" si="0">C4+1</f>
         <v>14</v>
       </c>
-      <c r="D5" s="1">
-        <v>160</v>
+      <c r="D5" s="17">
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1307,8 +1314,8 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="D6" s="1">
-        <v>180</v>
+      <c r="D6" s="17">
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1322,8 +1329,8 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D7" s="1">
-        <v>200</v>
+      <c r="D7" s="17">
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1337,8 +1344,8 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="D8" s="1">
-        <v>220</v>
+      <c r="D8" s="17">
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1352,8 +1359,8 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="D9" s="1">
-        <v>250</v>
+      <c r="D9" s="17">
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1367,8 +1374,8 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="D10" s="1">
-        <v>280</v>
+      <c r="D10" s="17">
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1381,8 +1388,8 @@
       <c r="C12" s="1">
         <v>12</v>
       </c>
-      <c r="D12" s="1">
-        <v>160</v>
+      <c r="D12" s="17">
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1396,8 +1403,8 @@
         <f>C12+1</f>
         <v>13</v>
       </c>
-      <c r="D13" s="1">
-        <v>180</v>
+      <c r="D13" s="17">
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1411,8 +1418,8 @@
         <f t="shared" ref="C14:C19" si="1">C13+1</f>
         <v>14</v>
       </c>
-      <c r="D14" s="1">
-        <v>200</v>
+      <c r="D14" s="17">
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1426,8 +1433,8 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="D15" s="1">
-        <v>220</v>
+      <c r="D15" s="17">
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1441,8 +1448,8 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="D16" s="1">
-        <v>250</v>
+      <c r="D16" s="17">
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1456,8 +1463,8 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="D17" s="1">
-        <v>280</v>
+      <c r="D17" s="17">
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1471,8 +1478,8 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="D18" s="1">
-        <v>310</v>
+      <c r="D18" s="17">
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1486,9 +1493,15 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="D19" s="1">
-        <v>340</v>
-      </c>
+      <c r="D19" s="17">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
@@ -1500,8 +1513,8 @@
       <c r="C21" s="1">
         <v>12</v>
       </c>
-      <c r="D21" s="1">
-        <v>260</v>
+      <c r="D21" s="17">
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1515,8 +1528,8 @@
         <f>C21+1</f>
         <v>13</v>
       </c>
-      <c r="D22" s="1">
-        <v>280</v>
+      <c r="D22" s="17">
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1530,8 +1543,8 @@
         <f t="shared" ref="C23:C28" si="2">C22+1</f>
         <v>14</v>
       </c>
-      <c r="D23" s="1">
-        <v>290</v>
+      <c r="D23" s="17">
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1545,8 +1558,8 @@
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="D24" s="1">
-        <v>310</v>
+      <c r="D24" s="17">
+        <v>240</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1560,8 +1573,8 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="D25" s="1">
-        <v>330</v>
+      <c r="D25" s="17">
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1575,8 +1588,8 @@
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="D26" s="1">
-        <v>360</v>
+      <c r="D26" s="17">
+        <v>270</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1590,8 +1603,8 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="D27" s="1">
-        <v>380</v>
+      <c r="D27" s="17">
+        <v>290</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1605,8 +1618,8 @@
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="D28" s="1">
-        <v>410</v>
+      <c r="D28" s="17">
+        <v>310</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1619,8 +1632,8 @@
       <c r="C30" s="1">
         <v>12</v>
       </c>
-      <c r="D30" s="1">
-        <v>290</v>
+      <c r="D30" s="17">
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1634,8 +1647,8 @@
         <f>C30+1</f>
         <v>13</v>
       </c>
-      <c r="D31" s="1">
-        <v>310</v>
+      <c r="D31" s="17">
+        <v>240</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1649,8 +1662,8 @@
         <f t="shared" ref="C32:C37" si="3">C31+1</f>
         <v>14</v>
       </c>
-      <c r="D32" s="1">
-        <v>330</v>
+      <c r="D32" s="17">
+        <v>250</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1664,8 +1677,8 @@
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="D33" s="1">
-        <v>360</v>
+      <c r="D33" s="17">
+        <v>270</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1679,8 +1692,8 @@
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="D34" s="1">
-        <v>380</v>
+      <c r="D34" s="17">
+        <v>290</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1694,8 +1707,8 @@
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="D35" s="1">
-        <v>410</v>
+      <c r="D35" s="17">
+        <v>310</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1709,8 +1722,8 @@
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="D36" s="1">
-        <v>440</v>
+      <c r="D36" s="17">
+        <v>320</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1724,9 +1737,15 @@
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="D37" s="1">
-        <v>480</v>
-      </c>
+      <c r="D37" s="17">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
@@ -1738,8 +1757,8 @@
       <c r="C39" s="1">
         <v>12</v>
       </c>
-      <c r="D39" s="1">
-        <v>370</v>
+      <c r="D39" s="17">
+        <v>290</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1753,8 +1772,8 @@
         <f>C39+1</f>
         <v>13</v>
       </c>
-      <c r="D40" s="1">
-        <v>380</v>
+      <c r="D40" s="17">
+        <v>310</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1768,8 +1787,8 @@
         <f t="shared" ref="C41:C46" si="4">C40+1</f>
         <v>14</v>
       </c>
-      <c r="D41" s="1">
-        <v>400</v>
+      <c r="D41" s="17">
+        <v>320</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1783,8 +1802,8 @@
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="D42" s="1">
-        <v>420</v>
+      <c r="D42" s="17">
+        <v>340</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1798,8 +1817,8 @@
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="D43" s="1">
-        <v>440</v>
+      <c r="D43" s="17">
+        <v>360</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1813,8 +1832,8 @@
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="D44" s="1">
-        <v>460</v>
+      <c r="D44" s="17">
+        <v>380</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1828,8 +1847,8 @@
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="D45" s="1">
-        <v>490</v>
+      <c r="D45" s="17">
+        <v>390</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1843,8 +1862,8 @@
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="D46" s="1">
-        <v>520</v>
+      <c r="D46" s="17">
+        <v>410</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1857,8 +1876,8 @@
       <c r="C48" s="1">
         <v>12</v>
       </c>
-      <c r="D48" s="1">
-        <v>400</v>
+      <c r="D48" s="17">
+        <v>320</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1872,8 +1891,8 @@
         <f>C48+1</f>
         <v>13</v>
       </c>
-      <c r="D49" s="1">
-        <v>420</v>
+      <c r="D49" s="17">
+        <v>340</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1887,8 +1906,8 @@
         <f t="shared" ref="C50:C55" si="5">C49+1</f>
         <v>14</v>
       </c>
-      <c r="D50" s="1">
-        <v>440</v>
+      <c r="D50" s="17">
+        <v>360</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1902,8 +1921,8 @@
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="D51" s="1">
-        <v>460</v>
+      <c r="D51" s="17">
+        <v>380</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1917,8 +1936,8 @@
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="D52" s="1">
-        <v>490</v>
+      <c r="D52" s="17">
+        <v>390</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1932,8 +1951,8 @@
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="D53" s="1">
-        <v>520</v>
+      <c r="D53" s="17">
+        <v>410</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1947,8 +1966,8 @@
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="D54" s="1">
-        <v>550</v>
+      <c r="D54" s="17">
+        <v>430</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1962,8 +1981,8 @@
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="D55" s="1">
-        <v>580</v>
+      <c r="D55" s="17">
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -4483,7 +4502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
     </sheetView>

--- a/backend/emporium/data/StageData.xlsx
+++ b/backend/emporium/data/StageData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="828" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="828" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="constants" sheetId="8" r:id="rId1"/>
@@ -400,12 +400,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -420,7 +426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -471,6 +477,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -755,7 +768,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -878,7 +891,7 @@
         <v>98</v>
       </c>
       <c r="G7" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1233,7 +1246,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
@@ -2891,7 +2904,7 @@
       </c>
       <c r="J29" s="1">
         <f>constants!$G$6 + (Trap!$A29 - 1) * constants!$G$7</f>
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -2925,7 +2938,7 @@
       </c>
       <c r="J30" s="1">
         <f>constants!$G$6 + (Trap!$A30 - 1) * constants!$G$7</f>
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -2959,7 +2972,7 @@
       </c>
       <c r="J31" s="1">
         <f>constants!$G$6 + (Trap!$A31 - 1) * constants!$G$7</f>
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -2993,7 +3006,7 @@
       </c>
       <c r="J32" s="1">
         <f>constants!$G$6 + (Trap!$A32 - 1) * constants!$G$7</f>
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -3027,7 +3040,7 @@
       </c>
       <c r="J33" s="1">
         <f>constants!$G$6 + (Trap!$A33 - 1) * constants!$G$7</f>
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -3061,7 +3074,7 @@
       </c>
       <c r="J34" s="1">
         <f>constants!$G$6 + (Trap!$A34 - 1) * constants!$G$7</f>
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -3095,7 +3108,7 @@
       </c>
       <c r="J35" s="1">
         <f>constants!$G$6 + (Trap!$A35 - 1) * constants!$G$7</f>
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -3129,7 +3142,7 @@
       </c>
       <c r="J36" s="1">
         <f>constants!$G$6 + (Trap!$A36 - 1) * constants!$G$7</f>
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -3163,7 +3176,7 @@
       </c>
       <c r="J37" s="1">
         <f>constants!$G$6 + (Trap!$A37 - 1) * constants!$G$7</f>
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -3197,7 +3210,7 @@
       </c>
       <c r="J38" s="1">
         <f>constants!$G$6 + (Trap!$A38 - 1) * constants!$G$7</f>
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -3231,7 +3244,7 @@
       </c>
       <c r="J39" s="1">
         <f>constants!$G$6 + (Trap!$A39 - 1) * constants!$G$7</f>
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -3265,7 +3278,7 @@
       </c>
       <c r="J40" s="1">
         <f>constants!$G$6 + (Trap!$A40 - 1) * constants!$G$7</f>
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -3299,7 +3312,7 @@
       </c>
       <c r="J42" s="1">
         <f>constants!$G$6 + (Trap!$A42 - 1) * constants!$G$7 +1</f>
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -3333,7 +3346,7 @@
       </c>
       <c r="J43" s="1">
         <f>constants!$G$6 + (Trap!$A43 - 1) * constants!$G$7 +1</f>
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -3367,7 +3380,7 @@
       </c>
       <c r="J44" s="1">
         <f>constants!$G$6 + (Trap!$A44 - 1) * constants!$G$7 +1</f>
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -3401,7 +3414,7 @@
       </c>
       <c r="J45" s="1">
         <f>constants!$G$6 + (Trap!$A45 - 1) * constants!$G$7 +1</f>
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
@@ -3435,7 +3448,7 @@
       </c>
       <c r="J46" s="1">
         <f>constants!$G$6 + (Trap!$A46 - 1) * constants!$G$7 +1</f>
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -3469,7 +3482,7 @@
       </c>
       <c r="J47" s="1">
         <f>constants!$G$6 + (Trap!$A47 - 1) * constants!$G$7 +1</f>
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -3503,7 +3516,7 @@
       </c>
       <c r="J48" s="1">
         <f>constants!$G$6 + (Trap!$A48 - 1) * constants!$G$7 +1</f>
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -3537,7 +3550,7 @@
       </c>
       <c r="J49" s="1">
         <f>constants!$G$6 + (Trap!$A49 - 1) * constants!$G$7 +1</f>
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -3571,7 +3584,7 @@
       </c>
       <c r="J50" s="1">
         <f>constants!$G$6 + (Trap!$A50 - 1) * constants!$G$7 +1</f>
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -3605,7 +3618,7 @@
       </c>
       <c r="J51" s="1">
         <f>constants!$G$6 + (Trap!$A51 - 1) * constants!$G$7 +1</f>
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -3639,7 +3652,7 @@
       </c>
       <c r="J52" s="1">
         <f>constants!$G$6 + (Trap!$A52 - 1) * constants!$G$7 +1</f>
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -3673,7 +3686,7 @@
       </c>
       <c r="J53" s="1">
         <f>constants!$G$6 + (Trap!$A53 - 1) * constants!$G$7 +1</f>
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -3707,7 +3720,7 @@
       </c>
       <c r="J55" s="1">
         <f>constants!$G$6 + (Trap!$A55 - 1) * constants!$G$7</f>
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -3741,7 +3754,7 @@
       </c>
       <c r="J56" s="1">
         <f>constants!$G$6 + (Trap!$A56 - 1) * constants!$G$7</f>
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -3775,7 +3788,7 @@
       </c>
       <c r="J57" s="1">
         <f>constants!$G$6 + (Trap!$A57 - 1) * constants!$G$7</f>
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -3809,7 +3822,7 @@
       </c>
       <c r="J58" s="1">
         <f>constants!$G$6 + (Trap!$A58 - 1) * constants!$G$7</f>
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -3843,7 +3856,7 @@
       </c>
       <c r="J59" s="1">
         <f>constants!$G$6 + (Trap!$A59 - 1) * constants!$G$7</f>
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -3877,7 +3890,7 @@
       </c>
       <c r="J60" s="1">
         <f>constants!$G$6 + (Trap!$A60 - 1) * constants!$G$7</f>
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -3911,7 +3924,7 @@
       </c>
       <c r="J61" s="1">
         <f>constants!$G$6 + (Trap!$A61 - 1) * constants!$G$7</f>
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -3945,7 +3958,7 @@
       </c>
       <c r="J62" s="1">
         <f>constants!$G$6 + (Trap!$A62 - 1) * constants!$G$7</f>
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -3979,7 +3992,7 @@
       </c>
       <c r="J63" s="1">
         <f>constants!$G$6 + (Trap!$A63 - 1) * constants!$G$7</f>
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -4013,7 +4026,7 @@
       </c>
       <c r="J64" s="1">
         <f>constants!$G$6 + (Trap!$A64 - 1) * constants!$G$7</f>
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
@@ -4047,7 +4060,7 @@
       </c>
       <c r="J65" s="1">
         <f>constants!$G$6 + (Trap!$A65 - 1) * constants!$G$7</f>
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
@@ -4081,7 +4094,7 @@
       </c>
       <c r="J66" s="1">
         <f>constants!$G$6 + (Trap!$A66 - 1) * constants!$G$7</f>
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
@@ -4115,7 +4128,7 @@
       </c>
       <c r="J68" s="1">
         <f>constants!$G$6 + (Trap!$A68 - 1) * constants!$G$7 +1</f>
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
@@ -4149,7 +4162,7 @@
       </c>
       <c r="J69" s="1">
         <f>constants!$G$6 + (Trap!$A69 - 1) * constants!$G$7 +1</f>
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
@@ -4183,7 +4196,7 @@
       </c>
       <c r="J70" s="1">
         <f>constants!$G$6 + (Trap!$A70 - 1) * constants!$G$7 +1</f>
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
@@ -4217,7 +4230,7 @@
       </c>
       <c r="J71" s="1">
         <f>constants!$G$6 + (Trap!$A71 - 1) * constants!$G$7 +1</f>
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
@@ -4251,7 +4264,7 @@
       </c>
       <c r="J72" s="1">
         <f>constants!$G$6 + (Trap!$A72 - 1) * constants!$G$7 +1</f>
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
@@ -4285,7 +4298,7 @@
       </c>
       <c r="J73" s="1">
         <f>constants!$G$6 + (Trap!$A73 - 1) * constants!$G$7 +1</f>
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
@@ -4319,7 +4332,7 @@
       </c>
       <c r="J74" s="1">
         <f>constants!$G$6 + (Trap!$A74 - 1) * constants!$G$7 +1</f>
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
@@ -4353,7 +4366,7 @@
       </c>
       <c r="J75" s="1">
         <f>constants!$G$6 + (Trap!$A75 - 1) * constants!$G$7 +1</f>
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
@@ -4387,7 +4400,7 @@
       </c>
       <c r="J76" s="1">
         <f>constants!$G$6 + (Trap!$A76 - 1) * constants!$G$7 +1</f>
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
@@ -4421,7 +4434,7 @@
       </c>
       <c r="J77" s="1">
         <f>constants!$G$6 + (Trap!$A77 - 1) * constants!$G$7 +1</f>
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
@@ -4455,7 +4468,7 @@
       </c>
       <c r="J78" s="1">
         <f>constants!$G$6 + (Trap!$A78 - 1) * constants!$G$7 +1</f>
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
@@ -4489,7 +4502,7 @@
       </c>
       <c r="J79" s="1">
         <f>constants!$G$6 + (Trap!$A79 - 1) * constants!$G$7 +1</f>
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -4500,7 +4513,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4714,19 +4727,23 @@
         <v>18</v>
       </c>
       <c r="H7" s="1">
-        <f>ROUND(Trap!H16 * 1.6, 0)</f>
+        <f>H3+2</f>
         <v>18</v>
       </c>
       <c r="I7" s="1">
+        <f>I3+1</f>
         <v>3</v>
       </c>
       <c r="J7" s="1">
+        <f>J3</f>
         <v>8</v>
       </c>
       <c r="K7" s="1">
+        <f>K3</f>
         <v>13</v>
       </c>
       <c r="L7" s="1">
+        <f>L3</f>
         <v>11</v>
       </c>
       <c r="N7" s="1">
@@ -4757,19 +4774,23 @@
         <v>18</v>
       </c>
       <c r="H8" s="1">
-        <f>ROUND(Trap!H17 * 1.6, 0)</f>
+        <f t="shared" ref="H8:H9" si="1">H4+2</f>
         <v>18</v>
       </c>
       <c r="I8" s="1">
-        <v>3</v>
+        <f t="shared" ref="I8:I9" si="2">I4+1</f>
+        <v>4</v>
       </c>
       <c r="J8" s="1">
-        <v>11</v>
+        <f t="shared" ref="J8:L8" si="3">J4</f>
+        <v>10</v>
       </c>
       <c r="K8" s="1">
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="L8" s="1">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="N8" s="1">
@@ -4800,19 +4821,23 @@
         <v>18</v>
       </c>
       <c r="H9" s="1">
-        <f>ROUND(Trap!H18 * 1.6, 0)</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="I9" s="1">
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="J9" s="1">
+        <f t="shared" ref="J9:L9" si="4">J5</f>
         <v>6</v>
       </c>
       <c r="K9" s="1">
-        <v>16</v>
+        <f t="shared" si="4"/>
+        <v>15</v>
       </c>
       <c r="L9" s="1">
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="N9" s="1">
@@ -4820,6 +4845,21 @@
         <v>36</v>
       </c>
     </row>
+    <row r="10" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="N10" s="20"/>
+    </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>2</v>
@@ -4847,20 +4887,24 @@
         <v>21</v>
       </c>
       <c r="I11" s="1">
+        <f>I3+1</f>
         <v>3</v>
       </c>
       <c r="J11" s="1">
+        <f>J3+1</f>
         <v>9</v>
       </c>
       <c r="K11" s="1">
-        <v>13</v>
+        <f>K3+1</f>
+        <v>14</v>
       </c>
       <c r="L11" s="1">
+        <f>L3+1</f>
         <v>12</v>
       </c>
       <c r="N11" s="1">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -4890,20 +4934,24 @@
         <v>21</v>
       </c>
       <c r="I12" s="1">
+        <f t="shared" ref="I12:L12" si="5">I4+1</f>
         <v>4</v>
       </c>
       <c r="J12" s="1">
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="K12" s="1">
-        <v>12</v>
+        <f t="shared" si="5"/>
+        <v>13</v>
       </c>
       <c r="L12" s="1">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="N12" s="1">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -4933,20 +4981,24 @@
         <v>21</v>
       </c>
       <c r="I13" s="1">
+        <f t="shared" ref="I13:L13" si="6">I5+1</f>
         <v>3</v>
       </c>
       <c r="J13" s="1">
-        <v>6</v>
+        <f t="shared" si="6"/>
+        <v>7</v>
       </c>
       <c r="K13" s="1">
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="L13" s="1">
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="N13" s="1">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -4972,24 +5024,28 @@
         <v>18</v>
       </c>
       <c r="H15" s="1">
-        <f>ROUND(Trap!H42 * 1.6, 0)</f>
-        <v>22</v>
+        <f>H11+2</f>
+        <v>23</v>
       </c>
       <c r="I15" s="1">
+        <f>I11+1</f>
         <v>4</v>
       </c>
       <c r="J15" s="1">
+        <f>J11</f>
         <v>9</v>
       </c>
       <c r="K15" s="1">
-        <v>13</v>
+        <f>K11</f>
+        <v>14</v>
       </c>
       <c r="L15" s="1">
+        <f>L11</f>
         <v>12</v>
       </c>
       <c r="N15" s="1">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -5015,24 +5071,28 @@
         <v>18</v>
       </c>
       <c r="H16" s="1">
-        <f>ROUND(Trap!H43 * 1.6, 0)</f>
-        <v>22</v>
+        <f t="shared" ref="H16:H17" si="7">H12+2</f>
+        <v>23</v>
       </c>
       <c r="I16" s="1">
-        <v>4</v>
+        <f t="shared" ref="I16:I17" si="8">I12+1</f>
+        <v>5</v>
       </c>
       <c r="J16" s="1">
-        <v>12</v>
+        <f t="shared" ref="J16:L16" si="9">J12</f>
+        <v>11</v>
       </c>
       <c r="K16" s="1">
-        <v>12</v>
+        <f t="shared" si="9"/>
+        <v>13</v>
       </c>
       <c r="L16" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="N16" s="1">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
@@ -5058,25 +5118,44 @@
         <v>18</v>
       </c>
       <c r="H17" s="1">
-        <f>ROUND(Trap!H44 * 1.6, 0)</f>
-        <v>22</v>
+        <f t="shared" si="7"/>
+        <v>23</v>
       </c>
       <c r="I17" s="1">
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>4</v>
       </c>
       <c r="J17" s="1">
-        <v>6</v>
+        <f t="shared" ref="J17:L17" si="10">J13</f>
+        <v>7</v>
       </c>
       <c r="K17" s="1">
-        <v>17</v>
+        <f t="shared" si="10"/>
+        <v>16</v>
       </c>
       <c r="L17" s="1">
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="N17" s="1">
         <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="N18" s="20"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
@@ -5105,20 +5184,24 @@
         <v>26</v>
       </c>
       <c r="I19" s="1">
+        <f>I11+1</f>
         <v>4</v>
       </c>
       <c r="J19" s="1">
-        <v>9</v>
+        <f>J11+1</f>
+        <v>10</v>
       </c>
       <c r="K19" s="1">
-        <v>14</v>
+        <f>K11+1</f>
+        <v>15</v>
       </c>
       <c r="L19" s="1">
+        <f>L11+1</f>
         <v>13</v>
       </c>
       <c r="N19" s="1">
-        <f t="shared" ref="N19:N21" si="1">SUM(I19:L19)</f>
-        <v>40</v>
+        <f t="shared" ref="N19:N21" si="11">SUM(I19:L19)</f>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
@@ -5148,20 +5231,24 @@
         <v>26</v>
       </c>
       <c r="I20" s="1">
+        <f t="shared" ref="I20:L20" si="12">I12+1</f>
         <v>5</v>
       </c>
       <c r="J20" s="1">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" si="12"/>
+        <v>14</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" si="12"/>
         <v>11</v>
       </c>
-      <c r="K20" s="1">
-        <v>13</v>
-      </c>
-      <c r="L20" s="1">
-        <v>11</v>
-      </c>
       <c r="N20" s="1">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <f t="shared" si="11"/>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
@@ -5191,20 +5278,24 @@
         <v>26</v>
       </c>
       <c r="I21" s="1">
-        <v>3</v>
+        <f t="shared" ref="I21:L21" si="13">I13+1</f>
+        <v>4</v>
       </c>
       <c r="J21" s="1">
-        <v>7</v>
+        <f t="shared" si="13"/>
+        <v>8</v>
       </c>
       <c r="K21" s="1">
+        <f t="shared" si="13"/>
         <v>17</v>
       </c>
       <c r="L21" s="1">
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="N21" s="1">
-        <f t="shared" si="1"/>
-        <v>41</v>
+        <f t="shared" si="11"/>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
@@ -5230,24 +5321,28 @@
         <v>18</v>
       </c>
       <c r="H23" s="1">
-        <f>ROUND(Trap!H68 * 1.6, 0)</f>
-        <v>27</v>
+        <f>H19+2</f>
+        <v>28</v>
       </c>
       <c r="I23" s="1">
+        <f>I19+1</f>
         <v>5</v>
       </c>
       <c r="J23" s="1">
-        <v>9</v>
+        <f>J19</f>
+        <v>10</v>
       </c>
       <c r="K23" s="1">
-        <v>14</v>
+        <f>K19</f>
+        <v>15</v>
       </c>
       <c r="L23" s="1">
+        <f>L19</f>
         <v>13</v>
       </c>
       <c r="N23" s="1">
-        <f t="shared" ref="N23:N25" si="2">SUM(I23:L23)</f>
-        <v>41</v>
+        <f t="shared" ref="N23:N25" si="14">SUM(I23:L23)</f>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
@@ -5273,24 +5368,28 @@
         <v>18</v>
       </c>
       <c r="H24" s="1">
-        <f>ROUND(Trap!H69 * 1.6, 0)</f>
-        <v>27</v>
+        <f t="shared" ref="H24:H25" si="15">H20+2</f>
+        <v>28</v>
       </c>
       <c r="I24" s="1">
-        <v>5</v>
+        <f t="shared" ref="I24:I25" si="16">I20+1</f>
+        <v>6</v>
       </c>
       <c r="J24" s="1">
+        <f t="shared" ref="J24:L24" si="17">J20</f>
         <v>12</v>
       </c>
       <c r="K24" s="1">
-        <v>13</v>
+        <f t="shared" si="17"/>
+        <v>14</v>
       </c>
       <c r="L24" s="1">
+        <f t="shared" si="17"/>
         <v>11</v>
       </c>
       <c r="N24" s="1">
-        <f t="shared" si="2"/>
-        <v>41</v>
+        <f t="shared" si="14"/>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
@@ -5316,25 +5415,44 @@
         <v>18</v>
       </c>
       <c r="H25" s="1">
-        <f>ROUND(Trap!H70 * 1.6, 0)</f>
-        <v>27</v>
+        <f t="shared" si="15"/>
+        <v>28</v>
       </c>
       <c r="I25" s="1">
-        <v>3</v>
+        <f t="shared" si="16"/>
+        <v>5</v>
       </c>
       <c r="J25" s="1">
-        <v>7</v>
+        <f t="shared" ref="J25:L25" si="18">J21</f>
+        <v>8</v>
       </c>
       <c r="K25" s="1">
-        <v>18</v>
+        <f t="shared" si="18"/>
+        <v>17</v>
       </c>
       <c r="L25" s="1">
+        <f t="shared" si="18"/>
         <v>14</v>
       </c>
       <c r="N25" s="1">
-        <f t="shared" si="2"/>
-        <v>42</v>
-      </c>
+        <f t="shared" si="14"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="N26" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5346,9 +5464,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R1" sqref="R1"/>
+      <selection pane="bottomLeft" activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6971,8 +7089,8 @@
         <v>40</v>
       </c>
       <c r="Q3" s="7">
-        <f>ROUND(constants!D$3 * 1 * $N3, 0)</f>
-        <v>12</v>
+        <f>ROUND(constants!D$3 / 2 * $N3, 0)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -7004,8 +7122,8 @@
         <v>44</v>
       </c>
       <c r="Q4" s="7">
-        <f>ROUND(constants!D$3 * 1 * $N4, 0)</f>
-        <v>13</v>
+        <f>ROUND(constants!D$3 / 2 * $N4, 0)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7044,8 +7162,8 @@
         <v>46</v>
       </c>
       <c r="Q6" s="7">
-        <f>ROUND(constants!D$4 * 1 * $N6, 0)</f>
-        <v>15</v>
+        <f>ROUND(constants!D$3 / 2 * $N6, 0)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -7085,8 +7203,8 @@
         <v>51</v>
       </c>
       <c r="Q7" s="7">
-        <f>ROUND(constants!D$4 * 1 * $N7, 0)</f>
-        <v>16</v>
+        <f>ROUND(constants!D$3 / 2 * $N7, 0)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -7144,8 +7262,8 @@
         <v>53</v>
       </c>
       <c r="Q9" s="7">
-        <f>ROUND(constants!D$5 * 1 * $N9, 0)</f>
-        <v>18</v>
+        <f>ROUND(constants!D$3 / 2 * $N9, 0)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -7185,8 +7303,8 @@
         <v>58</v>
       </c>
       <c r="Q10" s="7">
-        <f>ROUND(constants!D$5 * 1 * $N10, 0)</f>
-        <v>19</v>
+        <f>ROUND(constants!D$3 / 2 * $N10, 0)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -7244,8 +7362,8 @@
         <v>60</v>
       </c>
       <c r="Q12" s="7">
-        <f>ROUND(constants!D$6 * 1 * $N12, 0)</f>
-        <v>21</v>
+        <f>ROUND(constants!D$3 / 2 * $N12, 0)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -7289,8 +7407,8 @@
         <v>130</v>
       </c>
       <c r="Q13" s="7">
-        <f>ROUND(constants!D$6 * 1 * $N13, 0)</f>
-        <v>23</v>
+        <f>ROUND(constants!D$3 / 2 * $N13, 0)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -7348,8 +7466,8 @@
         <v>67</v>
       </c>
       <c r="Q15" s="7">
-        <f>ROUND(constants!D$7 * 1 * $N15, 0)</f>
-        <v>24</v>
+        <f>ROUND(constants!D$3 / 2 * $N15, 0)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -7393,8 +7511,8 @@
         <v>146</v>
       </c>
       <c r="Q16" s="7">
-        <f>ROUND(constants!D$7 * 1 * $N16, 0)</f>
-        <v>26</v>
+        <f>ROUND(constants!D$3 / 2 * $N16, 0)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -7447,8 +7565,8 @@
         <v>150</v>
       </c>
       <c r="Q18" s="7">
-        <f>ROUND(constants!D$8 * 1 * $N18, 0)</f>
-        <v>28</v>
+        <f>ROUND(constants!D$3 / 2 * $N18, 0)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -7492,8 +7610,8 @@
         <v>162</v>
       </c>
       <c r="Q19" s="7">
-        <f>ROUND(constants!D$8 * 1 * $N19, 0)</f>
-        <v>30</v>
+        <f>ROUND(constants!D$3 / 2 * $N19, 0)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -7812,8 +7930,8 @@
         <v>180</v>
       </c>
       <c r="Q3" s="7">
-        <f>ROUND(constants!D$3 * 1 * $N3, 0)</f>
-        <v>18</v>
+        <f>ROUND(constants!D$3 / 3 * $N3, 0)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -7875,8 +7993,8 @@
         <v>205</v>
       </c>
       <c r="Q5" s="7">
-        <f>ROUND(constants!D$4 *1 * $N5, 0)</f>
-        <v>22</v>
+        <f>ROUND(constants!D$3 / 3 * $N5, 0)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -7942,8 +8060,8 @@
         <v>230</v>
       </c>
       <c r="Q7" s="7">
-        <f>ROUND(constants!D$5 *1 * $N7, 0)</f>
-        <v>26</v>
+        <f>ROUND(constants!D$3 / 3 * $N7, 0)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -8013,8 +8131,8 @@
         <v>343</v>
       </c>
       <c r="Q9" s="7">
-        <f>ROUND(constants!D$6 * 1 * $N9, 0)</f>
-        <v>30</v>
+        <f>ROUND(constants!D$3 / 3 * $N9, 0)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -8084,8 +8202,8 @@
         <v>381</v>
       </c>
       <c r="Q11" s="7">
-        <f>ROUND(constants!D$7 *1 * $N11, 0)</f>
-        <v>34</v>
+        <f>ROUND(constants!D$3 / 3 * $N11, 0)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -8155,8 +8273,8 @@
         <v>420</v>
       </c>
       <c r="Q13" s="7">
-        <f>ROUND(constants!D$8 *1 * $N13, 0)</f>
-        <v>39</v>
+        <f>ROUND(constants!D$3 / 3 * $N13, 0)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -8195,8 +8313,8 @@
         <v>576</v>
       </c>
       <c r="Q15" s="7">
-        <f>ROUND(constants!D$9 *1 * $N15, 0)</f>
-        <v>43</v>
+        <f>ROUND(constants!D$3 / 3 * $N15, 0)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -8237,8 +8355,8 @@
         <v>629</v>
       </c>
       <c r="Q17" s="7">
-        <f>ROUND(constants!D$10 * 1 * $N17, 0)</f>
-        <v>48</v>
+        <f>ROUND(constants!D$3 / 3 * $N17, 0)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -8279,8 +8397,8 @@
         <v>684</v>
       </c>
       <c r="Q19" s="7">
-        <f>ROUND(constants!D$11 * 1 * $N19, 0)</f>
-        <v>53</v>
+        <f>ROUND(constants!D$3 / 3 * $N19, 0)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -8464,8 +8582,8 @@
         <v>80</v>
       </c>
       <c r="Q3" s="7">
-        <f>ROUND(constants!D$3 * 1 * $N3,0)</f>
-        <v>24</v>
+        <f>ROUND(constants!D$3 /4 * $N3,0)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -8499,8 +8617,8 @@
         <v>81</v>
       </c>
       <c r="Q4" s="7">
-        <f>ROUND(constants!D$3 * 1 * $N4,0)</f>
-        <v>24</v>
+        <f>ROUND(constants!D$3 /4 * $N4,0)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8534,8 +8652,8 @@
         <v>82</v>
       </c>
       <c r="Q5" s="7">
-        <f>ROUND(constants!D$3 * 1 * $N5,0)</f>
-        <v>25</v>
+        <f>ROUND(constants!D$3 /4 * $N5,0)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8575,8 +8693,8 @@
         <v>166</v>
       </c>
       <c r="Q6" s="7">
-        <f>ROUND(constants!D$3 * 1 * $N6,0)</f>
-        <v>25</v>
+        <f>ROUND(constants!D$3 /4 * $N6,0)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8610,8 +8728,8 @@
         <v>84</v>
       </c>
       <c r="Q7" s="7">
-        <f>ROUND(constants!D$3 * 1 * $N7,0)</f>
-        <v>25</v>
+        <f>ROUND(constants!D$3 /4 * $N7,0)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8653,8 +8771,8 @@
         <v>170</v>
       </c>
       <c r="Q8" s="7">
-        <f>ROUND(constants!D$3 * 1 * $N8,0)</f>
-        <v>26</v>
+        <f>ROUND(constants!D$3 /4 * $N8,0)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8688,8 +8806,8 @@
         <v>86</v>
       </c>
       <c r="Q9" s="7">
-        <f>ROUND(constants!D$3 * 1 * $N9,0)</f>
-        <v>26</v>
+        <f>ROUND(constants!D$3 /4 * $N9,0)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8735,8 +8853,8 @@
         <v>261</v>
       </c>
       <c r="Q10" s="7">
-        <f>ROUND(constants!D$3 * 1 * $N10,0)</f>
-        <v>26</v>
+        <f>ROUND(constants!D$3 /4 * $N10,0)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8776,8 +8894,8 @@
         <v>176</v>
       </c>
       <c r="Q11" s="7">
-        <f>ROUND(constants!D$3 * 1 * $N11,0)</f>
-        <v>26</v>
+        <f>ROUND(constants!D$3 /4 * $N11,0)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8823,8 +8941,8 @@
         <v>267</v>
       </c>
       <c r="Q12" s="7">
-        <f>ROUND(constants!D$3 * 1 * $N12,0)</f>
-        <v>27</v>
+        <f>ROUND(constants!D$3 /4 * $N12,0)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8872,8 +8990,8 @@
         <v>88</v>
       </c>
       <c r="Q14" s="7">
-        <f>ROUND(constants!D$4 * 1 * $N14,0)</f>
-        <v>28</v>
+        <f>ROUND(constants!D$3 /4 * $N14,0)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8907,8 +9025,8 @@
         <v>89</v>
       </c>
       <c r="Q15" s="7">
-        <f>ROUND(constants!D$4 * 1 * $N15,0)</f>
-        <v>28</v>
+        <f>ROUND(constants!D$3 /4 * $N15,0)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8948,8 +9066,8 @@
         <v>180</v>
       </c>
       <c r="Q16" s="7">
-        <f>ROUND(constants!D$4 * 1 * $N16,0)</f>
-        <v>29</v>
+        <f>ROUND(constants!D$3 /4 * $N16,0)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8983,8 +9101,8 @@
         <v>91</v>
       </c>
       <c r="Q17" s="7">
-        <f>ROUND(constants!D$4 * 1 * $N17,0)</f>
-        <v>29</v>
+        <f>ROUND(constants!D$3 /4 * $N17,0)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9024,8 +9142,8 @@
         <v>185</v>
       </c>
       <c r="Q18" s="7">
-        <f>ROUND(constants!D$4 * 1 * $N18,0)</f>
-        <v>29</v>
+        <f>ROUND(constants!D$3 /4 * $N18,0)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9065,8 +9183,8 @@
         <v>187</v>
       </c>
       <c r="Q19" s="7">
-        <f>ROUND(constants!D$4 * 1 * $N19,0)</f>
-        <v>30</v>
+        <f>ROUND(constants!D$3 /4 * $N19,0)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9100,8 +9218,8 @@
         <v>95</v>
       </c>
       <c r="Q20" s="7">
-        <f>ROUND(constants!D$4 * 1 * $N20,0)</f>
-        <v>30</v>
+        <f>ROUND(constants!D$3 /4 * $N20,0)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9147,8 +9265,8 @@
         <v>287</v>
       </c>
       <c r="Q21" s="7">
-        <f>ROUND(constants!D$4 * 1 * $N21,0)</f>
-        <v>30</v>
+        <f>ROUND(constants!D$3 /4 * $N21,0)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9188,8 +9306,8 @@
         <v>194</v>
       </c>
       <c r="Q22" s="7">
-        <f>ROUND(constants!D$4 * 1 * $N22,0)</f>
-        <v>31</v>
+        <f>ROUND(constants!D$3 /4 * $N22,0)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9229,8 +9347,8 @@
         <v>196</v>
       </c>
       <c r="Q23" s="7">
-        <f>ROUND(constants!D$4 * 1 * $N23,0)</f>
-        <v>31</v>
+        <f>ROUND(constants!D$3 /4 * $N23,0)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -9270,8 +9388,8 @@
         <v>198</v>
       </c>
       <c r="Q24" s="7">
-        <f>ROUND(constants!D$4 * 1 * $N24,0)</f>
-        <v>32</v>
+        <f>ROUND(constants!D$3 /4 * $N24,0)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9317,8 +9435,8 @@
         <v>300</v>
       </c>
       <c r="Q25" s="7">
-        <f>ROUND(constants!D$4 * 1 * $N25,0)</f>
-        <v>32</v>
+        <f>ROUND(constants!D$3 /4 * $N25,0)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9359,8 +9477,8 @@
         <v>202</v>
       </c>
       <c r="Q26" s="7">
-        <f>ROUND(constants!D$4 * 1 * $N26,0)</f>
-        <v>32</v>
+        <f>ROUND(constants!D$3 /4 * $N26,0)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9406,8 +9524,8 @@
         <v>307</v>
       </c>
       <c r="Q27" s="7">
-        <f>ROUND(constants!D$4 * 1 * $N27,0)</f>
-        <v>33</v>
+        <f>ROUND(constants!D$3 /4 * $N27,0)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9442,8 +9560,8 @@
         <v>96</v>
       </c>
       <c r="Q29" s="7">
-        <f>ROUND(constants!D$5 * 1 * $N29,0)</f>
-        <v>32</v>
+        <f>ROUND(constants!D$3 /4 * $N29,0)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9483,8 +9601,8 @@
         <v>194</v>
       </c>
       <c r="Q30" s="7">
-        <f>ROUND(constants!D$5 * 1 * $N30,0)</f>
-        <v>32</v>
+        <f>ROUND(constants!D$3 /4 * $N30,0)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9520,8 +9638,8 @@
         <v>98</v>
       </c>
       <c r="Q31" s="7">
-        <f>ROUND(constants!D$5 * 1 * $N31,0)</f>
-        <v>33</v>
+        <f>ROUND(constants!D$3 /4 * $N31,0)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9567,8 +9685,8 @@
         <v>299</v>
       </c>
       <c r="Q32" s="7">
-        <f>ROUND(constants!D$5 * 1 * $N32,0)</f>
-        <v>33</v>
+        <f>ROUND(constants!D$3 /4 * $N32,0)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9608,8 +9726,8 @@
         <v>202</v>
       </c>
       <c r="Q33" s="7">
-        <f>ROUND(constants!D$5 * 1 * $N33,0)</f>
-        <v>34</v>
+        <f>ROUND(constants!D$3 /4 * $N33,0)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -9645,8 +9763,8 @@
         <v>102</v>
       </c>
       <c r="Q34" s="7">
-        <f>ROUND(constants!D$5 * 1 * $N34,0)</f>
-        <v>34</v>
+        <f>ROUND(constants!D$3 /4 * $N34,0)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9686,8 +9804,8 @@
         <v>206</v>
       </c>
       <c r="Q35" s="7">
-        <f>ROUND(constants!D$5 * 1 * $N35,0)</f>
-        <v>34</v>
+        <f>ROUND(constants!D$3 /4 * $N35,0)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9727,8 +9845,8 @@
         <v>209</v>
       </c>
       <c r="Q36" s="7">
-        <f>ROUND(constants!D$5 * 1 * $N36,0)</f>
-        <v>35</v>
+        <f>ROUND(constants!D$3 /4 * $N36,0)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9774,8 +9892,8 @@
         <v>317</v>
       </c>
       <c r="Q37" s="7">
-        <f>ROUND(constants!D$5 * 1 * $N37,0)</f>
-        <v>35</v>
+        <f>ROUND(constants!D$3 /4 * $N37,0)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9821,8 +9939,8 @@
         <v>320</v>
       </c>
       <c r="Q38" s="7">
-        <f>ROUND(constants!D$5 * 1 * $N38,0)</f>
-        <v>36</v>
+        <f>ROUND(constants!D$3 /4 * $N38,0)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9862,8 +9980,8 @@
         <v>216</v>
       </c>
       <c r="Q39" s="7">
-        <f>ROUND(constants!D$5 * 1 * $N39,0)</f>
-        <v>36</v>
+        <f>ROUND(constants!D$3 /4 * $N39,0)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -9897,8 +10015,8 @@
         <v>109</v>
       </c>
       <c r="Q40" s="7">
-        <f>ROUND(constants!D$5 * 1 * $N40,0)</f>
-        <v>36</v>
+        <f>ROUND(constants!D$3 /4 * $N40,0)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9938,8 +10056,8 @@
         <v>221</v>
       </c>
       <c r="Q41" s="7">
-        <f>ROUND(constants!D$5 * 1 * $N41,0)</f>
-        <v>37</v>
+        <f>ROUND(constants!D$3 /4 * $N41,0)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9985,8 +10103,8 @@
         <v>335</v>
       </c>
       <c r="Q42" s="7">
-        <f>ROUND(constants!D$5 * 1 * $N42,0)</f>
-        <v>37</v>
+        <f>ROUND(constants!D$3 /4 * $N42,0)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -10032,8 +10150,8 @@
         <v>338</v>
       </c>
       <c r="Q43" s="7">
-        <f>ROUND(constants!D$5 * 1 * $N43,0)</f>
-        <v>38</v>
+        <f>ROUND(constants!D$3 /4 * $N43,0)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -10073,8 +10191,8 @@
         <v>228</v>
       </c>
       <c r="Q44" s="7">
-        <f>ROUND(constants!D$5 * 1 * $N44,0)</f>
-        <v>38</v>
+        <f>ROUND(constants!D$3 /4 * $N44,0)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -10120,8 +10238,8 @@
         <v>346</v>
       </c>
       <c r="Q45" s="7">
-        <f>ROUND(constants!D$5 * 1 * $N45,0)</f>
-        <v>38</v>
+        <f>ROUND(constants!D$3 /4 * $N45,0)</f>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/backend/emporium/data/StageData.xlsx
+++ b/backend/emporium/data/StageData.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="114">
   <si>
     <t>Name</t>
   </si>
@@ -140,9 +140,6 @@
   </si>
   <si>
     <t>treasure, pass</t>
-  </si>
-  <si>
-    <t>healing, pass</t>
   </si>
   <si>
     <t>Level</t>
@@ -768,7 +765,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -782,16 +779,16 @@
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -811,10 +808,10 @@
         <v>20</v>
       </c>
       <c r="D3" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G3" s="1">
         <v>10</v>
@@ -831,10 +828,10 @@
         <v>22</v>
       </c>
       <c r="D4" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G4" s="1">
         <v>3</v>
@@ -851,7 +848,7 @@
         <v>24</v>
       </c>
       <c r="D5" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -865,10 +862,10 @@
         <v>26</v>
       </c>
       <c r="D6" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G6" s="1">
         <v>12</v>
@@ -885,10 +882,10 @@
         <v>28</v>
       </c>
       <c r="D7" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G7" s="1">
         <v>3</v>
@@ -905,7 +902,7 @@
         <v>30</v>
       </c>
       <c r="D8" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -919,7 +916,7 @@
         <v>32</v>
       </c>
       <c r="D9" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -933,7 +930,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -947,7 +944,7 @@
         <v>36</v>
       </c>
       <c r="D11" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -973,267 +970,267 @@
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" t="s">
         <v>87</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>88</v>
-      </c>
-      <c r="H4" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
         <v>87</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>88</v>
-      </c>
-      <c r="H7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" t="s">
         <v>52</v>
       </c>
-      <c r="C9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" t="s">
-        <v>53</v>
-      </c>
       <c r="E9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
         <v>52</v>
       </c>
-      <c r="C10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" t="s">
-        <v>53</v>
-      </c>
       <c r="E10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" t="s">
         <v>87</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>88</v>
-      </c>
-      <c r="H10" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
         <v>81</v>
       </c>
-      <c r="B12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" t="s">
-        <v>82</v>
-      </c>
       <c r="G12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" t="s">
         <v>87</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>88</v>
-      </c>
-      <c r="H13" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" t="s">
         <v>83</v>
       </c>
-      <c r="C15" t="s">
-        <v>84</v>
-      </c>
       <c r="D15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1263,13 +1260,13 @@
         <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -2029,7 +2026,7 @@
         <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
@@ -2133,7 +2130,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>23</v>
@@ -2312,7 +2309,7 @@
         <v>12</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>35</v>
@@ -2337,7 +2334,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>11</v>
@@ -2405,7 +2402,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>11</v>
@@ -2541,7 +2538,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>23</v>
@@ -2720,7 +2717,7 @@
         <v>12</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>35</v>
@@ -2745,7 +2742,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>11</v>
@@ -2813,7 +2810,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>11</v>
@@ -2949,7 +2946,7 @@
         <v>4</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>23</v>
@@ -3128,7 +3125,7 @@
         <v>12</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>35</v>
@@ -3153,7 +3150,7 @@
         <v>4</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>11</v>
@@ -3221,7 +3218,7 @@
         <v>4</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>11</v>
@@ -3357,7 +3354,7 @@
         <v>5</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>23</v>
@@ -3536,7 +3533,7 @@
         <v>12</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>35</v>
@@ -3561,7 +3558,7 @@
         <v>5</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>11</v>
@@ -3629,7 +3626,7 @@
         <v>5</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>11</v>
@@ -3765,7 +3762,7 @@
         <v>7</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>23</v>
@@ -3944,7 +3941,7 @@
         <v>12</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G62" s="5" t="s">
         <v>35</v>
@@ -3969,7 +3966,7 @@
         <v>7</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>11</v>
@@ -4037,7 +4034,7 @@
         <v>7</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>11</v>
@@ -4173,7 +4170,7 @@
         <v>8</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>23</v>
@@ -4352,7 +4349,7 @@
         <v>12</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G75" s="5" t="s">
         <v>35</v>
@@ -4377,7 +4374,7 @@
         <v>8</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>11</v>
@@ -4445,7 +4442,7 @@
         <v>8</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>11</v>
@@ -4536,7 +4533,7 @@
         <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
@@ -4569,7 +4566,7 @@
         <v>33</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -4583,7 +4580,7 @@
         <v>30</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>29</v>
@@ -4626,7 +4623,7 @@
         <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>29</v>
@@ -4669,7 +4666,7 @@
         <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>29</v>
@@ -4715,7 +4712,7 @@
         <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>29</v>
@@ -4762,7 +4759,7 @@
         <v>32</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>29</v>
@@ -4809,7 +4806,7 @@
         <v>31</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>29</v>
@@ -4871,7 +4868,7 @@
         <v>30</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>29</v>
@@ -4918,7 +4915,7 @@
         <v>32</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>29</v>
@@ -4965,7 +4962,7 @@
         <v>31</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>29</v>
@@ -5012,7 +5009,7 @@
         <v>30</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>29</v>
@@ -5059,7 +5056,7 @@
         <v>32</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>29</v>
@@ -5106,7 +5103,7 @@
         <v>31</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>29</v>
@@ -5168,7 +5165,7 @@
         <v>30</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>29</v>
@@ -5215,7 +5212,7 @@
         <v>32</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>29</v>
@@ -5262,7 +5259,7 @@
         <v>31</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>29</v>
@@ -5309,7 +5306,7 @@
         <v>30</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>29</v>
@@ -5356,7 +5353,7 @@
         <v>32</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>29</v>
@@ -5403,7 +5400,7 @@
         <v>31</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>29</v>
@@ -5466,7 +5463,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q35" sqref="Q35"/>
+      <selection pane="bottomLeft" activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5482,52 +5479,52 @@
         <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -5559,7 +5556,7 @@
       </c>
       <c r="Q3" s="7">
         <f>ROUND(constants!D$3 * 1 * $N3, 0)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -5594,7 +5591,7 @@
       </c>
       <c r="Q4" s="7">
         <f>ROUND(constants!D$3 * 1 * $N4, 0)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5629,7 +5626,7 @@
       </c>
       <c r="Q5" s="7">
         <f>ROUND(constants!D$3 * 1 * $N5, 0)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5664,7 +5661,7 @@
       </c>
       <c r="Q6" s="7">
         <f>ROUND(constants!D$3 * 1 * $N6, 0)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5699,7 +5696,7 @@
       </c>
       <c r="Q7" s="7">
         <f>ROUND(constants!D$3 * 1 * $N7, 0)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5742,7 +5739,7 @@
       </c>
       <c r="Q8" s="7">
         <f>ROUND(constants!D$3 * 1 * $N8, 0)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5783,7 +5780,7 @@
       </c>
       <c r="Q9" s="7">
         <f>ROUND(constants!D$3 * 1 * $N9, 0)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5824,7 +5821,7 @@
       </c>
       <c r="Q10" s="7">
         <f>ROUND(constants!D$3 * 1 * $N10, 0)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5867,7 +5864,7 @@
       </c>
       <c r="Q11" s="7">
         <f>ROUND(constants!D$3 * 1 * $N11, 0)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5914,7 +5911,7 @@
       </c>
       <c r="Q12" s="7">
         <f>ROUND(constants!D$3 * 1 * $N12, 0)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5963,7 +5960,7 @@
       </c>
       <c r="Q13" s="7">
         <f>ROUND(constants!D$3 * 1 * $N13, 0)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6010,7 +6007,7 @@
       </c>
       <c r="Q14" s="7">
         <f>ROUND(constants!D$3 * 1 * $N14, 0)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6045,7 +6042,7 @@
       </c>
       <c r="Q16" s="7">
         <f>ROUND(constants!D$4 * 1 * $N16, 0)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6080,7 +6077,7 @@
       </c>
       <c r="Q17" s="7">
         <f>ROUND(constants!D$4 * 1 * $N17, 0)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6115,7 +6112,7 @@
       </c>
       <c r="Q18" s="7">
         <f>ROUND(constants!D$4 * 1 * $N18, 0)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6150,7 +6147,7 @@
       </c>
       <c r="Q19" s="7">
         <f>ROUND(constants!D$4 * 1 * $N19, 0)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6185,7 +6182,7 @@
       </c>
       <c r="Q20" s="7">
         <f>ROUND(constants!D$4 * 1 * $N20, 0)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6228,7 +6225,7 @@
       </c>
       <c r="Q21" s="7">
         <f>ROUND(constants!D$4 * 1 * $N21, 0)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6269,7 +6266,7 @@
       </c>
       <c r="Q22" s="7">
         <f>ROUND(constants!D$4 * 1 * $N22, 0)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6310,7 +6307,7 @@
       </c>
       <c r="Q23" s="7">
         <f>ROUND(constants!D$4 * 1 * $N23, 0)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6353,7 +6350,7 @@
       </c>
       <c r="Q24" s="7">
         <f>ROUND(constants!D$4 * 1 * $N24, 0)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6400,7 +6397,7 @@
       </c>
       <c r="Q25" s="7">
         <f>ROUND(constants!D$4 * 1 * $N25, 0)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6449,7 +6446,7 @@
       </c>
       <c r="Q26" s="7">
         <f>ROUND(constants!D$4 * 1 * $N26, 0)</f>
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6496,7 +6493,7 @@
       </c>
       <c r="Q27" s="7">
         <f>ROUND(constants!D$4 * 1 * $N27, 0)</f>
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6531,7 +6528,7 @@
       </c>
       <c r="Q29" s="7">
         <f>ROUND(constants!D$5 * 1 * $N29, 0)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6566,7 +6563,7 @@
       </c>
       <c r="Q30" s="7">
         <f>ROUND(constants!D$5 * 1 * $N30, 0)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6601,7 +6598,7 @@
       </c>
       <c r="Q31" s="7">
         <f>ROUND(constants!D$5 * 1 * $N31, 0)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6636,7 +6633,7 @@
       </c>
       <c r="Q32" s="7">
         <f>ROUND(constants!D$5 * 1 * $N32, 0)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6671,7 +6668,7 @@
       </c>
       <c r="Q33" s="7">
         <f>ROUND(constants!D$5 * 1 * $N33, 0)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6714,7 +6711,7 @@
       </c>
       <c r="Q34" s="7">
         <f>ROUND(constants!D$5 * 1 * $N34, 0)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6755,7 +6752,7 @@
       </c>
       <c r="Q35" s="7">
         <f>ROUND(constants!D$5 * 1 * $N35, 0)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6796,7 +6793,7 @@
       </c>
       <c r="Q36" s="7">
         <f>ROUND(constants!D$5 * 1 * $N36, 0)</f>
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6839,7 +6836,7 @@
       </c>
       <c r="Q37" s="7">
         <f>ROUND(constants!D$5 * 1 * $N37, 0)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6886,7 +6883,7 @@
       </c>
       <c r="Q38" s="7">
         <f>ROUND(constants!D$5 * 1 * $N38, 0)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6935,7 +6932,7 @@
       </c>
       <c r="Q39" s="7">
         <f>ROUND(constants!D$5 * 1 * $N39, 0)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -6982,7 +6979,7 @@
       </c>
       <c r="Q40" s="7">
         <f>ROUND(constants!D$5 * 1 * $N40, 0)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -7013,52 +7010,52 @@
         <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -7090,7 +7087,7 @@
       </c>
       <c r="Q3" s="7">
         <f>ROUND(constants!D$3 / 2 * $N3, 0)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -7123,7 +7120,7 @@
       </c>
       <c r="Q4" s="7">
         <f>ROUND(constants!D$3 / 2 * $N4, 0)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7163,7 +7160,7 @@
       </c>
       <c r="Q6" s="7">
         <f>ROUND(constants!D$3 / 2 * $N6, 0)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -7204,7 +7201,7 @@
       </c>
       <c r="Q7" s="7">
         <f>ROUND(constants!D$3 / 2 * $N7, 0)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -7263,7 +7260,7 @@
       </c>
       <c r="Q9" s="7">
         <f>ROUND(constants!D$3 / 2 * $N9, 0)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -7304,7 +7301,7 @@
       </c>
       <c r="Q10" s="7">
         <f>ROUND(constants!D$3 / 2 * $N10, 0)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -7363,7 +7360,7 @@
       </c>
       <c r="Q12" s="7">
         <f>ROUND(constants!D$3 / 2 * $N12, 0)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -7408,7 +7405,7 @@
       </c>
       <c r="Q13" s="7">
         <f>ROUND(constants!D$3 / 2 * $N13, 0)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -7467,7 +7464,7 @@
       </c>
       <c r="Q15" s="7">
         <f>ROUND(constants!D$3 / 2 * $N15, 0)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -7512,7 +7509,7 @@
       </c>
       <c r="Q16" s="7">
         <f>ROUND(constants!D$3 / 2 * $N16, 0)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -7566,7 +7563,7 @@
       </c>
       <c r="Q18" s="7">
         <f>ROUND(constants!D$3 / 2 * $N18, 0)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -7611,7 +7608,7 @@
       </c>
       <c r="Q19" s="7">
         <f>ROUND(constants!D$3 / 2 * $N19, 0)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -7842,52 +7839,52 @@
         <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -7931,7 +7928,7 @@
       </c>
       <c r="Q3" s="7">
         <f>ROUND(constants!D$3 / 3 * $N3, 0)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -7994,7 +7991,7 @@
       </c>
       <c r="Q5" s="7">
         <f>ROUND(constants!D$3 / 3 * $N5, 0)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -8061,7 +8058,7 @@
       </c>
       <c r="Q7" s="7">
         <f>ROUND(constants!D$3 / 3 * $N7, 0)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -8132,7 +8129,7 @@
       </c>
       <c r="Q9" s="7">
         <f>ROUND(constants!D$3 / 3 * $N9, 0)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -8203,7 +8200,7 @@
       </c>
       <c r="Q11" s="7">
         <f>ROUND(constants!D$3 / 3 * $N11, 0)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -8274,7 +8271,7 @@
       </c>
       <c r="Q13" s="7">
         <f>ROUND(constants!D$3 / 3 * $N13, 0)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -8314,7 +8311,7 @@
       </c>
       <c r="Q15" s="7">
         <f>ROUND(constants!D$3 / 3 * $N15, 0)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -8356,7 +8353,7 @@
       </c>
       <c r="Q17" s="7">
         <f>ROUND(constants!D$3 / 3 * $N17, 0)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -8398,7 +8395,7 @@
       </c>
       <c r="Q19" s="7">
         <f>ROUND(constants!D$3 / 3 * $N19, 0)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -8506,52 +8503,52 @@
         <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -8583,7 +8580,7 @@
       </c>
       <c r="Q3" s="7">
         <f>ROUND(constants!D$3 /4 * $N3,0)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -8618,7 +8615,7 @@
       </c>
       <c r="Q4" s="7">
         <f>ROUND(constants!D$3 /4 * $N4,0)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8653,7 +8650,7 @@
       </c>
       <c r="Q5" s="7">
         <f>ROUND(constants!D$3 /4 * $N5,0)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8694,7 +8691,7 @@
       </c>
       <c r="Q6" s="7">
         <f>ROUND(constants!D$3 /4 * $N6,0)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8729,7 +8726,7 @@
       </c>
       <c r="Q7" s="7">
         <f>ROUND(constants!D$3 /4 * $N7,0)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8772,7 +8769,7 @@
       </c>
       <c r="Q8" s="7">
         <f>ROUND(constants!D$3 /4 * $N8,0)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8807,7 +8804,7 @@
       </c>
       <c r="Q9" s="7">
         <f>ROUND(constants!D$3 /4 * $N9,0)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8854,7 +8851,7 @@
       </c>
       <c r="Q10" s="7">
         <f>ROUND(constants!D$3 /4 * $N10,0)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8895,7 +8892,7 @@
       </c>
       <c r="Q11" s="7">
         <f>ROUND(constants!D$3 /4 * $N11,0)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8942,7 +8939,7 @@
       </c>
       <c r="Q12" s="7">
         <f>ROUND(constants!D$3 /4 * $N12,0)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8991,7 +8988,7 @@
       </c>
       <c r="Q14" s="7">
         <f>ROUND(constants!D$3 /4 * $N14,0)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9026,7 +9023,7 @@
       </c>
       <c r="Q15" s="7">
         <f>ROUND(constants!D$3 /4 * $N15,0)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -9067,7 +9064,7 @@
       </c>
       <c r="Q16" s="7">
         <f>ROUND(constants!D$3 /4 * $N16,0)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9102,7 +9099,7 @@
       </c>
       <c r="Q17" s="7">
         <f>ROUND(constants!D$3 /4 * $N17,0)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9143,7 +9140,7 @@
       </c>
       <c r="Q18" s="7">
         <f>ROUND(constants!D$3 /4 * $N18,0)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9184,7 +9181,7 @@
       </c>
       <c r="Q19" s="7">
         <f>ROUND(constants!D$3 /4 * $N19,0)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9219,7 +9216,7 @@
       </c>
       <c r="Q20" s="7">
         <f>ROUND(constants!D$3 /4 * $N20,0)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9266,7 +9263,7 @@
       </c>
       <c r="Q21" s="7">
         <f>ROUND(constants!D$3 /4 * $N21,0)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9307,7 +9304,7 @@
       </c>
       <c r="Q22" s="7">
         <f>ROUND(constants!D$3 /4 * $N22,0)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9348,7 +9345,7 @@
       </c>
       <c r="Q23" s="7">
         <f>ROUND(constants!D$3 /4 * $N23,0)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -9389,7 +9386,7 @@
       </c>
       <c r="Q24" s="7">
         <f>ROUND(constants!D$3 /4 * $N24,0)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9436,7 +9433,7 @@
       </c>
       <c r="Q25" s="7">
         <f>ROUND(constants!D$3 /4 * $N25,0)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9478,7 +9475,7 @@
       </c>
       <c r="Q26" s="7">
         <f>ROUND(constants!D$3 /4 * $N26,0)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9525,7 +9522,7 @@
       </c>
       <c r="Q27" s="7">
         <f>ROUND(constants!D$3 /4 * $N27,0)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9561,7 +9558,7 @@
       </c>
       <c r="Q29" s="7">
         <f>ROUND(constants!D$3 /4 * $N29,0)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9602,7 +9599,7 @@
       </c>
       <c r="Q30" s="7">
         <f>ROUND(constants!D$3 /4 * $N30,0)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9639,7 +9636,7 @@
       </c>
       <c r="Q31" s="7">
         <f>ROUND(constants!D$3 /4 * $N31,0)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9686,7 +9683,7 @@
       </c>
       <c r="Q32" s="7">
         <f>ROUND(constants!D$3 /4 * $N32,0)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9727,7 +9724,7 @@
       </c>
       <c r="Q33" s="7">
         <f>ROUND(constants!D$3 /4 * $N33,0)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -9764,7 +9761,7 @@
       </c>
       <c r="Q34" s="7">
         <f>ROUND(constants!D$3 /4 * $N34,0)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9805,7 +9802,7 @@
       </c>
       <c r="Q35" s="7">
         <f>ROUND(constants!D$3 /4 * $N35,0)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9846,7 +9843,7 @@
       </c>
       <c r="Q36" s="7">
         <f>ROUND(constants!D$3 /4 * $N36,0)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9893,7 +9890,7 @@
       </c>
       <c r="Q37" s="7">
         <f>ROUND(constants!D$3 /4 * $N37,0)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9940,7 +9937,7 @@
       </c>
       <c r="Q38" s="7">
         <f>ROUND(constants!D$3 /4 * $N38,0)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9981,7 +9978,7 @@
       </c>
       <c r="Q39" s="7">
         <f>ROUND(constants!D$3 /4 * $N39,0)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -10016,7 +10013,7 @@
       </c>
       <c r="Q40" s="7">
         <f>ROUND(constants!D$3 /4 * $N40,0)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -10057,7 +10054,7 @@
       </c>
       <c r="Q41" s="7">
         <f>ROUND(constants!D$3 /4 * $N41,0)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -10104,7 +10101,7 @@
       </c>
       <c r="Q42" s="7">
         <f>ROUND(constants!D$3 /4 * $N42,0)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -10151,7 +10148,7 @@
       </c>
       <c r="Q43" s="7">
         <f>ROUND(constants!D$3 /4 * $N43,0)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -10192,7 +10189,7 @@
       </c>
       <c r="Q44" s="7">
         <f>ROUND(constants!D$3 /4 * $N44,0)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -10239,7 +10236,7 @@
       </c>
       <c r="Q45" s="7">
         <f>ROUND(constants!D$3 /4 * $N45,0)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -10264,66 +10261,66 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -10353,10 +10350,10 @@
         <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -10367,7 +10364,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -10378,7 +10375,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -10389,7 +10386,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -10400,7 +10397,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -10411,7 +10408,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -10422,7 +10419,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/backend/emporium/data/StageData.xlsx
+++ b/backend/emporium/data/StageData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="828" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="828" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="constants" sheetId="8" r:id="rId1"/>
@@ -5461,7 +5461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="R1" sqref="R1"/>
     </sheetView>
@@ -5600,11 +5600,11 @@
         <v>1</v>
       </c>
       <c r="B5" s="1">
-        <f t="shared" ref="B5:B14" si="1">B4+1</f>
+        <f t="shared" ref="B5:C14" si="1">B4+1</f>
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1">
         <v>2</v>
@@ -5639,7 +5639,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -5674,10 +5674,11 @@
         <v>5</v>
       </c>
       <c r="C7" s="1">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M7" s="1">
         <v>1</v>
@@ -5715,10 +5716,10 @@
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -5758,10 +5759,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M9" s="1">
         <v>2</v>
@@ -5799,7 +5800,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
@@ -5834,13 +5835,13 @@
         <v>9</v>
       </c>
       <c r="C11" s="1">
+        <v>17</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
         <v>18</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1">
-        <v>17</v>
       </c>
       <c r="F11" s="1">
         <v>2</v>
@@ -5889,10 +5890,10 @@
         <v>1</v>
       </c>
       <c r="G12" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M12" s="1">
         <v>3</v>
@@ -5924,16 +5925,16 @@
         <v>11</v>
       </c>
       <c r="C13" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13" s="1">
         <v>18</v>
@@ -5973,19 +5974,19 @@
         <v>12</v>
       </c>
       <c r="C14" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F14" s="1">
         <v>2</v>
       </c>
       <c r="G14" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H14" s="1">
         <v>2</v>
@@ -6086,11 +6087,11 @@
         <v>2</v>
       </c>
       <c r="B18" s="1">
-        <f t="shared" ref="B18:B27" si="4">B17+1</f>
+        <f t="shared" ref="B18:C27" si="4">B17+1</f>
         <v>3</v>
       </c>
       <c r="C18" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D18" s="1">
         <v>5</v>
@@ -6125,7 +6126,7 @@
         <v>4</v>
       </c>
       <c r="C19" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D19" s="1">
         <v>4</v>
@@ -6160,10 +6161,11 @@
         <v>5</v>
       </c>
       <c r="C20" s="1">
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="D20" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M20" s="1">
         <v>1</v>
@@ -6201,10 +6203,10 @@
         <v>4</v>
       </c>
       <c r="E21" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F21" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
@@ -6244,10 +6246,10 @@
         <v>4</v>
       </c>
       <c r="E22" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M22" s="1">
         <v>2</v>
@@ -6285,7 +6287,7 @@
         <v>5</v>
       </c>
       <c r="E23" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F23" s="1">
         <v>4</v>
@@ -6320,13 +6322,13 @@
         <v>9</v>
       </c>
       <c r="C24" s="1">
+        <v>17</v>
+      </c>
+      <c r="D24" s="1">
+        <v>5</v>
+      </c>
+      <c r="E24" s="1">
         <v>18</v>
-      </c>
-      <c r="D24" s="1">
-        <v>4</v>
-      </c>
-      <c r="E24" s="1">
-        <v>17</v>
       </c>
       <c r="F24" s="1">
         <v>5</v>
@@ -6375,10 +6377,10 @@
         <v>4</v>
       </c>
       <c r="G25" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H25" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M25" s="1">
         <v>3</v>
@@ -6410,16 +6412,16 @@
         <v>11</v>
       </c>
       <c r="C26" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D26" s="1">
+        <v>5</v>
+      </c>
+      <c r="E26" s="1">
+        <v>18</v>
+      </c>
+      <c r="F26" s="1">
         <v>4</v>
-      </c>
-      <c r="E26" s="1">
-        <v>15</v>
-      </c>
-      <c r="F26" s="1">
-        <v>5</v>
       </c>
       <c r="G26" s="1">
         <v>18</v>
@@ -6459,19 +6461,19 @@
         <v>12</v>
       </c>
       <c r="C27" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D27" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E27" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F27" s="1">
         <v>5</v>
       </c>
       <c r="G27" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H27" s="1">
         <v>5</v>
@@ -6572,11 +6574,11 @@
         <v>3</v>
       </c>
       <c r="B31" s="1">
-        <f t="shared" ref="B31:B40" si="7">B30+1</f>
+        <f t="shared" ref="B31:C40" si="7">B30+1</f>
         <v>3</v>
       </c>
       <c r="C31" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D31" s="1">
         <v>8</v>
@@ -6611,7 +6613,7 @@
         <v>4</v>
       </c>
       <c r="C32" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D32" s="1">
         <v>7</v>
@@ -6646,10 +6648,11 @@
         <v>5</v>
       </c>
       <c r="C33" s="1">
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="D33" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M33" s="1">
         <v>1</v>
@@ -6687,10 +6690,10 @@
         <v>7</v>
       </c>
       <c r="E34" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F34" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
@@ -6730,10 +6733,10 @@
         <v>7</v>
       </c>
       <c r="E35" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F35" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M35" s="1">
         <v>2</v>
@@ -6771,7 +6774,7 @@
         <v>8</v>
       </c>
       <c r="E36" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F36" s="1">
         <v>7</v>
@@ -6806,13 +6809,13 @@
         <v>9</v>
       </c>
       <c r="C37" s="1">
+        <v>17</v>
+      </c>
+      <c r="D37" s="1">
+        <v>8</v>
+      </c>
+      <c r="E37" s="1">
         <v>18</v>
-      </c>
-      <c r="D37" s="1">
-        <v>7</v>
-      </c>
-      <c r="E37" s="1">
-        <v>17</v>
       </c>
       <c r="F37" s="1">
         <v>8</v>
@@ -6861,10 +6864,10 @@
         <v>7</v>
       </c>
       <c r="G38" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H38" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M38" s="1">
         <v>3</v>
@@ -6896,16 +6899,16 @@
         <v>11</v>
       </c>
       <c r="C39" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D39" s="1">
+        <v>8</v>
+      </c>
+      <c r="E39" s="1">
+        <v>18</v>
+      </c>
+      <c r="F39" s="1">
         <v>7</v>
-      </c>
-      <c r="E39" s="1">
-        <v>15</v>
-      </c>
-      <c r="F39" s="1">
-        <v>8</v>
       </c>
       <c r="G39" s="1">
         <v>18</v>
@@ -6945,19 +6948,19 @@
         <v>12</v>
       </c>
       <c r="C40" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D40" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E40" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F40" s="1">
         <v>8</v>
       </c>
       <c r="G40" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H40" s="1">
         <v>8</v>
@@ -7821,7 +7824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="R1" sqref="R1"/>
     </sheetView>
@@ -7891,27 +7894,7 @@
       <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="9">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>13</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2</v>
-      </c>
+      <c r="B3" s="9"/>
       <c r="M3" s="1">
         <v>3</v>
       </c>
@@ -7958,7 +7941,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
@@ -7967,13 +7950,13 @@
         <v>14</v>
       </c>
       <c r="F5" s="1">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1">
+        <v>13</v>
+      </c>
+      <c r="H5" s="1">
         <v>5</v>
-      </c>
-      <c r="G5" s="1">
-        <v>17</v>
-      </c>
-      <c r="H5" s="1">
-        <v>4</v>
       </c>
       <c r="M5" s="1">
         <v>3</v>
@@ -8021,22 +8004,22 @@
         <v>1</v>
       </c>
       <c r="C7" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F7" s="1">
         <v>7</v>
       </c>
       <c r="G7" s="1">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H7" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -8084,33 +8067,15 @@
       <c r="A9" s="10">
         <v>4</v>
       </c>
-      <c r="B9" s="10">
-        <v>1</v>
-      </c>
-      <c r="C9" s="7">
-        <v>13</v>
-      </c>
-      <c r="D9" s="7">
-        <v>2</v>
-      </c>
-      <c r="E9" s="7">
-        <v>16</v>
-      </c>
-      <c r="F9" s="7">
-        <v>1</v>
-      </c>
-      <c r="G9" s="7">
-        <v>17</v>
-      </c>
-      <c r="H9" s="7">
-        <v>1</v>
-      </c>
-      <c r="I9" s="7">
-        <v>17</v>
-      </c>
-      <c r="J9" s="7">
-        <v>2</v>
-      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1">
@@ -8155,33 +8120,15 @@
       <c r="A11" s="10">
         <v>5</v>
       </c>
-      <c r="B11" s="10">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1">
-        <v>16</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1">
-        <v>15</v>
-      </c>
-      <c r="F11" s="1">
-        <v>2</v>
-      </c>
-      <c r="G11" s="1">
-        <v>16</v>
-      </c>
-      <c r="H11" s="1">
-        <v>2</v>
-      </c>
-      <c r="I11" s="1">
-        <v>19</v>
-      </c>
-      <c r="J11" s="1">
-        <v>1</v>
-      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1">
@@ -8226,33 +8173,15 @@
       <c r="A13" s="10">
         <v>6</v>
       </c>
-      <c r="B13" s="10">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1">
-        <v>14</v>
-      </c>
-      <c r="D13" s="1">
-        <v>2</v>
-      </c>
-      <c r="E13" s="1">
-        <v>17</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1">
-        <v>19</v>
-      </c>
-      <c r="H13" s="1">
-        <v>1</v>
-      </c>
-      <c r="I13" s="1">
-        <v>18</v>
-      </c>
-      <c r="J13" s="1">
-        <v>2</v>
-      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1">

--- a/backend/emporium/data/StageData.xlsx
+++ b/backend/emporium/data/StageData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="828" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="828" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="constants" sheetId="8" r:id="rId1"/>
@@ -301,27 +301,15 @@
     <t>Duration</t>
   </si>
   <si>
-    <t>4 hr</t>
-  </si>
-  <si>
-    <t>5 hr</t>
-  </si>
-  <si>
     <t>cmb</t>
   </si>
   <si>
     <t>8 hr</t>
   </si>
   <si>
-    <t>12 hr</t>
-  </si>
-  <si>
     <t>9 hr</t>
   </si>
   <si>
-    <t>13 hr</t>
-  </si>
-  <si>
     <t>trap damage per world</t>
   </si>
   <si>
@@ -371,6 +359,18 @@
   </si>
   <si>
     <t>LevelLnd5</t>
+  </si>
+  <si>
+    <t>16 hr</t>
+  </si>
+  <si>
+    <t>18 hr</t>
+  </si>
+  <si>
+    <t>24 hr</t>
+  </si>
+  <si>
+    <t>27 hr</t>
   </si>
 </sst>
 </file>
@@ -811,7 +811,7 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G3" s="1">
         <v>10</v>
@@ -831,7 +831,7 @@
         <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G4" s="1">
         <v>3</v>
@@ -865,7 +865,7 @@
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G6" s="1">
         <v>12</v>
@@ -885,7 +885,7 @@
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G7" s="1">
         <v>3</v>
@@ -1263,10 +1263,10 @@
         <v>37</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -2003,7 +2003,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L79"/>
+  <dimension ref="A1:L80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2054,6 +2054,19 @@
       </c>
       <c r="L1" s="3"/>
     </row>
+    <row r="2" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="L2" s="20"/>
+    </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
@@ -2496,7 +2509,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -2530,7 +2543,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -2564,7 +2577,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -2598,7 +2611,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -2632,7 +2645,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -2666,7 +2679,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -2700,7 +2713,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -2734,7 +2747,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>1</v>
       </c>
@@ -2768,7 +2781,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -2802,7 +2815,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -2836,7 +2849,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -2870,7 +2883,20 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="L28" s="20"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>2</v>
       </c>
@@ -2904,7 +2930,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>2</v>
       </c>
@@ -2938,7 +2964,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>2</v>
       </c>
@@ -2972,7 +2998,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>2</v>
       </c>
@@ -3516,7 +3542,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>2</v>
       </c>
@@ -3550,7 +3576,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>2</v>
       </c>
@@ -3584,7 +3610,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>2</v>
       </c>
@@ -3618,7 +3644,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>2</v>
       </c>
@@ -3652,7 +3678,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>2</v>
       </c>
@@ -3686,7 +3712,20 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="20"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20"/>
+      <c r="L54" s="20"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>3</v>
       </c>
@@ -3720,7 +3759,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>3</v>
       </c>
@@ -3754,7 +3793,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>3</v>
       </c>
@@ -3788,7 +3827,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>3</v>
       </c>
@@ -3822,7 +3861,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>3</v>
       </c>
@@ -3856,7 +3895,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>3</v>
       </c>
@@ -3890,7 +3929,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>3</v>
       </c>
@@ -3924,7 +3963,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>3</v>
       </c>
@@ -3958,7 +3997,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>3</v>
       </c>
@@ -3992,7 +4031,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>3</v>
       </c>
@@ -4026,7 +4065,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>3</v>
       </c>
@@ -4060,7 +4099,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>3</v>
       </c>
@@ -4094,7 +4133,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>3</v>
       </c>
@@ -4128,7 +4167,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>3</v>
       </c>
@@ -4162,7 +4201,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>3</v>
       </c>
@@ -4196,7 +4235,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>3</v>
       </c>
@@ -4230,7 +4269,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>3</v>
       </c>
@@ -4264,7 +4303,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>3</v>
       </c>
@@ -4298,7 +4337,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>3</v>
       </c>
@@ -4332,7 +4371,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>3</v>
       </c>
@@ -4366,7 +4405,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>3</v>
       </c>
@@ -4400,7 +4439,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>3</v>
       </c>
@@ -4434,7 +4473,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>3</v>
       </c>
@@ -4468,7 +4507,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>3</v>
       </c>
@@ -4501,6 +4540,19 @@
         <f>constants!$G$6 + (Trap!$A79 - 1) * constants!$G$7 +1</f>
         <v>19</v>
       </c>
+    </row>
+    <row r="80" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="20"/>
+      <c r="B80" s="20"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="20"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="21"/>
+      <c r="H80" s="20"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="20"/>
+      <c r="L80" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4569,6 +4621,21 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="N2" s="20"/>
+    </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
@@ -5482,37 +5549,37 @@
         <v>38</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="M1" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>47</v>
@@ -7016,37 +7083,37 @@
         <v>38</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="M1" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>47</v>
@@ -7824,7 +7891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="R1" sqref="R1"/>
     </sheetView>
@@ -7845,37 +7912,37 @@
         <v>38</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="M1" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>47</v>
@@ -8435,37 +8502,37 @@
         <v>38</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="M1" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>47</v>
@@ -10225,7 +10292,7 @@
         <v>54</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -10262,7 +10329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
@@ -10293,7 +10360,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -10304,7 +10371,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -10315,7 +10382,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -10326,7 +10393,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -10337,7 +10404,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -10348,7 +10415,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/backend/emporium/data/StageData.xlsx
+++ b/backend/emporium/data/StageData.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="117">
   <si>
     <t>Name</t>
   </si>
@@ -371,6 +371,15 @@
   </si>
   <si>
     <t>27 hr</t>
+  </si>
+  <si>
+    <t>3 hr</t>
+  </si>
+  <si>
+    <t>5 hr</t>
+  </si>
+  <si>
+    <t>DurationMin</t>
   </si>
 </sst>
 </file>
@@ -10327,21 +10336,21 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.77734375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="14.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="1.77734375" customWidth="1"/>
+    <col min="2" max="4" width="14.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="1.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
@@ -10351,8 +10360,11 @@
       <c r="C1" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -10362,8 +10374,11 @@
       <c r="C3" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -10373,8 +10388,11 @@
       <c r="C4" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -10384,8 +10402,11 @@
       <c r="C5" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -10395,8 +10416,11 @@
       <c r="C6" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -10406,8 +10430,11 @@
       <c r="C7" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -10416,6 +10443,9 @@
       </c>
       <c r="C8" s="1" t="s">
         <v>113</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/backend/emporium/data/StageData.xlsx
+++ b/backend/emporium/data/StageData.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="119">
   <si>
     <t>Name</t>
   </si>
@@ -380,6 +380,12 @@
   </si>
   <si>
     <t>DurationMin</t>
+  </si>
+  <si>
+    <t>4 hr</t>
+  </si>
+  <si>
+    <t>6 hr</t>
   </si>
 </sst>
 </file>
@@ -10389,7 +10395,7 @@
         <v>92</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -10417,7 +10423,7 @@
         <v>111</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -10445,7 +10451,7 @@
         <v>113</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/backend/emporium/data/StageData.xlsx
+++ b/backend/emporium/data/StageData.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="129">
   <si>
     <t>Name</t>
   </si>
@@ -386,6 +386,36 @@
   </si>
   <si>
     <t>6 hr</t>
+  </si>
+  <si>
+    <t>DifficultyL1</t>
+  </si>
+  <si>
+    <t>DifficultyL2</t>
+  </si>
+  <si>
+    <t>DifficultyL3</t>
+  </si>
+  <si>
+    <t>DifficultyL4</t>
+  </si>
+  <si>
+    <t>DifficultyL5</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>easy / med</t>
+  </si>
+  <si>
+    <t>med</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>med / hard</t>
   </si>
 </sst>
 </file>
@@ -395,7 +425,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -407,6 +437,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -438,7 +475,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -496,6 +533,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7244,8 +7284,8 @@
         <v>46</v>
       </c>
       <c r="Q6" s="7">
-        <f>ROUND(constants!D$3 / 2 * $N6, 0)</f>
-        <v>5</v>
+        <f>ROUND(constants!D$4 / 2 * $N6, 0)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -7285,8 +7325,8 @@
         <v>51</v>
       </c>
       <c r="Q7" s="7">
-        <f>ROUND(constants!D$3 / 2 * $N7, 0)</f>
-        <v>6</v>
+        <f>ROUND(constants!D$4 / 2 * $N7, 0)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -7344,8 +7384,8 @@
         <v>53</v>
       </c>
       <c r="Q9" s="7">
-        <f>ROUND(constants!D$3 / 2 * $N9, 0)</f>
-        <v>6</v>
+        <f>ROUND(constants!D$5 / 2 * $N9, 0)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -7385,8 +7425,8 @@
         <v>58</v>
       </c>
       <c r="Q10" s="7">
-        <f>ROUND(constants!D$3 / 2 * $N10, 0)</f>
-        <v>6</v>
+        <f>ROUND(constants!D$5 / 2 * $N10, 0)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -7444,8 +7484,8 @@
         <v>60</v>
       </c>
       <c r="Q12" s="7">
-        <f>ROUND(constants!D$3 / 2 * $N12, 0)</f>
-        <v>6</v>
+        <f>ROUND(constants!D$6 / 2 * $N12, 0)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -7489,8 +7529,8 @@
         <v>130</v>
       </c>
       <c r="Q13" s="7">
-        <f>ROUND(constants!D$3 / 2 * $N13, 0)</f>
-        <v>6</v>
+        <f>ROUND(constants!D$6 / 2 * $N13, 0)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -7548,8 +7588,8 @@
         <v>67</v>
       </c>
       <c r="Q15" s="7">
-        <f>ROUND(constants!D$3 / 2 * $N15, 0)</f>
-        <v>6</v>
+        <f>ROUND(constants!D$7 / 2 * $N15, 0)</f>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -7593,8 +7633,8 @@
         <v>146</v>
       </c>
       <c r="Q16" s="7">
-        <f>ROUND(constants!D$3 / 2 * $N16, 0)</f>
-        <v>7</v>
+        <f>ROUND(constants!D$7 / 2 * $N16, 0)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -7647,8 +7687,8 @@
         <v>150</v>
       </c>
       <c r="Q18" s="7">
-        <f>ROUND(constants!D$3 / 2 * $N18, 0)</f>
-        <v>6</v>
+        <f>ROUND(constants!D$8 / 2 * $N18, 0)</f>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -7692,8 +7732,8 @@
         <v>162</v>
       </c>
       <c r="Q19" s="7">
-        <f>ROUND(constants!D$3 / 2 * $N19, 0)</f>
-        <v>7</v>
+        <f>ROUND(constants!D$8 / 2 * $N19, 0)</f>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -7904,22 +7944,22 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S23"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R1" sqref="R1"/>
+      <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="8.77734375" style="1" customWidth="1"/>
-    <col min="3" max="13" width="10.77734375" style="1" customWidth="1"/>
-    <col min="14" max="17" width="8.77734375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="1.77734375" customWidth="1"/>
+    <col min="3" max="8" width="10.77734375" style="1" customWidth="1"/>
+    <col min="9" max="12" width="8.77734375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="1.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
@@ -7927,76 +7967,61 @@
         <v>38</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>108</v>
+        <v>39</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q1" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>1</v>
       </c>
       <c r="B3" s="9"/>
-      <c r="M3" s="1">
-        <v>3</v>
-      </c>
-      <c r="N3" s="15">
-        <v>3</v>
-      </c>
-      <c r="O3" s="7">
-        <f>ROUND(constants!B$3 *$M3 * $N3, 0)</f>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+      <c r="I3" s="15">
+        <v>3</v>
+      </c>
+      <c r="J3" s="7">
+        <f>ROUND(constants!B$3 *$H3 * $I3, 0)</f>
         <v>450</v>
       </c>
-      <c r="P3" s="7">
-        <f>ROUND(constants!C$3 *$M3 * $N3, 0)</f>
+      <c r="K3" s="7">
+        <f>ROUND(constants!C$3 *$H3 * $I3, 0)</f>
         <v>180</v>
       </c>
-      <c r="Q3" s="7">
-        <f>ROUND(constants!D$3 / 3 * $N3, 0)</f>
+      <c r="L3" s="7">
+        <f>ROUND(constants!D$3 / 3 * $I3, 0)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="7"/>
@@ -8005,61 +8030,47 @@
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="I4" s="15"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>2</v>
       </c>
       <c r="B5" s="9">
         <v>1</v>
       </c>
-      <c r="C5" s="1">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1">
-        <v>14</v>
-      </c>
-      <c r="F5" s="1">
-        <v>4</v>
-      </c>
-      <c r="G5" s="1">
-        <v>13</v>
+      <c r="C5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="H5" s="1">
-        <v>5</v>
-      </c>
-      <c r="M5" s="1">
-        <v>3</v>
-      </c>
-      <c r="N5" s="15">
+        <v>3</v>
+      </c>
+      <c r="I5" s="15">
         <v>3.1</v>
       </c>
-      <c r="O5" s="7">
-        <f>ROUND(constants!B$4 *$M5 * $N5, 0)</f>
+      <c r="J5" s="7">
+        <f>ROUND(constants!B$4 *$H5 * $I5, 0)</f>
         <v>493</v>
       </c>
-      <c r="P5" s="7">
-        <f>ROUND(constants!C$4 *$M5 * $N5, 0)</f>
+      <c r="K5" s="7">
+        <f>ROUND(constants!C$4 *$H5 * $I5, 0)</f>
         <v>205</v>
       </c>
-      <c r="Q5" s="7">
-        <f>ROUND(constants!D$3 / 3 * $N5, 0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L5" s="7">
+        <f>ROUND(constants!D$4 / 3 * $I5, 0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="7"/>
@@ -8068,65 +8079,49 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="I6" s="15"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-    </row>
-    <row r="7" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>3</v>
       </c>
       <c r="B7" s="10">
         <v>1</v>
       </c>
-      <c r="C7" s="1">
-        <v>12</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="C7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1">
+        <v>3</v>
+      </c>
+      <c r="I7" s="15">
+        <v>3.2</v>
+      </c>
+      <c r="J7" s="7">
+        <f>ROUND(constants!B$5 *$H7 * $I7, 0)</f>
+        <v>538</v>
+      </c>
+      <c r="K7" s="7">
+        <f>ROUND(constants!C$5 *$H7 * $I7, 0)</f>
+        <v>230</v>
+      </c>
+      <c r="L7" s="7">
+        <f>ROUND(constants!D$5 / 3 * $I7, 0)</f>
         <v>7</v>
       </c>
-      <c r="E7" s="1">
-        <v>15</v>
-      </c>
-      <c r="F7" s="1">
-        <v>7</v>
-      </c>
-      <c r="G7" s="1">
-        <v>15</v>
-      </c>
-      <c r="H7" s="1">
-        <v>8</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1">
-        <v>3</v>
-      </c>
-      <c r="N7" s="15">
-        <v>3.2</v>
-      </c>
-      <c r="O7" s="7">
-        <f>ROUND(constants!B$5 *$M7 * $N7, 0)</f>
-        <v>538</v>
-      </c>
-      <c r="P7" s="7">
-        <f>ROUND(constants!C$5 *$M7 * $N7, 0)</f>
-        <v>230</v>
-      </c>
-      <c r="Q7" s="7">
-        <f>ROUND(constants!D$3 / 3 * $N7, 0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="7"/>
@@ -8135,51 +8130,51 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
+      <c r="I8" s="15"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-    </row>
-    <row r="9" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>4</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="B9" s="10">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1">
+      <c r="H9" s="1">
         <v>4</v>
       </c>
-      <c r="N9" s="15">
+      <c r="I9" s="15">
         <v>3.3</v>
       </c>
-      <c r="O9" s="7">
-        <f>ROUND(constants!B$6 *$M9 * $N9, 0)</f>
+      <c r="J9" s="7">
+        <f>ROUND(constants!B$6 *$H9 * $I9, 0)</f>
         <v>779</v>
       </c>
-      <c r="P9" s="7">
-        <f>ROUND(constants!C$6 *$M9 * $N9, 0)</f>
+      <c r="K9" s="7">
+        <f>ROUND(constants!C$6 *$H9 * $I9, 0)</f>
         <v>343</v>
       </c>
-      <c r="Q9" s="7">
-        <f>ROUND(constants!D$3 / 3 * $N9, 0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L9" s="7">
+        <f>ROUND(constants!D$6 / 3 * $I9, 0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="7"/>
@@ -8188,51 +8183,51 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
+      <c r="I10" s="15"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-    </row>
-    <row r="11" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>5</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="B11" s="10">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1">
+      <c r="H11" s="1">
         <v>4</v>
       </c>
-      <c r="N11" s="15">
+      <c r="I11" s="15">
         <v>3.4</v>
       </c>
-      <c r="O11" s="7">
-        <f>ROUND(constants!B$7 *$M11 * $N11, 0)</f>
+      <c r="J11" s="7">
+        <f>ROUND(constants!B$7 *$H11 * $I11, 0)</f>
         <v>843</v>
       </c>
-      <c r="P11" s="7">
-        <f>ROUND(constants!C$7 *$M11 * $N11, 0)</f>
+      <c r="K11" s="7">
+        <f>ROUND(constants!C$7 *$H11 * $I11, 0)</f>
         <v>381</v>
       </c>
-      <c r="Q11" s="7">
-        <f>ROUND(constants!D$3 / 3 * $N11, 0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L11" s="7">
+        <f>ROUND(constants!D$7 / 3 * $I11, 0)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="7"/>
@@ -8241,59 +8236,59 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
+      <c r="I12" s="15"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-    </row>
-    <row r="13" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>6</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="B13" s="10">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1">
+      <c r="H13" s="1">
         <v>4</v>
       </c>
-      <c r="N13" s="15">
+      <c r="I13" s="15">
         <v>3.5</v>
       </c>
-      <c r="O13" s="7">
-        <f>ROUND(constants!B$8 *$M13 * $N13, 0)</f>
+      <c r="J13" s="7">
+        <f>ROUND(constants!B$8 *$H13 * $I13, 0)</f>
         <v>910</v>
       </c>
-      <c r="P13" s="7">
-        <f>ROUND(constants!C$8 *$M13 * $N13, 0)</f>
+      <c r="K13" s="7">
+        <f>ROUND(constants!C$8 *$H13 * $I13, 0)</f>
         <v>420</v>
       </c>
-      <c r="Q13" s="7">
-        <f>ROUND(constants!D$3 / 3 * $N13, 0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L13" s="7">
+        <f>ROUND(constants!D$8 / 3 * $I13, 0)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-    </row>
-    <row r="15" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I14" s="15"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+    </row>
+    <row r="15" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>7</v>
       </c>
@@ -8303,37 +8298,34 @@
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14">
+      <c r="H15" s="14">
         <v>5</v>
       </c>
-      <c r="N15" s="15">
+      <c r="I15" s="15">
         <v>3.6</v>
       </c>
-      <c r="O15" s="7">
-        <f>ROUND(constants!B$9 *$M15 * $N15, 0)</f>
+      <c r="J15" s="7">
+        <f>ROUND(constants!B$9 *$H15 * $I15, 0)</f>
         <v>1224</v>
       </c>
-      <c r="P15" s="7">
-        <f>ROUND(constants!C$9 *$M15 * $N15, 0)</f>
+      <c r="K15" s="7">
+        <f>ROUND(constants!C$9 *$H15 * $I15, 0)</f>
         <v>576</v>
       </c>
-      <c r="Q15" s="7">
-        <f>ROUND(constants!D$3 / 3 * $N15, 0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L15" s="7">
+        <f>ROUND(constants!D$9 / 3 * $I15, 0)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-    </row>
-    <row r="17" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I16" s="15"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+    </row>
+    <row r="17" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>8</v>
       </c>
@@ -8343,39 +8335,34 @@
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14">
+      <c r="H17" s="14">
         <v>5</v>
       </c>
-      <c r="N17" s="15">
+      <c r="I17" s="15">
         <v>3.7</v>
       </c>
-      <c r="O17" s="7">
-        <f>ROUND(constants!B$10 *$M17 * $N17, 0)</f>
+      <c r="J17" s="7">
+        <f>ROUND(constants!B$10 *$H17 * $I17, 0)</f>
         <v>1314</v>
       </c>
-      <c r="P17" s="7">
-        <f>ROUND(constants!C$10 *$M17 * $N17, 0)</f>
+      <c r="K17" s="7">
+        <f>ROUND(constants!C$10 *$H17 * $I17, 0)</f>
         <v>629</v>
       </c>
-      <c r="Q17" s="7">
-        <f>ROUND(constants!D$3 / 3 * $N17, 0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L17" s="7">
+        <f>ROUND(constants!D$10 / 3 * $I17, 0)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-    </row>
-    <row r="19" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I18" s="15"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+    </row>
+    <row r="19" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>9</v>
       </c>
@@ -8385,31 +8372,26 @@
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14">
+      <c r="H19" s="14">
         <v>5</v>
       </c>
-      <c r="N19" s="15">
+      <c r="I19" s="15">
         <v>3.8</v>
       </c>
-      <c r="O19" s="7">
-        <f>ROUND(constants!B$11 *$M19 * $N19, 0)</f>
+      <c r="J19" s="7">
+        <f>ROUND(constants!B$11 *$H19 * $I19, 0)</f>
         <v>1406</v>
       </c>
-      <c r="P19" s="7">
-        <f>ROUND(constants!C$11 *$M19 * $N19, 0)</f>
+      <c r="K19" s="7">
+        <f>ROUND(constants!C$11 *$H19 * $I19, 0)</f>
         <v>684</v>
       </c>
-      <c r="Q19" s="7">
-        <f>ROUND(constants!D$3 / 3 * $N19, 0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L19" s="7">
+        <f>ROUND(constants!D$11 / 3 * $I19, 0)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="11"/>
@@ -8418,19 +8400,14 @@
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
+      <c r="I20" s="15"/>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-    </row>
-    <row r="21" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N20" s="11"/>
+    </row>
+    <row r="21" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
@@ -8439,16 +8416,11 @@
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
       <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
-    </row>
-    <row r="22" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+    </row>
+    <row r="22" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -8461,13 +8433,8 @@
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-    </row>
-    <row r="23" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -8480,11 +8447,6 @@
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
       <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8494,22 +8456,22 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R1" sqref="R1"/>
+      <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="8.77734375" style="1" customWidth="1"/>
-    <col min="3" max="13" width="10.77734375" style="1" customWidth="1"/>
-    <col min="14" max="17" width="8.77734375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="1.77734375" customWidth="1"/>
+    <col min="3" max="8" width="10.77734375" style="1" customWidth="1"/>
+    <col min="9" max="12" width="8.77734375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="1.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
@@ -8517,84 +8479,66 @@
         <v>38</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>108</v>
+        <v>39</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q1" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>1</v>
       </c>
       <c r="B3" s="9">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="M3" s="1">
-        <v>1</v>
-      </c>
-      <c r="N3" s="16">
+      <c r="C3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="16">
         <v>4</v>
       </c>
-      <c r="O3" s="7">
-        <f>ROUND(constants!B$3 * $M3 * $N3,0)</f>
+      <c r="J3" s="7">
+        <f>ROUND(constants!B$3 * $H3 * $I3,0)</f>
         <v>200</v>
       </c>
-      <c r="P3" s="7">
-        <f>ROUND(constants!C$3 * $M3 * $N3,0)</f>
+      <c r="K3" s="7">
+        <f>ROUND(constants!C$3 * $H3 * $I3,0)</f>
         <v>80</v>
       </c>
-      <c r="Q3" s="7">
-        <f>ROUND(constants!D$3 /4 * $N3,0)</f>
+      <c r="L3" s="7">
+        <f>ROUND(constants!D$3 /4 * $I3,0)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <f>A3</f>
         <v>1</v>
@@ -8603,33 +8547,30 @@
         <f>B3+1</f>
         <v>2</v>
       </c>
-      <c r="C4" s="1">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2</v>
-      </c>
-      <c r="M4" s="1">
-        <v>1</v>
-      </c>
-      <c r="N4" s="16">
-        <f>N3+0.05</f>
+      <c r="C4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="16">
+        <f>I3+0.05</f>
         <v>4.05</v>
       </c>
-      <c r="O4" s="7">
-        <f>ROUND(constants!B$3 * $M4 * $N4,0)</f>
+      <c r="J4" s="7">
+        <f>ROUND(constants!B$3 * $H4 * $I4,0)</f>
         <v>203</v>
       </c>
-      <c r="P4" s="7">
-        <f>ROUND(constants!C$3 * $M4 * $N4,0)</f>
+      <c r="K4" s="7">
+        <f>ROUND(constants!C$3 * $H4 * $I4,0)</f>
         <v>81</v>
       </c>
-      <c r="Q4" s="7">
-        <f>ROUND(constants!D$3 /4 * $N4,0)</f>
+      <c r="L4" s="7">
+        <f>ROUND(constants!D$3 /4 * $I4,0)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <f t="shared" ref="A5:A12" si="0">A4</f>
         <v>1</v>
@@ -8638,33 +8579,33 @@
         <f t="shared" ref="B5:B12" si="1">B4+1</f>
         <v>3</v>
       </c>
-      <c r="C5" s="1">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="M5" s="1">
-        <v>1</v>
-      </c>
-      <c r="N5" s="16">
-        <f t="shared" ref="N5:N12" si="2">N4+0.05</f>
+      <c r="C5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2</v>
+      </c>
+      <c r="I5" s="16">
+        <f t="shared" ref="I5:I12" si="2">I4+0.05</f>
         <v>4.0999999999999996</v>
       </c>
-      <c r="O5" s="7">
-        <f>ROUND(constants!B$3 * $M5 * $N5,0)</f>
-        <v>205</v>
-      </c>
-      <c r="P5" s="7">
-        <f>ROUND(constants!C$3 * $M5 * $N5,0)</f>
-        <v>82</v>
-      </c>
-      <c r="Q5" s="7">
-        <f>ROUND(constants!D$3 /4 * $N5,0)</f>
+      <c r="J5" s="7">
+        <f>ROUND(constants!B$3 * $H5 * $I5,0)</f>
+        <v>410</v>
+      </c>
+      <c r="K5" s="7">
+        <f>ROUND(constants!C$3 * $H5 * $I5,0)</f>
+        <v>164</v>
+      </c>
+      <c r="L5" s="7">
+        <f>ROUND(constants!D$3 /4 * $I5,0)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -8673,39 +8614,33 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C6" s="1">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>13</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="M6" s="1">
-        <v>2</v>
-      </c>
-      <c r="N6" s="16">
+      <c r="C6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2</v>
+      </c>
+      <c r="I6" s="16">
         <f t="shared" si="2"/>
         <v>4.1499999999999995</v>
       </c>
-      <c r="O6" s="7">
-        <f>ROUND(constants!B$3 * $M6 * $N6,0)</f>
+      <c r="J6" s="7">
+        <f>ROUND(constants!B$3 * $H6 * $I6,0)</f>
         <v>415</v>
       </c>
-      <c r="P6" s="7">
-        <f>ROUND(constants!C$3 * $M6 * $N6,0)</f>
+      <c r="K6" s="7">
+        <f>ROUND(constants!C$3 * $H6 * $I6,0)</f>
         <v>166</v>
       </c>
-      <c r="Q6" s="7">
-        <f>ROUND(constants!D$3 /4 * $N6,0)</f>
+      <c r="L6" s="7">
+        <f>ROUND(constants!D$3 /4 * $I6,0)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -8714,33 +8649,30 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C7" s="1">
-        <v>14</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="M7" s="1">
-        <v>1</v>
-      </c>
-      <c r="N7" s="16">
+      <c r="C7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="16">
         <f t="shared" si="2"/>
         <v>4.1999999999999993</v>
       </c>
-      <c r="O7" s="7">
-        <f>ROUND(constants!B$3 * $M7 * $N7,0)</f>
+      <c r="J7" s="7">
+        <f>ROUND(constants!B$3 * $H7 * $I7,0)</f>
         <v>210</v>
       </c>
-      <c r="P7" s="7">
-        <f>ROUND(constants!C$3 * $M7 * $N7,0)</f>
+      <c r="K7" s="7">
+        <f>ROUND(constants!C$3 * $H7 * $I7,0)</f>
         <v>84</v>
       </c>
-      <c r="Q7" s="7">
-        <f>ROUND(constants!D$3 /4 * $N7,0)</f>
+      <c r="L7" s="7">
+        <f>ROUND(constants!D$3 /4 * $I7,0)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -8749,41 +8681,34 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C8" s="1">
-        <v>14</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>13</v>
-      </c>
-      <c r="F8" s="1">
-        <v>2</v>
+      <c r="C8" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="M8" s="1">
-        <v>2</v>
-      </c>
-      <c r="N8" s="16">
+      <c r="H8" s="1">
+        <v>2</v>
+      </c>
+      <c r="I8" s="16">
         <f t="shared" si="2"/>
         <v>4.2499999999999991</v>
       </c>
-      <c r="O8" s="7">
-        <f>ROUND(constants!B$3 * $M8 * $N8,0)</f>
+      <c r="J8" s="7">
+        <f>ROUND(constants!B$3 * $H8 * $I8,0)</f>
         <v>425</v>
       </c>
-      <c r="P8" s="7">
-        <f>ROUND(constants!C$3 * $M8 * $N8,0)</f>
+      <c r="K8" s="7">
+        <f>ROUND(constants!C$3 * $H8 * $I8,0)</f>
         <v>170</v>
       </c>
-      <c r="Q8" s="7">
-        <f>ROUND(constants!D$3 /4 * $N8,0)</f>
+      <c r="L8" s="7">
+        <f>ROUND(constants!D$3 /4 * $I8,0)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -8792,33 +8717,30 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C9" s="1">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2</v>
-      </c>
-      <c r="M9" s="1">
-        <v>1</v>
-      </c>
-      <c r="N9" s="16">
+      <c r="C9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="16">
         <f t="shared" si="2"/>
         <v>4.2999999999999989</v>
       </c>
-      <c r="O9" s="7">
-        <f>ROUND(constants!B$3 * $M9 * $N9,0)</f>
+      <c r="J9" s="7">
+        <f>ROUND(constants!B$3 * $H9 * $I9,0)</f>
         <v>215</v>
       </c>
-      <c r="P9" s="7">
-        <f>ROUND(constants!C$3 * $M9 * $N9,0)</f>
+      <c r="K9" s="7">
+        <f>ROUND(constants!C$3 * $H9 * $I9,0)</f>
         <v>86</v>
       </c>
-      <c r="Q9" s="7">
-        <f>ROUND(constants!D$3 /4 * $N9,0)</f>
+      <c r="L9" s="7">
+        <f>ROUND(constants!D$3 /4 * $I9,0)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -8827,45 +8749,36 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C10" s="1">
-        <v>12</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
-        <v>14</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1">
-        <v>12</v>
+      <c r="C10" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="H10" s="1">
-        <v>2</v>
-      </c>
-      <c r="M10" s="1">
-        <v>3</v>
-      </c>
-      <c r="N10" s="16">
+        <v>3</v>
+      </c>
+      <c r="I10" s="16">
         <f t="shared" si="2"/>
         <v>4.3499999999999988</v>
       </c>
-      <c r="O10" s="7">
-        <f>ROUND(constants!B$3 * $M10 * $N10,0)</f>
+      <c r="J10" s="7">
+        <f>ROUND(constants!B$3 * $H10 * $I10,0)</f>
         <v>653</v>
       </c>
-      <c r="P10" s="7">
-        <f>ROUND(constants!C$3 * $M10 * $N10,0)</f>
+      <c r="K10" s="7">
+        <f>ROUND(constants!C$3 * $H10 * $I10,0)</f>
         <v>261</v>
       </c>
-      <c r="Q10" s="7">
-        <f>ROUND(constants!D$3 /4 * $N10,0)</f>
+      <c r="L10" s="7">
+        <f>ROUND(constants!D$3 /4 * $I10,0)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -8874,39 +8787,33 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C11" s="1">
-        <v>15</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1">
-        <v>13</v>
-      </c>
-      <c r="F11" s="1">
-        <v>2</v>
-      </c>
-      <c r="M11" s="1">
-        <v>2</v>
-      </c>
-      <c r="N11" s="16">
+      <c r="C11" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2</v>
+      </c>
+      <c r="I11" s="16">
         <f t="shared" si="2"/>
         <v>4.3999999999999986</v>
       </c>
-      <c r="O11" s="7">
-        <f>ROUND(constants!B$3 * $M11 * $N11,0)</f>
+      <c r="J11" s="7">
+        <f>ROUND(constants!B$3 * $H11 * $I11,0)</f>
         <v>440</v>
       </c>
-      <c r="P11" s="7">
-        <f>ROUND(constants!C$3 * $M11 * $N11,0)</f>
+      <c r="K11" s="7">
+        <f>ROUND(constants!C$3 * $H11 * $I11,0)</f>
         <v>176</v>
       </c>
-      <c r="Q11" s="7">
-        <f>ROUND(constants!D$3 /4 * $N11,0)</f>
+      <c r="L11" s="7">
+        <f>ROUND(constants!D$3 /4 * $I11,0)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -8915,94 +8822,77 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C12" s="1">
-        <v>14</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1">
-        <v>15</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1">
-        <v>14</v>
+      <c r="C12" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="H12" s="1">
-        <v>2</v>
-      </c>
-      <c r="M12" s="1">
-        <v>3</v>
-      </c>
-      <c r="N12" s="16">
+        <v>3</v>
+      </c>
+      <c r="I12" s="16">
         <f t="shared" si="2"/>
         <v>4.4499999999999984</v>
       </c>
-      <c r="O12" s="7">
-        <f>ROUND(constants!B$3 * $M12 * $N12,0)</f>
+      <c r="J12" s="7">
+        <f>ROUND(constants!B$3 * $H12 * $I12,0)</f>
         <v>668</v>
       </c>
-      <c r="P12" s="7">
-        <f>ROUND(constants!C$3 * $M12 * $N12,0)</f>
+      <c r="K12" s="7">
+        <f>ROUND(constants!C$3 * $H12 * $I12,0)</f>
         <v>267</v>
       </c>
-      <c r="Q12" s="7">
-        <f>ROUND(constants!D$3 /4 * $N12,0)</f>
+      <c r="L12" s="7">
+        <f>ROUND(constants!D$3 /4 * $I12,0)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
+      <c r="I13" s="8"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>2</v>
       </c>
       <c r="B14" s="9">
         <v>1</v>
       </c>
-      <c r="C14" s="1">
-        <v>14</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="C14" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="16">
         <v>4</v>
       </c>
-      <c r="M14" s="1">
-        <v>1</v>
-      </c>
-      <c r="N14" s="16">
-        <v>4</v>
-      </c>
-      <c r="O14" s="7">
-        <f>ROUND(constants!B$4 * $M14 * $N14,0)</f>
+      <c r="J14" s="7">
+        <f>ROUND(constants!B$4 * $H14 * $I14,0)</f>
         <v>212</v>
       </c>
-      <c r="P14" s="7">
-        <f>ROUND(constants!C$4 * $M14 * $N14,0)</f>
+      <c r="K14" s="7">
+        <f>ROUND(constants!C$4 * $H14 * $I14,0)</f>
         <v>88</v>
       </c>
-      <c r="Q14" s="7">
-        <f>ROUND(constants!D$3 /4 * $N14,0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="L14" s="7">
+        <f>ROUND(constants!D$4 /4 * $I14,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <f>A14</f>
         <v>2</v>
@@ -9011,33 +8901,33 @@
         <f>B14+1</f>
         <v>2</v>
       </c>
-      <c r="C15" s="1">
-        <v>15</v>
-      </c>
-      <c r="D15" s="1">
-        <v>4</v>
-      </c>
-      <c r="M15" s="1">
-        <v>1</v>
-      </c>
-      <c r="N15" s="16">
-        <f>N14+0.05</f>
+      <c r="C15" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H15" s="1">
+        <v>2</v>
+      </c>
+      <c r="I15" s="16">
+        <f>I14+0.05</f>
         <v>4.05</v>
       </c>
-      <c r="O15" s="7">
-        <f>ROUND(constants!B$4 * $M15 * $N15,0)</f>
-        <v>215</v>
-      </c>
-      <c r="P15" s="7">
-        <f>ROUND(constants!C$4 * $M15 * $N15,0)</f>
-        <v>89</v>
-      </c>
-      <c r="Q15" s="7">
-        <f>ROUND(constants!D$3 /4 * $N15,0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J15" s="7">
+        <f>ROUND(constants!B$4 * $H15 * $I15,0)</f>
+        <v>429</v>
+      </c>
+      <c r="K15" s="7">
+        <f>ROUND(constants!C$4 * $H15 * $I15,0)</f>
+        <v>178</v>
+      </c>
+      <c r="L15" s="7">
+        <f>ROUND(constants!D$4 /4 * $I15,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <f t="shared" ref="A16:A27" si="3">A15</f>
         <v>2</v>
@@ -9046,39 +8936,30 @@
         <f>B15+1</f>
         <v>3</v>
       </c>
-      <c r="C16" s="1">
-        <v>12</v>
-      </c>
-      <c r="D16" s="1">
-        <v>5</v>
-      </c>
-      <c r="E16" s="1">
-        <v>16</v>
-      </c>
-      <c r="F16" s="1">
-        <v>4</v>
-      </c>
-      <c r="M16" s="1">
-        <v>2</v>
-      </c>
-      <c r="N16" s="16">
-        <f t="shared" ref="N16:N27" si="4">N15+0.05</f>
+      <c r="C16" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H16" s="23">
+        <v>1</v>
+      </c>
+      <c r="I16" s="16">
+        <f t="shared" ref="I16:I27" si="4">I15+0.05</f>
         <v>4.0999999999999996</v>
       </c>
-      <c r="O16" s="7">
-        <f>ROUND(constants!B$4 * $M16 * $N16,0)</f>
-        <v>435</v>
-      </c>
-      <c r="P16" s="7">
-        <f>ROUND(constants!C$4 * $M16 * $N16,0)</f>
-        <v>180</v>
-      </c>
-      <c r="Q16" s="7">
-        <f>ROUND(constants!D$3 /4 * $N16,0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J16" s="7">
+        <f>ROUND(constants!B$4 * $H16 * $I16,0)</f>
+        <v>217</v>
+      </c>
+      <c r="K16" s="7">
+        <f>ROUND(constants!C$4 * $H16 * $I16,0)</f>
+        <v>90</v>
+      </c>
+      <c r="L16" s="7">
+        <f>ROUND(constants!D$4 /4 * $I16,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -9087,33 +8968,33 @@
         <f t="shared" ref="B17:B22" si="5">B16+1</f>
         <v>4</v>
       </c>
-      <c r="C17" s="1">
-        <v>17</v>
-      </c>
-      <c r="D17" s="1">
-        <v>4</v>
-      </c>
-      <c r="M17" s="1">
-        <v>1</v>
-      </c>
-      <c r="N17" s="16">
+      <c r="C17" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H17" s="1">
+        <v>2</v>
+      </c>
+      <c r="I17" s="16">
         <f t="shared" si="4"/>
         <v>4.1499999999999995</v>
       </c>
-      <c r="O17" s="7">
-        <f>ROUND(constants!B$4 * $M17 * $N17,0)</f>
-        <v>220</v>
-      </c>
-      <c r="P17" s="7">
-        <f>ROUND(constants!C$4 * $M17 * $N17,0)</f>
-        <v>91</v>
-      </c>
-      <c r="Q17" s="7">
-        <f>ROUND(constants!D$3 /4 * $N17,0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J17" s="7">
+        <f>ROUND(constants!B$4 * $H17 * $I17,0)</f>
+        <v>440</v>
+      </c>
+      <c r="K17" s="7">
+        <f>ROUND(constants!C$4 * $H17 * $I17,0)</f>
+        <v>183</v>
+      </c>
+      <c r="L17" s="7">
+        <f>ROUND(constants!D$4 /4 * $I17,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -9122,39 +9003,36 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="C18" s="1">
-        <v>12</v>
-      </c>
-      <c r="D18" s="1">
-        <v>4</v>
-      </c>
-      <c r="E18" s="1">
-        <v>12</v>
-      </c>
-      <c r="F18" s="1">
-        <v>5</v>
-      </c>
-      <c r="M18" s="1">
-        <v>2</v>
-      </c>
-      <c r="N18" s="16">
+      <c r="C18" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H18" s="1">
+        <v>3</v>
+      </c>
+      <c r="I18" s="16">
         <f t="shared" si="4"/>
         <v>4.1999999999999993</v>
       </c>
-      <c r="O18" s="7">
-        <f>ROUND(constants!B$4 * $M18 * $N18,0)</f>
-        <v>445</v>
-      </c>
-      <c r="P18" s="7">
-        <f>ROUND(constants!C$4 * $M18 * $N18,0)</f>
-        <v>185</v>
-      </c>
-      <c r="Q18" s="7">
-        <f>ROUND(constants!D$3 /4 * $N18,0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J18" s="7">
+        <f>ROUND(constants!B$4 * $H18 * $I18,0)</f>
+        <v>668</v>
+      </c>
+      <c r="K18" s="7">
+        <f>ROUND(constants!C$4 * $H18 * $I18,0)</f>
+        <v>277</v>
+      </c>
+      <c r="L18" s="7">
+        <f>ROUND(constants!D$4 /4 * $I18,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -9163,39 +9041,33 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="C19" s="1">
-        <v>13</v>
-      </c>
-      <c r="D19" s="1">
-        <v>4</v>
-      </c>
-      <c r="E19" s="1">
-        <v>15</v>
-      </c>
-      <c r="F19" s="1">
-        <v>4</v>
-      </c>
-      <c r="M19" s="1">
-        <v>2</v>
-      </c>
-      <c r="N19" s="16">
+      <c r="C19" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H19" s="1">
+        <v>2</v>
+      </c>
+      <c r="I19" s="16">
         <f t="shared" si="4"/>
         <v>4.2499999999999991</v>
       </c>
-      <c r="O19" s="7">
-        <f>ROUND(constants!B$4 * $M19 * $N19,0)</f>
+      <c r="J19" s="7">
+        <f>ROUND(constants!B$4 * $H19 * $I19,0)</f>
         <v>451</v>
       </c>
-      <c r="P19" s="7">
-        <f>ROUND(constants!C$4 * $M19 * $N19,0)</f>
+      <c r="K19" s="7">
+        <f>ROUND(constants!C$4 * $H19 * $I19,0)</f>
         <v>187</v>
       </c>
-      <c r="Q19" s="7">
-        <f>ROUND(constants!D$3 /4 * $N19,0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="L19" s="7">
+        <f>ROUND(constants!D$4 /4 * $I19,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -9204,33 +9076,33 @@
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="C20" s="1">
-        <v>14</v>
-      </c>
-      <c r="D20" s="1">
-        <v>5</v>
-      </c>
-      <c r="M20" s="1">
-        <v>1</v>
-      </c>
-      <c r="N20" s="16">
+      <c r="C20" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H20" s="1">
+        <v>2</v>
+      </c>
+      <c r="I20" s="16">
         <f t="shared" si="4"/>
         <v>4.2999999999999989</v>
       </c>
-      <c r="O20" s="7">
-        <f>ROUND(constants!B$4 * $M20 * $N20,0)</f>
-        <v>228</v>
-      </c>
-      <c r="P20" s="7">
-        <f>ROUND(constants!C$4 * $M20 * $N20,0)</f>
-        <v>95</v>
-      </c>
-      <c r="Q20" s="7">
-        <f>ROUND(constants!D$3 /4 * $N20,0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J20" s="7">
+        <f>ROUND(constants!B$4 * $H20 * $I20,0)</f>
+        <v>456</v>
+      </c>
+      <c r="K20" s="7">
+        <f>ROUND(constants!C$4 * $H20 * $I20,0)</f>
+        <v>189</v>
+      </c>
+      <c r="L20" s="7">
+        <f>ROUND(constants!D$4 /4 * $I20,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -9239,45 +9111,30 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="C21" s="1">
-        <v>14</v>
-      </c>
-      <c r="D21" s="1">
-        <v>4</v>
-      </c>
-      <c r="E21" s="1">
-        <v>14</v>
-      </c>
-      <c r="F21" s="1">
-        <v>5</v>
-      </c>
-      <c r="G21" s="1">
-        <v>17</v>
-      </c>
-      <c r="H21" s="1">
-        <v>4</v>
-      </c>
-      <c r="M21" s="1">
-        <v>3</v>
-      </c>
-      <c r="N21" s="16">
+      <c r="C21" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H21" s="23">
+        <v>1</v>
+      </c>
+      <c r="I21" s="16">
         <f t="shared" si="4"/>
         <v>4.3499999999999988</v>
       </c>
-      <c r="O21" s="7">
-        <f>ROUND(constants!B$4 * $M21 * $N21,0)</f>
-        <v>692</v>
-      </c>
-      <c r="P21" s="7">
-        <f>ROUND(constants!C$4 * $M21 * $N21,0)</f>
-        <v>287</v>
-      </c>
-      <c r="Q21" s="7">
-        <f>ROUND(constants!D$3 /4 * $N21,0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J21" s="7">
+        <f>ROUND(constants!B$4 * $H21 * $I21,0)</f>
+        <v>231</v>
+      </c>
+      <c r="K21" s="7">
+        <f>ROUND(constants!C$4 * $H21 * $I21,0)</f>
+        <v>96</v>
+      </c>
+      <c r="L21" s="7">
+        <f>ROUND(constants!D$4 /4 * $I21,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -9286,39 +9143,33 @@
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="C22" s="1">
-        <v>13</v>
-      </c>
-      <c r="D22" s="1">
-        <v>4</v>
-      </c>
-      <c r="E22" s="1">
-        <v>15</v>
-      </c>
-      <c r="F22" s="1">
-        <v>4</v>
-      </c>
-      <c r="M22" s="1">
-        <v>2</v>
-      </c>
-      <c r="N22" s="16">
+      <c r="C22" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H22" s="1">
+        <v>2</v>
+      </c>
+      <c r="I22" s="16">
         <f t="shared" si="4"/>
         <v>4.3999999999999986</v>
       </c>
-      <c r="O22" s="7">
-        <f>ROUND(constants!B$4 * $M22 * $N22,0)</f>
+      <c r="J22" s="7">
+        <f>ROUND(constants!B$4 * $H22 * $I22,0)</f>
         <v>466</v>
       </c>
-      <c r="P22" s="7">
-        <f>ROUND(constants!C$4 * $M22 * $N22,0)</f>
+      <c r="K22" s="7">
+        <f>ROUND(constants!C$4 * $H22 * $I22,0)</f>
         <v>194</v>
       </c>
-      <c r="Q22" s="7">
-        <f>ROUND(constants!D$3 /4 * $N22,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="L22" s="7">
+        <f>ROUND(constants!D$4 /4 * $I22,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -9327,39 +9178,33 @@
         <f>B22+1</f>
         <v>10</v>
       </c>
-      <c r="C23" s="1">
-        <v>15</v>
-      </c>
-      <c r="D23" s="1">
-        <v>4</v>
-      </c>
-      <c r="E23" s="1">
-        <v>13</v>
-      </c>
-      <c r="F23" s="1">
-        <v>5</v>
-      </c>
-      <c r="M23" s="1">
-        <v>2</v>
-      </c>
-      <c r="N23" s="16">
+      <c r="C23" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H23" s="1">
+        <v>2</v>
+      </c>
+      <c r="I23" s="16">
         <f t="shared" si="4"/>
         <v>4.4499999999999984</v>
       </c>
-      <c r="O23" s="7">
-        <f>ROUND(constants!B$4 * $M23 * $N23,0)</f>
+      <c r="J23" s="7">
+        <f>ROUND(constants!B$4 * $H23 * $I23,0)</f>
         <v>472</v>
       </c>
-      <c r="P23" s="7">
-        <f>ROUND(constants!C$4 * $M23 * $N23,0)</f>
+      <c r="K23" s="7">
+        <f>ROUND(constants!C$4 * $H23 * $I23,0)</f>
         <v>196</v>
       </c>
-      <c r="Q23" s="7">
-        <f>ROUND(constants!D$3 /4 * $N23,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="L23" s="7">
+        <f>ROUND(constants!D$4 /4 * $I23,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -9368,39 +9213,36 @@
         <f t="shared" ref="B24:B27" si="6">B23+1</f>
         <v>11</v>
       </c>
-      <c r="C24" s="1">
-        <v>12</v>
-      </c>
-      <c r="D24" s="1">
-        <v>5</v>
-      </c>
-      <c r="E24" s="1">
-        <v>16</v>
-      </c>
-      <c r="F24" s="1">
-        <v>4</v>
-      </c>
-      <c r="M24" s="1">
-        <v>2</v>
-      </c>
-      <c r="N24" s="16">
+      <c r="C24" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H24" s="1">
+        <v>3</v>
+      </c>
+      <c r="I24" s="16">
         <f t="shared" si="4"/>
         <v>4.4999999999999982</v>
       </c>
-      <c r="O24" s="7">
-        <f>ROUND(constants!B$4 * $M24 * $N24,0)</f>
-        <v>477</v>
-      </c>
-      <c r="P24" s="7">
-        <f>ROUND(constants!C$4 * $M24 * $N24,0)</f>
-        <v>198</v>
-      </c>
-      <c r="Q24" s="7">
-        <f>ROUND(constants!D$3 /4 * $N24,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J24" s="7">
+        <f>ROUND(constants!B$4 * $H24 * $I24,0)</f>
+        <v>716</v>
+      </c>
+      <c r="K24" s="7">
+        <f>ROUND(constants!C$4 * $H24 * $I24,0)</f>
+        <v>297</v>
+      </c>
+      <c r="L24" s="7">
+        <f>ROUND(constants!D$4 /4 * $I24,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -9409,45 +9251,36 @@
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="C25" s="1">
-        <v>13</v>
-      </c>
-      <c r="D25" s="1">
-        <v>4</v>
-      </c>
-      <c r="E25" s="1">
-        <v>13</v>
-      </c>
-      <c r="F25" s="1">
-        <v>5</v>
-      </c>
-      <c r="G25" s="1">
-        <v>17</v>
+      <c r="C25" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="H25" s="1">
-        <v>4</v>
-      </c>
-      <c r="M25" s="1">
-        <v>3</v>
-      </c>
-      <c r="N25" s="16">
+        <v>3</v>
+      </c>
+      <c r="I25" s="16">
         <f t="shared" si="4"/>
         <v>4.549999999999998</v>
       </c>
-      <c r="O25" s="7">
-        <f>ROUND(constants!B$4 * $M25 * $N25,0)</f>
+      <c r="J25" s="7">
+        <f>ROUND(constants!B$4 * $H25 * $I25,0)</f>
         <v>723</v>
       </c>
-      <c r="P25" s="7">
-        <f>ROUND(constants!C$4 * $M25 * $N25,0)</f>
+      <c r="K25" s="7">
+        <f>ROUND(constants!C$4 * $H25 * $I25,0)</f>
         <v>300</v>
       </c>
-      <c r="Q25" s="7">
-        <f>ROUND(constants!D$3 /4 * $N25,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="L25" s="7">
+        <f>ROUND(constants!D$4 /4 * $I25,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -9456,40 +9289,33 @@
         <f t="shared" si="6"/>
         <v>13</v>
       </c>
-      <c r="C26" s="1">
-        <v>16</v>
-      </c>
-      <c r="D26" s="1">
-        <v>4</v>
-      </c>
-      <c r="E26" s="1">
-        <v>14</v>
-      </c>
-      <c r="F26" s="1">
-        <v>5</v>
-      </c>
-      <c r="I26" s="7"/>
-      <c r="M26" s="1">
-        <v>2</v>
-      </c>
-      <c r="N26" s="16">
+      <c r="C26" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H26" s="1">
+        <v>2</v>
+      </c>
+      <c r="I26" s="16">
         <f t="shared" si="4"/>
         <v>4.5999999999999979</v>
       </c>
-      <c r="O26" s="7">
-        <f>ROUND(constants!B$4 * $M26 * $N26,0)</f>
+      <c r="J26" s="7">
+        <f>ROUND(constants!B$4 * $H26 * $I26,0)</f>
         <v>488</v>
       </c>
-      <c r="P26" s="7">
-        <f>ROUND(constants!C$4 * $M26 * $N26,0)</f>
+      <c r="K26" s="7">
+        <f>ROUND(constants!C$4 * $H26 * $I26,0)</f>
         <v>202</v>
       </c>
-      <c r="Q26" s="7">
-        <f>ROUND(constants!D$3 /4 * $N26,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="L26" s="7">
+        <f>ROUND(constants!D$4 /4 * $I26,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -9498,81 +9324,69 @@
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="C27" s="1">
-        <v>14</v>
-      </c>
-      <c r="D27" s="1">
-        <v>4</v>
-      </c>
-      <c r="E27" s="1">
-        <v>13</v>
-      </c>
-      <c r="F27" s="1">
-        <v>5</v>
-      </c>
-      <c r="G27" s="1">
-        <v>16</v>
+      <c r="C27" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="H27" s="1">
-        <v>5</v>
-      </c>
-      <c r="M27" s="1">
-        <v>3</v>
-      </c>
-      <c r="N27" s="16">
+        <v>3</v>
+      </c>
+      <c r="I27" s="16">
         <f t="shared" si="4"/>
         <v>4.6499999999999977</v>
       </c>
-      <c r="O27" s="7">
-        <f>ROUND(constants!B$4 * $M27 * $N27,0)</f>
+      <c r="J27" s="7">
+        <f>ROUND(constants!B$4 * $H27 * $I27,0)</f>
         <v>739</v>
       </c>
-      <c r="P27" s="7">
-        <f>ROUND(constants!C$4 * $M27 * $N27,0)</f>
+      <c r="K27" s="7">
+        <f>ROUND(constants!C$4 * $H27 * $I27,0)</f>
         <v>307</v>
       </c>
-      <c r="Q27" s="7">
-        <f>ROUND(constants!D$3 /4 * $N27,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="N28" s="15"/>
-      <c r="P28" s="7"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="L27" s="7">
+        <f>ROUND(constants!D$4 /4 * $I27,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I28" s="15"/>
+      <c r="K28" s="7"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>3</v>
       </c>
       <c r="B29" s="9">
         <v>1</v>
       </c>
-      <c r="C29" s="1">
-        <v>16</v>
-      </c>
-      <c r="D29" s="1">
+      <c r="C29" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1</v>
+      </c>
+      <c r="I29" s="16">
+        <v>4</v>
+      </c>
+      <c r="J29" s="7">
+        <f>ROUND(constants!B$5 * $H29 * $I29,0)</f>
+        <v>224</v>
+      </c>
+      <c r="K29" s="7">
+        <f>ROUND(constants!C$5 * $H29 * $I29,0)</f>
+        <v>96</v>
+      </c>
+      <c r="L29" s="7">
+        <f>ROUND(constants!D$5 /4 * $I29,0)</f>
         <v>7</v>
       </c>
-      <c r="M29" s="1">
-        <v>1</v>
-      </c>
-      <c r="N29" s="16">
-        <v>4</v>
-      </c>
-      <c r="O29" s="7">
-        <f>ROUND(constants!B$5 * $M29 * $N29,0)</f>
-        <v>224</v>
-      </c>
-      <c r="P29" s="7">
-        <f>ROUND(constants!C$5 * $M29 * $N29,0)</f>
-        <v>96</v>
-      </c>
-      <c r="Q29" s="7">
-        <f>ROUND(constants!D$3 /4 * $N29,0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <f>A29</f>
         <v>3</v>
@@ -9581,39 +9395,33 @@
         <f>B29+1</f>
         <v>2</v>
       </c>
-      <c r="C30" s="1">
-        <v>13</v>
-      </c>
-      <c r="D30" s="1">
+      <c r="C30" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H30" s="1">
+        <v>2</v>
+      </c>
+      <c r="I30" s="16">
+        <f>I29+0.05</f>
+        <v>4.05</v>
+      </c>
+      <c r="J30" s="7">
+        <f>ROUND(constants!B$5 * $H30 * $I30,0)</f>
+        <v>454</v>
+      </c>
+      <c r="K30" s="7">
+        <f>ROUND(constants!C$5 * $H30 * $I30,0)</f>
+        <v>194</v>
+      </c>
+      <c r="L30" s="7">
+        <f>ROUND(constants!D$5 /4 * $I30,0)</f>
         <v>7</v>
       </c>
-      <c r="E30" s="1">
-        <v>17</v>
-      </c>
-      <c r="F30" s="1">
-        <v>7</v>
-      </c>
-      <c r="M30" s="1">
-        <v>2</v>
-      </c>
-      <c r="N30" s="16">
-        <f>N29+0.05</f>
-        <v>4.05</v>
-      </c>
-      <c r="O30" s="7">
-        <f>ROUND(constants!B$5 * $M30 * $N30,0)</f>
-        <v>454</v>
-      </c>
-      <c r="P30" s="7">
-        <f>ROUND(constants!C$5 * $M30 * $N30,0)</f>
-        <v>194</v>
-      </c>
-      <c r="Q30" s="7">
-        <f>ROUND(constants!D$3 /4 * $N30,0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <f t="shared" ref="A31:A45" si="7">A30</f>
         <v>3</v>
@@ -9622,35 +9430,34 @@
         <f>B30+1</f>
         <v>3</v>
       </c>
-      <c r="C31" s="1">
-        <v>18</v>
-      </c>
-      <c r="D31" s="1">
+      <c r="C31" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G31" s="7"/>
+      <c r="H31" s="1">
+        <v>2</v>
+      </c>
+      <c r="I31" s="16">
+        <f t="shared" ref="I31:I45" si="8">I30+0.05</f>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J31" s="7">
+        <f>ROUND(constants!B$5 * $H31 * $I31,0)</f>
+        <v>459</v>
+      </c>
+      <c r="K31" s="7">
+        <f>ROUND(constants!C$5 * $H31 * $I31,0)</f>
+        <v>197</v>
+      </c>
+      <c r="L31" s="7">
+        <f>ROUND(constants!D$5 /4 * $I31,0)</f>
         <v>7</v>
       </c>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="M31" s="1">
-        <v>1</v>
-      </c>
-      <c r="N31" s="16">
-        <f t="shared" ref="N31:N45" si="8">N30+0.05</f>
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="O31" s="7">
-        <f>ROUND(constants!B$5 * $M31 * $N31,0)</f>
-        <v>230</v>
-      </c>
-      <c r="P31" s="7">
-        <f>ROUND(constants!C$5 * $M31 * $N31,0)</f>
-        <v>98</v>
-      </c>
-      <c r="Q31" s="7">
-        <f>ROUND(constants!D$3 /4 * $N31,0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <f t="shared" si="7"/>
         <v>3</v>
@@ -9659,45 +9466,30 @@
         <f t="shared" ref="B32:B37" si="9">B31+1</f>
         <v>4</v>
       </c>
-      <c r="C32" s="1">
-        <v>15</v>
-      </c>
-      <c r="D32" s="1">
-        <v>7</v>
-      </c>
-      <c r="E32" s="1">
-        <v>12</v>
-      </c>
-      <c r="F32" s="1">
-        <v>8</v>
-      </c>
-      <c r="G32" s="1">
-        <v>19</v>
-      </c>
-      <c r="H32" s="1">
-        <v>7</v>
-      </c>
-      <c r="M32" s="1">
-        <v>3</v>
-      </c>
-      <c r="N32" s="16">
+      <c r="C32" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H32" s="23">
+        <v>1</v>
+      </c>
+      <c r="I32" s="16">
         <f t="shared" si="8"/>
         <v>4.1499999999999995</v>
       </c>
-      <c r="O32" s="7">
-        <f>ROUND(constants!B$5 * $M32 * $N32,0)</f>
-        <v>697</v>
-      </c>
-      <c r="P32" s="7">
-        <f>ROUND(constants!C$5 * $M32 * $N32,0)</f>
-        <v>299</v>
-      </c>
-      <c r="Q32" s="7">
-        <f>ROUND(constants!D$3 /4 * $N32,0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J32" s="7">
+        <f>ROUND(constants!B$5 * $H32 * $I32,0)</f>
+        <v>232</v>
+      </c>
+      <c r="K32" s="7">
+        <f>ROUND(constants!C$5 * $H32 * $I32,0)</f>
+        <v>100</v>
+      </c>
+      <c r="L32" s="7">
+        <f>ROUND(constants!D$5 /4 * $I32,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <f t="shared" si="7"/>
         <v>3</v>
@@ -9706,39 +9498,33 @@
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="C33" s="1">
-        <v>14</v>
-      </c>
-      <c r="D33" s="1">
-        <v>7</v>
-      </c>
-      <c r="E33" s="1">
-        <v>16</v>
-      </c>
-      <c r="F33" s="1">
-        <v>7</v>
-      </c>
-      <c r="M33" s="1">
-        <v>2</v>
-      </c>
-      <c r="N33" s="16">
+      <c r="C33" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H33" s="1">
+        <v>2</v>
+      </c>
+      <c r="I33" s="16">
         <f t="shared" si="8"/>
         <v>4.1999999999999993</v>
       </c>
-      <c r="O33" s="7">
-        <f>ROUND(constants!B$5 * $M33 * $N33,0)</f>
+      <c r="J33" s="7">
+        <f>ROUND(constants!B$5 * $H33 * $I33,0)</f>
         <v>470</v>
       </c>
-      <c r="P33" s="7">
-        <f>ROUND(constants!C$5 * $M33 * $N33,0)</f>
+      <c r="K33" s="7">
+        <f>ROUND(constants!C$5 * $H33 * $I33,0)</f>
         <v>202</v>
       </c>
-      <c r="Q33" s="7">
-        <f>ROUND(constants!D$3 /4 * $N33,0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="L33" s="7">
+        <f>ROUND(constants!D$5 /4 * $I33,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
         <f t="shared" si="7"/>
         <v>3</v>
@@ -9747,35 +9533,31 @@
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="C34" s="1">
-        <v>15</v>
-      </c>
-      <c r="D34" s="1">
-        <v>8</v>
+      <c r="C34" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="M34" s="1">
-        <v>1</v>
-      </c>
-      <c r="N34" s="16">
+      <c r="H34" s="1">
+        <v>1</v>
+      </c>
+      <c r="I34" s="16">
         <f t="shared" si="8"/>
         <v>4.2499999999999991</v>
       </c>
-      <c r="O34" s="7">
-        <f>ROUND(constants!B$5 * $M34 * $N34,0)</f>
+      <c r="J34" s="7">
+        <f>ROUND(constants!B$5 * $H34 * $I34,0)</f>
         <v>238</v>
       </c>
-      <c r="P34" s="7">
-        <f>ROUND(constants!C$5 * $M34 * $N34,0)</f>
+      <c r="K34" s="7">
+        <f>ROUND(constants!C$5 * $H34 * $I34,0)</f>
         <v>102</v>
       </c>
-      <c r="Q34" s="7">
-        <f>ROUND(constants!D$3 /4 * $N34,0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="L34" s="7">
+        <f>ROUND(constants!D$5 /4 * $I34,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
         <f t="shared" si="7"/>
         <v>3</v>
@@ -9784,39 +9566,33 @@
         <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="C35" s="1">
-        <v>16</v>
-      </c>
-      <c r="D35" s="1">
-        <v>7</v>
-      </c>
-      <c r="E35" s="1">
-        <v>16</v>
-      </c>
-      <c r="F35" s="1">
-        <v>8</v>
-      </c>
-      <c r="M35" s="1">
-        <v>2</v>
-      </c>
-      <c r="N35" s="16">
+      <c r="C35" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H35" s="1">
+        <v>2</v>
+      </c>
+      <c r="I35" s="16">
         <f t="shared" si="8"/>
         <v>4.2999999999999989</v>
       </c>
-      <c r="O35" s="7">
-        <f>ROUND(constants!B$5 * $M35 * $N35,0)</f>
+      <c r="J35" s="7">
+        <f>ROUND(constants!B$5 * $H35 * $I35,0)</f>
         <v>482</v>
       </c>
-      <c r="P35" s="7">
-        <f>ROUND(constants!C$5 * $M35 * $N35,0)</f>
+      <c r="K35" s="7">
+        <f>ROUND(constants!C$5 * $H35 * $I35,0)</f>
         <v>206</v>
       </c>
-      <c r="Q35" s="7">
-        <f>ROUND(constants!D$3 /4 * $N35,0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="L35" s="7">
+        <f>ROUND(constants!D$5 /4 * $I35,0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
         <f t="shared" si="7"/>
         <v>3</v>
@@ -9825,39 +9601,33 @@
         <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="C36" s="1">
-        <v>13</v>
-      </c>
-      <c r="D36" s="1">
-        <v>8</v>
-      </c>
-      <c r="E36" s="1">
-        <v>19</v>
-      </c>
-      <c r="F36" s="1">
-        <v>7</v>
-      </c>
-      <c r="M36" s="1">
-        <v>2</v>
-      </c>
-      <c r="N36" s="16">
+      <c r="C36" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H36" s="1">
+        <v>2</v>
+      </c>
+      <c r="I36" s="16">
         <f t="shared" si="8"/>
         <v>4.3499999999999988</v>
       </c>
-      <c r="O36" s="7">
-        <f>ROUND(constants!B$5 * $M36 * $N36,0)</f>
+      <c r="J36" s="7">
+        <f>ROUND(constants!B$5 * $H36 * $I36,0)</f>
         <v>487</v>
       </c>
-      <c r="P36" s="7">
-        <f>ROUND(constants!C$5 * $M36 * $N36,0)</f>
+      <c r="K36" s="7">
+        <f>ROUND(constants!C$5 * $H36 * $I36,0)</f>
         <v>209</v>
       </c>
-      <c r="Q36" s="7">
-        <f>ROUND(constants!D$3 /4 * $N36,0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="L36" s="7">
+        <f>ROUND(constants!D$5 /4 * $I36,0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="9">
         <f t="shared" si="7"/>
         <v>3</v>
@@ -9866,45 +9636,36 @@
         <f t="shared" si="9"/>
         <v>9</v>
       </c>
-      <c r="C37" s="1">
-        <v>13</v>
-      </c>
-      <c r="D37" s="1">
-        <v>7</v>
-      </c>
-      <c r="E37" s="1">
-        <v>16</v>
-      </c>
-      <c r="F37" s="1">
-        <v>7</v>
-      </c>
-      <c r="G37" s="1">
-        <v>14</v>
+      <c r="C37" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="H37" s="1">
-        <v>8</v>
-      </c>
-      <c r="M37" s="1">
-        <v>3</v>
-      </c>
-      <c r="N37" s="16">
+        <v>3</v>
+      </c>
+      <c r="I37" s="16">
         <f t="shared" si="8"/>
         <v>4.3999999999999986</v>
       </c>
-      <c r="O37" s="7">
-        <f>ROUND(constants!B$5 * $M37 * $N37,0)</f>
+      <c r="J37" s="7">
+        <f>ROUND(constants!B$5 * $H37 * $I37,0)</f>
         <v>739</v>
       </c>
-      <c r="P37" s="7">
-        <f>ROUND(constants!C$5 * $M37 * $N37,0)</f>
+      <c r="K37" s="7">
+        <f>ROUND(constants!C$5 * $H37 * $I37,0)</f>
         <v>317</v>
       </c>
-      <c r="Q37" s="7">
-        <f>ROUND(constants!D$3 /4 * $N37,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="L37" s="7">
+        <f>ROUND(constants!D$5 /4 * $I37,0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="9">
         <f t="shared" si="7"/>
         <v>3</v>
@@ -9913,45 +9674,30 @@
         <f>B37+1</f>
         <v>10</v>
       </c>
-      <c r="C38" s="1">
-        <v>14</v>
-      </c>
-      <c r="D38" s="1">
-        <v>7</v>
-      </c>
-      <c r="E38" s="1">
-        <v>13</v>
-      </c>
-      <c r="F38" s="1">
-        <v>8</v>
-      </c>
-      <c r="G38" s="1">
-        <v>17</v>
-      </c>
-      <c r="H38" s="1">
-        <v>7</v>
-      </c>
-      <c r="M38" s="1">
-        <v>3</v>
-      </c>
-      <c r="N38" s="16">
+      <c r="C38" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H38" s="23">
+        <v>1</v>
+      </c>
+      <c r="I38" s="16">
         <f t="shared" si="8"/>
         <v>4.4499999999999984</v>
       </c>
-      <c r="O38" s="7">
-        <f>ROUND(constants!B$5 * $M38 * $N38,0)</f>
-        <v>748</v>
-      </c>
-      <c r="P38" s="7">
-        <f>ROUND(constants!C$5 * $M38 * $N38,0)</f>
-        <v>320</v>
-      </c>
-      <c r="Q38" s="7">
-        <f>ROUND(constants!D$3 /4 * $N38,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J38" s="7">
+        <f>ROUND(constants!B$5 * $H38 * $I38,0)</f>
+        <v>249</v>
+      </c>
+      <c r="K38" s="7">
+        <f>ROUND(constants!C$5 * $H38 * $I38,0)</f>
+        <v>107</v>
+      </c>
+      <c r="L38" s="7">
+        <f>ROUND(constants!D$5 /4 * $I38,0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="9">
         <f t="shared" si="7"/>
         <v>3</v>
@@ -9960,39 +9706,33 @@
         <f t="shared" ref="B39:B45" si="10">B38+1</f>
         <v>11</v>
       </c>
-      <c r="C39" s="1">
-        <v>14</v>
-      </c>
-      <c r="D39" s="1">
-        <v>8</v>
-      </c>
-      <c r="E39" s="1">
-        <v>18</v>
-      </c>
-      <c r="F39" s="1">
-        <v>7</v>
-      </c>
-      <c r="M39" s="1">
-        <v>2</v>
-      </c>
-      <c r="N39" s="16">
+      <c r="C39" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H39" s="1">
+        <v>2</v>
+      </c>
+      <c r="I39" s="16">
         <f t="shared" si="8"/>
         <v>4.4999999999999982</v>
       </c>
-      <c r="O39" s="7">
-        <f>ROUND(constants!B$5 * $M39 * $N39,0)</f>
+      <c r="J39" s="7">
+        <f>ROUND(constants!B$5 * $H39 * $I39,0)</f>
         <v>504</v>
       </c>
-      <c r="P39" s="7">
-        <f>ROUND(constants!C$5 * $M39 * $N39,0)</f>
+      <c r="K39" s="7">
+        <f>ROUND(constants!C$5 * $H39 * $I39,0)</f>
         <v>216</v>
       </c>
-      <c r="Q39" s="7">
-        <f>ROUND(constants!D$3 /4 * $N39,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="L39" s="7">
+        <f>ROUND(constants!D$5 /4 * $I39,0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="9">
         <f t="shared" si="7"/>
         <v>3</v>
@@ -10001,33 +9741,30 @@
         <f t="shared" si="10"/>
         <v>12</v>
       </c>
-      <c r="C40" s="1">
-        <v>19</v>
-      </c>
-      <c r="D40" s="1">
-        <v>7</v>
-      </c>
-      <c r="M40" s="1">
-        <v>1</v>
-      </c>
-      <c r="N40" s="16">
+      <c r="C40" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H40" s="1">
+        <v>1</v>
+      </c>
+      <c r="I40" s="16">
         <f t="shared" si="8"/>
         <v>4.549999999999998</v>
       </c>
-      <c r="O40" s="7">
-        <f>ROUND(constants!B$5 * $M40 * $N40,0)</f>
+      <c r="J40" s="7">
+        <f>ROUND(constants!B$5 * $H40 * $I40,0)</f>
         <v>255</v>
       </c>
-      <c r="P40" s="7">
-        <f>ROUND(constants!C$5 * $M40 * $N40,0)</f>
+      <c r="K40" s="7">
+        <f>ROUND(constants!C$5 * $H40 * $I40,0)</f>
         <v>109</v>
       </c>
-      <c r="Q40" s="7">
-        <f>ROUND(constants!D$3 /4 * $N40,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="L40" s="7">
+        <f>ROUND(constants!D$5 /4 * $I40,0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="9">
         <f t="shared" si="7"/>
         <v>3</v>
@@ -10036,39 +9773,33 @@
         <f t="shared" si="10"/>
         <v>13</v>
       </c>
-      <c r="C41" s="1">
-        <v>16</v>
-      </c>
-      <c r="D41" s="1">
-        <v>7</v>
-      </c>
-      <c r="E41" s="1">
-        <v>14</v>
-      </c>
-      <c r="F41" s="1">
-        <v>8</v>
-      </c>
-      <c r="M41" s="1">
-        <v>2</v>
-      </c>
-      <c r="N41" s="16">
+      <c r="C41" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H41" s="1">
+        <v>2</v>
+      </c>
+      <c r="I41" s="16">
         <f t="shared" si="8"/>
         <v>4.5999999999999979</v>
       </c>
-      <c r="O41" s="7">
-        <f>ROUND(constants!B$5 * $M41 * $N41,0)</f>
+      <c r="J41" s="7">
+        <f>ROUND(constants!B$5 * $H41 * $I41,0)</f>
         <v>515</v>
       </c>
-      <c r="P41" s="7">
-        <f>ROUND(constants!C$5 * $M41 * $N41,0)</f>
+      <c r="K41" s="7">
+        <f>ROUND(constants!C$5 * $H41 * $I41,0)</f>
         <v>221</v>
       </c>
-      <c r="Q41" s="7">
-        <f>ROUND(constants!D$3 /4 * $N41,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="L41" s="7">
+        <f>ROUND(constants!D$5 /4 * $I41,0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="9">
         <f t="shared" si="7"/>
         <v>3</v>
@@ -10077,45 +9808,36 @@
         <f t="shared" si="10"/>
         <v>14</v>
       </c>
-      <c r="C42" s="1">
-        <v>14</v>
-      </c>
-      <c r="D42" s="1">
-        <v>7</v>
-      </c>
-      <c r="E42" s="1">
-        <v>15</v>
-      </c>
-      <c r="F42" s="1">
-        <v>7</v>
-      </c>
-      <c r="G42" s="1">
-        <v>15</v>
+      <c r="C42" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="H42" s="1">
-        <v>8</v>
-      </c>
-      <c r="M42" s="1">
-        <v>3</v>
-      </c>
-      <c r="N42" s="16">
+        <v>3</v>
+      </c>
+      <c r="I42" s="16">
         <f t="shared" si="8"/>
         <v>4.6499999999999977</v>
       </c>
-      <c r="O42" s="7">
-        <f>ROUND(constants!B$5 * $M42 * $N42,0)</f>
+      <c r="J42" s="7">
+        <f>ROUND(constants!B$5 * $H42 * $I42,0)</f>
         <v>781</v>
       </c>
-      <c r="P42" s="7">
-        <f>ROUND(constants!C$5 * $M42 * $N42,0)</f>
+      <c r="K42" s="7">
+        <f>ROUND(constants!C$5 * $H42 * $I42,0)</f>
         <v>335</v>
       </c>
-      <c r="Q42" s="7">
-        <f>ROUND(constants!D$3 /4 * $N42,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="L42" s="7">
+        <f>ROUND(constants!D$5 /4 * $I42,0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="9">
         <f t="shared" si="7"/>
         <v>3</v>
@@ -10124,45 +9846,36 @@
         <f t="shared" si="10"/>
         <v>15</v>
       </c>
-      <c r="C43" s="1">
-        <v>13</v>
-      </c>
-      <c r="D43" s="1">
-        <v>7</v>
-      </c>
-      <c r="E43" s="1">
-        <v>14</v>
-      </c>
-      <c r="F43" s="1">
-        <v>8</v>
-      </c>
-      <c r="G43" s="1">
-        <v>18</v>
+      <c r="C43" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="H43" s="1">
-        <v>7</v>
-      </c>
-      <c r="M43" s="1">
-        <v>3</v>
-      </c>
-      <c r="N43" s="16">
+        <v>3</v>
+      </c>
+      <c r="I43" s="16">
         <f t="shared" si="8"/>
         <v>4.6999999999999975</v>
       </c>
-      <c r="O43" s="7">
-        <f>ROUND(constants!B$5 * $M43 * $N43,0)</f>
+      <c r="J43" s="7">
+        <f>ROUND(constants!B$5 * $H43 * $I43,0)</f>
         <v>790</v>
       </c>
-      <c r="P43" s="7">
-        <f>ROUND(constants!C$5 * $M43 * $N43,0)</f>
+      <c r="K43" s="7">
+        <f>ROUND(constants!C$5 * $H43 * $I43,0)</f>
         <v>338</v>
       </c>
-      <c r="Q43" s="7">
-        <f>ROUND(constants!D$3 /4 * $N43,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="L43" s="7">
+        <f>ROUND(constants!D$5 /4 * $I43,0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="9">
         <f t="shared" si="7"/>
         <v>3</v>
@@ -10171,39 +9884,33 @@
         <f t="shared" si="10"/>
         <v>16</v>
       </c>
-      <c r="C44" s="1">
-        <v>17</v>
-      </c>
-      <c r="D44" s="1">
-        <v>7</v>
-      </c>
-      <c r="E44" s="1">
-        <v>19</v>
-      </c>
-      <c r="F44" s="1">
-        <v>7</v>
-      </c>
-      <c r="M44" s="1">
-        <v>2</v>
-      </c>
-      <c r="N44" s="16">
+      <c r="C44" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H44" s="1">
+        <v>2</v>
+      </c>
+      <c r="I44" s="16">
         <f t="shared" si="8"/>
         <v>4.7499999999999973</v>
       </c>
-      <c r="O44" s="7">
-        <f>ROUND(constants!B$5 * $M44 * $N44,0)</f>
+      <c r="J44" s="7">
+        <f>ROUND(constants!B$5 * $H44 * $I44,0)</f>
         <v>532</v>
       </c>
-      <c r="P44" s="7">
-        <f>ROUND(constants!C$5 * $M44 * $N44,0)</f>
+      <c r="K44" s="7">
+        <f>ROUND(constants!C$5 * $H44 * $I44,0)</f>
         <v>228</v>
       </c>
-      <c r="Q44" s="7">
-        <f>ROUND(constants!D$3 /4 * $N44,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="L44" s="7">
+        <f>ROUND(constants!D$5 /4 * $I44,0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="9">
         <f t="shared" si="7"/>
         <v>3</v>
@@ -10212,42 +9919,33 @@
         <f t="shared" si="10"/>
         <v>17</v>
       </c>
-      <c r="C45" s="1">
-        <v>18</v>
-      </c>
-      <c r="D45" s="1">
-        <v>7</v>
-      </c>
-      <c r="E45" s="1">
-        <v>17</v>
-      </c>
-      <c r="F45" s="1">
-        <v>8</v>
-      </c>
-      <c r="G45" s="1">
-        <v>18</v>
+      <c r="C45" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="H45" s="1">
-        <v>8</v>
-      </c>
-      <c r="M45" s="1">
-        <v>3</v>
-      </c>
-      <c r="N45" s="16">
+        <v>3</v>
+      </c>
+      <c r="I45" s="16">
         <f t="shared" si="8"/>
         <v>4.7999999999999972</v>
       </c>
-      <c r="O45" s="7">
-        <f>ROUND(constants!B$5 * $M45 * $N45,0)</f>
+      <c r="J45" s="7">
+        <f>ROUND(constants!B$5 * $H45 * $I45,0)</f>
         <v>806</v>
       </c>
-      <c r="P45" s="7">
-        <f>ROUND(constants!C$5 * $M45 * $N45,0)</f>
+      <c r="K45" s="7">
+        <f>ROUND(constants!C$5 * $H45 * $I45,0)</f>
         <v>346</v>
       </c>
-      <c r="Q45" s="7">
-        <f>ROUND(constants!D$3 /4 * $N45,0)</f>
-        <v>6</v>
+      <c r="L45" s="7">
+        <f>ROUND(constants!D$5 /4 * $I45,0)</f>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/backend/emporium/data/StageData.xlsx
+++ b/backend/emporium/data/StageData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="828" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="828" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="constants" sheetId="8" r:id="rId1"/>
@@ -857,7 +857,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C3" s="1">
         <v>20</v>
@@ -877,7 +877,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="C4" s="1">
         <v>22</v>
@@ -897,7 +897,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="C5" s="1">
         <v>24</v>
@@ -911,7 +911,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="C6" s="1">
         <v>26</v>
@@ -931,7 +931,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="C7" s="1">
         <v>28</v>
@@ -951,7 +951,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="C8" s="1">
         <v>30</v>
@@ -965,7 +965,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="C9" s="1">
         <v>32</v>
@@ -979,7 +979,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="C10" s="1">
         <v>34</v>
@@ -993,7 +993,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="C11" s="1">
         <v>36</v>
@@ -5670,7 +5670,7 @@
       </c>
       <c r="O3" s="7">
         <f>ROUND(constants!B$3 * $M3 * $N3, 0)</f>
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="P3" s="7">
         <f>ROUND(constants!C$3 * $M3 * $N3, 0)</f>
@@ -5705,7 +5705,7 @@
       </c>
       <c r="O4" s="7">
         <f>ROUND(constants!B$3 * $M4 * $N4, 0)</f>
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="P4" s="7">
         <f>ROUND(constants!C$3 * $M4 * $N4, 0)</f>
@@ -5740,7 +5740,7 @@
       </c>
       <c r="O5" s="7">
         <f>ROUND(constants!B$3 * $M5 * $N5, 0)</f>
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="P5" s="7">
         <f>ROUND(constants!C$3 * $M5 * $N5, 0)</f>
@@ -5775,7 +5775,7 @@
       </c>
       <c r="O6" s="7">
         <f>ROUND(constants!B$3 * $M6 * $N6, 0)</f>
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="P6" s="7">
         <f>ROUND(constants!C$3 * $M6 * $N6, 0)</f>
@@ -5811,7 +5811,7 @@
       </c>
       <c r="O7" s="7">
         <f>ROUND(constants!B$3 * $M7 * $N7, 0)</f>
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="P7" s="7">
         <f>ROUND(constants!C$3 * $M7 * $N7, 0)</f>
@@ -5854,7 +5854,7 @@
       </c>
       <c r="O8" s="7">
         <f>ROUND(constants!B$3 * $M8 * $N8, 0)</f>
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="P8" s="7">
         <f>ROUND(constants!C$3 * $M8 * $N8, 0)</f>
@@ -5895,7 +5895,7 @@
       </c>
       <c r="O9" s="7">
         <f>ROUND(constants!B$3 * $M9 * $N9, 0)</f>
-        <v>130</v>
+        <v>208</v>
       </c>
       <c r="P9" s="7">
         <f>ROUND(constants!C$3 * $M9 * $N9, 0)</f>
@@ -5936,7 +5936,7 @@
       </c>
       <c r="O10" s="7">
         <f>ROUND(constants!B$3 * $M10 * $N10, 0)</f>
-        <v>135</v>
+        <v>216</v>
       </c>
       <c r="P10" s="7">
         <f>ROUND(constants!C$3 * $M10 * $N10, 0)</f>
@@ -5979,7 +5979,7 @@
       </c>
       <c r="O11" s="7">
         <f>ROUND(constants!B$3 * $M11 * $N11, 0)</f>
-        <v>140</v>
+        <v>224</v>
       </c>
       <c r="P11" s="7">
         <f>ROUND(constants!C$3 * $M11 * $N11, 0)</f>
@@ -6026,7 +6026,7 @@
       </c>
       <c r="O12" s="7">
         <f>ROUND(constants!B$3 * $M12 * $N12, 0)</f>
-        <v>218</v>
+        <v>348</v>
       </c>
       <c r="P12" s="7">
         <f>ROUND(constants!C$3 * $M12 * $N12, 0)</f>
@@ -6075,7 +6075,7 @@
       </c>
       <c r="O13" s="7">
         <f>ROUND(constants!B$3 * $M13 * $N13, 0)</f>
-        <v>225</v>
+        <v>360</v>
       </c>
       <c r="P13" s="7">
         <f>ROUND(constants!C$3 * $M13 * $N13, 0)</f>
@@ -6122,7 +6122,7 @@
       </c>
       <c r="O14" s="7">
         <f>ROUND(constants!B$3 * $M14 * $N14, 0)</f>
-        <v>233</v>
+        <v>372</v>
       </c>
       <c r="P14" s="7">
         <f>ROUND(constants!C$3 * $M14 * $N14, 0)</f>
@@ -6157,7 +6157,7 @@
       </c>
       <c r="O16" s="7">
         <f>ROUND(constants!B$4 * $M16 * $N16, 0)</f>
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="P16" s="7">
         <f>ROUND(constants!C$4 * $M16 * $N16, 0)</f>
@@ -6192,7 +6192,7 @@
       </c>
       <c r="O17" s="7">
         <f>ROUND(constants!B$4 * $M17 * $N17, 0)</f>
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="P17" s="7">
         <f>ROUND(constants!C$4 * $M17 * $N17, 0)</f>
@@ -6227,7 +6227,7 @@
       </c>
       <c r="O18" s="7">
         <f>ROUND(constants!B$4 * $M18 * $N18, 0)</f>
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="P18" s="7">
         <f>ROUND(constants!C$4 * $M18 * $N18, 0)</f>
@@ -6262,7 +6262,7 @@
       </c>
       <c r="O19" s="7">
         <f>ROUND(constants!B$4 * $M19 * $N19, 0)</f>
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="P19" s="7">
         <f>ROUND(constants!C$4 * $M19 * $N19, 0)</f>
@@ -6298,7 +6298,7 @@
       </c>
       <c r="O20" s="7">
         <f>ROUND(constants!B$4 * $M20 * $N20, 0)</f>
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="P20" s="7">
         <f>ROUND(constants!C$4 * $M20 * $N20, 0)</f>
@@ -6341,7 +6341,7 @@
       </c>
       <c r="O21" s="7">
         <f>ROUND(constants!B$4 * $M21 * $N21, 0)</f>
-        <v>133</v>
+        <v>210</v>
       </c>
       <c r="P21" s="7">
         <f>ROUND(constants!C$4 * $M21 * $N21, 0)</f>
@@ -6382,7 +6382,7 @@
       </c>
       <c r="O22" s="7">
         <f>ROUND(constants!B$4 * $M22 * $N22, 0)</f>
-        <v>138</v>
+        <v>218</v>
       </c>
       <c r="P22" s="7">
         <f>ROUND(constants!C$4 * $M22 * $N22, 0)</f>
@@ -6423,7 +6423,7 @@
       </c>
       <c r="O23" s="7">
         <f>ROUND(constants!B$4 * $M23 * $N23, 0)</f>
-        <v>143</v>
+        <v>227</v>
       </c>
       <c r="P23" s="7">
         <f>ROUND(constants!C$4 * $M23 * $N23, 0)</f>
@@ -6466,7 +6466,7 @@
       </c>
       <c r="O24" s="7">
         <f>ROUND(constants!B$4 * $M24 * $N24, 0)</f>
-        <v>148</v>
+        <v>235</v>
       </c>
       <c r="P24" s="7">
         <f>ROUND(constants!C$4 * $M24 * $N24, 0)</f>
@@ -6513,7 +6513,7 @@
       </c>
       <c r="O25" s="7">
         <f>ROUND(constants!B$4 * $M25 * $N25, 0)</f>
-        <v>231</v>
+        <v>365</v>
       </c>
       <c r="P25" s="7">
         <f>ROUND(constants!C$4 * $M25 * $N25, 0)</f>
@@ -6562,7 +6562,7 @@
       </c>
       <c r="O26" s="7">
         <f>ROUND(constants!B$4 * $M26 * $N26, 0)</f>
-        <v>239</v>
+        <v>378</v>
       </c>
       <c r="P26" s="7">
         <f>ROUND(constants!C$4 * $M26 * $N26, 0)</f>
@@ -6609,7 +6609,7 @@
       </c>
       <c r="O27" s="7">
         <f>ROUND(constants!B$4 * $M27 * $N27, 0)</f>
-        <v>246</v>
+        <v>391</v>
       </c>
       <c r="P27" s="7">
         <f>ROUND(constants!C$4 * $M27 * $N27, 0)</f>
@@ -6644,7 +6644,7 @@
       </c>
       <c r="O29" s="7">
         <f>ROUND(constants!B$5 * $M29 * $N29, 0)</f>
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="P29" s="7">
         <f>ROUND(constants!C$5 * $M29 * $N29, 0)</f>
@@ -6679,7 +6679,7 @@
       </c>
       <c r="O30" s="7">
         <f>ROUND(constants!B$5 * $M30 * $N30, 0)</f>
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="P30" s="7">
         <f>ROUND(constants!C$5 * $M30 * $N30, 0)</f>
@@ -6714,7 +6714,7 @@
       </c>
       <c r="O31" s="7">
         <f>ROUND(constants!B$5 * $M31 * $N31, 0)</f>
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="P31" s="7">
         <f>ROUND(constants!C$5 * $M31 * $N31, 0)</f>
@@ -6749,7 +6749,7 @@
       </c>
       <c r="O32" s="7">
         <f>ROUND(constants!B$5 * $M32 * $N32, 0)</f>
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="P32" s="7">
         <f>ROUND(constants!C$5 * $M32 * $N32, 0)</f>
@@ -6785,7 +6785,7 @@
       </c>
       <c r="O33" s="7">
         <f>ROUND(constants!B$5 * $M33 * $N33, 0)</f>
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="P33" s="7">
         <f>ROUND(constants!C$5 * $M33 * $N33, 0)</f>
@@ -6828,7 +6828,7 @@
       </c>
       <c r="O34" s="7">
         <f>ROUND(constants!B$5 * $M34 * $N34, 0)</f>
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="P34" s="7">
         <f>ROUND(constants!C$5 * $M34 * $N34, 0)</f>
@@ -6869,7 +6869,7 @@
       </c>
       <c r="O35" s="7">
         <f>ROUND(constants!B$5 * $M35 * $N35, 0)</f>
-        <v>146</v>
+        <v>229</v>
       </c>
       <c r="P35" s="7">
         <f>ROUND(constants!C$5 * $M35 * $N35, 0)</f>
@@ -6910,7 +6910,7 @@
       </c>
       <c r="O36" s="7">
         <f>ROUND(constants!B$5 * $M36 * $N36, 0)</f>
-        <v>151</v>
+        <v>238</v>
       </c>
       <c r="P36" s="7">
         <f>ROUND(constants!C$5 * $M36 * $N36, 0)</f>
@@ -6953,7 +6953,7 @@
       </c>
       <c r="O37" s="7">
         <f>ROUND(constants!B$5 * $M37 * $N37, 0)</f>
-        <v>157</v>
+        <v>246</v>
       </c>
       <c r="P37" s="7">
         <f>ROUND(constants!C$5 * $M37 * $N37, 0)</f>
@@ -7000,7 +7000,7 @@
       </c>
       <c r="O38" s="7">
         <f>ROUND(constants!B$5 * $M38 * $N38, 0)</f>
-        <v>244</v>
+        <v>383</v>
       </c>
       <c r="P38" s="7">
         <f>ROUND(constants!C$5 * $M38 * $N38, 0)</f>
@@ -7049,7 +7049,7 @@
       </c>
       <c r="O39" s="7">
         <f>ROUND(constants!B$5 * $M39 * $N39, 0)</f>
-        <v>252</v>
+        <v>396</v>
       </c>
       <c r="P39" s="7">
         <f>ROUND(constants!C$5 * $M39 * $N39, 0)</f>
@@ -7096,7 +7096,7 @@
       </c>
       <c r="O40" s="7">
         <f>ROUND(constants!B$5 * $M40 * $N40, 0)</f>
-        <v>260</v>
+        <v>409</v>
       </c>
       <c r="P40" s="7">
         <f>ROUND(constants!C$5 * $M40 * $N40, 0)</f>
@@ -7117,7 +7117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="R1" sqref="R1"/>
     </sheetView>
@@ -7191,7 +7191,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -7204,7 +7204,7 @@
       </c>
       <c r="O3" s="7">
         <f>ROUND(constants!B$3 * $M3 * $N3, 0)</f>
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="P3" s="7">
         <f>ROUND(constants!C$3 * $M3 * $N3, 0)</f>
@@ -7224,7 +7224,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -7237,7 +7237,7 @@
       </c>
       <c r="O4" s="7">
         <f>ROUND(constants!B$3 * $M4 * $N4, 0)</f>
-        <v>110</v>
+        <v>176</v>
       </c>
       <c r="P4" s="7">
         <f>ROUND(constants!C$3 * $M4 * $N4, 0)</f>
@@ -7264,7 +7264,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1">
         <v>4</v>
@@ -7277,7 +7277,7 @@
       </c>
       <c r="O6" s="7">
         <f>ROUND(constants!B$4 * $M6 * $N6, 0)</f>
-        <v>111</v>
+        <v>176</v>
       </c>
       <c r="P6" s="7">
         <f>ROUND(constants!C$4 * $M6 * $N6, 0)</f>
@@ -7297,7 +7297,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1">
         <v>4</v>
@@ -7318,7 +7318,7 @@
       </c>
       <c r="O7" s="7">
         <f>ROUND(constants!B$4 * $M7 * $N7, 0)</f>
-        <v>122</v>
+        <v>193</v>
       </c>
       <c r="P7" s="7">
         <f>ROUND(constants!C$4 * $M7 * $N7, 0)</f>
@@ -7356,7 +7356,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="1">
         <v>7</v>
@@ -7377,7 +7377,7 @@
       </c>
       <c r="O9" s="7">
         <f>ROUND(constants!B$5 * $M9 * $N9, 0)</f>
-        <v>123</v>
+        <v>194</v>
       </c>
       <c r="P9" s="7">
         <f>ROUND(constants!C$5 * $M9 * $N9, 0)</f>
@@ -7397,10 +7397,10 @@
         <v>2</v>
       </c>
       <c r="C10" s="1">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D10" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -7418,7 +7418,7 @@
       </c>
       <c r="O10" s="7">
         <f>ROUND(constants!B$5 * $M10 * $N10, 0)</f>
-        <v>134</v>
+        <v>211</v>
       </c>
       <c r="P10" s="7">
         <f>ROUND(constants!C$5 * $M10 * $N10, 0)</f>
@@ -7459,7 +7459,7 @@
         <v>14</v>
       </c>
       <c r="D12" s="1">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -7477,7 +7477,7 @@
       </c>
       <c r="O12" s="7">
         <f>ROUND(constants!B$6 * $M12 * $N12, 0)</f>
-        <v>136</v>
+        <v>212</v>
       </c>
       <c r="P12" s="7">
         <f>ROUND(constants!C$6 * $M12 * $N12, 0)</f>
@@ -7497,16 +7497,16 @@
         <v>2</v>
       </c>
       <c r="C13" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -7522,7 +7522,7 @@
       </c>
       <c r="O13" s="7">
         <f>ROUND(constants!B$6 * $M13 * $N13, 0)</f>
-        <v>295</v>
+        <v>460</v>
       </c>
       <c r="P13" s="7">
         <f>ROUND(constants!C$6 * $M13 * $N13, 0)</f>
@@ -7560,7 +7560,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="1">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
@@ -7581,7 +7581,7 @@
       </c>
       <c r="O15" s="7">
         <f>ROUND(constants!B$7 * $M15 * $N15, 0)</f>
-        <v>149</v>
+        <v>230</v>
       </c>
       <c r="P15" s="7">
         <f>ROUND(constants!C$7 * $M15 * $N15, 0)</f>
@@ -7601,16 +7601,16 @@
         <v>2</v>
       </c>
       <c r="C16" s="1">
+        <v>14</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
         <v>16</v>
       </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1">
-        <v>15</v>
-      </c>
       <c r="F16" s="1">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
@@ -7626,7 +7626,7 @@
       </c>
       <c r="O16" s="7">
         <f>ROUND(constants!B$7 * $M16 * $N16, 0)</f>
-        <v>322</v>
+        <v>499</v>
       </c>
       <c r="P16" s="7">
         <f>ROUND(constants!C$7 * $M16 * $N16, 0)</f>
@@ -7655,13 +7655,13 @@
         <v>1</v>
       </c>
       <c r="C18" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
       </c>
       <c r="E18" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F18" s="1">
         <v>1</v>
@@ -7680,7 +7680,7 @@
       </c>
       <c r="O18" s="7">
         <f>ROUND(constants!B$8 * $M18 * $N18, 0)</f>
-        <v>325</v>
+        <v>500</v>
       </c>
       <c r="P18" s="7">
         <f>ROUND(constants!C$8 * $M18 * $N18, 0)</f>
@@ -7700,10 +7700,10 @@
         <v>2</v>
       </c>
       <c r="C19" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D19" s="1">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="E19" s="1">
         <v>17</v>
@@ -7725,7 +7725,7 @@
       </c>
       <c r="O19" s="7">
         <f>ROUND(constants!B$8 * $M19 * $N19, 0)</f>
-        <v>351</v>
+        <v>540</v>
       </c>
       <c r="P19" s="7">
         <f>ROUND(constants!C$8 * $M19 * $N19, 0)</f>
@@ -8010,7 +8010,7 @@
       </c>
       <c r="J3" s="7">
         <f>ROUND(constants!B$3 *$H3 * $I3, 0)</f>
-        <v>450</v>
+        <v>720</v>
       </c>
       <c r="K3" s="7">
         <f>ROUND(constants!C$3 *$H3 * $I3, 0)</f>
@@ -8059,7 +8059,7 @@
       </c>
       <c r="J5" s="7">
         <f>ROUND(constants!B$4 *$H5 * $I5, 0)</f>
-        <v>493</v>
+        <v>781</v>
       </c>
       <c r="K5" s="7">
         <f>ROUND(constants!C$4 *$H5 * $I5, 0)</f>
@@ -8110,7 +8110,7 @@
       </c>
       <c r="J7" s="7">
         <f>ROUND(constants!B$5 *$H7 * $I7, 0)</f>
-        <v>538</v>
+        <v>845</v>
       </c>
       <c r="K7" s="7">
         <f>ROUND(constants!C$5 *$H7 * $I7, 0)</f>
@@ -8163,7 +8163,7 @@
       </c>
       <c r="J9" s="7">
         <f>ROUND(constants!B$6 *$H9 * $I9, 0)</f>
-        <v>779</v>
+        <v>1214</v>
       </c>
       <c r="K9" s="7">
         <f>ROUND(constants!C$6 *$H9 * $I9, 0)</f>
@@ -8216,7 +8216,7 @@
       </c>
       <c r="J11" s="7">
         <f>ROUND(constants!B$7 *$H11 * $I11, 0)</f>
-        <v>843</v>
+        <v>1306</v>
       </c>
       <c r="K11" s="7">
         <f>ROUND(constants!C$7 *$H11 * $I11, 0)</f>
@@ -8269,7 +8269,7 @@
       </c>
       <c r="J13" s="7">
         <f>ROUND(constants!B$8 *$H13 * $I13, 0)</f>
-        <v>910</v>
+        <v>1400</v>
       </c>
       <c r="K13" s="7">
         <f>ROUND(constants!C$8 *$H13 * $I13, 0)</f>
@@ -8306,7 +8306,7 @@
       </c>
       <c r="J15" s="7">
         <f>ROUND(constants!B$9 *$H15 * $I15, 0)</f>
-        <v>1224</v>
+        <v>1872</v>
       </c>
       <c r="K15" s="7">
         <f>ROUND(constants!C$9 *$H15 * $I15, 0)</f>
@@ -8343,7 +8343,7 @@
       </c>
       <c r="J17" s="7">
         <f>ROUND(constants!B$10 *$H17 * $I17, 0)</f>
-        <v>1314</v>
+        <v>1998</v>
       </c>
       <c r="K17" s="7">
         <f>ROUND(constants!C$10 *$H17 * $I17, 0)</f>
@@ -8380,7 +8380,7 @@
       </c>
       <c r="J19" s="7">
         <f>ROUND(constants!B$11 *$H19 * $I19, 0)</f>
-        <v>1406</v>
+        <v>2128</v>
       </c>
       <c r="K19" s="7">
         <f>ROUND(constants!C$11 *$H19 * $I19, 0)</f>
@@ -8527,7 +8527,7 @@
       </c>
       <c r="J3" s="7">
         <f>ROUND(constants!B$3 * $H3 * $I3,0)</f>
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="K3" s="7">
         <f>ROUND(constants!C$3 * $H3 * $I3,0)</f>
@@ -8559,7 +8559,7 @@
       </c>
       <c r="J4" s="7">
         <f>ROUND(constants!B$3 * $H4 * $I4,0)</f>
-        <v>203</v>
+        <v>324</v>
       </c>
       <c r="K4" s="7">
         <f>ROUND(constants!C$3 * $H4 * $I4,0)</f>
@@ -8594,7 +8594,7 @@
       </c>
       <c r="J5" s="7">
         <f>ROUND(constants!B$3 * $H5 * $I5,0)</f>
-        <v>410</v>
+        <v>656</v>
       </c>
       <c r="K5" s="7">
         <f>ROUND(constants!C$3 * $H5 * $I5,0)</f>
@@ -8629,7 +8629,7 @@
       </c>
       <c r="J6" s="7">
         <f>ROUND(constants!B$3 * $H6 * $I6,0)</f>
-        <v>415</v>
+        <v>664</v>
       </c>
       <c r="K6" s="7">
         <f>ROUND(constants!C$3 * $H6 * $I6,0)</f>
@@ -8661,7 +8661,7 @@
       </c>
       <c r="J7" s="7">
         <f>ROUND(constants!B$3 * $H7 * $I7,0)</f>
-        <v>210</v>
+        <v>336</v>
       </c>
       <c r="K7" s="7">
         <f>ROUND(constants!C$3 * $H7 * $I7,0)</f>
@@ -8697,7 +8697,7 @@
       </c>
       <c r="J8" s="7">
         <f>ROUND(constants!B$3 * $H8 * $I8,0)</f>
-        <v>425</v>
+        <v>680</v>
       </c>
       <c r="K8" s="7">
         <f>ROUND(constants!C$3 * $H8 * $I8,0)</f>
@@ -8729,7 +8729,7 @@
       </c>
       <c r="J9" s="7">
         <f>ROUND(constants!B$3 * $H9 * $I9,0)</f>
-        <v>215</v>
+        <v>344</v>
       </c>
       <c r="K9" s="7">
         <f>ROUND(constants!C$3 * $H9 * $I9,0)</f>
@@ -8767,7 +8767,7 @@
       </c>
       <c r="J10" s="7">
         <f>ROUND(constants!B$3 * $H10 * $I10,0)</f>
-        <v>653</v>
+        <v>1044</v>
       </c>
       <c r="K10" s="7">
         <f>ROUND(constants!C$3 * $H10 * $I10,0)</f>
@@ -8802,7 +8802,7 @@
       </c>
       <c r="J11" s="7">
         <f>ROUND(constants!B$3 * $H11 * $I11,0)</f>
-        <v>440</v>
+        <v>704</v>
       </c>
       <c r="K11" s="7">
         <f>ROUND(constants!C$3 * $H11 * $I11,0)</f>
@@ -8840,7 +8840,7 @@
       </c>
       <c r="J12" s="7">
         <f>ROUND(constants!B$3 * $H12 * $I12,0)</f>
-        <v>668</v>
+        <v>1068</v>
       </c>
       <c r="K12" s="7">
         <f>ROUND(constants!C$3 * $H12 * $I12,0)</f>
@@ -8881,7 +8881,7 @@
       </c>
       <c r="J14" s="7">
         <f>ROUND(constants!B$4 * $H14 * $I14,0)</f>
-        <v>212</v>
+        <v>336</v>
       </c>
       <c r="K14" s="7">
         <f>ROUND(constants!C$4 * $H14 * $I14,0)</f>
@@ -8916,7 +8916,7 @@
       </c>
       <c r="J15" s="7">
         <f>ROUND(constants!B$4 * $H15 * $I15,0)</f>
-        <v>429</v>
+        <v>680</v>
       </c>
       <c r="K15" s="7">
         <f>ROUND(constants!C$4 * $H15 * $I15,0)</f>
@@ -8948,7 +8948,7 @@
       </c>
       <c r="J16" s="7">
         <f>ROUND(constants!B$4 * $H16 * $I16,0)</f>
-        <v>217</v>
+        <v>344</v>
       </c>
       <c r="K16" s="7">
         <f>ROUND(constants!C$4 * $H16 * $I16,0)</f>
@@ -8983,7 +8983,7 @@
       </c>
       <c r="J17" s="7">
         <f>ROUND(constants!B$4 * $H17 * $I17,0)</f>
-        <v>440</v>
+        <v>697</v>
       </c>
       <c r="K17" s="7">
         <f>ROUND(constants!C$4 * $H17 * $I17,0)</f>
@@ -9021,7 +9021,7 @@
       </c>
       <c r="J18" s="7">
         <f>ROUND(constants!B$4 * $H18 * $I18,0)</f>
-        <v>668</v>
+        <v>1058</v>
       </c>
       <c r="K18" s="7">
         <f>ROUND(constants!C$4 * $H18 * $I18,0)</f>
@@ -9056,7 +9056,7 @@
       </c>
       <c r="J19" s="7">
         <f>ROUND(constants!B$4 * $H19 * $I19,0)</f>
-        <v>451</v>
+        <v>714</v>
       </c>
       <c r="K19" s="7">
         <f>ROUND(constants!C$4 * $H19 * $I19,0)</f>
@@ -9091,7 +9091,7 @@
       </c>
       <c r="J20" s="7">
         <f>ROUND(constants!B$4 * $H20 * $I20,0)</f>
-        <v>456</v>
+        <v>722</v>
       </c>
       <c r="K20" s="7">
         <f>ROUND(constants!C$4 * $H20 * $I20,0)</f>
@@ -9123,7 +9123,7 @@
       </c>
       <c r="J21" s="7">
         <f>ROUND(constants!B$4 * $H21 * $I21,0)</f>
-        <v>231</v>
+        <v>365</v>
       </c>
       <c r="K21" s="7">
         <f>ROUND(constants!C$4 * $H21 * $I21,0)</f>
@@ -9158,7 +9158,7 @@
       </c>
       <c r="J22" s="7">
         <f>ROUND(constants!B$4 * $H22 * $I22,0)</f>
-        <v>466</v>
+        <v>739</v>
       </c>
       <c r="K22" s="7">
         <f>ROUND(constants!C$4 * $H22 * $I22,0)</f>
@@ -9193,7 +9193,7 @@
       </c>
       <c r="J23" s="7">
         <f>ROUND(constants!B$4 * $H23 * $I23,0)</f>
-        <v>472</v>
+        <v>748</v>
       </c>
       <c r="K23" s="7">
         <f>ROUND(constants!C$4 * $H23 * $I23,0)</f>
@@ -9231,7 +9231,7 @@
       </c>
       <c r="J24" s="7">
         <f>ROUND(constants!B$4 * $H24 * $I24,0)</f>
-        <v>716</v>
+        <v>1134</v>
       </c>
       <c r="K24" s="7">
         <f>ROUND(constants!C$4 * $H24 * $I24,0)</f>
@@ -9269,7 +9269,7 @@
       </c>
       <c r="J25" s="7">
         <f>ROUND(constants!B$4 * $H25 * $I25,0)</f>
-        <v>723</v>
+        <v>1147</v>
       </c>
       <c r="K25" s="7">
         <f>ROUND(constants!C$4 * $H25 * $I25,0)</f>
@@ -9304,7 +9304,7 @@
       </c>
       <c r="J26" s="7">
         <f>ROUND(constants!B$4 * $H26 * $I26,0)</f>
-        <v>488</v>
+        <v>773</v>
       </c>
       <c r="K26" s="7">
         <f>ROUND(constants!C$4 * $H26 * $I26,0)</f>
@@ -9342,7 +9342,7 @@
       </c>
       <c r="J27" s="7">
         <f>ROUND(constants!B$4 * $H27 * $I27,0)</f>
-        <v>739</v>
+        <v>1172</v>
       </c>
       <c r="K27" s="7">
         <f>ROUND(constants!C$4 * $H27 * $I27,0)</f>
@@ -9375,7 +9375,7 @@
       </c>
       <c r="J29" s="7">
         <f>ROUND(constants!B$5 * $H29 * $I29,0)</f>
-        <v>224</v>
+        <v>352</v>
       </c>
       <c r="K29" s="7">
         <f>ROUND(constants!C$5 * $H29 * $I29,0)</f>
@@ -9410,7 +9410,7 @@
       </c>
       <c r="J30" s="7">
         <f>ROUND(constants!B$5 * $H30 * $I30,0)</f>
-        <v>454</v>
+        <v>713</v>
       </c>
       <c r="K30" s="7">
         <f>ROUND(constants!C$5 * $H30 * $I30,0)</f>
@@ -9446,7 +9446,7 @@
       </c>
       <c r="J31" s="7">
         <f>ROUND(constants!B$5 * $H31 * $I31,0)</f>
-        <v>459</v>
+        <v>722</v>
       </c>
       <c r="K31" s="7">
         <f>ROUND(constants!C$5 * $H31 * $I31,0)</f>
@@ -9478,7 +9478,7 @@
       </c>
       <c r="J32" s="7">
         <f>ROUND(constants!B$5 * $H32 * $I32,0)</f>
-        <v>232</v>
+        <v>365</v>
       </c>
       <c r="K32" s="7">
         <f>ROUND(constants!C$5 * $H32 * $I32,0)</f>
@@ -9513,7 +9513,7 @@
       </c>
       <c r="J33" s="7">
         <f>ROUND(constants!B$5 * $H33 * $I33,0)</f>
-        <v>470</v>
+        <v>739</v>
       </c>
       <c r="K33" s="7">
         <f>ROUND(constants!C$5 * $H33 * $I33,0)</f>
@@ -9546,7 +9546,7 @@
       </c>
       <c r="J34" s="7">
         <f>ROUND(constants!B$5 * $H34 * $I34,0)</f>
-        <v>238</v>
+        <v>374</v>
       </c>
       <c r="K34" s="7">
         <f>ROUND(constants!C$5 * $H34 * $I34,0)</f>
@@ -9581,7 +9581,7 @@
       </c>
       <c r="J35" s="7">
         <f>ROUND(constants!B$5 * $H35 * $I35,0)</f>
-        <v>482</v>
+        <v>757</v>
       </c>
       <c r="K35" s="7">
         <f>ROUND(constants!C$5 * $H35 * $I35,0)</f>
@@ -9616,7 +9616,7 @@
       </c>
       <c r="J36" s="7">
         <f>ROUND(constants!B$5 * $H36 * $I36,0)</f>
-        <v>487</v>
+        <v>766</v>
       </c>
       <c r="K36" s="7">
         <f>ROUND(constants!C$5 * $H36 * $I36,0)</f>
@@ -9654,7 +9654,7 @@
       </c>
       <c r="J37" s="7">
         <f>ROUND(constants!B$5 * $H37 * $I37,0)</f>
-        <v>739</v>
+        <v>1162</v>
       </c>
       <c r="K37" s="7">
         <f>ROUND(constants!C$5 * $H37 * $I37,0)</f>
@@ -9686,7 +9686,7 @@
       </c>
       <c r="J38" s="7">
         <f>ROUND(constants!B$5 * $H38 * $I38,0)</f>
-        <v>249</v>
+        <v>392</v>
       </c>
       <c r="K38" s="7">
         <f>ROUND(constants!C$5 * $H38 * $I38,0)</f>
@@ -9721,7 +9721,7 @@
       </c>
       <c r="J39" s="7">
         <f>ROUND(constants!B$5 * $H39 * $I39,0)</f>
-        <v>504</v>
+        <v>792</v>
       </c>
       <c r="K39" s="7">
         <f>ROUND(constants!C$5 * $H39 * $I39,0)</f>
@@ -9753,7 +9753,7 @@
       </c>
       <c r="J40" s="7">
         <f>ROUND(constants!B$5 * $H40 * $I40,0)</f>
-        <v>255</v>
+        <v>400</v>
       </c>
       <c r="K40" s="7">
         <f>ROUND(constants!C$5 * $H40 * $I40,0)</f>
@@ -9788,7 +9788,7 @@
       </c>
       <c r="J41" s="7">
         <f>ROUND(constants!B$5 * $H41 * $I41,0)</f>
-        <v>515</v>
+        <v>810</v>
       </c>
       <c r="K41" s="7">
         <f>ROUND(constants!C$5 * $H41 * $I41,0)</f>
@@ -9826,7 +9826,7 @@
       </c>
       <c r="J42" s="7">
         <f>ROUND(constants!B$5 * $H42 * $I42,0)</f>
-        <v>781</v>
+        <v>1228</v>
       </c>
       <c r="K42" s="7">
         <f>ROUND(constants!C$5 * $H42 * $I42,0)</f>
@@ -9864,7 +9864,7 @@
       </c>
       <c r="J43" s="7">
         <f>ROUND(constants!B$5 * $H43 * $I43,0)</f>
-        <v>790</v>
+        <v>1241</v>
       </c>
       <c r="K43" s="7">
         <f>ROUND(constants!C$5 * $H43 * $I43,0)</f>
@@ -9899,7 +9899,7 @@
       </c>
       <c r="J44" s="7">
         <f>ROUND(constants!B$5 * $H44 * $I44,0)</f>
-        <v>532</v>
+        <v>836</v>
       </c>
       <c r="K44" s="7">
         <f>ROUND(constants!C$5 * $H44 * $I44,0)</f>
@@ -9937,7 +9937,7 @@
       </c>
       <c r="J45" s="7">
         <f>ROUND(constants!B$5 * $H45 * $I45,0)</f>
-        <v>806</v>
+        <v>1267</v>
       </c>
       <c r="K45" s="7">
         <f>ROUND(constants!C$5 * $H45 * $I45,0)</f>
@@ -10042,7 +10042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
